--- a/examples/Canada OGD/goods and services/profile.xlsx
+++ b/examples/Canada OGD/goods and services/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,26 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>X193A</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>JX7360</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
         <v>30951</v>
       </c>
-      <c r="S2" t="n">
-        <v>4957</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="n">
+        <v>4957</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>['5112B', '5113B', '5114C', '5116A', '5121A', '5122A', '5123B', '5124B', '5127B', '5128B', '5129B', '5131BB', '5131BG', '5131BI', '5131C', '5132A', '5133B', '5133C', '5133D', '5134A', '5134B', '5136A', '5138A', '5138B', '5138C', '5139A', '5139B', '5139C', '5139D', '5141A', '5151A', '5151B', '5152A', '5152AA', '5152B', '5153A', '5153AB', '5153AE', '5153AF', '5153AG', '5153B', '5153BA', '5154A', '5154AB', '5154C', '5155B', '5155C', '5155D', '5155E', '5156A', '5156B', '5159A', '5159B', '5159C', '5159E', '5161A', '5161AC', '5161AE', '5161AF', '5161AJ', '5161AK', '5161AN', '5161AP', '5161B', '5161C', '5161D', '5162A', '5162B', '5162C', '5162D', '5163A', '5163B', '5164A', '5164AB', '5164AF', '5164C', '5164CA', '5164CB', '5164CC', '5164CE', '5164CF', '5164CG', '5164CH', '5164CJ', '5164CK', '5164CM', '5164CN', '5164CP', '5164CQ', '5164CU', '5164CV', '5164CW', '5164D', '5164E', '5165A', '5165AA', '5165AB', '5166A', '5166B', '5169C', '5169CB', '5169D', '5169DA', '5169E', '5169EA', '5169EB', '5169ED', '5169EE', '5169EF', '5169FC', '5169FD', '5169G', '5169J', '5169K', '5169L', '5169M', '5169P', '5171B', '5172A', '5173B', '5173BA', '5173BB', '5173C', '5174A', '5175A', '5175AA', '5175AB', '5175AC', '5175AD', '5175B', '5176AB', '5176B', '5176C', '5176D', '5177A', '5177AA', '5177AB', '5177AE', '5177AJ', '5177AK', '5177AL', '5177BA', '5179C', '5179CB', '5179D', '5179F', '5179FB', '5179H', '5179HC', '5179I', '5181A', 'AA415500', 'AA415504', 'AA910300', 'AC217760', 'AC517728', 'AC517748', 'AC617732', 'AC617736', 'AC617768', 'AD217740', 'AD917700', 'AD917712', 'AD917716', 'AD917720', 'AD917724', 'AE913500', 'AG214542', 'AG214562', 'AG214566', 'AG214600', 'AG414668', 'AG614500', 'AG914510', 'AG914538', 'AG914558', 'AH115032', 'AH115036', 'AH215000', 'AH215020', 'AH215024', 'AH910222', 'AJ110224', 'AJ110700', 'AJ110724', 'AJ111000', 'AJ111140', 'AJ112000', 'AJ119000', 'AJ119004', 'AJ119036', 'AJ119040', 'AJ119064', 'AJ119084', 'AJ212512', 'AJ212516', 'AJ212528', 'AJ212540', 'AJ212552', 'AJ212568', 'AJ311500', 'AJ412000', 'AJ412008', 'AJ412040', 'AJ412048', 'AJ412060', 'AJ412068', 'AJ412072', 'AJ412100', 'AJ716500', 'AJ716650', 'AJ914000', 'AK117000', 'AN117500', 'AN417668', 'AP216000', 'AP313000', 'AP313076', 'AP518500', 'AP518588', 'AR110432', 'AR210440', 'AR210444', 'AR210480', 'AR410476', 'AR910400', 'AS219528', 'AS219652', 'AS319620', 'AS419584', 'AS419632', 'AS918564', 'AT319560', 'AT419628', 'AT619624', 'AT919500', 'AV718000', 'AZ110111', 'AZ110112', 'AZ110114', 'AZ110134', 'AZ110136', 'AZ110140', 'AZ110172', 'AZ110174', 'AZ110176', 'AZ110178', 'AZ110210', 'AZ110252', 'AZ110254', 'B000A', 'B002A', 'B100A', 'B101A', 'B101B', 'B102A', 'B103A', 'B109A', 'B200A', 'B200B', 'B201A', 'B202A', 'B204A', 'B206A', 'B206B', 'B208B', 'B208BB', 'B219A', 'B301A', 'B303A', 'B304A', 'B308A', 'B311B', 'B314A', 'B329A', 'B329B', 'B400A', 'B500A', 'B500B', 'B503A', 'B503B', 'B506D', 'B509A', 'C111A', 'C112A', 'C113A', 'C114A', 'C115A', 'C116A', 'C117A', 'C118A', 'C119A', 'C119AH', 'C119B', 'C119C', 'C119F', 'C121A', 'C122A', 'C123A', 'C129A', 'C130A', 'C211A', 'C211D', 'C211DA', 'C211E', 'C211F', 'C212B', 'C213A', 'C213C', 'C216A', 'C216AA', 'C216AB', 'C216BA', 'C216BB', 'C216BC', 'C216C', 'C219A', 'C219AB', 'C219BE', 'C219BJ', 'C219BK', 'C219C', 'C219CBA', 'C219CBI', 'C219CJ', 'C219D', 'C219DA', 'D301A', 'D301B', 'D301BBM', 'D301BBN', 'D301C', 'D301CD', 'D301D', 'D302A', 'D302AAH', 'D302AAI', 'D302AAJ', 'D302AAP', 'D302AAR', 'D302AAS', 'D302D', 'D303AA', 'D304A', 'D307A', 'D307AB', 'D308A', 'D309A', 'D309BB', 'D311A', 'D312A', 'D315A', 'D316A', 'D316AB', 'D316B', 'D317B', 'D317C', 'D317D', 'D317E', 'D317EA', 'D317EB', 'D399A', 'D399AA', 'D399AB', 'D399B', 'D399BB', 'D399BC', 'D399BD', 'D399BE', 'D399C', 'D399D', 'E101A', 'E103A', 'E107A', 'E108A', 'E108C', 'E108CA', 'E108D', 'E108E', 'E108F', 'E109A', 'E110A', 'E111A', 'E111B', 'E199A', 'E199AB', 'E199AC', 'E199B', 'E199BB', 'E199C', 'E199D', 'E199H', 'END OF FEED 2016-05-09 22:03:02', 'F003A', 'F006D', 'F006E', 'F008A', 'F010A', 'F010B', 'F010BA', 'F010C', 'F010D', 'F011A', 'F020A', 'F021A', 'F021B', 'F030A', 'F059A', 'G001A', 'G001B', 'G001C', 'G009A', 'G009B', 'G009D', 'G009DA', 'G009E', 'G009F', 'G009G', 'G009H', 'G009K', 'G009KA', 'G009L', 'G009M', 'G009N', 'G009P', 'G100A', 'G101A', 'G102A', 'G103B', 'G103C', 'G103D', 'G199A', 'G199D', 'H100A', 'H100AA', 'H100AB', 'H100AC', 'H100B', 'H100BB', 'H100BF', 'H200A', 'H200AA', 'H200B', 'H200BB', 'H200C', 'H300A', 'H300AD', 'H300B', 'H300C', 'H300E', 'H300F', 'H900A', 'J019A', 'JD1005', 'JD1270', 'JD1320', 'JD1330', 'JD1340', 'JD1345', 'JD1370', 'JD1375', 'JD1386', 'JD1520', 'JD1730', 'JD1990', 'JD2060', 'JD2310', 'JD2320', 'JD2350', 'JD2510', 'JD5315', 'JD5826', 'JD5831', 'JD5840A', 'JD5865', 'JD5895', 'JD5905', 'JD5960', 'JD6605', 'JI1610', 'JI1660', 'JI2510', 'JI2530', 'JI2910', 'JI3740', 'JI4110', 'JI4130', 'JI4240', 'JI4430', 'JI4520', 'JI5660', 'JI5805', 'JI5826', 'JI5830', 'JI5835', 'JI5840', 'JI5845', 'JI5895', 'JI5985', 'JI5995', 'JI6350', 'JI6520', 'JI6530', 'JI6610', 'JI6625', 'JI6650', 'JI6660', 'JI6685', 'JI7010', 'JI7021', 'JI7025', 'JI7110', 'JI7125', 'JI7220', 'JI7220A', 'JI7230', 'JI7310', 'JI7510', 'JI9330', 'JI9905', 'JI9930', 'JX1005', 'JX1005A', 'JX1015', 'JX1025', 'JX1035', 'JX1055', 'JX1095', 'JX1220', 'JX1230', 'JX1240', 'JX1250', 'JX1265', 'JX1285', 'JX1305', 'JX1340', 'JX1355', 'JX1377', 'JX1410', 'JX1420', 'JX1425', 'JX1427', 'JX1430', 'JX1450', 'JX1510', 'JX1510A', 'JX1510C', 'JX1510D', 'JX1520', 'JX1520A', 'JX1520B', 'JX1540', 'JX1560', 'JX1610', 'JX1615', 'JX1620', 'JX1630', 'JX1650', 'JX1660', 'JX1680', 'JX1680A', 'JX1680B', 'JX1680C', 'JX1710', 'JX1720', 'JX1730', 'JX1740', 'JX1910', 'JX1920', 'JX1925', 'JX1930', 'JX1940', 'JX1940AA', 'JX1940C', 'JX1945', 'JX1950', 'JX1955', 'JX1990', 'JX1990A', 'JX1990B', 'JX1990C', 'JX1990D', 'JX1990DA', 'JX1990E', 'JX1990F', 'JX1990G', 'JX1990H', 'JX1990HA', 'JX1990HB', 'JX1990I', 'JX1990J', 'JX1990K', 'JX1990L', 'JX1990M', 'JX1990N', 'JX1990P', 'JX1990R', 'JX1990S', 'JX1990T', 'JX1990U', 'JX1990V', 'JX1990W', 'JX2010', 'JX2010A', 'JX2020', 'JX2030', 'JX2040', 'JX2050', 'JX2060', 'JX2090', 'JX2090AA', 'JX2210', 'JX2240', 'JX2240A', 'JX2250', 'JX2305', 'JX2305A', 'JX2305B', 'JX2310', 'JX2310C', 'JX2310D', 'JX2310E', 'JX2310F', 'JX2320', 'JX2320A', 'JX2330', 'JX2330A', 'JX2340', 'JX2350', 'JX2350A', 'JX2350B', 'JX2355', 'JX2410', 'JX2420', 'JX2430', 'JX2510', 'JX2510E', 'JX2510G', 'JX2510H', 'JX2520', 'JX2520A', 'JX2520B', 'JX2530', 'JX2530A', 'JX2530B', 'JX2530BB', 'JX2530BC', 'JX2540', 'JX2590', 'JX2590A', 'JX2610', 'JX2610A', 'JX2620', 'JX2620B', 'JX2640', 'JX2805', 'JX2805A', 'JX2805AB', 'JX2805B', 'JX2810', 'JX2815', 'JX2815AA', 'JX2815AB', 'JX2815B', 'JX2815C', 'JX2825', 'JX2825A', 'JX2835', 'JX2835A', 'JX2835B', 'JX2840', 'JX2840A', 'JX2850', 'JX2895', 'JX2910', 'JX2910B', 'JX2910C', 'JX2910D', 'JX2915', 'JX2915A', 'JX2920', 'JX2925', 'JX2930', 'JX2940', 'JX2990', 'JX2990AA', 'JX2995', 'JX3010', 'JX3010A', 'JX3020', 'JX3030', 'JX3040', 'JX3110', 'JX3130', 'JX3210', 'JX3220', 'JX3405', 'JX3412', 'JX3413', 'JX3414', 'JX3415', 'JX3416', 'JX3417', 'JX3419', 'JX3431', 'JX3433', 'JX3438', 'JX3439', 'JX3441', 'JX3442', 'JX3443', 'JX3445', 'JX3450', 'JX3455', 'JX3456', 'JX3460', 'JX3465', 'JX3510', 'JX3540', 'JX3590', 'JX3610', 'JX3610A', 'JX3610AA', 'JX3615', 'JX3625', 'JX3630', 'JX3650', 'JX3655', 'JX3660', 'JX3695', 'JX3710', 'JX3720', 'JX3730', 'JX3740', 'JX3750', 'JX3750B', 'JX3770', 'JX3805', 'JX3810', 'JX3815', 'JX3820', 'JX3825', 'JX3825A', 'JX3825B', 'JX3830', 'JX3830A', 'JX3895', 'JX3910', 'JX3920', 'JX3930', 'JX3930A', 'JX3940', 'JX3950', 'JX3950A', 'JX3960', 'JX3960A', 'JX3990', 'JX4010', 'JX4110', 'JX4110A', 'JX4110B', 'JX4110BB', 'JX4120', 'JX4120A', 'JX4120B', 'JX4130', 'JX4130A', 'JX4140', 'JX4210', 'JX4210A', 'JX4210B', 'JX4210C', 'JX4210D', 'JX4220', 'JX4240', 'JX4310', 'JX4310A', 'JX4310AA', 'JX4310AB', 'JX4320', 'JX4320A', 'JX4320B', 'JX4320C', 'JX4320D', 'JX4330', 'JX4410', 'JX4410A', 'JX4420', 'JX4430', 'JX4460', 'JX4510', 'JX4520', 'JX4520AA', 'JX4530', 'JX4530A', 'JX4530AA', 'JX4540', 'JX4610', 'JX4620', 'JX4630', 'JX4710', 'JX4720', 'JX4730', 'JX4810', 'JX4820', 'JX4820AB', 'JX4910', 'JX4930', 'JX4931', 'JX4940', 'JX5110', 'JX5120', 'JX5130', 'JX5133', 'JX5136', 'JX5210', 'JX5220', 'JX5280', 'JX5325', 'JX5330', 'JX5335', 'JX5340', 'JX5360', 'JX5410', 'JX5430', 'JX5430B', 'JX5430C', 'JX5440', 'JX5445', 'JX5450', 'JX5520', 'JX5610', 'JX5620', 'JX5640A', 'JX5660', 'JX5670', 'JX5680', 'JX5805', 'JX5805A', 'JX5805B', 'JX5805BA', 'JX5810', 'JX5811', 'JX5815', 'JX5821', 'JX5825', 'JX5826', 'JX5830', 'JX5831', 'JX5835', 'JX5836', 'JX5840', 'JX5841', 'JX5845', 'JX5845A', 'JX5855', 'JX5860', 'JX5865', 'JX5895', 'JX5905', 'JX5910', 'JX5915', 'JX5925', 'JX5930', 'JX5935', 'JX5945', 'JX5950', 'JX5960', 'JX5962', 'JX5963', 'JX5965', 'JX5975', 'JX5985', 'JX5990', 'JX5995', 'JX5998', 'JX5999', 'JX6020', 'JX6030', 'JX6070', 'JX6100', 'JX6100A', 'JX6105', 'JX6110', 'JX6115', 'JX6115A', 'JX6115G', 'JX6120', 'JX6125', 'JX6130', 'JX6130B', 'JX6135', 'JX6140', 'JX6145', 'JX6150', 'JX6210', 'JX6230', 'JX6250', 'JX6310', 'JX6320', 'JX6340', 'JX6350', 'JX6350A', 'JX6350AA', 'JX6350D', 'JX6515', 'JX6515A', 'JX6520', 'JX6525', 'JX6530', 'JX6530D', 'JX6530E', 'JX6532', 'JX6545', 'JX6605', 'JX6610', 'JX6625', 'JX6630', 'JX6635', 'JX6635C', 'JX6635D', 'JX6636', 'JX6640', 'JX6645', 'JX6650', 'JX6655', 'JX6655A', 'JX6660', 'JX6665', 'JX6670', 'JX6670A', 'JX6675', 'JX6675A', 'JX6675B', 'JX6680', 'JX6680A', 'JX6685', 'JX6685A', 'JX6685B', 'JX6695', 'JX6710', 'JX6720', 'JX6730', 'JX6740', 'JX6750', 'JX6760', 'JX6780', 'JX6910', 'JX6910A', 'JX6910B', 'JX6920', 'JX6930', 'JX6930A', 'JX7010', 'JX7010A', 'JX7010AA', 'JX7010AB', 'JX7010AC', 'JX7010AD', 'JX7010AE', 'JX7010AG', 'JX7010AH', 'JX7010B', 'JX7010BA', 'JX7010BB', 'JX7010C', 'JX7010CA', 'JX7020', 'JX7021', 'JX7021A', 'JX7021AD', 'JX7022', 'JX7025', 'JX7025A', 'JX7025AB', 'JX7025AD', 'JX7025AJ', 'JX7025B', 'JX7025BA', 'JX7025BI', 'JX7025BJ', 'JX7025BM', 'JX7025BO', 'JX7025BU', 'JX7025CA', 'JX7025CC', 'JX7025EA', 'JX7030', 'JX7035AB', 'JX7035AC', 'JX7035AF', 'JX7035AK', 'JX7035AM', 'JX7042', 'JX7105', 'JX7105B', 'JX7110', 'JX7125', 'JX7195', 'JX7195A', 'JX7195B', 'JX7210', 'JX7220', 'JX7230', 'JX7240', 'JX7290', 'JX7290B', 'JX7310AA', 'JX7310C', 'JX7320', 'JX7360', 'JX7435', 'JX7450', 'JX7460', 'JX7490', 'JX7520', 'JX7710', 'JX7720', 'JX7830', 'JX7830B', 'JX7910', 'JX7910A', 'JX7920', 'JX8115', 'JX8120', 'JX8120A', 'JX8135', 'JX8145', 'JX8340', 'JX8415', 'JX8430', 'JX8440', 'JX8460', 'JX8465', 'JX8470', 'JX8530A', 'JX9150', 'JX9330', 'JX9330A', 'JX9350', 'JX9505', 'JX9515', 'JX9905', 'JX9930', 'JX9930A', 'JX9999', 'K000B', 'K000E', 'K000ED', 'K100A', 'K100AE', 'K100AG', 'K100B', 'K101A', 'K102A', 'K102B', 'K104A', 'K105A', 'K105AB', 'K105AO', 'K106A', 'K106B', 'K106C', 'K106CA', 'K107A', 'K107AB', 'K107C', 'K107CA', 'K107CC', 'K107CD', 'K107CE', 'K107DA', 'K108A', 'K108B', 'K108C', 'K111A', 'K111B', 'K112A', 'K113A', 'K113AB', 'K113B', 'K114A', 'K114B', 'K115A', 'K199B', 'K199D', 'K199I', 'K199J', 'K199K', 'K199L', 'K199N', 'K199Q', 'K199R', 'L004A', 'L004B', 'L004C', 'L004CV', 'L005A', 'L006A', 'L006B', 'L007A', 'L099A', 'L099B', 'L099BG', 'L099BH', 'L099BI', 'L099C', 'L099D', 'L099F', 'L099G', 'L099H', 'L099J', 'M110A', 'M119A', 'M120A', 'M120B', 'M170A', 'M180A', 'M181A', 'M181D', 'M190A', 'M190B', 'M190D', 'M240A', 'M242A', 'M290B', 'N1005', 'N1005A', 'N1010', 'N1015', 'N1015A', 'N1020', 'N1025', 'N1030', 'N1035', 'N1040', 'N1045', 'N1055', 'N1070', 'N1075', 'N1075999', 'N1075A', 'N1080', 'N1090', 'N1095', 'N1105', 'N1110', 'N1115', 'N1120', 'N1125', 'N1127', 'N1130', 'N1135', 'N1140', 'N1145', 'N1190', 'N1195', 'N1210', 'N1220', 'N1230', 'N1230999', 'N1230AA', 'N1240', 'N1240AA', 'N1240AB', 'N1240BA', 'N1240C', 'N1240D', 'N1240DB', 'N1240DD', 'N1240E', 'N1250', 'N1260', 'N1265', 'N1270', 'N1280', 'N1285', 'N1287', 'N1287203', 'N1290', 'N1305', 'N1310', 'N1315', 'N1320', 'N1325', 'N1330', 'N1336', 'N1337', 'N1338', 'N1340', 'N1345', 'N1346', 'N1350', 'N1351', 'N1352', 'N1353', 'N1355', 'N1356', 'N1360', 'N1361', 'N1365', 'N1367A', 'N1370', 'N1375', 'N1376', 'N1377', 'N1385', 'N1386', 'N1390', 'N1395', 'N1398', 'N1398B', 'N1410', 'N1420', 'N1425', 'N1425AB', 'N1427', 'N1427999', 'N1430', 'N1440', 'N1450', 'N1510', 'N1510A', 'N1520', 'N1520B', 'N1540', 'N1550', 'N1560', 'N1560B', 'N1560C', 'N1560D', 'N1560E', 'N1560F', 'N1610', 'N1615', 'N1620', 'N1620B', 'N1630', 'N1630C', 'N1640', 'N1650', 'N1650E', 'N1660', 'N1660C', 'N1660CB', 'N1660D', 'N1660E', 'N1670', 'N1670B', 'N1670BB', 'N1670BC', 'N1670BD', 'N1670D', 'N1670E', 'N1670EA', 'N1670F', 'N1680', 'N1680999', 'N1680A', 'N1680C', 'N1680D', 'N1680E', 'N1680G', 'N1680H', 'N1680J', 'N1710B', 'N1710C', 'N1710D', 'N1720', 'N1730', 'N1740', 'N1740J', 'N1810201', 'N1810203', 'N1830999', 'N1905', 'N1905C', 'N1905D', 'N1905E', 'N1910', 'N1915', 'N1915C', 'N1920', 'N1925', 'N1930', 'N1935', 'N1935A', 'N1940', 'N1940A', 'N1940DA', 'N1940G', 'N1945', 'N1945A', 'N1950', 'N1955', 'N1990', 'N1990C', 'N2010', 'N2010A', 'N2010B', 'N2010C', 'N2010CA', 'N2010E', 'N2010F', 'N2010G', 'N2010H', 'N2010J', 'N2020', 'N2020B', 'N2020BA', 'N2020BC', 'N2020BD', 'N2020BE', 'N2030', 'N2030B', 'N2030BA', 'N2030BB', 'N2030C', 'N2030CA', 'N2030D', 'N2030E', 'N2030G', 'N2030H', 'N2030J', 'N2030M', 'N2030N', 'N2030P', 'N2030Q', 'N2030R', 'N2030S', 'N2030T', 'N2030U', 'N2040', 'N2040A', 'N2040B', 'N2040D', 'N2040E', 'N2040EA', 'N2040EB', 'N2040EC', 'N2040ED', 'N2040EE', 'N2040F', 'N2040FA', 'N2040FB', 'N2040H', 'N2040J', 'N2040K', 'N2040L', 'N2040M', 'N2040N', 'N2040P', 'N2040Q', 'N2040S', 'N2040W', 'N2050', 'N2050A', 'N2050B', 'N2050C', 'N2050D', 'N2060', 'N2060B', 'N2060C', 'N2060F', 'N2090', 'N2090A', 'N2090AB', 'N2090AC', 'N2090AE', 'N2090B', 'N2090C', 'N2090D', 'N2090E', 'N2090F', 'N2090G', 'N2090H', 'N2090HA', 'N2090J', 'N2090K', 'N2210', 'N2220', 'N2230', 'N2240', 'N2250', 'N2305', 'N2310', 'N2310005', 'N2310M', 'N2310MA', 'N2310MAA', 'N2310MAB', 'N2310MAC', 'N2320', 'N2320001', 'N2320002', 'N2320003', 'N2320B', 'N2320D', 'N2320DAA', 'N2320DAB', 'N2320DDB', 'N2320DFB', 'N2320DGB', 'N2320DJA', 'N2320DJB', 'N2320DLA', 'N2320DMA', 'N2320DMB', 'N2320DRA', 'N2320DRB', 'N2320DX', 'N2320G', 'N2320GA', 'N2320GG', 'N2320GH', 'N2320GM', 'N2320GP', 'N2320GPM', 'N2320GQ', 'N2320GR', 'N2320GS', 'N2320GT', 'N2320GU', 'N2320GV', 'N2320GY', 'N2320L51', 'N2320L61', 'N2320M60', 'N2320N01', 'N2320N21', 'N2320N81', 'N2320T00', 'N2320W00', 'N2330', 'N2330A', 'N2330B', 'N2330C', 'N2330D', 'N2330E', 'N2330F', 'N2330G', 'N2330H', 'N2330K', 'N2330L', 'N2330M', 'N2330N', 'N2330P', 'N2330Q', 'N2330R', 'N2330S', 'N2330T', 'N2330U', 'N2330V', 'N2330W', 'N2330X', 'N2330Y', 'N2330Z', 'N2340', 'N2350', 'N2350A', 'N2350E', 'N2350EA', 'N2350EB', 'N2350EC', 'N2355', 'N2410', 'N2410A', 'N2410B', 'N2420', 'N2420A', 'N2430', 'N2510', 'N2510C', 'N2510F', 'N2510FA', 'N2510FC', 'N2520', 'N2520A', 'N2520B', 'N2520BD', 'N2520C', 'N2530', 'N2530001', 'N2530AB', 'N2530AD', 'N2530AK', 'N2530AL', 'N2530AM', 'N2530B', 'N2530BLB', 'N2530BM', 'N2530BN', 'N2530C', 'N2540', 'N2540000', 'N2540005', 'N2540A', 'N2540C', 'N2540G', 'N2540H', 'N2541', 'N2590', 'N2590A', 'N2590AA', 'N2590C', 'N2590CA', 'N2590D', 'N2590DCA', 'N2610', 'N2620', 'N2630', 'N2640', 'N2640004', 'N2805', 'N2805001', 'N2805002', 'N2805A', 'N2805B', 'N2815', 'N2815A', 'N2815AB', 'N2815B', 'N2815BB', 'N2815BRB', 'N2815BRP', 'N2815D', 'N2815DB', 'N2815G', 'N2820', 'N2825', 'N2830', 'N2840', 'N2845', 'N2850', 'N2895', 'N2895C', 'N2910', 'N2910006', 'N2910007', 'N2910D', 'N2910DB', 'N2910DE', 'N2915', 'N2915C', 'N2920', 'N2920A', 'N2920AA', 'N2920AAA', 'N2920AAC', 'N2925', 'N2925C', 'N2925F', 'N2925J', 'N2930', 'N2930AB', 'N2935', 'N2940', 'N2940A', 'N2945', 'N2945AAA', 'N2945AAE', 'N2990', 'N2990A', 'N2990B', 'N2990C', 'N2990D', 'N2990FA', 'N2995', 'N2995C', 'N2995D', 'N3010', 'N3010AA', 'N3010AB', 'N3010CA', 'N3010CB', 'N3010D', 'N3010E', 'N3020', 'N3020A', 'N3020B', 'N3020CB', 'N3030', 'N3040', 'N3040E', 'N3110', 'N3110B', 'N3110F', 'N3110G', 'N3110H', 'N3120', 'N3130', 'N3130A', 'N3210', 'N3210D', 'N3220', 'N3220J', 'N3230', 'N3405', 'N3408', 'N3410', 'N3411', 'N3412', 'N3413', 'N3414', 'N3415', 'N3416', 'N3417', 'N3418', 'N3419', 'N3422', 'N3424', 'N3426', 'N3431', 'N3432', 'N3433', 'N3436', 'N3438', 'N3439', 'N3441', 'N3441AB', 'N3442', 'N3443', 'N3444', 'N3445', 'N3446', 'N3447', 'N3448', 'N3449', 'N3450', 'N3455', 'N3456', 'N3460', 'N3461', 'N3465', 'N3470', 'N3510', 'N3510A', 'N3510E', 'N3510M', 'N3520', 'N3530', 'N3540', 'N3550', 'N3550B', 'N3590', 'N3605', 'N3610', 'N3610BDD', 'N3610BE', 'N3610BEC', 'N3610BED', 'N3610BEL', 'N3610C', 'N3610CPA', 'N3610G', 'N3611', 'N3615', 'N3615C', 'N3615F', 'N3620', 'N3625', 'N3630', 'N3635', 'N3640', 'N3645', 'N3650', 'N3650A', 'N3655', 'N3660', 'N3660A', 'N3660C', 'N3670', 'N3680', 'N3685', 'N3690', 'N3693', 'N3694', 'N3695', 'N3695A', 'N3710', 'N3710V', 'N3720', 'N3720C', 'N3730', 'N3740', 'N3740B', 'N3740BE', 'N3740BF', 'N3740BL', 'N3740E', 'N3750', 'N3750A', 'N3750E', 'N3750S', 'N3750TD', 'N3760', 'N3770', 'N3770A', 'N3805', 'N3805F', 'N3810', 'N3815', 'N3820', 'N3825', 'N3825G', 'N3825L', 'N3825N', 'N3825P', 'N3825PC', 'N3825QB', 'N3825S', 'N3825T', 'N3830', 'N3830A', 'N3830D', 'N3830DA', 'N3830DB', 'N3830E', 'N3830G', 'N3830H', 'N3830J', 'N3830L', 'N3830M', 'N3830ND', 'N3830T', 'N3830U', 'N3835', 'N3895', 'N3910', 'N3910G', 'N3915', 'N3920', 'N3930', 'N3930D', 'N3930E', 'N3930EC', 'N3930EH', 'N3940', 'N3940E', 'N3940EC', 'N3950', 'N3950A', 'N3950B', 'N3950BJ', 'N3950BK', 'N3950BL', 'N3950BM', 'N3950C', 'N3950D', 'N3950F', 'N3950FBC', 'N3950FD', 'N3950FE', 'N3950FG', 'N3950FH', 'N3950G', 'N3960', 'N3960A', 'N3960B', 'N3990', 'N3990B', 'N3990E', 'N3990EB', 'N3990ED', 'N3990F', 'N3990G', 'N3990N', 'N3990Q', 'N3990R', 'N4010', 'N4010A', 'N4010AD', 'N4010C', 'N4010DA', 'N4010DB', 'N4010DC', 'N4010E', 'N4010F', 'N4020', 'N4020A', 'N4020D', 'N4020G', 'N4030', 'N4110', 'N4110AA', 'N4110B', 'N4110BA', 'N4110BD', 'N4110C', 'N4110CB', 'N4110D', 'N4110E', 'N4110F', 'N4110G', 'N4110H', 'N4110J', 'N4110JA', 'N4110K', 'N4110M', 'N4110N', 'N4110P', 'N4110Q', 'N4120', 'N4120A', 'N4120AA', 'N4120B', 'N4120BA', 'N4120BB', 'N4120BC', 'N4120BD', 'N4120BDB', 'N4120BF', 'N4120C', 'N4120D', 'N4130', 'N4130A', 'N4130B', 'N4130C', 'N4130D', 'N4130E', 'N4130F', 'N4130G', 'N4130H', 'N4130HC', 'N4130J', 'N4130JA', 'N4130K', 'N4130L', 'N4130LA', 'N4130LB', 'N4130M', 'N4130N', 'N4130P', 'N4130PA', 'N4140', 'N4140A', 'N4140C', 'N4140CA', 'N4140CE', 'N4140CF', 'N4140G', 'N4150', 'N4210', 'N4210A', 'N4210B', 'N4210E', 'N4210F', 'N4210H', 'N4210K', 'N4210N', 'N4210P', 'N4210PA', 'N4210PB', 'N4210PC', 'N4210PD', 'N4210W', 'N4210Y', 'N4220', 'N4220E', 'N4220F', 'N4220G', 'N4220L', 'N4230', 'N4230B', 'N4230C', 'N4235', 'N4235D', 'N4235F', 'N4235P', 'N4240', 'N4240LA', 'N4240NA', 'N4240NAG', 'N4240NAL', 'N4240NAM', 'N4240R', 'N4250', 'N4310', 'N4310A', 'N4310AA', 'N4310B', 'N4310BA', 'N4310BD', 'N4310BG', 'N4310C', 'N4310CG', 'N4310CH', 'N4310CHA', 'N4310CHB', 'N4310CHC', 'N4310D', 'N4310DAB', 'N4310E', 'N4310EA', 'N4310F', 'N4320', 'N4320A', 'N4320AB', 'N4320B', 'N4320BA', 'N4320BB', 'N4320BC', 'N4320BCA', 'N4320BF', 'N4320BG', 'N4320BJ', 'N4320BJB', 'N4320C', 'N4320D', 'N4320DA', 'N4320DB', 'N4320DBA', 'N4320E', 'N4320EB', 'N4320ED', 'N4320F', 'N4320FA', 'N4320FB', 'N4320FF', 'N4320G', 'N4320H', 'N4320HA', 'N4320J', 'N4320K', 'N4320KAB', 'N4320L', 'N4320LAA', 'N4320M', 'N4320N', 'N4320PA', 'N4320QA', 'N4320RA', 'N4330', 'N4330AA', 'N4330B', 'N4330C', 'N4330D', 'N4330E', 'N4330F', 'N4410', 'N4410A', 'N4410AA', 'N4410B', 'N4410D', 'N4410E', 'N4410F', 'N4410G', 'N4410J', 'N4410K', 'N4410KA', 'N4410KB', 'N4410L', 'N4410LA', 'N4410LB', 'N4420', 'N4420B', 'N4420C', 'N4420D', 'N4420E', 'N4420F', 'N4420G', 'N4420H', 'N4430', 'N4430A', 'N4430AA', 'N4430AC', 'N4430AD', 'N4430AE', 'N4430B', 'N4430C', 'N4430CA', 'N4430CB', 'N4440', 'N4440A', 'N4440B', 'N4440C', 'N4440D', 'N4440G', 'N4460', 'N4460A', 'N4460B', 'N4460C', 'N4460D', 'N4460E', 'N4460F', 'N4510', 'N4510A', 'N4510AA', 'N4510AB', 'N4510AC', 'N4510AD', 'N4510AE', 'N4510AF', 'N4510AG', 'N4510AGA', 'N4510AH', 'N4510AK', 'N4510E', 'N4510EB', 'N4510EC', 'N4510EE', 'N4510FB', 'N4510G', 'N4510GA', 'N4510GAA', 'N4510GAB', 'N4510GC', 'N4510GD', 'N4520', 'N4520A', 'N4520B', 'N4520BA', 'N4520BAD', 'N4520BB', 'N4520BE', 'N4520BEB', 'N4520BED', 'N4520BEE', 'N4520BEF', 'N4520D', 'N4520E', 'N4520F', 'N4520G', 'N4520GA', 'N4520GB', 'N4520J', 'N4520JA', 'N4520JB', 'N4520JC', 'N4520JD', 'N4520JE', 'N4520K', 'N4520L', 'N4520M', 'N4530', 'N4530A', 'N4530AA', 'N4530AC', 'N4530B', 'N4540', 'N4540A', 'N4540AA', 'N4540AD', 'N4540D', 'N4540DA', 'N4540E', 'N4540G', 'N4610', 'N4610A', 'N4610E', 'N4610L', 'N4610LA', 'N4610LB', 'N4610LC', 'N4610LD', 'N4610N', 'N4610P', 'N4610Q', 'N4610R', 'N4620', 'N4620A', 'N4620AA', 'N4620AB', 'N4620ABA', 'N4620ABB', 'N4620ABC', 'N4630', 'N4630AC', 'N4630AF', 'N4630AG', 'N4630AK', 'N4630AL', 'N4630AP', 'N4630AS', 'N4630BA', 'N4630BC', 'N4630BE', 'N4630BF', 'N4630BG', 'N4630BH', 'N4630BJ', 'N4630BL', 'N4630BM', 'N4710', 'N4710A', 'N4710AA', 'N4710AB', 'N4710AE', 'N4710AF', 'N4710AH', 'N4710AJ', 'N4710AK', 'N4710AL', 'N4710AM', 'N4710AN', 'N4710B', 'N4710C', 'N4710DE', 'N4710E', 'N4720', 'N4720A', 'N4720AA', 'N4720AB', 'N4720AC', 'N4720AD', 'N4720AF', 'N4720AHB', 'N4720AJ', 'N4720B', 'N4720BB', 'N4720BC', 'N4720BK', 'N4720C', 'N4720E', 'N4720EA', 'N4720F', 'N4720H', 'N4720J', 'N4720K', 'N4730', 'N4730A', 'N4730B', 'N4730BB', 'N4730BC', 'N4730C', 'N4730CA', 'N4730CB', 'N4730CD', 'N4730CF', 'N4730F', 'N4730J', 'N4730M', 'N4810', 'N4810A', 'N4810AE', 'N4810AL', 'N4810AN', 'N4810AU', 'N4810AY', 'N4810BE', 'N4810BG', 'N4810D', 'N4810G', 'N4810J', 'N4810L', 'N4820', 'N4820AB', 'N4820AD', 'N4820AE', 'N4820AF', 'N4820AJ', 'N4820AL', 'N4820AP', 'N4820AS', 'N4820AZ', 'N4820BE', 'N4820BN', 'N4820C', 'N4820CC', 'N4820CE', 'N4820CJ', 'N4820CK', 'N4820CN', 'N4820CQ', 'N4820DA', 'N4820DC', 'N4820DE', 'N4820DG', 'N4820DL', 'N4820DN', 'N4820DQ', 'N4910', 'N4910B', 'N4910D', 'N4910E', 'N4910H', 'N4910L', 'N4910M', 'N4910N', 'N4910P', 'N4910RB', 'N4910V', 'N4921', 'N4923', 'N4925', 'N4927', 'N4930', 'N4931', 'N4933', 'N4935', 'N4940', 'N4940B', 'N4940C', 'N4940D', 'N4940E', 'N4940F', 'N4940G', 'N4940J', 'N4940K', 'N4940L', 'N4940M', 'N4940N', 'N4940P', 'N4940R', 'N4940S', 'N4940T', 'N4940W', 'N4970', 'N5110', 'N5110B', 'N5110C', 'N5110D', 'N5110DC', 'N5110DE', 'N5110GC', 'N5110J', 'N5110L', 'N5110P', 'N5110Q', 'N5110R', 'N5120', 'N5120A', 'N5120E', 'N5120EA', 'N5120EB', 'N5120GB', 'N5120H', 'N5120J', 'N5120LH', 'N5120M', 'N5120MG', 'N5120MJ', 'N5120ML', 'N5120MN', 'N5120N', 'N5120NA', 'N5120ND', 'N5120NE', 'N5120NG', 'N5120NJ', 'N5120NL', 'N5120NN', 'N5130', 'N5130A', 'N5130AB', 'N5130BA', 'N5130BB', 'N5130C', 'N5130CA', 'N5130CB', 'N5130CE', 'N5130CG', 'N5130CK', 'N5130CM', 'N5130D', 'N5130DA', 'N5130DB', 'N5130DC', 'N5130DE', 'N5130DG', 'N5130DH', 'N5130DK', 'N5133', 'N5133A', 'N5133B', 'N5136', 'N5136A', 'N5136B', 'N5136C', 'N5140', 'N5140B', 'N5140C', 'N5140CA', 'N5140E', 'N5180', 'N5180A', 'N5180B', 'N5180C', 'N5180D', 'N5210', 'N5210A', 'N5210AB', 'N5210AE', 'N5210B', 'N5210C', 'N5210D', 'N5210E', 'N5210F', 'N5220', 'N5220A', 'N5220B', 'N5220C', 'N5220D', 'N5280', 'N5305', 'N5305B', 'N5306', 'N5306A', 'N5306B', 'N5307', 'N5307A', 'N5310', 'N5310A', 'N5310D', 'N5315', 'N5315A', 'N5315C', 'N5315D', 'N5320', 'N5320A', 'N5325', 'N5325C', 'N5325F', 'N5330', 'N5330A', 'N5330AD', 'N5330AE', 'N5330C', 'N5330CA', 'N5330E', 'N5330EB', 'N5330EE', 'N5331', 'N5335', 'N5335E', 'N5340', 'N5340A', 'N5340B', 'N5340C', 'N5340D', 'N5340E', 'N5340EA', 'N5340F', 'N5340G', 'N5340H', 'N5340K', 'N5340L', 'N5340M', 'N5340N', 'N5340NT', 'N5340PA', 'N5340S', 'N5340X', 'N5342', 'N5345', 'N5345A', 'N5345B', 'N5350', 'N5350A', 'N5350D', 'N5350E', 'N5350F', 'N5355', 'N5355A', 'N5360', 'N5360A', 'N5360B', 'N5365', 'N5365A', 'N5365B', 'N5410', 'N5410A', 'N5410AB', 'N5410AC', 'N5410AD', 'N5410AE', 'N5410AF', 'N5410AG', 'N5410AH', 'N5410AN', 'N5410B', 'N5410BH', 'N5410BP', 'N5410BR', 'N5410BT', 'N5410BU', 'N5410C', 'N5410D', 'N5410F', 'N5410G', 'N5410H', 'N5411', 'N5411A', 'N5419', 'N5420', 'N5420A', 'N5420C', 'N5430', 'N5430A', 'N5430B', 'N5430C', 'N5430D', 'N5430E', 'N5430F', 'N5430H', 'N5440', 'N5440A', 'N5440B', 'N5440BA', 'N5440BC', 'N5440BD', 'N5440C', 'N5440CA', 'N5440CB', 'N5440E', 'N5440F', 'N5440G', 'N5445', 'N5445A', 'N5445B', 'N5445C', 'N5450', 'N5450A', 'N5450B', 'N5450C', 'N5450D', 'N5510', 'N5510A', 'N5510B', 'N5510C', 'N5510D', 'N5510DA', 'N5510DAA', 'N5510DB', 'N5510DBC', 'N5510DC', 'N5510DCA', 'N5510DD', 'N5510DE', 'N5510DF', 'N5510DG', 'N5510DH', 'N5510DJ', 'N5510E', 'N5510F', 'N5510FA', 'N5510FAA', 'N5510FB', 'N5510H', 'N5510K', 'N5510L', 'N5510M', 'N5510N', 'N5510P', 'N5510R', 'N5520', 'N5520A', 'N5520B', 'N5520BB', 'N5520BC', 'N5520BD', 'N5520D', 'N5520E', 'N5530', 'N5530A', 'N5530B', 'N5530C', 'N5530D', 'N5530E', 'N5610', 'N5610A', 'N5610B', 'N5610BA', 'N5610BC', 'N5610C', 'N5610CB', 'N5610CD', 'N5610CE', 'N5610D', 'N5610E', 'N5610F', 'N5610G', 'N5610H', 'N5610J', 'N5610K', 'N5610L', 'N5610LA', 'N5610LC', 'N5610LE', 'N5610LF', 'N5610N', 'N5610R', 'N5610S', 'N5610T', 'N5610U', 'N5610V', 'N5610W', 'N5620', 'N5620A', 'N5620AA', 'N5620B', 'N5620BA', 'N5620BB', 'N5620BC', 'N5620BD', 'N5620BE', 'N5620C', 'N5620D', 'N5620F', 'N5630', 'N5630B', 'N5630BC', 'N5630C', 'N5640', 'N5640A', 'N5640E', 'N5640EB', 'N5640EC', 'N5640ED', 'N5640EF', 'N5640EG', 'N5640EK', 'N5640EM', 'N5640EMC', 'N5640EME', 'N5640EP', 'N5640EQ', 'N5640ER', 'N5640FD', 'N5640FF', 'N5640H', 'N5640J', 'N5640JA', 'N5640JB', 'N5640JC', 'N5640JE', 'N5640K', 'N5640M', 'N5640MB', 'N5640N', 'N5640P', 'N5650', 'N5650A', 'N5650AC', 'N5650AD', 'N5650AF', 'N5650B', 'N5650BC', 'N5650BE', 'N5650C', 'N5650D', 'N5660', 'N5660B', 'N5660BA', 'N5660BC', 'N5660BD', 'N5660BE', 'N5660C', 'N5660CA', 'N5660D', 'N5660E', 'N5660F', 'N5660G', 'N5660GA', 'N5660H', 'N5670', 'N5670A', 'N5670AA', 'N5670AB', 'N5670AC', 'N5670AD', 'N5670AE', 'N5670AF', 'N5670AG', 'N5670AH', 'N5670AJ', 'N5670AJA', 'N5670AK', 'N5670B', 'N5670C', 'N5670E', 'N5670EA', 'N5670EC', 'N5670EE', 'N5670EF', 'N5670F', 'N5670GA', 'N5670H', 'N5670K', 'N5670L', 'N5670N', 'N5670P', 'N5670S', 'N5670V', 'N5675', 'N5680', 'N5680A', 'N5680B', 'N5680C', 'N5680E', 'N5680EB', 'N5680F', 'N5680H', 'N5680J', 'N5680L', 'N5805', 'N5805010', 'N5805017', 'N5805024', 'N5805028', 'N5805029', 'N5805032', 'N5805034', 'N5805036', 'N5805039', 'N5805041', 'N5805042', 'N5805050', 'N5805051', 'N5805060', 'N5805070', 'N5805071', 'N5805074', 'N5805078', 'N5805081', 'N5805083', 'N5805091', 'N5805098', 'N5805100', 'N5805111', 'N5805118', 'N5805119', 'N5805120', 'N5805125', 'N5805126', 'N5805993', 'N5805998', 'N5810', 'N5810310', 'N5810400', 'N5810500', 'N5810520', 'N5811', 'N5811300', 'N5815', 'N5815010', 'N5815023', 'N5815026', 'N5815028', 'N5820', 'N5820010', 'N5820020', 'N5820041', 'N5820043', 'N5820047', 'N5820050', 'N5820052', 'N5820053', 'N5820062', 'N5820063', 'N5820068', 'N5820070', 'N5820072', 'N5820110', 'N5820150', 'N5820160', 'N5820200', 'N5820210', 'N5820230', 'N5820240', 'N5820260', 'N5820330', 'N5820340', 'N5820350', 'N5820380', 'N5820388', 'N5820390', 'N5820420', 'N5820430', 'N5820450', 'N5820460', 'N5820A', 'N5820C', 'N5820CC', 'N5820D', 'N5820DA', 'N5820DAF', 'N5820DAK', 'N5820DB', 'N5820DC', 'N5820DD', 'N5820DF', 'N5821', 'N5821201', 'N5821202', 'N5825', 'N5825010', 'N5825015', 'N5825100', 'N5825110', 'N5825999', 'N5826', 'N5826205', 'N5826207', 'N5826208', 'N5826212', 'N5826999', 'N5830', 'N5830A', 'N5830B', 'N5830C', 'N5830D', 'N5830Y', 'N5831', 'N5831999', 'N5835', 'N5835A', 'N5835AA', 'N5835AB', 'N5835AC', 'N5835H', 'N5835J', 'N5835L', 'N5835Y', 'N5836', 'N5836A', 'N5836AA', 'N5836AB', 'N5836B', 'N5836C', 'N5836D', 'N5836DA', 'N5836DB', 'N5836E', 'N5836HE', 'N5836Y', 'N5840', 'N5840202', 'N5840203', 'N5840205', 'N5840206', 'N5840207', 'N5840208', 'N5840209', 'N5840999', 'N5841201', 'N5841204', 'N5845', 'N5845010', 'N5845201', 'N5845202', 'N5845203', 'N5845204', 'N5845205', 'N5845206', 'N5845207', 'N5845209', 'N5845210', 'N5845211', 'N5845212', 'N5845213', 'N5845214', 'N5845999', 'N5850', 'N5850010', 'N5850020', 'N5855', 'N5855201', 'N5855202', 'N5855999', 'N5860', 'N5865', 'N5895', 'N5895010', 'N5895202', 'N5905', 'N5910', 'N5915', 'N5920', 'N5925', 'N5930', 'N5935', 'N5935100', 'N5935150', 'N5940', 'N5945', 'N5950', 'N5955', 'N5960', 'N5960CG', 'N5961', 'N5962', 'N5963', 'N5965', 'N5970', 'N5975', 'N5977', 'N5980', 'N5985', 'N5985020', 'N5985260', 'N5990', 'N5995', 'N5996', 'N5996A', 'N5998', 'N5999', 'N5999250', 'N5999A', 'N5999B', 'N6010', 'N6015', 'N6020', 'N6021', 'N6030', 'N6032', 'N6035', 'N6040', 'N6060', 'N6070', 'N6080', 'N6099', 'N6100', 'N6105', 'N6105200', 'N6110', 'N6110100', 'N6115', 'N6115312', 'N6115A', 'N6115B', 'N6115BA', 'N6115BB', 'N6115C', 'N6115F', 'N6116', 'N6117', 'N6120', 'N6120100', 'N6125', 'N6130', 'N6135', 'N6135250', 'N6135450', 'N6140', 'N6140650', 'N6145', 'N6150', 'N6160', 'N6210', 'N6210A', 'N6210C', 'N6210CA', 'N6220', 'N6230', 'N6230A', 'N6240', 'N6250', 'N6260', 'N6310', 'N6320', 'N6330', 'N6340', 'N6350', 'N6350010', 'N6350050', 'N6350304', 'N6350A', 'N6350B', 'N6505', 'N6505088', 'N6505552', 'N6505CP', 'N6508', 'N6508B', 'N6508E', 'N6508F', 'N6509', 'N6510', 'N6510E', 'N6510ES', 'N6510ET', 'N6510M', 'N6510MH', 'N6510QC', 'N6515', 'N6515001', 'N6515002', 'N6515004', 'N6515005', 'N6515007', 'N6515BD', 'N6515C', 'N6515CC', 'N6515CEA', 'N6515CF', 'N6515CG', 'N6515CH', 'N6515CLA', 'N6515CN', 'N6515CS', 'N6515CSA', 'N6515CVA', 'N6515CW', 'N6515CZ', 'N6515D', 'N6515HC', 'N6515J', 'N6515K', 'N6515L', 'N6515N', 'N6515NC', 'N6515T', 'N6515V', 'N6515Y', 'N6515ZA', 'N6515ZB', 'N6520', 'N6520A', 'N6520B', 'N6520Q', 'N6520U', 'N6525', 'N6525A', 'N6525AA', 'N6525B', 'N6525E', 'N6525F', 'N6525G', 'N6525H', 'N6525J', 'N6525K', 'N6530', 'N6530001', 'N6530A', 'N6530AB', 'N6530B', 'N6530BA', 'N6530BB', 'N6530C', 'N6530E', 'N6530EA', 'N6530F', 'N6530GAC', 'N6530GBB', 'N6530GC', 'N6530GEC', 'N6530GJ', 'N6530GL', 'N6530LAB', 'N6530LB', 'N6530LBA', 'N6530LBB', 'N6530LBC', 'N6530NB', 'N6530PB', 'N6530PC', 'N6530PCA', 'N6530PD', 'N6530PG', 'N6530PL', 'N6530Q', 'N6530RA', 'N6530SA', 'N6530SB', 'N6530SBA', 'N6530SBB', 'N6530SBG', 'N6530SBH', 'N6530SC', 'N6530SE', 'N6530SH', 'N6530TAB', 'N6530TD', 'N6530WB', 'N6530WC', 'N6530X', 'N6532', 'N6540', 'N6540A', 'N6540C', 'N6545', 'N6545B', 'N6545D', 'N6545EA', 'N6550', 'N6550FR', 'N6550FRJ', 'N6550FS', 'N6550G', 'N6605', 'N6605201', 'N6605993', 'N6605999', 'N6610', 'N6615', 'N6620', 'N6625', 'N6625A', 'N6625AA', 'N6625B', 'N6625BV', 'N6625C', 'N6625E', 'N6625F', 'N6625G', 'N6625H', 'N6625K', 'N6625L', 'N6625M', 'N6625MDA', 'N6625MES', 'N6625N', 'N6625P', 'N6625R', 'N6625RB', 'N6625RC', 'N6625S', 'N6625T', 'N6625U', 'N6625V', 'N6625W', 'N6625WU', 'N6625Y', 'N6625YU', 'N6625Z', 'N6625ZAS', 'N6625ZCA', 'N6630', 'N6630A', 'N6630AA', 'N6630AC', 'N6630AE', 'N6630AF', 'N6630AG', 'N6630AH', 'N6630AJ', 'N6630AL', 'N6630AM', 'N6630AN', 'N6630B', 'N6630BA', 'N6630BB', 'N6630BC', 'N6630BD', 'N6630BF', 'N6630BH', 'N6630C', 'N6630D', 'N6630DA', 'N6630DB', 'N6630DC', 'N6630DE', 'N6630E', 'N6630F', 'N6630G', 'N6630GA', 'N6630H', 'N6630L', 'N6630M', 'N6630N', 'N6630P', 'N6630PA', 'N6630PC', 'N6630PCA', 'N6630PD', 'N6630PF', 'N6630Q', 'N6630R', 'N6630RA', 'N6630RB', 'N6630S', 'N6630T', 'N6635', 'N6635A', 'N6635B', 'N6635C', 'N6635CA', 'N6635CC', 'N6635D', 'N6635DA', 'N6635DC', 'N6635DF', 'N6635E', 'N6635F', 'N6635FA', 'N6635FB', 'N6635FC', 'N6635FE', 'N6635FG', 'N6635FJ', 'N6635FK', 'N6635FL', 'N6635FM', 'N6635H', 'N6635HB', 'N6635HC', 'N6635HD', 'N6635HF', 'N6635HM', 'N6635HN', 'N6635J', 'N6635K', 'N6635KB', 'N6635KC', 'N6635M', 'N6635MA', 'N6635MD', 'N6635MF', 'N6635N', 'N6635P', 'N6635Q', 'N6636', 'N6636A', 'N6636AA', 'N6636AB', 'N6636AC', 'N6636AD', 'N6636B', 'N6636D', 'N6636G', 'N6636H', 'N6636J', 'N6636K', 'N6640', 'N6640200', 'N6640210', 'N6640220', 'N6640300', 'N6640A', 'N6640AA', 'N6640AB', 'N6640AC', 'N6640B', 'N6640BA', 'N6640BB', 'N6640BC', 'N6640BD', 'N6640D', 'N6640E', 'N6640EA', 'N6640EB', 'N6640F', 'N6640G', 'N6640GB', 'N6640GD', 'N6640H', 'N6640J', 'N6640JA', 'N6640JB', 'N6640K', 'N6640M', 'N6640MA', 'N6640MC', 'N6640N', 'N6640NA', 'N6640Q', 'N6640R', 'N6640RA', 'N6640S', 'N6640SA', 'N6640SC', 'N6640T', 'N6640U', 'N6640V', 'N6640W', 'N6640WA', 'N6640X', 'N6640XA', 'N6640XB', 'N6640XC', 'N6640Y', 'N6640Z', 'N6640ZA', 'N6640ZB', 'N6645', 'N6645A', 'N6645AB', 'N6645B', 'N6645BD', 'N6645BJ', 'N6645EB', 'N6645ED', 'N6645EF', 'N6645G', 'N6645GB', 'N6645GC', 'N6645GE', 'N6650', 'N6650A', 'N6650B', 'N6650C', 'N6650D', 'N6650F', 'N6650G', 'N6650H', 'N6650J', 'N6650K', 'N6650KA', 'N6650KB', 'N6650KBA', 'N6650KD', 'N6650KE', 'N6650KF', 'N6650KG</t>
         </is>
@@ -578,18 +595,26 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>["ZQ"]</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>["PV"]</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>30202</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>79</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['["AEC"]', '["AO"]', '["AR"]', '["BB"]', '["BF"]', '["BK"]', '["BL","BY","HN","ML"]', '["BL","HP","HS"]', '["BL","HS","ML"]', '["BL","HS"]', '["BL"]', '["BM"]', '["BQ"]', '["BY"]', '["CAG"]', '["CW"]', '["CX"]', '["CY"]', '["CZ"]', '["EDM"]', '["EEM"]', '["EF","EO","QD"]', '["EF"]', '["EJ"]', '["EO"]', '["EW"]', '["FE"]', '["FG"]', '["FK"]', '["GB"]', '["HAL"]', '["HL"]', '["HN"]', '["HP","HS"]', '["HP","ML"]', '["HP"]', '["HS","ML"]', '["HS"]', '["LM"]', '["LP"]', '["MC"]', '["MD"]', '["ML"]', '["NT"]', '["PD"]', '["PH"]', '["PI"]', '["PQ"]', '["PR"]', '["PSD"]', '["PV"]', '["QD","QF"]', '["QD"]', '["QE"]', '["QF"]', '["RH"]', '["SC"]', '["SE"]', '["SQ"]', '["SRI"]', '["SS"]', '["ST"]', '["STN"]', '["SV"]', '["TAP"]', '["VAN"]', '["XF"]', '["XG"]', '["XK"]', '["XN"]', '["XQ"]', '["XSB"]', '["ZF"]', '["ZG"]', '["ZH"]', '["ZL"]', '["ZM"]', '["ZN"]', '["ZQ"]']</t>
         </is>
@@ -648,18 +673,26 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>ZINC CHROMATE, REAGENT</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Circuit Breakers</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>190139</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>4947</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['ABSORBENT MATERIAL, OIL AND WATER', 'ACCELEROMETER, ELECTRICAL, LINEAR (EXCEPT FIRE CONTROL AND      GUIDED MISSILE)', 'ACIDS (N.E.S.)', 'ADD ON MEMORIES (INTERNAL/EXTERNAL)', 'ADDITIVES AND CONDITIONERS, FUEL OIL', 'ADHESIVE, GLUE', 'ADP CENTRAL PROCESSING UNIT (CPU, COMPUTER) ANALOG - LEASE', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) ANALOG - RENT', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) DIGITAL - LEASE', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) DIGITAL - RENT', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) HYBRID - RENT', 'ADP COMPONENTS - LEASE', 'ADP Central Processing Unit (CPU, Computer) Analog', 'ADP Central Processing Unit (CPU, Computer) Analog - Maintenance', 'ADP Central Processing Unit (CPU, Computer) Digital', 'ADP Central Processing Unit (CPU, Computer) Digital - Installation', 'ADP Central Processing Unit (CPU, Computer) Hybrid', 'ADP Central Processing Unit (CPU, Computer) Hybrid - Maintenance', 'ADP Central Processing Unit (CPU,Computer) Digital - Maintenance', 'ADP Components', 'ADP INPUT-OUTPUT AND STORAGE DEVICES - LEASING OF EQUIPMENT', 'ADP INPUT-OUTPUT AND STORAGE DEVICES - RENTAL', 'ADP Input - Output and Storage Devices - Installation', 'ADP Input-Output and Storage Devices', 'ADP Input-Output and Storage Devices - Maintenance', 'ADP Software', 'ADP Software Maintenance - Other than Microcomputer', 'ADP Support Equipment', 'ADPE SYSTEM CONFIGURATION - LEASE', 'ADPE System Configuration - Installation', 'ADVERTISING AND PROMOTIONAL BALLOONS', 'ADVERTISING DISPLAYS', 'AIR CONDITIONING EQUIPMENT - LEASING', 'AIR CONDITIONING EQUIPMENT - RENTAL', 'AIR PURIFICATION EQUIPMENT - RENTAL', 'AIRCRAFT AIR CONDITIONING, HEATING AND PRESSURIZING EQUIPMENT - INSTALLATION', 'AIRCRAFT GROUND SERVICING EQUIPMENT - PRODUCTION DESIGN', 'AIRCRAFT GROUND SERVICING EQUIPMENT - RENTAL', 'AIRCRAFT PROPELLERS - INSTALLATION', 'AIRCRAFT, ROTARY WING - PRODUCTION DESIGN', 'ALARM SYSTEMS, GAS, RADIOACTIVE', 'ALARM SYSTEMS, HAZARD DETECTING', 'ALCOHOL', 'ALIDADES AND ACCESSORIES', 'ALTIMETERS, SURVEYING', 'ALUMINUM', 'ALUMINUM ANGLES, CHANNELS AND SECTIONS', 'ALUMINUM FOIL, COMMERCIAL PACKAGING', 'ALUMINUM OXIDE', 'ALUMINUM PIGMENT FOR PAINT, POWDER', 'ALUMINUM SHEET', 'ALUMINUM SULFIDE, POWDER AND LIQUID AWWA B403', 'ALUMINUM, BARS AND RODS', 'AMBULATORY AIDS', 'AMMONIUM NITRATE (TECHNICAL)', 'AMMONIUM SULFATE', 'AMMUNITION BOXES, PACKAGES AND SPECIAL CONTAINERS', 'AMMUNITION, OVER 125MM - PRODUCTION DESIGN', 'AMPLIFIERS AND PREAMPLIFIERS, TEST', 'AMPLIFIERS, TEST', 'ANALYSERS, COLOUR PRINTING PHOTOGRAPHIC', 'ANALYZERS', 'ANALYZERS LIQUID SAMPLE', 'ANALYZERS, AMINO ACID', 'ANALYZERS, BLOOD GAS, ELECTROLYTES (PCO,PH,PO,NA,K,CA)', 'ANALYZERS, CHEMICAL, AUTOMATIC (INCLUDES CLINICAL)', 'ANALYZERS, COAGULATION, AUTOMATIC', 'ANALYZERS, ELECTRON PROBE (MICROPROBE)', 'ANALYZERS, ELECTRONIC TEST EQUIPMENT (SEE ALSO TEST SETS,       ELECTRONIC TEST EQUIPMENT)', 'ANALYZERS, ELEMENTAL (C, H, N, TOC)', 'ANALYZERS, FISH FRESHNESS', 'ANALYZERS, FLOW CYTOMETERS', 'ANALYZERS, GAS (INCLUDES NOX, CO, CO2, SO2, O2) EXCLUDES HAZARD TYPE', 'ANALYZERS, MEAT, FAT CONTENT', 'ANALYZERS, PARTICLE SIZE', 'ANALYZERS, POLAROGRAPHY', 'ANALYZERS, SPECTRUM', 'ANALYZERS, SURFACE ORIENTATED (AUGER, PHOTOELECTRON SPECTROMETERS, MOLECULAR BEAM EPITAXY, CHEMICAL VAPOR DEPOSITION)', 'ANALYZING KIT, CHEMICAL AGENT (CW)', 'ANEMOMETER, METEOROLOGICAL TYPE', 'ANIMALS, LIVE, LABORATORY', 'ANTENNAS, WAVEGUIDES AND RELATED EQUIPMENT - LEASING', 'ANTENNAS, WAVEGUIDES AND RELATED EQUIPMENT - RENTAL', 'ANTIFREEZE, AUTOMOTIVE ENGINE', 'ANTIFREEZE, WINDSHIELD WASHER, DILUTE', 'ARMAMENT TRAINING DEVICES, ELECTRONIC, ACCESSORIES AND SPARES', 'ARMAMENT TRAINING DEVICES, ELECTRONIC, GUNNERY TARGETS', 'ATTENUATORS, TEST', 'AUTOMATIC DATA PROCESSING EQUIPMENT, SYSTEM CONFIGURATION-RENTAL', 'AUTOMATIC DATA PROCESSING SUPPLIES - LEASE', 'Abrasive Cloth Assortments', 'Abrasive Materials', 'Abrasive, Grain', 'Absorbents - Chemicals', 'Absorbers, Shock, for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'Access Hatches, Building, Custom', 'Accessories for Concrete Forms and Scaffolding', 'Accessories for Secondary Metal Working Machinery', 'Accessories, CCTV', 'Accommodation and Food Services, N.E.S.', 'Accommodation and/or Food Support Services', 'Accounting and Calculating Machines', 'Accounting and Financial Management Studies', 'Acoustic Data Processing System', 'Acoustical Analysis/Technology (R&amp;D)', 'Actuarial Services', 'Actuator, Electric, Pneumatic, Hydraulic, Manual', 'Additive Metal Materials', 'Addressing, Distribution and Mailing Lists Management', 'Adhesives', 'Adjudication Services', 'Administrative Management and Planning Services', 'Administrative Services', 'Advertising', 'Advertising Creative Services', 'Advertising Media Buying/Placement', 'Advertising Related Services', 'Advisory Support Services / Natural resources efficiency', 'Aerator Mechanical', 'Aerial Application and Distribution Services', 'Aerial Control Services', 'Aerial Inspection and Reconnaissance Services', 'Aerial Photographic Services', 'Aerial Photography Other Than Survey and Mapping', 'Aeromagnetic Survey F.W. for Mapping', 'Aeromagnetic Survey Services: R.W. for Mapping', 'Aeronautical Maps, Charts and Geodetic Products', 'Aerosols, Paint Lacquer, etc', 'Aggregate, Construction, Fire Clay, Crushed', 'Agricultural Cleaning Services', 'Agricultural Services, Not Elsewhere Specified', 'Agriculture (R&amp;D)', 'Air', 'Air Ambulance Services', 'Air Cleaner Elements, Intake', 'Air Cleaners', 'Air Cleaners, Electronic', 'Air Conditioning Contractor Services', 'Air Conditioning Equipment', 'Air Conditioning Equipment (Domestic Only)', 'Air Conditioning Equipment (Industrial) N.E.S.', 'Air Conditioning Equipment - Repair and Overhaul', 'Air Conditioning Equipment Components (Industrial)', 'Air Conditioning Equipment, Industrial', 'Air Conditioning Equipment, Industrial - Repair', 'Air Conditioning Equipment, Refrigeration (Industrial)', 'Air Conditioning Heater Units (Industrial)', 'Air Conditioning Room and Window Units (Domestic Only)', 'Air Conditioning System-Spray Cooled (Industrial)', 'Air Conditioning Units (Industrial)', 'Air Conditioning Units, Computer Room', 'Air Conditioning Units, Computer Room, Upward Flow', 'Air Conditioning and Heating Combination Components (Domestic)', 'Air Distribution Systems - Installation and Repair', 'Air Handling Units (Industrial)', 'Air Purification Equipment', 'Air Purification Equipment - Repair', 'Air Purification Equipment, N.E.S.', 'Air Quality (Research)', 'Air Quality Analyses', 'Air Quality Support Services', 'Air Taxi', 'Air Transportation', 'Air Transportation - Business Travel', 'Air Washing Units (Industrial)', 'Air-to-Air Gunnery Towing and Scoring Services', 'Airblower, Tractor/Loader Attachment', 'Airborne Auxillary and Ground Gas Turbine Units for Aircraft Engines Starting - Repair and Overhaul', 'Airborne Combat Support Training - Fighter and Trainer Aircraft only', 'Airborne Geophysical Surveys Specialty Commercial Air Services', 'Aircraft (Military) Miscellaneous Communications Equipment - Installation', 'Aircraft (Military) Miscellaneous Communications Equipment - Repair and Overhaul', 'Aircraft (Military) Navigational Instruments - Repair and Overhaul', 'Aircraft (Military) Radar Equipment - Repair and Overhaul', 'Aircraft (Military) Radio and Television Communications Equipment - Repair and Overhaul', 'Aircraft (Military) Telephone and Telegraph Equipment - Installation', 'Aircraft Air Conditioning, Heating and Pressurizing Equipment', 'Aircraft Air Conditioning, Heating and Pressurizing Equipment (Military) - Repair and Overhaul', 'Aircraft Alarm and Signal Systems', 'Aircraft Alarm and Signal Systems (Civilian) - Repair', 'Aircraft Bombing Fire Control Components', 'Aircraft Control Cable Products', 'Aircraft Ground Servicing Equipment', 'Aircraft Ground Servicing Equipment - Repair', 'Aircraft Gunnery Fire Control Components', 'Aircraft Gunnery Fire Control Components - Production Design', 'Aircraft Hydraulic, Vacuum and De-Icing System Components', 'Aircraft Hydraulic, Vacuum and De-icing System Components (Military) - Repair and Overhaul', 'Aircraft Landing Equipment - Repair', 'Aircraft Landing Gear Components', 'Aircraft Landing Gear Components (Military) - Repair and Overhaul', 'Aircraft Launching Equipment', 'Aircraft Launching Equipment - Repair', 'Aircraft Propellers and Components', 'Aircraft Propellers and Components (Military) - Repair and Overhaul', 'Aircraft Tools, Special', 'Aircraft Wheel and Brake Systems', 'Aircraft Wheel and Brake Systems (Civilian) - Repair', 'Aircraft and Glider Dry Leases', 'Aircraft, Fixed Wing', 'Aircraft, Fixed Wing - (Military) Repair and Overhaul', 'Aircraft, Fixed Wing - Repair and Overhaul (Civilian)', 'Aircraft, Fixed Wing - Repair and Overhaul (Military)', 'Aircraft, Rotary Wing', 'Aircraft, Rotary Wing (Military) - Repair and Overhaul', 'Aircraft, Rotary Wing - Repair', 'Airfield Specialized Trucks and Trailers', 'Airfield Specialized Trucks and Trailers - Repair', 'Airframe Structural Components', 'Airframe Structural Components (Miliatry) - Repair and Overhaul', 'Airplanes, Civil Certified', 'Alarm and Signal Systems, Miscellaneous - Installation and Services', 'Alarm and Signal Systems, Miscellaneous - Repair, Overhaul and Maintenance', 'Alarm and Signal Systems, Repair and Overhaul', 'Alarm, Automatic Sprinkler', 'Alarm, Signal, and Security Detection Systems , Miscellaneous', 'Alignment Tools, Electronic Equipment', 'Alignments, Wheel Balancing', 'All Terrain Vehicles (R&amp;D)', 'Alternate Format Printing (includes Braille, Large Print and Tactile Graphics)', 'Alternative Dispute Resolution Services', 'Alternative Work Environment Studies', 'Altimeter Radar Equipment (Airborne)', 'Ambulances, Repair and Overhaul', 'Ammunition Maintenance, Repair and Checkout Specialized Equipment', 'Ammunition and Nuclear Ordnance Boxes, Packages and Special Containers', 'Ammunition, 75mm through 125mm', 'Ammunition, Through 30MM - Repair', 'Ammunition, over 125mm', 'Ammunition, over 30mm up To 75mm', 'Ammunition, through 30mm', 'Amplifiers', 'Amplifiers, Radio Frequency', 'Analytical Chemistry', 'Anchors (Sea)', 'Animal Control Services - Trap and Remove Animals From Populated Areas', 'Animal Drawn Vehicles and Farm Trailers', 'Animal and Fisheries Studies', 'Antenna Technology (R&amp;D)', 'Antenna, Systems - LF', 'Antennas, Waveguides and Related Equipment', 'Antennas, Waveguides and Related Equipment - Installation', 'Antennas, Waveguides and Related Equipment - Repair and Overhaul', 'Anti-Pollution Chlorination Systems, Marine', 'Anti-Pollution Oil Booms', 'Aquaculture (R&amp;D)', 'Arbitration Services', 'Archaeological Site Investigations', 'Archaeological/Paleontological Services', 'Architect and Engineering Services - Buildings', 'Architect/Engineer Services - Administration &amp; Service Buildings', 'Architect/Engineer Services - Airfield, Communication and Missile Facilities', 'Architect/Engineer Services - Educational Buildings', 'Architect/Engineer Services - Hospital Buildings', 'Architect/Engineer Services - Industrial Buildings', 'Architect/Engineer Services - Residential Buildings', 'Architect/Engineer Services - Warehouse Buildings', 'Architect/Engineer Services Research and Development Facilities', 'Architectual &amp; Engineering CADD Services', 'Architectual Services - Buildings', 'Architectural &amp; Engineering  Services - Other Non-Building Structures', 'Architectural &amp; Engineering Inspection Services', 'Architectural &amp; Engineering Services - Highways, Roads, Railways,Bridges and Dams', 'Architectural &amp; Engineering Services - Power Generation and Utilities', 'Architectural &amp; Engineering Services - Restoration/Conservation Heritage Building Structures', 'Architectural &amp; Engineering Services - Restoration/Conservation Heritage Non-Building Structures', 'Architectural Services: Statement of Requirements or Building Programming', 'Architectural and Related Metal Products - Repair', 'Archival Services: Preparation Cataloguing and Preservation', 'Armament Training Devices - Repair', 'Armament Training Devices, Refer to Parent Weapon System', 'Armor, Personal', 'Armoured Car Service', 'Asbestos', 'Asbestos Removal Services', 'Asphalt and Joint Sealing Services', 'Asphalt, Liquid Petroleum, Primer and Cement for Road Purpose', 'Asphalt, Petroleum, Roofing', 'Assemblies Interchangeable Between Weapons in Two or More Classes', 'Asset Management  Plans (AMP)', 'Astronautics (R&amp;D)', 'Athletic and Sporting Equipment', 'Atmospheric Pollutants (Research)', 'Auctioneering Services', 'Audio Players and Recorders - analog and digital', 'Audio Recording Media', 'Audio Recordings/Talking Books', 'Audio Tape Transcripts/Summary Services - Not Media Related', 'Audio Visual Production Services', 'Audio Visual Services - Interactive/Multimedia including implementation for website use', 'Audio and Video Technical Services', 'Audio/Visual Freelance and Project Management Services', 'Audio/Visual Language Adaptation/Versioning Services', 'Audit Services, Not Elsewhere Specified', 'Auger Machines, Pipe and Sewer, Power Operated', 'Automated Fishing Gear', 'Automated News Services', 'Automatic Data Processing Equipment, System Configuration', 'Automatic Data Processing Equipment, System Configuration - Repair', 'Automatic Pilot Mechanisms and Airborne Gyro Components', 'Automotive Washing Services', 'Aviation Fuel', 'Awnings', 'Axial Fans (Industrial)', 'Axle Assembly, for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'BACS - Building Automation Control Systems', 'BADGE, IDENTIFICATION, LAMINATED PLASTIC, WITH ENGRAVED  LETTERING', 'BAG, AIRSICKNESS', 'BAG, FOOD PRODUCTS', 'BAG, PAPER, MULTIWALL', 'BAG, PLASTIC', 'BAG, SAND', 'BAG, TEXTILE', 'BAG, URINE', 'BAGS AND CASES, PHOTOGRAPHIC', 'BALANCE, ANALYTICAL', 'BALANCE, ANALYTICAL, ELECTRONIC, MICRO TO ULTRA-MICRO', 'BALANCE, ANALYTICAL, SPECIFIC GRAVITY', 'BALANCING MACHINE, DYNAMIC-STATIC, HORIZONTAL', 'BALLOON, METEOROLOGICAL', 'BANDAGES AND DRESSINGS', 'BAR, NICKEL, MONEL, INCONEL AND INCOLOY', 'BAROMETER, METEOROGICAL, ALL TYPES', 'BAROMETERS, ANEROID AND MERCURIAL (EXCEPT METEOROLOGICAL)', 'BARRIER MATERIAL', 'BASIN, EMESIS, STAINLESS STEEL', 'BATH WHIRLPOOL', 'BCG Vaccine (Freeze-Dried)', 'BED, HOSPITAL', 'BED, HOSPITAL, STEEL, ELECTRICALLY OPERATED', 'BEDPAN, STEELWARE', 'BELTING, DRIVE BELTS, FAN BELTS AND ACCESSORIES - RENTAL', 'BINOCULARS (OTHER THAN FIRE CONTROL OPTICAL SIGHTING AND        RANGING EQUIPMENT)', 'BLACKBOARD', 'BLIND, WINDOW', 'BOILERS, PORTABLE, RENTAL', 'BOILING POINT DETERMINATION APPARATUS', 'BOOKCASES, OFFICE TYPE', 'BOOKS (PRINTING PRODUCTS PUBLICATIONS)', 'BOOKS AND PAMPHLETS (EXCEPT PRINTING PRODUCTS PUBLICATIONS)', 'BOOKS, TEXT (ENGLISH) (EXCEPT PRINTING PRODUCTS PUBLICATIONS)', 'BOOTHS, AUDIOMETRIC EXAMINATION', 'BOREHOLE EQUIPMENT SYSTEMS', 'BORESCOPE', 'BOTTLE/VIAL, GLASS (PRESCRIPTION DISPENSING)', 'BOX, PLASTIC', 'BOX, SHIPPING', 'BOX, SHIPPING, WOOD', 'BOXES PAPERBOARD', 'BRASS INSTRUMENTS (HORNS, BUGLES, TRUMPETS, ETC)', 'BRICKS, INSULATING AND REFRACTORY', 'BROOMS, BRUSHES, MOPS AND SPONGES - LEASING', 'BROOMS, BRUSHES, MOPS AND SPONGES - RENTAL', 'BRUSH, CLEANING, TOOLS AND PARTS, NYLON BRISTLES', 'BRUSH, PAINT', 'BUILDING, PREFABRICATED, PORTABLE OR RELOCATABLE, SCHOOLS AND   CLASSROOMS - RENTAL', 'BULB, SPHYGMOMANOMETER', 'BURNER, GAS, LABORATORY', 'Badges and Insignia', 'Bag, Tool, Satchel', 'Bags and Liners, Plastic, Degradable', 'Bags and Sacks', 'Bakery Products', 'Bakery and Cereal Products (replaced by gsin N8920Z)', 'Bakery, Specialties, Not Elsewhere Specified', 'Balancers, Automotive', 'Ballasts, Lampholders, and Starters', 'Ballasts, Lampholders, and Starters - Repair', 'Banking and Trust Company Services', 'Barbed Wire', 'Barber and Beauty Shop Services', 'Barges - Special Purpose', 'Barges and Lighters, Cargo', 'Barges and Lighters, Cargo - Repair', 'Barges and Lighters, Special Purpose', 'Bars and Rods', 'Bars and Rods, Nonferrous Base Metal', 'Basin, Lavatory', 'Bathtubs', 'Batteries, Dry, Alkaline', 'Batteries, Dry, Lithium', 'Batteries, Forklift Truck', 'Batteries, Primary', 'Batteries, Primary - Repair', 'Batteries, Rechargeable', 'Batteries, Rechargeable - Repair', 'Beacon, Secondary Surveillance Radar (SSR) Radar Equipment, Except Airborne', 'Beacons, Radio Navigation Equipment (Except Airborne)', 'Bead Breakers, Tire', 'Bearing Assembly, Shaft and Thrust, Ships Propulsion', 'Bearings, Antifriction, Unmounted', 'Bearings, Antifriction, Unmounted - Repair', 'Bearings, Ball, Annular, Thrust Bearing, Roller Bearing and Multiapplication (Except Aircraft)', 'Bearings, Cups and Cones', 'Bearings, Mounted', 'Bearings, Mounted - Repair', 'Bearings, Mounted, All Types', 'Bearings, Plain, Unmounted', 'Bearings, Roller, Cylindrical , FED. SPEC. FF-B-185, DND QPL', 'Bearings, Roller, Tapered, FED. SPEC. FF-B-187A, DND QPL', 'Bells, Buoy, Navigation Marker, Marine', 'Bells, Ship (Non Electric)', 'Belting, Drive Belts and Accessories', 'Belting, Drive Belts, Fan Belts and Accessories - Repair', 'Bending and Forming Machines', 'Bending and Forming Machines - Repair', 'Beret', 'Berthing Docks - Floating', 'Beverage Base Assortments (nonalcoholic)', 'Beverage Concentrate with Rental Dispensers', 'Beverages, Alcoholic', 'Beverages, Alcoholic (replaced by gsin N8965ZA)', 'Beverages, Non Alcoholic, Juice Crystals (replaced by gsin N8920ZC)', 'Beverages, Non-Alcoholic (replaced by gsin N8960Z)', 'Binders, Printed', 'Binoculars and Cases, Fire Control, Except Marine and Non-Specific Components', 'Binoculars and Cases, Fire Control, Marine and Non-Specific Components', 'Biochemistry (R&amp;D)', 'Biodiesel Fuels', 'Biological Defence Technology (R&amp;D)', 'Biology (R&amp;D)', 'Bird Control Devices', 'Bits, Auger', 'Blades, Dozer, Earth Moving', 'Blades, Hand, Hacksaw, CGSB 46-GP-1', 'Blades, Snowplow', 'Blades, Snowplow - Repair', 'Blades, Vehicle Mounting', 'Blast Cleaning Cabinets', 'Blast Cleaning Machines', 'Bleachers, Seating', 'Block, Tackle, Rigging and Slings - Repair', 'Blocks, Tackle, Rigging and Slings', 'Blood Alcohol Level Measuring Instruments, Breath Sampling Type', 'Blood Alcohol Level Measuring Instruments, Breath Sampling Type; Accessories and Spare Parts Only', 'Blowers, Electrical, Portable', 'Blowers, Sewage Aeration', 'Blue Printing and Engineering Drawing Reproduction', 'Boats (Small) and Canoes - Repair and Overhaul', 'Boats - Inflatable - Rigid Hull', 'Boats, Small - Fibreglass - Repair and Overhaul', 'Boats, Small, Aluminum', 'Body Scanning Measuring and Sizing System', 'Boiler Components', 'Boiler Components, Industrial', 'Boiler Components, Marine', 'Boiler Technology (R&amp;D)', 'Boiler, Chemical Water Treatment &amp; Related Services', 'Boiler-Tubes, Studded, Marine', 'Boilers (Over 15 Pounds WSP/Over 100 Gallons Recovery Capacity)', 'Boilers - Installation and Repair', 'Boilers, Commercial', 'Boilers, Marine', 'Boilers, Marine - Repair and Overhaul', 'Boilers, Repair and Cleaning Services', 'Bolts', 'Bolts, Aircraft', 'Bolts, All Types and Materials (Except Aircraft)', 'Bombs', 'Book-Binding Services', 'Bookcases, Shipboard Type Including Racks', 'Books and Pamphlets', 'Boom Fittings, Sailboat', 'Booms', 'Booms, Cargo', 'Booms, Floating', 'Booms, Yards, Masts, Aluminum', 'Booms, Yards, Masts, Wooden', 'Booth, Sound Proof', 'Booths, Spraying', 'Boots, Combat', 'Boots, Safety', 'Boring Machines', 'Bottles and Jars', 'Bowls, Toilet', 'Boxes, Cartons and Crates', 'Boxes, Cartons and Crates - Repair', 'Brackets', 'Brake Service Equipment', 'Brake Shoes, Drums and Miscellaneous Brake Components (N.E.S.) for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'Bread and Rolls', 'Bread and Rolls (replaced by gsin N8920ZJ)', 'Bricks and Blocks, Concrete', 'Bricks, Clay (Nonrefractory)', 'Bridge Bearings and Bearing Pads', 'Bridges, Elevated Highways, Tunnels, Subways and Railroads', 'Bridges, Fixed and Floating', 'Broaching Machines', 'Broaching Machines - Repair', 'Brokerage Services - Disposal of Aircraft and/or Parts', 'Brooms, Brushes, Mops and Sponges', 'Brooms, Brushes, Mops and Sponges - Repair', 'Brush, Sweeper, Road and Runway', 'Brushcutter, Edger, Renovator, Sweeper and Tiller', 'Budget Control Systems', 'Building Components, Prefabricated', 'Building Computer Cabling Installation', 'Building Electrical Controls - Installation and Repair', 'Building Electronic Controls - Installation and Repair', 'Building Environmental Control Systems Servicing', 'Building Exterior Cleaning', 'Building Fire Protection Systems', 'Building Gas System (Medical/Industrial) Contractors', 'Building Insulation Contractor Services', 'Building Intercommunication System - Installation and Repair', 'Building Intrusion Detection System - Installation and Repair', 'Building Lighting - Installation and Repair', 'Building Public Address Systems - Installation and Repair', 'Building Services - Handyman Services', 'Building Sheet Metal Services', 'Building Waterproofing Services', 'Building, Prefabricated, Kiosk, Unarmoured', 'Building/Installation Special Trade Services, Not Elsewhere Specified', 'Buildings, Prefabricated (Bullet Proof)', 'Buildings, Prefabricated (Special Purpose)', 'Buildings, Prefabricated (Types)', 'Buildings, Prefabricated and Portable (Customengineered)', 'Buildings, Prefabricated, Fibreglass', 'Buildings, Prefabricated, Garage', 'Buildings, Prefabricated, Greenhouse', 'Buildings, Prefabricated, Inflatable or Air-Supported', 'Buildings, Prefabricated, Metal', 'Buildings, Prefabricated, Modular or Sectional', 'Buildings, Prefabricated, Molded Concrete', 'Buildings, Prefabricated, Panelized (Open or Closed Panels)', 'Buildings, Prefabricated, Portable or Relocatable', 'Buildings, Prefabricated, Portable or Relocatable, Industrial Self-Contained Camp', 'Buildings, Prefabricated, Portable or Relocatable, Laboratory', 'Buildings, Prefabricated, Storage', 'Buildings, Prefabricated, Wood', 'Bulk Explosives', 'Buoys', 'Buoys - Repair', 'Buoys, All Types Except Plastic', 'Buoys, Data Acquisition', 'Buoys, Plastic', 'Burners Oil - Repair and Overhaul', 'Burners, Gas, Commercial', 'Burners, Oil', 'Burners, Oil, Commercial', 'Bus Passenger Service', 'Bus Services', 'Bus, Shuttle Services', 'Buses', 'Buses School, Conventional Type, 25 Passenger and Up', 'Buses, Highway Type', 'Buses, Repairs and Service', 'Buses, School - Special Type, 5 to 24 Passengers', 'Bushings, Rings, Shims and Spacers', 'Business Services', 'Business Services / Modelling and Analysis', 'Business Training', 'CABINETS, DESICCATING (EXCLUDES DESICCATORS)', 'CABINETS, HOSPITAL', 'CABINETS, LABORATORY', 'CABINETS, LABORATORY STORAGE (INCLUDES WOOD, METAL, PLASTIC)', 'CABINETS, LABORATORY, DESICCATING, VACUUM (EXCLUDES DESICCATORS)', 'CABINETS, LOCKERS, BINS AND SHELVING - RENTAL', 'CABINETS, SECURITY, BULK STORAGE, SPEC SSC/SES 110,DSS QPL', 'CABINETS, SECURITY, FLAMMABLE AND COMBUSTIBLE LIQUIDS', 'CABINETS, STORAGE', 'CABINETS, STORAGE, PHOTOGRAPHIC', 'CABINETS, STORAGE, PHOTOGRAPHIC, MOTION PICTURE, REELS AND CANS', 'CABINETS, STORAGE, TAPES, CASSETTES AND FILMSTRIPS', 'CABLE, CORD, AND WIRE ASSEMBLIES, COMMUNICATION EQUIPMENT -     RENTAL', 'CADD Drafting and Technical Services - Building Systems', 'CALCIUM', 'CALCIUM CHLORIDE, CAN/CGSB-15.1-92', 'CALCIUM HYDROXIDE, HYDRATED LIME', 'CALCIUM HYPOCHLORITE, CAN/CGSB-15.32-92', 'CALIBRATION AND TEST SPECIMENS', 'CALIBRATORS, ELECTRONIC TEST EQUIPMENT', 'CALORIMETERS', 'CALORIMETERS AND THERMAL ANALYSERS', 'CAMERAS AND ACCESSORIES, STILL PICTURE, AIRCRAFT', 'CAMERAS, MOTION PICTURE - HIGH SPEED AND LOW SPEED (EVENT       ANALYSIS AND INSTRUMENTATION)', 'CAMERAS, MOTION PICTURE - LEASING', 'CAMERAS, MOTION PICTURE - RENTAL', 'CAMERAS, MOTION PICTURE - ULTRA MINIATURE, 8MM, SUPER 8MM,      CASSETTE - AMATEUR', 'CAMERAS, MOTION PICTURE, AIRCRAFT CAMERAS AND ACCESSORIES', 'CAMERAS, STILL PICTURE (AMATEUR - 110 - 126 DISC)', 'CAMERAS, STILL PICTURE - RENTAL', 'CAMERAS, STILL PICTURE, 35MM (PROFESSIONAL) EXCEPT UNDERWATER', 'CAMERAS, STILL PICTURE, HORIZONTAL AND VERTICAL (PHOTOGRAPHIC OR GRAPHIC ARTS)', 'CAMERAS, STILL PICTURE, IDENTIFICATION', 'CAMERAS, STILL PICTURE, MICROFILM', 'CAMERAS, STILL PICTURE, UNDERWATER', 'CAMPING EQUIPMENT', 'CAMPING EQUIPMENT - RENTAL', 'CARBON DIOXIDE, TECHNICAL (DRY ICE)', 'CARPET', 'CART, HOSPITAL', 'CASE, SHIPPING WITH MOULDED FOAM INSERTS', 'CD-Rom Services', 'CEILOMETER', 'CENTRIFUGE ACCESSORIES (INCLUDES ROTORS, SHIELDS, TUBES)', 'CENTRIFUGE, LABORATORY', 'CENTRIFUGE, LABORATORY, GENERAL PURPOSE', 'CENTRIFUGE, REFRIGERATED', 'CENTRIFUGE, ULTRA HIGH SPEED', 'CHAIR (HOUSEHOLD)', 'CHAIR (OFFICE)', 'CHAIR EVACUATION', 'CHAIR, CAFETERIA', 'CHAIR, FOLDING, METAL (HOUSEHOLD)', 'CHAIR, HOSPITAL', 'CHAIR, HOSPITAL, CONVALESCENT TYPE', 'CHAIR, HOSPITAL, GERIATRIC TYPE', 'CHAIR, ROTARY, DEDICATED TASK (EXCEPT SPEC.)', 'CHAIR, ROTARY, MULTI-TASK (EXCEPT SPEC.)', 'CHAIR, ROTARY, OFFICE TYPE (EXCEPT STANDARD)', 'CHAIR, ROTARY, OFFICE TYPE, EXECUTIVE HIGH BACK', 'CHAIR, STACKING, ARMLESS, MOULDED PLASTIC AND FIBREGLASS, DSS   QPL', 'CHAIR, STRAIGHT', 'CHAIR, STRAIGHT SIDE, WITH ARMS, METAL FRAME', 'CHAIR, STRAIGHT, STACKING TYPE', 'CHAIR, STUDENT, WITH TABLE ARM', 'CHAMBER, ACOUSTIC NOISE, ENVIRONMENTAL TYPE', 'CHAMBERS, VACUUM', 'CHEMICAL ANALYSIS INSTRUMENTS - RENTAL', 'CHEMICAL AND PHARMACEUTICAL PRODUCTS MANUFACTURING MACHINERY -  LEASING', 'CHEMICALS (N.E.S.)', 'CHEMICALS AND REAGENTS FOR WATER TREATMENT, BOILER FEED ONLY', 'CHEMICALS, AGRICULTURAL', 'CHEMICALS, INDUSTRIAL', 'CHEMICALS, LABORATORY', 'CHEMICALS, MISCELLANEOUS', 'CHEMICALS, PHOTOGRAPHIC, ALL TYPES                              (INCLUDES CHEMICAL REJUVENATION)', 'CHEMICALS, RESEARCH', 'CHEMICALS, SWIMMING POOL', 'CHEMICALS, X-RAY FILM', 'CHLORINE', 'CHLORINE, LIQUID', 'CHROMATOGRAPH', 'CHROMATOGRAPH, ACCESSORIES (COLUMNS, DETECTORS, PUMPS)', 'CHROMATOGRAPH, GAS', 'CHROMATOGRAPH, GAS - RENTAL', 'CHROMATOGRAPH, GAS, MASS SPECTROMETER', 'CHROMATOGRAPH, GAS, MASS SPECTROMETER, DATA SYSTEM (GC, MS/DS)', 'CHROMATOGRAPH, ION', 'CHROMATOGRAPH, LIQUID (HPLC)', 'CHRONOMETERS', 'CHRONOMETERS, STOP WATCH TYPE', 'CLAY AND CONCRETE PRODUCTS INDUSTRIES MACHINERY - RENTAL', 'CLEANER-DEGREASER, CONCENTRATED LIQUID , 5 IMP GAL.CONTAINER OR METRIC EQUIVALENT', 'CLEANING AND POLISHING COMPOUND', 'CLEANING COMPOUND, AIRCRAFT SURFACE', 'CLEANING COMPOUND, FUEL TANK AND BILGE', 'CLEANING COMPOUND, SOLVENT', 'CLEANING COMPOUND, SOLVENT GAMLEN 26', 'CLEANING SOLVENT, GREASE REMOVING, EMULSION CAN/CGSB-31.202', 'CLEANING SOLVENT, HYDROCARBON TYPE, CAN 3.8', 'CLIMBING EQUIPMENT SET', 'CLOCKS', 'CLOCKS, DIGITAL', 'CLOCKS, TIME CONTROL SYSTEM', 'CLOTH, BROADCLOTH', 'CLOTH, COATED, POLY VINYL CHLORIDE ONLY', 'CLOTH, COTTON', 'CLOTH, DUCK COTTON POLYESTER, SPUN CORE', 'CLOTH, UPHOLSTERY', 'COATING COMPOUND', 'COATING SYSTEM, BRIDGING, STRIPPABLE, SPRAYABLE', 'COATING SYSTEM, POLYURETHANE FOR AEROSPACE APPLICATION', 'COATINGS, FIRE RETARDANT', 'COATINGS, INORGANIC ZINC', 'COATINGS, INTERNAL, FOR FRESH WATER STORAGE TANK', 'COATINGS, POLYURETHANE', 'COATINGS, PROTECTIVE', 'COFFEE MAKERS, URN (COMMERCIAL)', 'COLORIMETER (ALL TYPES)', 'COMBAT, ASSAULT, AND TACTICAL VEHICLES, TRACKED - PRODUCTION    DESIGN', 'COMBAT, ASSAULT, AND TACTICAL VEHICLES, TRACKED - RENTAL', 'COMBINATION AND MISCELLANEOUS INSTRUMENTS - LEASING', 'COMBINATION AND MISCELLANEOUS INSTRUMENTS - RENTAL', 'COMBINATION LEVEL SENSOR, INVENTORY MANAGEMENT AND LEAK DETECTOR, FOR UNDERGROUND FUEL STORAGE TANKS', 'COMMERCIAL AND INDUSTRIAL GAS CYLINDERS - LEASING', 'COMMERCIAL AND INDUSTRIAL GAS CYLINDERS - RENTAL', 'COMMERCIAL FISHING EQUIPMENT - PRODUCTION DESIGN', 'COMMERCIAL FISHING EQUIPMENT - RENTAL', 'COMMUNICATIONS SECURITY EQUIPMENT AND COMPONENTS - LEASING', 'COMMUNICATIONS SECURITY EQUIPMENT AND COMPONENTS - RENTAL', 'COMPARATORS, OPTICAL PROJECTION', 'COMPARATORS, TEST', 'COMPASS, MAGNETIC, UNMOUNTED, WRIST TYPE', 'COMPOST', 'COMPOUND, ANTISEIZE', 'COMPOUND, CAULKING, OIL BASE', 'COMPOUND, CURING AND SEALING CONCRETE', 'COMPOUND, REPAIR, PLASTIC, CERAMIC FILLED AND/OR METALLIZED', 'COMPRESSORS AND VACUUM PUMPS - LEASING', 'COMPRESSORS AND VACUUM PUMPS - RENTAL', 'COMPUTER AND TURNKEY SYSTEM, USED - RENT', 'COMPUTER SOFTWARE FOR TECHNOLOGY  ASSISTED TRAINING', 'COMPUTER SOFTWARE, ACCOUNTING, FINANCIAL, INSURANCE, PAYROLL    - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ACQUISITION/PROCESSING OF ANALOG/DIGITAL,    SIGNALS (AUDIO,VIDEO,SEISMIC,ETC) INCL.MACH.VISION,VOICE RECOGNITION,INST.SIGNALS,ROBOTICS,NUM.MACH.CONT,ETC-MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, ACQUISITION/PROCESSING OF ANALOG/DIGITAL,    SIGNALS (AUDIO,VIDEO,SEISMIC,ETC)INCL.MACH.VISION,VOICE RECOGN. INST.SIGNALS,ROBOTICS,NUM.MACH.CONT.ETC-OTHER THAN MICROCOMPUTER', 'COMPUTER SOFTWARE, ARTIFICIAL INTELLIGENCE, EXPERT SYSTEMS      - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ARTIFICIAL INTELLIGENCE, EXPERT SYSTEMS -    MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, BUILDING CONSTRUCTION, FACILITY/PROPERTY     MANAGEMENT - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, BUILDING CONSTRUCTION, FACILITY/PROPERTY     MANAGEMENT - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, BUSINESS ADMINISTRATION/MANAGEMENT, PLANNING, MARKET TRADE AND SALES ANALYSIS, ECONOMICS - OTHER THAN        MICROCOMPUTERS', 'COMPUTER SOFTWARE, BUSINESS ADMINISTRATION/MANAGEMENT, PLANNING,MARKET TRADE AND SALES ANALYSIS, ECONOMICS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, CD-ROM  MICROCOMPUTER ONLY', 'COMPUTER SOFTWARE, COMPUTER AIDED DESIGN/COMPUTER AIDED MFG/    COMPUTER INTEGRATED MANUFACTURING (CAD/CAM/CIM) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, COMPUTER AIDED DESIGN/COMPUTER AIDED MFG/    COMPUTER INTEGRATED MANUFACTURING (CAD/CAM/CIM) - OTHER THAN  MICROCOMPUTERS', 'COMPUTER SOFTWARE, DATA BASE MANAGEMENT, INFORMATION RETRIEVAL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, DATA COMMUNICATIONS, INCLUDING MODEM/LINE    CONTROL, PROTOCOL, CONVERSION, TERMINAL EMULATION, VOICE AND OR DATA NETWORK MANAGEMENT, ETC.- MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, DATA COMMUNICATIONS, INCLUDING MODEM/LINE    CONTROL, PROTOCOL, CONVERSION, TERMINAL EMULATION, VOICE AND OR DATA NETWORK MANAGEMENT, ETC.- OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ENGINEERING, SCIENTIFIC, MATHEMATICAL,       STATISTICAL, MODELING, SIMULATION, EMULATION, ENERGY - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, ENGINEERING, SCIENTIFIC, MATHEMATICAL,       STATISTICAL, MODELING, SIMULATION, EMULATION, ENERGY - OTHER    THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, FOURTH GENERATION LANGUAGES, APPLICATION     GENERATORS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, HOTEL MANAGEMENT (INCLUDES INN, MOTEL,       RESTAURANT) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, HUMAN RESOURCES MANAGEMENT, PERSONNEL, ETC.  - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, HUMAN RESOURCES MANAGEMENT, PERSONNEL, ETC.- MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LEGAL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LEGAL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, LIBRARY SYSTEMS, RECORDS MANAGEMENT,         CATALOGUING, CORRESPONDENCE CONTROL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LIBRARY SYSTEMS, RECORDS MANAGEMENT,         CATALOGUING, CORRESPONDENCE CONTROL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, MATERIEL MANAGEMENT, INVENTORY CONTROL -     MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MATERIEL MANAGEMENT, INVENTORY CONTROL -     OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, MEDICAL AND HEALTH CARE - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MEDICAL AND HEALTH CARE - OTHER THAN         MICROCOMPUTERS', 'COMPUTER SOFTWARE, MILITARY APPLICATIONS, EMERGENCY PLANNING    CIVIL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MILITARY APPLICATIONS, EMERGENCY PLANNING    CIVIL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, OTHER (NOT ELSEWHERE LISTED) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, PROG.AIDS, COMPUTER LANGUAGES AND SOFTWARE/  SYSTEM DEV.TOOLS,COMPUTER AIDED SOFTWARE ENG.(CASE) EXCL. 4GL   - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, PROG.AIDS,COMPUTER LANGUAGES AND SOFTWARE/   SYSTEM DEV.TOOLS,COMPUTER AIDED SOFTWARE ENG.(CASE) EXCLUDING   4GL  - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, PROJECT MANAGEMENT, PLANNING AND SCHEDULING, REPAIR, MAINTENANCE AND OVERHAUL MANAGEMENT - MICROCOMPUTERS    ONLY', 'COMPUTER SOFTWARE, RESERVATION SYSTEMS - OTHER THAN             MICROCOMPUTERS', 'COMPUTER SOFTWARE, SECURITY, PRIVACY, ENCRYPTION, AUDIT CONTROLS/AIDS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, SECURITY, PRIVACY, ENCRYPTION, AUDIT CONTROLS/AIDS - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE,</t>
         </is>
@@ -718,18 +751,26 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>dynamomI!tre, automobiles</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>HygromI!tres</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>244312</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>4933</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['AI(c)rateur de mI(c)canique', 'AI(c)ronef IE voilure fixe', 'AI(c)ronef IE voilure fixe - rI(c)paration', 'AI(c)ronef divers, composants et rechanges I(c)lectriques et I(c)lectroniques', 'AI(c)ronef sans pilote', 'AI(c)ronef, aile fixe, civiles - rI(c)paration et rI(c)vision', 'AI(c)ronef, aile fixe, militaires - rI(c)paration et rI(c)vision', 'AI(c)ronefs - voilure tournante', 'AI(c)ronefs - voilure tournante - dessin de production', 'AI(c)ronefs - voilure tournante - rI(c)paration', "AI(c)ronefs louI(c)s par l'Iatat ou lui appartenant  - opI(c)ration, entretien et rI(c)paration", 'AI(c)rosols, peinture, vernis, etc.', 'Abonnements des bibliothI!ques', 'Abrasif, IE grain', 'Abrasif, assortiments de toiles', 'Abris IE murs rigides', 'Abris IE murs rigides - location', 'Abris IE murs rigides, transportables, usage militaire', 'Absorbant, huile et eau', 'Absorbants - produits chimiques', 'AccI(c)lI(c)romI!tre, I(c)lectrique, linI(c)aire, sauf pour commande de tire-missile', "Accessoire d'instruction mI(c)dical, anatomique, physiologique mannequins", 'Accessoires IE dessin, non classifiI(c)s ailleurs', "Accessoires d'enregistrement du son", "Accessoires d'instruction", "Accessoires d'instruction - fonctionnement et entretien", "Accessoires d'instruction - rI(c)paration", "Accessoires d'instruction, aI(c)ronefs sauf I(c)lectrique et I(c)lectronique - rI(c)paration et rI(c)vision", "Accessoires d'instruction, pour vI(c)hicules militaires sauf aI(c)ronefs et I(c)lectroniques", 'Accessoires de centrifugeuse, incluant rotors, gaines, tubes', 'Accessoires de grues et de pelles-grues', 'Accessoires de grues et de pelles-grues - rI(c)paration', 'Accessoires de machines complI(c)mentaires IE travailler les mI(c)taux', 'Accessoires de machines et outils', 'Accessoires de machines et outils - rI(c)paration', 'Accessoires de microscope, sauf I(c)lectroniques', "Accessoires de rI(c)frigI(c)ration et d'air climatisI(c), industriels", 'Accessoires de sauvetage', 'Accessoires de spectrophotomI!tre', 'Accessoires de vI(c)hicule, chapeau de boI"te pour camions lI(c)gers, fibre de verre ou aluminium', 'Accessoires divers de moteurs', "Accessoires divers de moteurs d'aI(c)ronefs", "Accessoires divers de moteurs d'aI(c)ronefs (militaires) - rI(c)paration et rI(c)vision", 'Accessoires divers de moteurs, sauf pour aI(c)ronefs', 'Accessoires divers de moteurs, sauf pour aI(c)ronefs - rI(c)paration', 'Accessoires divers de moteurs, sauf pour aI(c)ronefs, vI(c)hicule blindI(c)s de combat, modI!le militaire standard', 'Accessoires divers pour aI(c)ronefs et composants, N.E.A., sauf I(c)lectriques et I(c)lectroniques', "Accessoires et composants d'essai coaxial et guide d'ondes", 'Accessoires et composants divers pour aI(c)ronefs', 'Accessoires et composants divers pour aI(c)ronefs (militaires) - rI(c)paration et rI(c)vison', 'Accessoires et composants divers pour aI(c)ronefs - rI(c)paration et rI(c)vision', 'Accessoires et costumes de plongeurs', 'Accessoires et fournitures optiques en fibre - rI(c)paration', 'Accessoires et fournitures pour fibres optiques', 'Accessoires et garnitures de vI(c)hicules', 'Accessoires et garnitures de vI(c)hicules - rI(c)paration', 'Accessoires et garnitures de vI(c)hicules, standard commercial', 'Accessoires et garnitures de vI(c)hicules, vI(c)hicules IE effet de sol', 'Accessoires pour bI(c)ton, coffrage et I(c)chafaudage', 'Accessoires pour outils IE main IE moteur', 'Accessoires radiographiques - rI(c)paration', 'Accessoires radiographiques et approvisionnements, mI(c)dical, dentaire et vI(c)tI(c)rinaire - location', 'Accessoires, tI(c)lI(c)vision en circuit fermI(c)', "Accessories de vI(c)hicules de systI!me d'arme", 'Accouplements flexibles', 'Accouplements mI(c)caniques, N.E.A.', 'Achat de mI(c)dia/placement en publicitI(c)', 'Acide chlorhydrique, technique, muriatique, CAN/ONGC-15.33-92', 'Acide sulfurique, de qualitI(c) I(c)lectrolytique, catI(c)gorie 1 et 3,  CAN/ONGC-15.8-92', 'Acides', 'Acier, de construction', 'Acier, grenaille', 'Acquisition de donnI(c)es et matI(c)riel de collecte, en direct - entretien', 'Adaptation des langages', 'Additifs et conditionneurs, huile combustible', 'AdhI(c)sif, colle', 'AdhI(c)sifs', 'Administration de tests professionnels et psychomI(c)triques', "Administration et traitement des demandes de rI!glement - rI(c)gimes d'assurance", "Adoucisseurs d'eau", 'AffIEteuse, couteau, abrasive', 'AffrI!tement aI(c)ronef IE voilure fixe - AffrI!tement avion', 'AffrI!tement aI(c)ronef IE voilure tournante - AffrI!tement hI(c)licoptI!re', 'AffrI!tement de vaisseau', 'AffrI!tements', 'Agencements de plomberie', 'Agencements de plomberie, institution', 'Agencements et accessoires de plomberie', 'Agencements et accessoires de plomberie - location', 'Agencements et accessoires de plomberie - rI(c)paration', 'Agencements et dispositifs spI(c)ciaux pour conduites, tubes et tuyaux - rI(c)paration', 'Agencements pour cordes, cIC/bles et chaI"nes', 'Agent de dI(c)contamiation', 'Agents chimiques de combat', 'Agents de lutte contre les flI(c)aux, et dI(c)sinfectants', 'Agents extincteurs', 'AgrI(c)gat, construction, argile rI(c)fractaire, concassI(c)', 'Agriculture (R&amp;D)', 'Aide gI(c)nI(c)rale de bureau', 'Aide temporaire, N.E.A.', 'Aides ambulatoires', 'AlI(c)seuses', 'Alarmes anti-intrusion', 'Alcool', 'Alimentation I(c)lectrique solaire', 'Alimentation en eau', 'Alimentation ininterrompue, monophasI(c)e, 2 KilovoltampI!res et plus - rI(c)paration', "Alimentation, I(c)quipement d'essai I(c)lectrique", 'Aliments diI(c)tI(c)tiques spI(c)ciaux et prI(c)parations alimentaires spI(c)ciales', 'Aliments diI(c)tI(c)tiques spI(c)ciaux et prI(c)parations alimentaires spI(c)ciales (remplacI(c) par nibs N8940Z)', 'AltimI!tres, topographie', 'Aluminium', 'Aluminium de refoulage', 'Aluminium, barres et tiges', 'AmI(c)nagement et contrI&lt;&lt;le du milieu', 'AmI(c)nagement intI(c)rieur/rI(c)novations', 'AmI(c)nagement paysager intI(c)rieur', 'Ambulances, rI(c)paration et rI(c)vision', 'Ameublement domestique', 'Ameublement et articles de cultes', 'Ameublement, rembourrage - rI(c)paration', 'Amiante', 'Amortisseurs, pour vI(c)hicules IE chenilles et IE roues, sauf vI(c)hicules IE effet de sol et blindI(c) de combat', 'Amplificateurs', 'Amplificateurs et prI(c)amplificateurs, essai', 'Amplificateurs, essai', 'Amplificateurs, radiofrI(c)quence', 'AnI(c)momI!tre, type mI(c)tI(c)orologique', "Analyse des donnI(c)es - RI(c)alisation d'un sondage", 'Analyse des mI(c)dias', 'Analyse des substances dangereuses -Secteur construction', 'Analyse en temps rI(c)el - science et technologie (R&amp;D)', 'Analyse et I(c)valuation de site web', "Analyse et technologie de l'acoustique (R&amp;D)", 'Analyse fonctionnelle et statistique', "Analyses sur la qualitI(c) d'air", 'Analyseur multicanal optique', 'Analyseur radio-isotope', 'Analyseur, essai', 'Analyseur, viande, teneur en matiI!res grasses', 'Analyseurs', 'Analyseurs chimiques, automatiques, comprend mI(c)dicaux', "Analyseurs d'I(c)chantillon liquide", 'Analyseurs de gaz, comprend NOX, CO, CO2, SO2, O2, exclut type  danger', 'Analyseurs de surface, orientI(c)s, spectromI!tres de photoI(c)lectrons Auger, I(c)pitaxie de faisceau molI(c)culaire, dI(c)pI&lt;&lt;t de vapeur chimique', 'Analyseurs, I(c)lI(c)mentaires, C, H, N, TOC', "Analyseurs, I(c)quipement d'essai I(c)lectronique, voir aussi trousses d'essai, I(c)quipement d'essai I(c)lectronique", 'Analyseurs, aminoacide', 'Analyseurs, automatiques, coagulation', 'Analyseurs, cytomI!tres IE flux continu', 'Analyseurs, de spectres', 'Analyseurs, dimension de particules', 'Analyseurs, fraI"cheur du poisson', 'Analyseurs, gaz dans le sang, I(c)lectrolytes, PCO, PH, PO, NA, K, CA', 'Analyseurs, polarographe', 'Analyseurs, sonde I(c)lectronique, microsonde', 'Analyseurs, tirage photographique couleur', 'Ancres, flottantes', 'Angles en acier', 'Angles en aluminium, cannelures et sections', 'Animaux vivants, I(c)levI(c)s pour la consommation', 'Animaux vivants, laboratoire', 'Animaux vivants, non I(c)levI(c)s pour la consommation', 'Animaux vivants, non I(c)levI(c)s pour la consommation - location', "Anneaux d'I(c)tanchI(c)itI(c)", "Anneaux d'arrI&gt;&gt;t", 'Antennes et systI!mes de radio et de tI(c)lI(c)vision', "Antennes, guides d'ondes et I(c)quipement connexe", "Antennes, guides d'ondes et I(c)quipement connexe - installation", "Antennes, guides d'ondes et I(c)quipement connexe - location", "Antennes, guides d'ondes et I(c)quipement connexe - location IE bail", "Antennes, guides d'ondes et I(c)quipement connexe - rI(c)paration et rI(c)vision", 'Anticorrosif, huile', 'Antigel pour moteurs de vI(c)hicules automobiles', 'Antigel, lave-glace, diluI(c)', 'Appareil IE pression de vapeur', 'Appareil IE rayons X, sauf mI(c)dical, dentaire et vI(c)tI(c)rinaire', 'Appareil aI(c)rosol, mI(c)dical', "Appareil dI(c)terminant le point d'I(c)bullition", 'Appareil pour sI(c)chage IE froid', 'Appareil radiographique, industriel', 'Appareil tI(c)lI(c)phonique', 'Appareillage I(c)lectromagnI(c)tique', 'Appareillage de rI(c)sistivitI(c)', 'Appareils IE I(c)prouver la duretI(c) de matI(c)riaux', 'Appareils auditifs', 'Appareils cinI(c)matographiques', 'Appareils cinI(c)matographiques - location', 'Appareils cinI(c)matographiques - location IE bail', 'Appareils cinI(c)matographiques - rI(c)paration', "Appareils cinI(c)matographiques, d'aI(c)ronef et accessoires", 'Appareils cinI(c)matographiques, grande sensibilitI(c) et faible sensibilitI(c), analyse de cas et instrumentation', 'Appareils cinI(c)matographiques, ultra miniature, 8 mm, super 8 mm,  cassette, amateur', "Appareils d'I(c)clairage d'I(c)difice - installation et rI(c)paration", 'Appareils d\'instruction de d\'entraI"nement concernant l\'armement, I(c)lectroniques, accessoires et rechanges', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement - rI(c)paration', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement, I(c)lectroniques, cibles de tir', 'Appareils d\'instruction et d\'entraI"nement concernant les transmissions', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels I(c)lectroniques, simulateurs, vol et tactiques', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels,  I(c)lectroniques, simulateurs, marine', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels, aI(c)ronautique - rI(c)paration et rI(c)vision', "Appareils d'instruction opI(c)rationnels", "Appareils d'instruction opI(c)rationnels - location", "Appareils d'instruction opI(c)rationnels - rI(c)paration", "Appareils d'instruction, amerrissage forcI(c), aI(c)ronef", 'Appareils de gouverne', 'Appareils de lancement de grenades, roquettes et artifices', 'Appareils de lancement de torpilles et grenades sous-marines', 'Appareils de lancement pour engins pyrotechniques et roquettes - rI(c)paration', 'Appareils de prI(c)lI!vement, systI!me de traitement des eaux rI(c)siduaires', 'Appareils de visI(c)e et calculateurs de conduite de tir -  rI(c)paration', 'Appareils de visI(c)e, conduite de tir, N.E.A.', 'Appareils de visI(c)e, optiques, conduite de tir', 'Appareils de visI(c)e, optiques, conduite de tir, armes portatives', 'Appareils de visI(c)es et calculateurs de conduite de tir', 'Appareils directeurs de conduite de tir', 'Appareils domestiques et commerciaux divers, I(c)lectriques - rI(c)paration', 'Appareils domestiques et industriels de types divers', 'Appareils optiques en fibre - rI(c)paration', 'Appareils optoI(c)lectroniques et matI(c)riel connexe', 'Appareils photographiques', 'Appareils photographiques - location', 'Appareils photographiques - rI(c)paration', 'Appareils photographiques et accessoires, aI(c)ronef', 'Appareils photographiques, 35 mm, professionnels, sauf sous-marin', 'Appareils photographiques, amateurs, 110 - 126 disques', 'Appareils photographiques, identification', 'Appareils photographiques, microfilm', 'Appareils photographiques, sous-marin', 'Appareils transporteurs', 'Appareils transporteurs - location', 'ApprI&gt;&gt;t, pour bitume', 'Aquaculture (R&amp;D)', 'Arbres, hI(c)lice-marines', 'Arbrisseaux et arbres dI(c)coratifs', 'Architecture navale', 'Architecture navale - services de consultation', 'Architecture navale - services de dessin', 'Armature IE bI(c)ton', 'Armes chimiques et I(c)quipement', 'Armes diverses', 'Armes diverses - rI(c)paration', 'Armes et I(c)quipement militaires conventionnels (R&amp;D)', 'Armes portatives et accessoires,  mise en vigueur de la loi', 'Armes portatives et accessoires, militaires - rI(c)paration et  rI(c)vision', 'Armoire vitrine, hI&lt;&lt;pital', 'Armoire, IE dessiccation, exclut les dessiccateurs', 'Armoire, boI"te, individuelle', 'Armoire, laboratoire', 'Armoire, laboratoire, dessiccation, IE vide, exclut les dessiccateurs', 'Armoire, rangement, de laboratoire, inclut en bois, mI(c)tal, plastique', 'Armoires de rangement', 'Armoires de rangement, photographiques', 'Armoires de rangement, photographiques, cinI(c)matographiques, bobines et boI"tes', 'Armoires, de sIEretI(c), liquides inflammables et combustibles', 'Armoires, de sIEretI(c), rangement en gros, SPEC SSC/SES 110, MAS LPH', 'Armoires, rangement, rubans magnI(c)tiques, cassettes et pellicules', 'Articles de bureau et accessoires - entretien', 'Articles de bureau et accessoires - location IE bail', 'Articles de collectionneurs', 'Articles de fumeurs et allumettes', 'Articles de toilette personnelle', 'Articles divers', 'Articles divers - location IE bail', 'Articles divers - rI(c)paration', "Articles divers de l'armement et munitions nuclI(c)aires", 'Articles et accessoires de bureau', 'Articles funI(c)raires - installation', 'Articles funI(c)raires - rI(c)paration', 'Articles promotionnels (ImprimI(c)s seulement)', 'Ascenseurs et I(c)lI(c)vateurs - location', 'Aspirateurs domestiques, rI(c)paration et rI(c)vision', 'Assemblages et faisceaux de cIC/bles en fibres optiques', 'Assortiments de boisson soluble, non alcoolisI(c)e', 'Assortiments de joints, caoutchouc', 'Astronautique (R&amp;D)', 'AttI(c)nuateurs, essai', 'Attache, feuillard et emballage', 'Attirail de pI&gt;&gt;che automatisI(c)', 'Autobus', 'Autobus - rI(c)parations et service', 'Autobus scolaires, de type conventionnel, 25 passagers et plus', 'Autobus, scolaires, type spI(c)cial, 5 IE 24 passagers', 'Autobus, service de navette', 'Autobus, type de route', 'Autoclaves, I(c)changeurs de chaleur et condenseurs de vapeur', 'Autoneige (motoneige) - location', "Autoroutes, rues, routes, voies ferrI(c)es, pistes d'aI(c)roport", 'Autres I(c)quipements cryptographiques et composants - rI(c)paration', 'Autres I(c)quipements de sI(c)curitI(c) des tI(c)lI(c)communications et composants', 'Autres I(c)tudes environnementales', 'Autres I(c)tudes techniques', "Autres services d'architecture et d'ingI(c)nierie - Immobilier", "Autres services d'entretien et activitI(c)s connexes", 'Autres services de ressources naturelles et de conservation', 'Autres services de tI(c)lI(c)communications', "Autres services techniques et d'inspection, d'essai et de contrI&lt;&lt;le de la qualitI(c) en construction", "Autres travaux d'achI!vement et de finition des bIC/timents", "Autres travaux d'installation", 'Autres travaux de pose de revI&gt;&gt;tement de sol et de papier peint', 'Auvents', 'Avertisseur, extinction automatique par aspersion', 'Avion', 'Avion de navette', 'Avions, certifiI(c)s pour les vols civils', 'BI(c)ret', 'BI(c)ton', 'BI(c)ton prI(c)mI(c)langI(c)', 'BI(c)ton, mI(c)langI(c), en sacs', 'BI(c)ton, scellant pour joint', 'BIC/che, canevas et couvertures protectrices, tissus renforcI(c)s', 'BIC/ti de porte, bois', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - location', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - location IE bail', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - rI(c)paration', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables, construction spI(c)ciale', "BIC/timents prI(c)fabriquI(c)s, IE l'I(c)preuve des balles", 'BIC/timents, prI(c)fabriquI(c)s, bI(c)ton moulI(c)', "BIC/timents, prI(c)fabriquI(c)s, bois, I(c)conomie d'I(c)nergie", 'BIC/timents, prI(c)fabriquI(c)s, en bois', 'BIC/timents, prI(c)fabriquI(c)s, en fibre de verre', 'BIC/timents, prI(c)fabriquI(c)s, en mI(c)tal', 'BIC/timents, prI(c)fabriquI(c)s, garage', 'BIC/timents, prI(c)fabriquI(c)s, gonflables ou soutenus par air', 'BIC/timents, prI(c)fabriquI(c)s, lambrissI(c)s (panneaux ouverts ou fermI(c)s)', 'BIC/timents, prI(c)fabriquI(c)s, lambrissI(c)s, panneaux ouverts ou fermI(c)s', 'BIC/timents, prI(c)fabriquI(c)s, modulaires ou en sections', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, chantier  industriel autonome', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, laboratoire', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, salles de classe et I(c)coles - location', 'BIC/timents, prI(c)fabriquI(c)s, pour entreposage', 'BIC/timents, prI(c)fabriquI(c)s, serre', 'BIC/timents, prI(c)fabriquI(c)s, types', 'BIC/timents, prI(c)fabriquI(c)s, usage spI(c)cial', 'BIC/tis de fenI&gt;&gt;tre, bois', 'BIC/tonnets rI(c)actifs et tableau colorimI(c)trique', 'BIEche', 'Bacs de recyclage', 'Bagage - rI(c)parations', 'Bagages', "Bagues d'I(c)tanchI(c)itI(c) et segments d'I(c)tanchI(c)itI(c), sauf modI!le spI(c)cial", 'Baguette en cuivre et en laiton', 'Bain tourbillon', 'Bains', 'Balais I(c)lectriques et I(c)lectrodes', 'Balais, brosses, balais IE franges et I(c)ponges', 'Balais, brosses, balais IE franges et I(c)ponges - location', 'Balais, brosses, balais IE franges et I(c)ponges - location IE bail', 'Balais, brosses, balais a franges et I(c)ponges - rI(c)paration', 'Balance', 'Balance, IE ressort, balance directe et type IE cadran', 'Balance, pI!se-personne, examen de mI(c)decin et IE plateaux', 'Balance, plateau', "Balance, poids de l'essieu", 'Balances - rI(c)paration et rI(c)vision', 'Balances et machines IE peser - location', 'Balances et machines IE peser - location IE bail', 'Balances et machines IE peser - rI(c)paration', 'Balances et pesI(c)es', 'Balayeuses et I(c)quipement pour dI(c)blayage de la neige - rI(c)paration et rI(c)vision', 'Balayeuses, entrepI&lt;&lt;t, IE siI!ge, automotrices', "Balayeuses, piste d'aI(c)roport", 'Balise, radar de veille secondaire (RVS) I(c)quipement radar, sauf aI(c)ronefs', "Balises de piste d'envol", 'Ballasts de lampes, douilles et starters', 'Ballasts de lampes, douilles et starters - rI(c)paration', 'Ballon, mI(c)tI(c)orologiques', 'Ballons publicitaires et promotionnels', 'Banc de contrI&lt;&lt;le, non destructeur', "Bancs d'I(c)talonnage, tension", 'Bandage pour pneumatique', 'Bandages et pansements', 'Bandages pleins et pneumatiques', 'Bande en plastique, avertissement de barricade', 'Bande, calorifuge', 'BarbelI(c)', "Bardeaux d'amiante", 'Bardeaux, bois', 'Barges, spI(c)cialisI(c)es', 'BaromI!tre mI(c)tI(c)orologique, tous les types', 'BaromI!tres, anI(c)roIodes et mercuriels, sauf mI(c)tI(c)orologiques', 'Barre mI(c)tallique (acier)', 'Barre, nickel, monel, inconel et incoloy', 'Barres et ronds, en mI(c)taux non ferreux', 'Barres et tiges', 'BarriI!re de sI(c)curitI(c) hydraulique', 'BarriI!res mI(c)talliques', 'Base de donnI(c)es - imagerie variable', 'Base de donneI(c)s de nouvelles en ligne', 'Bassin de lit, en acier', 'Bassin, rI(c)niforme, acier inoxydable', 'Bateaux de dI(c)barquement, tous les types', 'Bateaux de pI&gt;&gt;che', 'Bateaux de pI&gt;&gt;che - location', 'Bateaux de pI&gt;&gt;che - rI(c)paration', 'Bateaux de servitude', 'Bateaux de servitude - rI(c)paration', 'Bateaux divers', 'Bateaux divers - location IE bail', 'Bateaux divers - rI(c)paration', 'Bateaux lI(c)gers, aluminium', 'Bateaux lI(c)gers, fibre de verre - rI(c)paration et rI(c)vision', 'Bateaux pneumatiques, coque rigide', 'Bateaux, marine, divers - chambre de recompression - radoub, rI(c)paration, rI(c)vision, modification et entretien', 'BibliothI!que, type bureau', 'BibliothI!ques, type IE bord navire incluant supports', 'Biochimie (R&amp;D)', 'Biologie (R&amp;D)', 'Bioxyde de carbone, technique, glace sI!che', "Bittes d'amarrage, bollards et taquets", 'Bitume asphaltique liquide, apprI&gt;&gt;t et ciment, pour route', 'Bitume asphaltique, toiture', 'Blanchissage et nettoyage IE sec', "Bloc d'alimentation I(c)lectrique sans coupure - Entretien", "Bloc d'alimentation I(c)lectrique sans coupure - installation et rI(c)paration", 'Blousons, pantalon, combinaison, culottes courtes', 'BoI"te IE outils, portative', 'BoI"te IE outils, portative, mI(c)tallique', 'BoI"te d\'expI(c)dition', 'BoI"te d\'expI(c)dition, bois', 'BoI"te, plastique', 'BoI"tes IE munitions, emballages et conteneurs spI(c)ciaux', 'BoI"tes IE outils et IE quincaillerie', 'BoI"tes IE outils et IE quincaillerie - location', 'BoI"tes aux lettres, autres que domestiques ou IE bord de navire', 'BoI"tes de vitesse intermI(c)diaires/boI"tes d\'engrenage, assemblage de l\'entraI"nement final, vI(c)hicule blindI(c) de combat, modI!le militaire standard', 'BoI"tes en carton', 'BoI"tes, caisses, cartons, caisses IE claire-voie et cadres - rI(c)paration', 'BoI"tes, cartons et caisses IE claire-voie', 'BoI"tes, emballages et conteneurs spI(c)ciaux pour munitions classiques et nuclI(c)aires', 'Bobines de self-induction et transformateurs', 'Bobines de self-induction et transformateurs - rI(c)paration et rI(c)vision', 'Bobines de ventilateurs, industriels', 'Bobines thermiques, industrielles', 'Bois dI(c)bite et autres matI(c)riaux de base dI(c)rivI(c)s du bois', 'Bois de construction', 'Bois de construction pressurisI(c)', 'Bois de construction, bois dur', 'Bois de construction, bois dur, planchI(c)iage de quai', 'Bois de construction, bois dur, teck', 'Bois de construction, bois tendre, baume, sapin et jaquier', 'Bois de construction, bois tendre, blanchi, classifiI(c)', "Bois de construction, bois tendre, de l'ouest", 'Bois de construction, bois tendre, sapin de Douglas dense', 'Bois de construction, brut, local', 'Bois de construction, cI!dre', 'Bois de construction, ignifuge', 'Bois de construction, traitI(c), construction marine', 'Bois de menuiserie', 'Bois de menuiserie - rI(c)paration', 'Bois feuillu pour parquetage', 'Bois modulaire de services collectifs', 'Bois, de chauffage', 'Boissons alcoolisI(c)es (remplacI(c) par nibs N8965ZA)', 'Boissons en concentrI(c) avec distributeur de location', 'Boissons gazeuses', 'Boissons, alcoolisI(c)es', 'Boissons, non alcoolisI(c)es (remplacI(c) par nibs N8960Z)', 'Bombes', 'Bombes nuclI(c)aires', 'Bonneterie, ganterie et accessoires vestimentaires pour femmes', 'Bonneterie, ganterie et accessoires vestimentaires pour hommes', 'Bonneterie, ganterie et accessoires vestimentaires pour hommes - rI(c)paration', "Borne d'incendie", "Borne d'incendie - rI(c)paration et rI(c)vision", 'Bossoirs', 'Bottes de combat', 'Bottes de sI(c)curitI(c)', 'BouI(c)es', 'BouI(c)es - rI(c)paration', 'BouI(c)es acoustiques', 'BouI(c)es, acquisition de donnI(c)es', 'BouI(c)es, en plastique', 'BouI(c)es, tous les types, sauf en plastique', 'Bouchon, boI"te fermant IE clI(c)', 'Bouilloires, prI(c)paration des aliments', 'Boulangerie, spI(c)cialitI(c)s , non I(c)numI(c)rI(c)s ailleurs', 'Boulons', 'Boulons, aI(c)ronef', 'Boulons, tous genres et matI(c)riaux, sauf aI(c)ronef', 'Boussole portative, genre bracelet', "Bouteille, fiole, verre, distribution d'ordonnances", 'Bouteilles IE gaz commerciales et industrielles - location', 'Bouteilles IE gaz commerciales et industrielles - location IE bail', 'Bouteilles et bocaux', 'Bouterolle, tI&lt;&lt;le', 'Boutons et aiguilles', 'BrIEleur IE gaz, commercial', 'BrIEleur IE gaz, laboratoire', "BrIEleur IE l'huile, composants", 'BrIEleur IE mazout', 'BrIEleur IE mazout, commercial', 'BrIEleurs IE mazout - rI(c)paration et rI(c)vision', 'Breuvages non alcoolisI(c)s, jus en cristaux (remplacI(c) par nibs N8920ZC)', 'Briques, argiles, non rI(c)fractaires', 'Briques, isolantes et rI(c)fractaires', 'Brocheuses', 'Brocheuses - rI(c)paration', 'Brosse, nettoyage de piI!ces et outils, en nylon', "Brosses, balayeuse, route et piste d'aI(c)roport", 'Broyeur IE ordures, commercial', 'Broyeurs IE ordures', 'Broyeurs IE ordures, N.E.A.', 'Broyeurs, feuilles, arbrisseau, etc.', 'Broyeurs, laboratoire', 'Bulldozers, dirigI(c)s', 'Bureau', 'Buse de drainage, sauf demi coquilles', "CIC/blage de matI(c)riel informatique d'immeuble - installation", 'CIC/ble I(c)quipI(c), I(c)lectrique, pour vI(c)hicules IE chenilles et IE roues', 'CIC/ble I(c)quipI(c), I(c)lectrique, pour vI(c)hicules IE chenilles et IE roues, sauf vI(c)hicules marins, IE effet de sol et blindI(c) de combat', 'CIC/ble mI(c)tallique, acier inoxydable, non magnI(c)tique', 'CIC/ble mI(c)tallique, acier, ininflammable', 'CIC/ble mI(c)tallique, cIC/ble I(c)quipI(c)', 'CIC/ble mI(c)tallique, galvanisI(c), pour filets de sI(c)curitI(c)', "CIC/bles de commande d'aI(c)ronef", 'CIC/bles de fibre, cordage et ficelles', 'CIC/bles optiques en fibre', 'CIC/bles, I(c)lectriques, mI(c)caniques, I(c)quipement de dI(c)tection sous-marine', 'CIC/bles, ancre et chaI"ne', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication - location', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication - rI(c)paration', 'CIC/bles, cordons et fils I(c)lectriques, I(c)quipement de tI(c)lI(c)communications - installation', "COURS DE FORMATION SUR L'ASSURANCE DE LA QUALITE", 'Cabestans', 'Cabine de vI(c)hicule, carrosserie et composants de structure du chIC/ssis - nouvelles peinture et finition', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - dessin de production', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - location', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - rI(c)paration', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis, sauf modI!le militaire', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis, vI(c)hicule blindI(c) de combat, modI!le militaire standard', 'Cabine, examen audiomI(c)trique', 'Cabine, insonore', 'Cabines, pulvI(c)risation', 'Cabinets de douche', 'Cabinets et meubles, en bois - marine', 'Cadenas', 'Cadenas, type clI(c)', 'Cadrans, numI(c)riques', 'Cadrans, sI(c)lecteur, graduI(c), tous genres', 'Cadre, dI(c)coration', 'Cadres de porte en mI(c)tal', 'CafI(c)', 'CafI(c) (remplacI(c) par nibs N8955ZA)', 'CafI(c), thI(c) et cacao', 'CafetiI!res, fontaine (commerciales)', 'Cages, animaux', 'Caillebotis, mI(c)tallique', 'Caisse, transport, avec garnitures intI(c)rieures en mousse moulI(c)e', 'Caisses IE claire-voie, bois', 'Calcium', 'Cales I(c)talons, carrI(c)s, cylindriques, annulaires', 'Cales sI!ches, flottantes', 'Cales sI!ches, flottantes - rI(c)paration', 'Cales, entretoises', 'Calfeutrage, porte, fenI&gt;&gt;tre', 'Calibres de formes, gabarits de guidage, appareils de contrI&lt;&lt;le', 'Calibres de formes, gabarits de guidage, appareils de contrI&lt;&lt;le  - rI(c)paration', "Calibreurs, I(c)quipement d'essai I(c)lectronique", 'CalorimI!tres', 'CalorimI!tres et analyseurs thermiques', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c)', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c), application, sous-marin', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c), infrarouge', 'CamI(c)ra, vidI(c)o', 'CamI(c)ra-enregistreuse', 'CamI(c)ra-enregistreuse, pour diffusion, ruban 1/2 po, couleur, vidI(c)o', 'CamI(c)ra-enregistreuse, pour diffusion, ruban 1/2 po, numI(c)rique, couleur, vidI(c)o', 'Camion IE essence, I(c)pandeur de sable, caisse IE trI(c)mie', 'Camion IE essence, basculant, IE ridelles, fourgon', 'Camion basculant, diesel, PNBV 27 500 lb et plus - location', "Camion basculant, diesel, PNBV jusqu'IE 27 499 lb - location", "Camion de lutte contre l'incendie", "Camion de lutte contre l'incendie - rI(c)paration", 'Camion et tracteur de semi-remorque, sur roues, IE essence, PNBV plus de 10,000 lbs, sauf modI!le militaire', 'Camion et tracteur de semi-remorque, sur roues, diesel, PNBV plus de 10,000 lbs, sauf modI!le militaire', 'Camion, I(c)pandeur de sable, caisse IE trI(c)mie, diesel, PNBV de 27,500 lb et plus', "Camion, I(c)pandeur de sable, caisse IE trI(c)mie, diesel, PNBV jusqu'IE 27,499 lb", "Camion, I(c)quipe d'une grue hydraulique", 'Camion, IE ordures, diesel, PNBV 27,500 lb et plus', "Camion, IE ordures, diesel, PNBV jusqu'IE 27,499 lb", 'Camion, atelier non I(c)quipI(c), IE essence', 'Camion, atelier non I(c)quipI(c), PNBV 27,500 lb et plus', "Camion, automoteur, pour chargement et dI(c)chargement de marchandise IE bord d'aI(c)ronefs", "Camion, basculant IE ridelles, fourgon, diesel, PNBV jusqu'IE 27,499 lb", 'Camion, carrosserie conI$?u sur commande, pour besoins spI(c)ciaux', 'Camion, dI(c)panneuse, IE essence', 'Camion, destruction des dI(c)chets liquides, diesel, PNBV 27,500 lb et plus', "Camion, entretien d'aI(c)ronef, approvisionnement", 'Camion, frigorifique IE essence - location', 'Camion, frigorifique, IE essence', 'Camion, incendie, antichoc', "Camion, lI(c)ger, IE cabine d'I(c)quipage, PNBV 8 100 lb - location, moins de 90 jours", "Camion, lI(c)ger, IE cabine d'I(c)quipage, PNBV 8100 lb - location IE   bail, plus de 90 jours", 'Camion, lI(c)ger, bIC/che, entretien des lignes', 'Camion, lI(c)ger, camionnette-plateau, PNBV 5 300 lb - location,  moins de 90 jours', 'Camion, lI(c)ger, camionnette-plateau, PNBV 8000 lb min., IE 4 roues motrices', 'Camion, lI(c)ger, camionnette-plateau, cabine allongI(c)e, PNBV 5500  lb - location IE bail, plus de 90 jours', 'Camion, lI(c)ger, camionnette-plateau, compact, IE 4 roues motrices', 'Camion, lI(c)ger, camionnette-plateau, compact, long, IE 4 roues motrices', 'Camion, lI(c)ger, fourgon de marchandises, remisable SPEC VAG T00, - location, moins de 90 jours', 'Camion, lI(c)ger, fourgon de marchandises, remisable, Spec VAG T00', 'Camion, lI(c)ger, fourgon pour passagers, remisable SPEC VAG M60 location, moins de 90 jours', 'Camion, lI(c)ger, fourgon pour passagers, remisable, Spec VAG M60', 'Camion, lI(c)ger, transport de personnel PNBV 6 000 lb - location, moins de 90 jours', 'Camion, lI(c)ger, transport de personnel, PNBV 7 500 lb - location, moins de 90 jours', 'Camion, lI(c)ger, utilitaire, 4 roues motrices', 'Camion, lI(c)ger, utilitaire, 4 roues motrices - location, moins   de 90 jours', 'Camion, lI(c)ger, utilitaire, 4 roues motrices, charge utile de 100 lb', 'Camion, lI(c)ger, utilitaire, IE 4 roues motrices, location IE bail - plus de 90 jours', 'Camion, lI(c)ger, utilitaire, IE 4 roues motrices, long - location IE  bail, plus de 90 jours', 'Camion, lourd, PNBV 30 000 IE 60 000 lb - location IE bail, moins de 90 jours', "Camion, muni d'escalier d'embarquement, pour aI(c)ronefs", "Camion, muni d'une benne I(c)lI(c)vatrice", 'Camion, utilitaire, IE 4 roues motrices, configuration militaire', 'Camion-citerne, Diesel, 27,500 lb et plus', "Camion-citerne, diesel, PNBV jusqu'IE 27,499 lb", 'Camion-tracteur IE essence', 'Camion-tracteur, IE essence - location', 'Camion-tracteur, cour de terminus, pour garer les remorques sur les chantiers IE diesel', 'Camion-tracteur, diesel, PNBV 27,500 lb et plus', "Camion-tracteur, diesel, PNBV jusqu'IE 27,499 lb", 'Camionnage', 'Camions et remorques pour le transport de terre et de pierres - location', "Camions et remorques spI(c)ciaux d'aI(c)rodrome", "Camions et remorques spI(c)ciaux d'aI(c)rodrome - rI(c)paration", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts - location", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts - rI(c)paration et rI(c)vision", 'Camions et tracteurs de semi-remorques, sur roues', 'Camions et tracteurs routiers pour semi-remorques, sur roues -  dessin de production', 'Camions et tracteurs routiers pour semi-remorques, sur roues -  location IE bail', 'Camions et tracteurs routiers pour semi-remorques, sur roues - rI(c)paration', 'Camions et tracteurs, pour semi-remorques, sur roues - location', 'Camions poids moyen cabine avancI(c)e', 'Camions, I(c)quipement pour dI(c)blayage de la neige', 'Camions, IE benne basculante, IE ridelles, fourgon, diesel, PNBV 27,500 lb et plus', 'Camions, commerciaux, service lI(c)ger, PNBV 10,000 lbs ou moins', 'Camions, divers - location IE bail, plus de 90 jours', 'Camions, divers - location, moins de 90 jours', 'Camouflage (R&amp;D)', "Canalisation et accessoires de chauffage et circulation d'air"</t>
         </is>
@@ -788,18 +829,26 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>["https://buyandsell.gc.ca/for-businesses/contacts/pwgsc-regional-offices"]</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSMPD-DESPMP%2COU%3DCCPD-DPCC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>772291</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>71</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DASDSP-AFPPS%2COU%3DMPS-SGP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DBMCSD-DSGAC%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCAD-DGM%2COU%3DRPSMCD-DAGSMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCRSDMTD-DSCDDTM%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCSD-DMC%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCTD-DVT%2COU%3DCCPD-DPCC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DEEPD-DPEE%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIPSD-DSPI%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DITSDEEM-DLTIEEM%2COU%3DSSSPD-DALSP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPDSD-DSRP%2COU%3DSPID-DISA%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPORMMPS-SAROPSM%2COU%3DAPORMMPD-DAPROPSM%2COU%3DCPD-DAEC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPSD-DSA%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSMPD-DESPMP%2COU%3DCCPD-DPCC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSPIMD-DASGI%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSRD-DR%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTEL-DIV%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://www.ssc-spc.gc.ca/pages/proc-appr-eng.html","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTEL-DIV%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSD-DSV%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSSD-DFSS%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ-ACQ,OU=ACQ-APP,OU=AR-RA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ-APP,OU=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ123-APP123,OU=ACQ-APP,OU=ACQ-APP,OU=WR-RO,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAEC-DIR%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAESD-DSAG%2Cou%3DRPCD-DAMI%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAOPS-NPEA%2Cou%3DMPDS-DGPM%2Cou%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DEEPD-DPEE%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DBTSIS-DSSTIS%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DESDSD-DSESSD%2COU%3DEMTSPD-DASEMST%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDVBD-DPPBV%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DEAECPSP-AAEEIC%2Cou%3DCPD-DAEC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFCPD-DPPPC%2Cou%3DLEFTD-DTPLEP%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFOSD-DPAFB%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFTD-DACE%2Cou%3DAEPD-DPEA%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DHSP-PSS%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DIMITPD-GITIPD%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DINF-DIV%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DLSD-DSL%2Cou%3DPSPD-DASP%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DMWSD-DMSA%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DOTSP-FSEO%2Cou%3DMAJ-DIR%2Cou%3DDMPS-SPDGP%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DSCD-DCN%2Cou%3DMSD-DSM%2Cou%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DTAPV-VPBT%2Cou%3DMPDL-DGPT%2Cou%3DDMPS-SPDGP%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DTHD-DTH%2Cou%3DAEPD-DPEA%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=ACQ-APP,ou=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MAD-DAM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DAPS-SAP%2COU%3DAPORMMPD-DAPROPSM%2COU%3DCPD-DAEC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DESDSD-DSESSD%2COU%3DEMTSPD-DASEMST%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU=CAD-DAC,OU=AEPD-DPEA,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DDSD-DSD%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DHLESD-DSHVE%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DSCPD-SSGP%2Cou%3DITSPD-DASIT%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=DSPD-DPSD,ou=ITSPD-DASIT,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=HLESD-DSHVE,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=ISEWD-DSIGE,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DFMSD-DSEI%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://www.ssc-spc.gc.ca/pages/proc-appr-eng.html"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/office-of-small-and-medium-enterprises-osme-regional-offices"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/pwgsc-regional-offices/ontario-region"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/supplier-registration-information-sri-contacts"]', '["https://buyandsell.gc.ca/for-businesses/contacts/pwgsc-regional-offices"]']</t>
         </is>
@@ -858,18 +907,26 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/donnees-d-inscription-des-fournisseurs-dif-points-de-contact"]</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=SMPD-DESPMP,OU=CCPD-DPCC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>676872</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>73</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSD-DSV%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DMWSD-DMSA%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DIPSD-DSPI%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DPDSD-DSRP%2COU%3DSPID-DISA%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DPSD-DSA%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DSRD-DR%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DTSSD-DFSS%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DACQ-ACQ%2COU%3DACQ-APP%2COU%3DAR-RA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DACQ123-APP123%2COU%3DACQ-APP%2COU%3DACQ-APP%2COU%3DWR-RO%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DCAD-DAC%2COU%3DAEPD-DPEA%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DFMSD-DSEI%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ACQ-APP,OU=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ACQ123-APP123,OU=ACQ-APP,OU=ACQ-APP,OU=WR-RO,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=APS-SAP,OU=APORMMPD-DAPROPSM,OU=CPD-DAEC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ASDSP-AFPPS,OU=MPS-SGP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=BMCSD-DSGAC,OU=PSPD-DASP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CAD-DGM,OU=RPSMCD-DAGSMI,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CSD-DMC,OU=RPCD-DAMI,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CTD-DVT,OU=CCPD-DPCC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EAECPSP-AAEEIC,OU=CPD-DAEC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EEPD-DPEE,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ESDSD-DSESSD,OU=EMTSPD-DASEMST,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ITSDEEM-DLTIEEM,OU=SSSPD-DALSP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=SMPD-DESPMP,OU=CCPD-DPCC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=SPIMD-DASGI,OU=PSPD-DASP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=TEL-DIV,OU=ITSPD-DASIT,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://www.ssc-spc.gc.ca/pages/proc-appr-fra.html","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=TEL-DIV,OU=ITSPD-DASIT,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DACQ-APP%2Cou%3DACQ-APP%2COU%3DPR-RP%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DDSPD-DPSD%2Cou%3DITSPD-DASIT%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DHLESD-DSHVE%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DISEWD-DSIGE%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DLSD-DSL%2Cou%3DPSPD-DASP%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DPORMMPS-SAROPSM%2Cou%3DAPORMMPD-DAPROPSM%2Cou%3DCPD-DAEC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AEC-DIR,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AESD-DSAG,ou=RPCD-DAMI,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AOPS-NPEA,ou=MPDS-DGPM,ou=MS-SM,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EEPD-DPEE,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=BTSIS-DSSTIS,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ESDSD-DSESSD,OU=EMTSPD-DASEMST,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DSD-DSD,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DVBD-DPPBV,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=EAECPSP-AAEEIC,ou=CPD-DAEC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FCPD-DPPPC,ou=LEFTD-DTPLEP,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FOSD-DPAFB,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FTD-DACE,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=HLESD-DSHVE,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=HSP-PSS,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=IMITPD-GITIPD,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=INF-DIV,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MAD-DAM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MWSD-DMSA,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=OTSP-FSEO,ou=MAJ-DIR,ou=DMPS-SPDGP,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=SCD-DCN,ou=MSD-DSM,ou=MS-SM,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=SCPD-SSGP,ou=ITSPD-DASIT,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=TAPV-VPBT,ou=MPDL-DGPT,ou=DMPS-SPDGP,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=THD-DTH,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://www.ssc-spc.gc.ca/pages/proc-appr-fra.html"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureau-des-petites-et-moyennes-entreprises-bureaux-regionaux"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureaux-regionaux-de-tpsgc"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureaux-regionaux-de-tpsgc/region-de-l-ontario"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/donnees-d-inscription-des-fournisseurs-dif-points-de-contact"]']</t>
         </is>
@@ -928,18 +985,26 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>29736</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>1</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['Active']</t>
         </is>
@@ -998,18 +1063,26 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Actif</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>24780</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>1</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>['Actif']</t>
         </is>

--- a/examples/Canada OGD/goods and services/profile.xlsx
+++ b/examples/Canada OGD/goods and services/profile.xlsx
@@ -450,15 +450,20 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -527,16 +532,19 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>JX7360</t>
+          <t>5112B</t>
         </is>
       </c>
       <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
         <v>30951</v>
       </c>
-      <c r="U2" t="n">
-        <v>4957</v>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" t="n">
+        <v>4957</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>['5112B', '5113B', '5114C', '5116A', '5121A', '5122A', '5123B', '5124B', '5127B', '5128B', '5129B', '5131BB', '5131BG', '5131BI', '5131C', '5132A', '5133B', '5133C', '5133D', '5134A', '5134B', '5136A', '5138A', '5138B', '5138C', '5139A', '5139B', '5139C', '5139D', '5141A', '5151A', '5151B', '5152A', '5152AA', '5152B', '5153A', '5153AB', '5153AE', '5153AF', '5153AG', '5153B', '5153BA', '5154A', '5154AB', '5154C', '5155B', '5155C', '5155D', '5155E', '5156A', '5156B', '5159A', '5159B', '5159C', '5159E', '5161A', '5161AC', '5161AE', '5161AF', '5161AJ', '5161AK', '5161AN', '5161AP', '5161B', '5161C', '5161D', '5162A', '5162B', '5162C', '5162D', '5163A', '5163B', '5164A', '5164AB', '5164AF', '5164C', '5164CA', '5164CB', '5164CC', '5164CE', '5164CF', '5164CG', '5164CH', '5164CJ', '5164CK', '5164CM', '5164CN', '5164CP', '5164CQ', '5164CU', '5164CV', '5164CW', '5164D', '5164E', '5165A', '5165AA', '5165AB', '5166A', '5166B', '5169C', '5169CB', '5169D', '5169DA', '5169E', '5169EA', '5169EB', '5169ED', '5169EE', '5169EF', '5169FC', '5169FD', '5169G', '5169J', '5169K', '5169L', '5169M', '5169P', '5171B', '5172A', '5173B', '5173BA', '5173BB', '5173C', '5174A', '5175A', '5175AA', '5175AB', '5175AC', '5175AD', '5175B', '5176AB', '5176B', '5176C', '5176D', '5177A', '5177AA', '5177AB', '5177AE', '5177AJ', '5177AK', '5177AL', '5177BA', '5179C', '5179CB', '5179D', '5179F', '5179FB', '5179H', '5179HC', '5179I', '5181A', 'AA415500', 'AA415504', 'AA910300', 'AC217760', 'AC517728', 'AC517748', 'AC617732', 'AC617736', 'AC617768', 'AD217740', 'AD917700', 'AD917712', 'AD917716', 'AD917720', 'AD917724', 'AE913500', 'AG214542', 'AG214562', 'AG214566', 'AG214600', 'AG414668', 'AG614500', 'AG914510', 'AG914538', 'AG914558', 'AH115032', 'AH115036', 'AH215000', 'AH215020', 'AH215024', 'AH910222', 'AJ110224', 'AJ110700', 'AJ110724', 'AJ111000', 'AJ111140', 'AJ112000', 'AJ119000', 'AJ119004', 'AJ119036', 'AJ119040', 'AJ119064', 'AJ119084', 'AJ212512', 'AJ212516', 'AJ212528', 'AJ212540', 'AJ212552', 'AJ212568', 'AJ311500', 'AJ412000', 'AJ412008', 'AJ412040', 'AJ412048', 'AJ412060', 'AJ412068', 'AJ412072', 'AJ412100', 'AJ716500', 'AJ716650', 'AJ914000', 'AK117000', 'AN117500', 'AN417668', 'AP216000', 'AP313000', 'AP313076', 'AP518500', 'AP518588', 'AR110432', 'AR210440', 'AR210444', 'AR210480', 'AR410476', 'AR910400', 'AS219528', 'AS219652', 'AS319620', 'AS419584', 'AS419632', 'AS918564', 'AT319560', 'AT419628', 'AT619624', 'AT919500', 'AV718000', 'AZ110111', 'AZ110112', 'AZ110114', 'AZ110134', 'AZ110136', 'AZ110140', 'AZ110172', 'AZ110174', 'AZ110176', 'AZ110178', 'AZ110210', 'AZ110252', 'AZ110254', 'B000A', 'B002A', 'B100A', 'B101A', 'B101B', 'B102A', 'B103A', 'B109A', 'B200A', 'B200B', 'B201A', 'B202A', 'B204A', 'B206A', 'B206B', 'B208B', 'B208BB', 'B219A', 'B301A', 'B303A', 'B304A', 'B308A', 'B311B', 'B314A', 'B329A', 'B329B', 'B400A', 'B500A', 'B500B', 'B503A', 'B503B', 'B506D', 'B509A', 'C111A', 'C112A', 'C113A', 'C114A', 'C115A', 'C116A', 'C117A', 'C118A', 'C119A', 'C119AH', 'C119B', 'C119C', 'C119F', 'C121A', 'C122A', 'C123A', 'C129A', 'C130A', 'C211A', 'C211D', 'C211DA', 'C211E', 'C211F', 'C212B', 'C213A', 'C213C', 'C216A', 'C216AA', 'C216AB', 'C216BA', 'C216BB', 'C216BC', 'C216C', 'C219A', 'C219AB', 'C219BE', 'C219BJ', 'C219BK', 'C219C', 'C219CBA', 'C219CBI', 'C219CJ', 'C219D', 'C219DA', 'D301A', 'D301B', 'D301BBM', 'D301BBN', 'D301C', 'D301CD', 'D301D', 'D302A', 'D302AAH', 'D302AAI', 'D302AAJ', 'D302AAP', 'D302AAR', 'D302AAS', 'D302D', 'D303AA', 'D304A', 'D307A', 'D307AB', 'D308A', 'D309A', 'D309BB', 'D311A', 'D312A', 'D315A', 'D316A', 'D316AB', 'D316B', 'D317B', 'D317C', 'D317D', 'D317E', 'D317EA', 'D317EB', 'D399A', 'D399AA', 'D399AB', 'D399B', 'D399BB', 'D399BC', 'D399BD', 'D399BE', 'D399C', 'D399D', 'E101A', 'E103A', 'E107A', 'E108A', 'E108C', 'E108CA', 'E108D', 'E108E', 'E108F', 'E109A', 'E110A', 'E111A', 'E111B', 'E199A', 'E199AB', 'E199AC', 'E199B', 'E199BB', 'E199C', 'E199D', 'E199H', 'END OF FEED 2016-05-09 22:03:02', 'F003A', 'F006D', 'F006E', 'F008A', 'F010A', 'F010B', 'F010BA', 'F010C', 'F010D', 'F011A', 'F020A', 'F021A', 'F021B', 'F030A', 'F059A', 'G001A', 'G001B', 'G001C', 'G009A', 'G009B', 'G009D', 'G009DA', 'G009E', 'G009F', 'G009G', 'G009H', 'G009K', 'G009KA', 'G009L', 'G009M', 'G009N', 'G009P', 'G100A', 'G101A', 'G102A', 'G103B', 'G103C', 'G103D', 'G199A', 'G199D', 'H100A', 'H100AA', 'H100AB', 'H100AC', 'H100B', 'H100BB', 'H100BF', 'H200A', 'H200AA', 'H200B', 'H200BB', 'H200C', 'H300A', 'H300AD', 'H300B', 'H300C', 'H300E', 'H300F', 'H900A', 'J019A', 'JD1005', 'JD1270', 'JD1320', 'JD1330', 'JD1340', 'JD1345', 'JD1370', 'JD1375', 'JD1386', 'JD1520', 'JD1730', 'JD1990', 'JD2060', 'JD2310', 'JD2320', 'JD2350', 'JD2510', 'JD5315', 'JD5826', 'JD5831', 'JD5840A', 'JD5865', 'JD5895', 'JD5905', 'JD5960', 'JD6605', 'JI1610', 'JI1660', 'JI2510', 'JI2530', 'JI2910', 'JI3740', 'JI4110', 'JI4130', 'JI4240', 'JI4430', 'JI4520', 'JI5660', 'JI5805', 'JI5826', 'JI5830', 'JI5835', 'JI5840', 'JI5845', 'JI5895', 'JI5985', 'JI5995', 'JI6350', 'JI6520', 'JI6530', 'JI6610', 'JI6625', 'JI6650', 'JI6660', 'JI6685', 'JI7010', 'JI7021', 'JI7025', 'JI7110', 'JI7125', 'JI7220', 'JI7220A', 'JI7230', 'JI7310', 'JI7510', 'JI9330', 'JI9905', 'JI9930', 'JX1005', 'JX1005A', 'JX1015', 'JX1025', 'JX1035', 'JX1055', 'JX1095', 'JX1220', 'JX1230', 'JX1240', 'JX1250', 'JX1265', 'JX1285', 'JX1305', 'JX1340', 'JX1355', 'JX1377', 'JX1410', 'JX1420', 'JX1425', 'JX1427', 'JX1430', 'JX1450', 'JX1510', 'JX1510A', 'JX1510C', 'JX1510D', 'JX1520', 'JX1520A', 'JX1520B', 'JX1540', 'JX1560', 'JX1610', 'JX1615', 'JX1620', 'JX1630', 'JX1650', 'JX1660', 'JX1680', 'JX1680A', 'JX1680B', 'JX1680C', 'JX1710', 'JX1720', 'JX1730', 'JX1740', 'JX1910', 'JX1920', 'JX1925', 'JX1930', 'JX1940', 'JX1940AA', 'JX1940C', 'JX1945', 'JX1950', 'JX1955', 'JX1990', 'JX1990A', 'JX1990B', 'JX1990C', 'JX1990D', 'JX1990DA', 'JX1990E', 'JX1990F', 'JX1990G', 'JX1990H', 'JX1990HA', 'JX1990HB', 'JX1990I', 'JX1990J', 'JX1990K', 'JX1990L', 'JX1990M', 'JX1990N', 'JX1990P', 'JX1990R', 'JX1990S', 'JX1990T', 'JX1990U', 'JX1990V', 'JX1990W', 'JX2010', 'JX2010A', 'JX2020', 'JX2030', 'JX2040', 'JX2050', 'JX2060', 'JX2090', 'JX2090AA', 'JX2210', 'JX2240', 'JX2240A', 'JX2250', 'JX2305', 'JX2305A', 'JX2305B', 'JX2310', 'JX2310C', 'JX2310D', 'JX2310E', 'JX2310F', 'JX2320', 'JX2320A', 'JX2330', 'JX2330A', 'JX2340', 'JX2350', 'JX2350A', 'JX2350B', 'JX2355', 'JX2410', 'JX2420', 'JX2430', 'JX2510', 'JX2510E', 'JX2510G', 'JX2510H', 'JX2520', 'JX2520A', 'JX2520B', 'JX2530', 'JX2530A', 'JX2530B', 'JX2530BB', 'JX2530BC', 'JX2540', 'JX2590', 'JX2590A', 'JX2610', 'JX2610A', 'JX2620', 'JX2620B', 'JX2640', 'JX2805', 'JX2805A', 'JX2805AB', 'JX2805B', 'JX2810', 'JX2815', 'JX2815AA', 'JX2815AB', 'JX2815B', 'JX2815C', 'JX2825', 'JX2825A', 'JX2835', 'JX2835A', 'JX2835B', 'JX2840', 'JX2840A', 'JX2850', 'JX2895', 'JX2910', 'JX2910B', 'JX2910C', 'JX2910D', 'JX2915', 'JX2915A', 'JX2920', 'JX2925', 'JX2930', 'JX2940', 'JX2990', 'JX2990AA', 'JX2995', 'JX3010', 'JX3010A', 'JX3020', 'JX3030', 'JX3040', 'JX3110', 'JX3130', 'JX3210', 'JX3220', 'JX3405', 'JX3412', 'JX3413', 'JX3414', 'JX3415', 'JX3416', 'JX3417', 'JX3419', 'JX3431', 'JX3433', 'JX3438', 'JX3439', 'JX3441', 'JX3442', 'JX3443', 'JX3445', 'JX3450', 'JX3455', 'JX3456', 'JX3460', 'JX3465', 'JX3510', 'JX3540', 'JX3590', 'JX3610', 'JX3610A', 'JX3610AA', 'JX3615', 'JX3625', 'JX3630', 'JX3650', 'JX3655', 'JX3660', 'JX3695', 'JX3710', 'JX3720', 'JX3730', 'JX3740', 'JX3750', 'JX3750B', 'JX3770', 'JX3805', 'JX3810', 'JX3815', 'JX3820', 'JX3825', 'JX3825A', 'JX3825B', 'JX3830', 'JX3830A', 'JX3895', 'JX3910', 'JX3920', 'JX3930', 'JX3930A', 'JX3940', 'JX3950', 'JX3950A', 'JX3960', 'JX3960A', 'JX3990', 'JX4010', 'JX4110', 'JX4110A', 'JX4110B', 'JX4110BB', 'JX4120', 'JX4120A', 'JX4120B', 'JX4130', 'JX4130A', 'JX4140', 'JX4210', 'JX4210A', 'JX4210B', 'JX4210C', 'JX4210D', 'JX4220', 'JX4240', 'JX4310', 'JX4310A', 'JX4310AA', 'JX4310AB', 'JX4320', 'JX4320A', 'JX4320B', 'JX4320C', 'JX4320D', 'JX4330', 'JX4410', 'JX4410A', 'JX4420', 'JX4430', 'JX4460', 'JX4510', 'JX4520', 'JX4520AA', 'JX4530', 'JX4530A', 'JX4530AA', 'JX4540', 'JX4610', 'JX4620', 'JX4630', 'JX4710', 'JX4720', 'JX4730', 'JX4810', 'JX4820', 'JX4820AB', 'JX4910', 'JX4930', 'JX4931', 'JX4940', 'JX5110', 'JX5120', 'JX5130', 'JX5133', 'JX5136', 'JX5210', 'JX5220', 'JX5280', 'JX5325', 'JX5330', 'JX5335', 'JX5340', 'JX5360', 'JX5410', 'JX5430', 'JX5430B', 'JX5430C', 'JX5440', 'JX5445', 'JX5450', 'JX5520', 'JX5610', 'JX5620', 'JX5640A', 'JX5660', 'JX5670', 'JX5680', 'JX5805', 'JX5805A', 'JX5805B', 'JX5805BA', 'JX5810', 'JX5811', 'JX5815', 'JX5821', 'JX5825', 'JX5826', 'JX5830', 'JX5831', 'JX5835', 'JX5836', 'JX5840', 'JX5841', 'JX5845', 'JX5845A', 'JX5855', 'JX5860', 'JX5865', 'JX5895', 'JX5905', 'JX5910', 'JX5915', 'JX5925', 'JX5930', 'JX5935', 'JX5945', 'JX5950', 'JX5960', 'JX5962', 'JX5963', 'JX5965', 'JX5975', 'JX5985', 'JX5990', 'JX5995', 'JX5998', 'JX5999', 'JX6020', 'JX6030', 'JX6070', 'JX6100', 'JX6100A', 'JX6105', 'JX6110', 'JX6115', 'JX6115A', 'JX6115G', 'JX6120', 'JX6125', 'JX6130', 'JX6130B', 'JX6135', 'JX6140', 'JX6145', 'JX6150', 'JX6210', 'JX6230', 'JX6250', 'JX6310', 'JX6320', 'JX6340', 'JX6350', 'JX6350A', 'JX6350AA', 'JX6350D', 'JX6515', 'JX6515A', 'JX6520', 'JX6525', 'JX6530', 'JX6530D', 'JX6530E', 'JX6532', 'JX6545', 'JX6605', 'JX6610', 'JX6625', 'JX6630', 'JX6635', 'JX6635C', 'JX6635D', 'JX6636', 'JX6640', 'JX6645', 'JX6650', 'JX6655', 'JX6655A', 'JX6660', 'JX6665', 'JX6670', 'JX6670A', 'JX6675', 'JX6675A', 'JX6675B', 'JX6680', 'JX6680A', 'JX6685', 'JX6685A', 'JX6685B', 'JX6695', 'JX6710', 'JX6720', 'JX6730', 'JX6740', 'JX6750', 'JX6760', 'JX6780', 'JX6910', 'JX6910A', 'JX6910B', 'JX6920', 'JX6930', 'JX6930A', 'JX7010', 'JX7010A', 'JX7010AA', 'JX7010AB', 'JX7010AC', 'JX7010AD', 'JX7010AE', 'JX7010AG', 'JX7010AH', 'JX7010B', 'JX7010BA', 'JX7010BB', 'JX7010C', 'JX7010CA', 'JX7020', 'JX7021', 'JX7021A', 'JX7021AD', 'JX7022', 'JX7025', 'JX7025A', 'JX7025AB', 'JX7025AD', 'JX7025AJ', 'JX7025B', 'JX7025BA', 'JX7025BI', 'JX7025BJ', 'JX7025BM', 'JX7025BO', 'JX7025BU', 'JX7025CA', 'JX7025CC', 'JX7025EA', 'JX7030', 'JX7035AB', 'JX7035AC', 'JX7035AF', 'JX7035AK', 'JX7035AM', 'JX7042', 'JX7105', 'JX7105B', 'JX7110', 'JX7125', 'JX7195', 'JX7195A', 'JX7195B', 'JX7210', 'JX7220', 'JX7230', 'JX7240', 'JX7290', 'JX7290B', 'JX7310AA', 'JX7310C', 'JX7320', 'JX7360', 'JX7435', 'JX7450', 'JX7460', 'JX7490', 'JX7520', 'JX7710', 'JX7720', 'JX7830', 'JX7830B', 'JX7910', 'JX7910A', 'JX7920', 'JX8115', 'JX8120', 'JX8120A', 'JX8135', 'JX8145', 'JX8340', 'JX8415', 'JX8430', 'JX8440', 'JX8460', 'JX8465', 'JX8470', 'JX8530A', 'JX9150', 'JX9330', 'JX9330A', 'JX9350', 'JX9505', 'JX9515', 'JX9905', 'JX9930', 'JX9930A', 'JX9999', 'K000B', 'K000E', 'K000ED', 'K100A', 'K100AE', 'K100AG', 'K100B', 'K101A', 'K102A', 'K102B', 'K104A', 'K105A', 'K105AB', 'K105AO', 'K106A', 'K106B', 'K106C', 'K106CA', 'K107A', 'K107AB', 'K107C', 'K107CA', 'K107CC', 'K107CD', 'K107CE', 'K107DA', 'K108A', 'K108B', 'K108C', 'K111A', 'K111B', 'K112A', 'K113A', 'K113AB', 'K113B', 'K114A', 'K114B', 'K115A', 'K199B', 'K199D', 'K199I', 'K199J', 'K199K', 'K199L', 'K199N', 'K199Q', 'K199R', 'L004A', 'L004B', 'L004C', 'L004CV', 'L005A', 'L006A', 'L006B', 'L007A', 'L099A', 'L099B', 'L099BG', 'L099BH', 'L099BI', 'L099C', 'L099D', 'L099F', 'L099G', 'L099H', 'L099J', 'M110A', 'M119A', 'M120A', 'M120B', 'M170A', 'M180A', 'M181A', 'M181D', 'M190A', 'M190B', 'M190D', 'M240A', 'M242A', 'M290B', 'N1005', 'N1005A', 'N1010', 'N1015', 'N1015A', 'N1020', 'N1025', 'N1030', 'N1035', 'N1040', 'N1045', 'N1055', 'N1070', 'N1075', 'N1075999', 'N1075A', 'N1080', 'N1090', 'N1095', 'N1105', 'N1110', 'N1115', 'N1120', 'N1125', 'N1127', 'N1130', 'N1135', 'N1140', 'N1145', 'N1190', 'N1195', 'N1210', 'N1220', 'N1230', 'N1230999', 'N1230AA', 'N1240', 'N1240AA', 'N1240AB', 'N1240BA', 'N1240C', 'N1240D', 'N1240DB', 'N1240DD', 'N1240E', 'N1250', 'N1260', 'N1265', 'N1270', 'N1280', 'N1285', 'N1287', 'N1287203', 'N1290', 'N1305', 'N1310', 'N1315', 'N1320', 'N1325', 'N1330', 'N1336', 'N1337', 'N1338', 'N1340', 'N1345', 'N1346', 'N1350', 'N1351', 'N1352', 'N1353', 'N1355', 'N1356', 'N1360', 'N1361', 'N1365', 'N1367A', 'N1370', 'N1375', 'N1376', 'N1377', 'N1385', 'N1386', 'N1390', 'N1395', 'N1398', 'N1398B', 'N1410', 'N1420', 'N1425', 'N1425AB', 'N1427', 'N1427999', 'N1430', 'N1440', 'N1450', 'N1510', 'N1510A', 'N1520', 'N1520B', 'N1540', 'N1550', 'N1560', 'N1560B', 'N1560C', 'N1560D', 'N1560E', 'N1560F', 'N1610', 'N1615', 'N1620', 'N1620B', 'N1630', 'N1630C', 'N1640', 'N1650', 'N1650E', 'N1660', 'N1660C', 'N1660CB', 'N1660D', 'N1660E', 'N1670', 'N1670B', 'N1670BB', 'N1670BC', 'N1670BD', 'N1670D', 'N1670E', 'N1670EA', 'N1670F', 'N1680', 'N1680999', 'N1680A', 'N1680C', 'N1680D', 'N1680E', 'N1680G', 'N1680H', 'N1680J', 'N1710B', 'N1710C', 'N1710D', 'N1720', 'N1730', 'N1740', 'N1740J', 'N1810201', 'N1810203', 'N1830999', 'N1905', 'N1905C', 'N1905D', 'N1905E', 'N1910', 'N1915', 'N1915C', 'N1920', 'N1925', 'N1930', 'N1935', 'N1935A', 'N1940', 'N1940A', 'N1940DA', 'N1940G', 'N1945', 'N1945A', 'N1950', 'N1955', 'N1990', 'N1990C', 'N2010', 'N2010A', 'N2010B', 'N2010C', 'N2010CA', 'N2010E', 'N2010F', 'N2010G', 'N2010H', 'N2010J', 'N2020', 'N2020B', 'N2020BA', 'N2020BC', 'N2020BD', 'N2020BE', 'N2030', 'N2030B', 'N2030BA', 'N2030BB', 'N2030C', 'N2030CA', 'N2030D', 'N2030E', 'N2030G', 'N2030H', 'N2030J', 'N2030M', 'N2030N', 'N2030P', 'N2030Q', 'N2030R', 'N2030S', 'N2030T', 'N2030U', 'N2040', 'N2040A', 'N2040B', 'N2040D', 'N2040E', 'N2040EA', 'N2040EB', 'N2040EC', 'N2040ED', 'N2040EE', 'N2040F', 'N2040FA', 'N2040FB', 'N2040H', 'N2040J', 'N2040K', 'N2040L', 'N2040M', 'N2040N', 'N2040P', 'N2040Q', 'N2040S', 'N2040W', 'N2050', 'N2050A', 'N2050B', 'N2050C', 'N2050D', 'N2060', 'N2060B', 'N2060C', 'N2060F', 'N2090', 'N2090A', 'N2090AB', 'N2090AC', 'N2090AE', 'N2090B', 'N2090C', 'N2090D', 'N2090E', 'N2090F', 'N2090G', 'N2090H', 'N2090HA', 'N2090J', 'N2090K', 'N2210', 'N2220', 'N2230', 'N2240', 'N2250', 'N2305', 'N2310', 'N2310005', 'N2310M', 'N2310MA', 'N2310MAA', 'N2310MAB', 'N2310MAC', 'N2320', 'N2320001', 'N2320002', 'N2320003', 'N2320B', 'N2320D', 'N2320DAA', 'N2320DAB', 'N2320DDB', 'N2320DFB', 'N2320DGB', 'N2320DJA', 'N2320DJB', 'N2320DLA', 'N2320DMA', 'N2320DMB', 'N2320DRA', 'N2320DRB', 'N2320DX', 'N2320G', 'N2320GA', 'N2320GG', 'N2320GH', 'N2320GM', 'N2320GP', 'N2320GPM', 'N2320GQ', 'N2320GR', 'N2320GS', 'N2320GT', 'N2320GU', 'N2320GV', 'N2320GY', 'N2320L51', 'N2320L61', 'N2320M60', 'N2320N01', 'N2320N21', 'N2320N81', 'N2320T00', 'N2320W00', 'N2330', 'N2330A', 'N2330B', 'N2330C', 'N2330D', 'N2330E', 'N2330F', 'N2330G', 'N2330H', 'N2330K', 'N2330L', 'N2330M', 'N2330N', 'N2330P', 'N2330Q', 'N2330R', 'N2330S', 'N2330T', 'N2330U', 'N2330V', 'N2330W', 'N2330X', 'N2330Y', 'N2330Z', 'N2340', 'N2350', 'N2350A', 'N2350E', 'N2350EA', 'N2350EB', 'N2350EC', 'N2355', 'N2410', 'N2410A', 'N2410B', 'N2420', 'N2420A', 'N2430', 'N2510', 'N2510C', 'N2510F', 'N2510FA', 'N2510FC', 'N2520', 'N2520A', 'N2520B', 'N2520BD', 'N2520C', 'N2530', 'N2530001', 'N2530AB', 'N2530AD', 'N2530AK', 'N2530AL', 'N2530AM', 'N2530B', 'N2530BLB', 'N2530BM', 'N2530BN', 'N2530C', 'N2540', 'N2540000', 'N2540005', 'N2540A', 'N2540C', 'N2540G', 'N2540H', 'N2541', 'N2590', 'N2590A', 'N2590AA', 'N2590C', 'N2590CA', 'N2590D', 'N2590DCA', 'N2610', 'N2620', 'N2630', 'N2640', 'N2640004', 'N2805', 'N2805001', 'N2805002', 'N2805A', 'N2805B', 'N2815', 'N2815A', 'N2815AB', 'N2815B', 'N2815BB', 'N2815BRB', 'N2815BRP', 'N2815D', 'N2815DB', 'N2815G', 'N2820', 'N2825', 'N2830', 'N2840', 'N2845', 'N2850', 'N2895', 'N2895C', 'N2910', 'N2910006', 'N2910007', 'N2910D', 'N2910DB', 'N2910DE', 'N2915', 'N2915C', 'N2920', 'N2920A', 'N2920AA', 'N2920AAA', 'N2920AAC', 'N2925', 'N2925C', 'N2925F', 'N2925J', 'N2930', 'N2930AB', 'N2935', 'N2940', 'N2940A', 'N2945', 'N2945AAA', 'N2945AAE', 'N2990', 'N2990A', 'N2990B', 'N2990C', 'N2990D', 'N2990FA', 'N2995', 'N2995C', 'N2995D', 'N3010', 'N3010AA', 'N3010AB', 'N3010CA', 'N3010CB', 'N3010D', 'N3010E', 'N3020', 'N3020A', 'N3020B', 'N3020CB', 'N3030', 'N3040', 'N3040E', 'N3110', 'N3110B', 'N3110F', 'N3110G', 'N3110H', 'N3120', 'N3130', 'N3130A', 'N3210', 'N3210D', 'N3220', 'N3220J', 'N3230', 'N3405', 'N3408', 'N3410', 'N3411', 'N3412', 'N3413', 'N3414', 'N3415', 'N3416', 'N3417', 'N3418', 'N3419', 'N3422', 'N3424', 'N3426', 'N3431', 'N3432', 'N3433', 'N3436', 'N3438', 'N3439', 'N3441', 'N3441AB', 'N3442', 'N3443', 'N3444', 'N3445', 'N3446', 'N3447', 'N3448', 'N3449', 'N3450', 'N3455', 'N3456', 'N3460', 'N3461', 'N3465', 'N3470', 'N3510', 'N3510A', 'N3510E', 'N3510M', 'N3520', 'N3530', 'N3540', 'N3550', 'N3550B', 'N3590', 'N3605', 'N3610', 'N3610BDD', 'N3610BE', 'N3610BEC', 'N3610BED', 'N3610BEL', 'N3610C', 'N3610CPA', 'N3610G', 'N3611', 'N3615', 'N3615C', 'N3615F', 'N3620', 'N3625', 'N3630', 'N3635', 'N3640', 'N3645', 'N3650', 'N3650A', 'N3655', 'N3660', 'N3660A', 'N3660C', 'N3670', 'N3680', 'N3685', 'N3690', 'N3693', 'N3694', 'N3695', 'N3695A', 'N3710', 'N3710V', 'N3720', 'N3720C', 'N3730', 'N3740', 'N3740B', 'N3740BE', 'N3740BF', 'N3740BL', 'N3740E', 'N3750', 'N3750A', 'N3750E', 'N3750S', 'N3750TD', 'N3760', 'N3770', 'N3770A', 'N3805', 'N3805F', 'N3810', 'N3815', 'N3820', 'N3825', 'N3825G', 'N3825L', 'N3825N', 'N3825P', 'N3825PC', 'N3825QB', 'N3825S', 'N3825T', 'N3830', 'N3830A', 'N3830D', 'N3830DA', 'N3830DB', 'N3830E', 'N3830G', 'N3830H', 'N3830J', 'N3830L', 'N3830M', 'N3830ND', 'N3830T', 'N3830U', 'N3835', 'N3895', 'N3910', 'N3910G', 'N3915', 'N3920', 'N3930', 'N3930D', 'N3930E', 'N3930EC', 'N3930EH', 'N3940', 'N3940E', 'N3940EC', 'N3950', 'N3950A', 'N3950B', 'N3950BJ', 'N3950BK', 'N3950BL', 'N3950BM', 'N3950C', 'N3950D', 'N3950F', 'N3950FBC', 'N3950FD', 'N3950FE', 'N3950FG', 'N3950FH', 'N3950G', 'N3960', 'N3960A', 'N3960B', 'N3990', 'N3990B', 'N3990E', 'N3990EB', 'N3990ED', 'N3990F', 'N3990G', 'N3990N', 'N3990Q', 'N3990R', 'N4010', 'N4010A', 'N4010AD', 'N4010C', 'N4010DA', 'N4010DB', 'N4010DC', 'N4010E', 'N4010F', 'N4020', 'N4020A', 'N4020D', 'N4020G', 'N4030', 'N4110', 'N4110AA', 'N4110B', 'N4110BA', 'N4110BD', 'N4110C', 'N4110CB', 'N4110D', 'N4110E', 'N4110F', 'N4110G', 'N4110H', 'N4110J', 'N4110JA', 'N4110K', 'N4110M', 'N4110N', 'N4110P', 'N4110Q', 'N4120', 'N4120A', 'N4120AA', 'N4120B', 'N4120BA', 'N4120BB', 'N4120BC', 'N4120BD', 'N4120BDB', 'N4120BF', 'N4120C', 'N4120D', 'N4130', 'N4130A', 'N4130B', 'N4130C', 'N4130D', 'N4130E', 'N4130F', 'N4130G', 'N4130H', 'N4130HC', 'N4130J', 'N4130JA', 'N4130K', 'N4130L', 'N4130LA', 'N4130LB', 'N4130M', 'N4130N', 'N4130P', 'N4130PA', 'N4140', 'N4140A', 'N4140C', 'N4140CA', 'N4140CE', 'N4140CF', 'N4140G', 'N4150', 'N4210', 'N4210A', 'N4210B', 'N4210E', 'N4210F', 'N4210H', 'N4210K', 'N4210N', 'N4210P', 'N4210PA', 'N4210PB', 'N4210PC', 'N4210PD', 'N4210W', 'N4210Y', 'N4220', 'N4220E', 'N4220F', 'N4220G', 'N4220L', 'N4230', 'N4230B', 'N4230C', 'N4235', 'N4235D', 'N4235F', 'N4235P', 'N4240', 'N4240LA', 'N4240NA', 'N4240NAG', 'N4240NAL', 'N4240NAM', 'N4240R', 'N4250', 'N4310', 'N4310A', 'N4310AA', 'N4310B', 'N4310BA', 'N4310BD', 'N4310BG', 'N4310C', 'N4310CG', 'N4310CH', 'N4310CHA', 'N4310CHB', 'N4310CHC', 'N4310D', 'N4310DAB', 'N4310E', 'N4310EA', 'N4310F', 'N4320', 'N4320A', 'N4320AB', 'N4320B', 'N4320BA', 'N4320BB', 'N4320BC', 'N4320BCA', 'N4320BF', 'N4320BG', 'N4320BJ', 'N4320BJB', 'N4320C', 'N4320D', 'N4320DA', 'N4320DB', 'N4320DBA', 'N4320E', 'N4320EB', 'N4320ED', 'N4320F', 'N4320FA', 'N4320FB', 'N4320FF', 'N4320G', 'N4320H', 'N4320HA', 'N4320J', 'N4320K', 'N4320KAB', 'N4320L', 'N4320LAA', 'N4320M', 'N4320N', 'N4320PA', 'N4320QA', 'N4320RA', 'N4330', 'N4330AA', 'N4330B', 'N4330C', 'N4330D', 'N4330E', 'N4330F', 'N4410', 'N4410A', 'N4410AA', 'N4410B', 'N4410D', 'N4410E', 'N4410F', 'N4410G', 'N4410J', 'N4410K', 'N4410KA', 'N4410KB', 'N4410L', 'N4410LA', 'N4410LB', 'N4420', 'N4420B', 'N4420C', 'N4420D', 'N4420E', 'N4420F', 'N4420G', 'N4420H', 'N4430', 'N4430A', 'N4430AA', 'N4430AC', 'N4430AD', 'N4430AE', 'N4430B', 'N4430C', 'N4430CA', 'N4430CB', 'N4440', 'N4440A', 'N4440B', 'N4440C', 'N4440D', 'N4440G', 'N4460', 'N4460A', 'N4460B', 'N4460C', 'N4460D', 'N4460E', 'N4460F', 'N4510', 'N4510A', 'N4510AA', 'N4510AB', 'N4510AC', 'N4510AD', 'N4510AE', 'N4510AF', 'N4510AG', 'N4510AGA', 'N4510AH', 'N4510AK', 'N4510E', 'N4510EB', 'N4510EC', 'N4510EE', 'N4510FB', 'N4510G', 'N4510GA', 'N4510GAA', 'N4510GAB', 'N4510GC', 'N4510GD', 'N4520', 'N4520A', 'N4520B', 'N4520BA', 'N4520BAD', 'N4520BB', 'N4520BE', 'N4520BEB', 'N4520BED', 'N4520BEE', 'N4520BEF', 'N4520D', 'N4520E', 'N4520F', 'N4520G', 'N4520GA', 'N4520GB', 'N4520J', 'N4520JA', 'N4520JB', 'N4520JC', 'N4520JD', 'N4520JE', 'N4520K', 'N4520L', 'N4520M', 'N4530', 'N4530A', 'N4530AA', 'N4530AC', 'N4530B', 'N4540', 'N4540A', 'N4540AA', 'N4540AD', 'N4540D', 'N4540DA', 'N4540E', 'N4540G', 'N4610', 'N4610A', 'N4610E', 'N4610L', 'N4610LA', 'N4610LB', 'N4610LC', 'N4610LD', 'N4610N', 'N4610P', 'N4610Q', 'N4610R', 'N4620', 'N4620A', 'N4620AA', 'N4620AB', 'N4620ABA', 'N4620ABB', 'N4620ABC', 'N4630', 'N4630AC', 'N4630AF', 'N4630AG', 'N4630AK', 'N4630AL', 'N4630AP', 'N4630AS', 'N4630BA', 'N4630BC', 'N4630BE', 'N4630BF', 'N4630BG', 'N4630BH', 'N4630BJ', 'N4630BL', 'N4630BM', 'N4710', 'N4710A', 'N4710AA', 'N4710AB', 'N4710AE', 'N4710AF', 'N4710AH', 'N4710AJ', 'N4710AK', 'N4710AL', 'N4710AM', 'N4710AN', 'N4710B', 'N4710C', 'N4710DE', 'N4710E', 'N4720', 'N4720A', 'N4720AA', 'N4720AB', 'N4720AC', 'N4720AD', 'N4720AF', 'N4720AHB', 'N4720AJ', 'N4720B', 'N4720BB', 'N4720BC', 'N4720BK', 'N4720C', 'N4720E', 'N4720EA', 'N4720F', 'N4720H', 'N4720J', 'N4720K', 'N4730', 'N4730A', 'N4730B', 'N4730BB', 'N4730BC', 'N4730C', 'N4730CA', 'N4730CB', 'N4730CD', 'N4730CF', 'N4730F', 'N4730J', 'N4730M', 'N4810', 'N4810A', 'N4810AE', 'N4810AL', 'N4810AN', 'N4810AU', 'N4810AY', 'N4810BE', 'N4810BG', 'N4810D', 'N4810G', 'N4810J', 'N4810L', 'N4820', 'N4820AB', 'N4820AD', 'N4820AE', 'N4820AF', 'N4820AJ', 'N4820AL', 'N4820AP', 'N4820AS', 'N4820AZ', 'N4820BE', 'N4820BN', 'N4820C', 'N4820CC', 'N4820CE', 'N4820CJ', 'N4820CK', 'N4820CN', 'N4820CQ', 'N4820DA', 'N4820DC', 'N4820DE', 'N4820DG', 'N4820DL', 'N4820DN', 'N4820DQ', 'N4910', 'N4910B', 'N4910D', 'N4910E', 'N4910H', 'N4910L', 'N4910M', 'N4910N', 'N4910P', 'N4910RB', 'N4910V', 'N4921', 'N4923', 'N4925', 'N4927', 'N4930', 'N4931', 'N4933', 'N4935', 'N4940', 'N4940B', 'N4940C', 'N4940D', 'N4940E', 'N4940F', 'N4940G', 'N4940J', 'N4940K', 'N4940L', 'N4940M', 'N4940N', 'N4940P', 'N4940R', 'N4940S', 'N4940T', 'N4940W', 'N4970', 'N5110', 'N5110B', 'N5110C', 'N5110D', 'N5110DC', 'N5110DE', 'N5110GC', 'N5110J', 'N5110L', 'N5110P', 'N5110Q', 'N5110R', 'N5120', 'N5120A', 'N5120E', 'N5120EA', 'N5120EB', 'N5120GB', 'N5120H', 'N5120J', 'N5120LH', 'N5120M', 'N5120MG', 'N5120MJ', 'N5120ML', 'N5120MN', 'N5120N', 'N5120NA', 'N5120ND', 'N5120NE', 'N5120NG', 'N5120NJ', 'N5120NL', 'N5120NN', 'N5130', 'N5130A', 'N5130AB', 'N5130BA', 'N5130BB', 'N5130C', 'N5130CA', 'N5130CB', 'N5130CE', 'N5130CG', 'N5130CK', 'N5130CM', 'N5130D', 'N5130DA', 'N5130DB', 'N5130DC', 'N5130DE', 'N5130DG', 'N5130DH', 'N5130DK', 'N5133', 'N5133A', 'N5133B', 'N5136', 'N5136A', 'N5136B', 'N5136C', 'N5140', 'N5140B', 'N5140C', 'N5140CA', 'N5140E', 'N5180', 'N5180A', 'N5180B', 'N5180C', 'N5180D', 'N5210', 'N5210A', 'N5210AB', 'N5210AE', 'N5210B', 'N5210C', 'N5210D', 'N5210E', 'N5210F', 'N5220', 'N5220A', 'N5220B', 'N5220C', 'N5220D', 'N5280', 'N5305', 'N5305B', 'N5306', 'N5306A', 'N5306B', 'N5307', 'N5307A', 'N5310', 'N5310A', 'N5310D', 'N5315', 'N5315A', 'N5315C', 'N5315D', 'N5320', 'N5320A', 'N5325', 'N5325C', 'N5325F', 'N5330', 'N5330A', 'N5330AD', 'N5330AE', 'N5330C', 'N5330CA', 'N5330E', 'N5330EB', 'N5330EE', 'N5331', 'N5335', 'N5335E', 'N5340', 'N5340A', 'N5340B', 'N5340C', 'N5340D', 'N5340E', 'N5340EA', 'N5340F', 'N5340G', 'N5340H', 'N5340K', 'N5340L', 'N5340M', 'N5340N', 'N5340NT', 'N5340PA', 'N5340S', 'N5340X', 'N5342', 'N5345', 'N5345A', 'N5345B', 'N5350', 'N5350A', 'N5350D', 'N5350E', 'N5350F', 'N5355', 'N5355A', 'N5360', 'N5360A', 'N5360B', 'N5365', 'N5365A', 'N5365B', 'N5410', 'N5410A', 'N5410AB', 'N5410AC', 'N5410AD', 'N5410AE', 'N5410AF', 'N5410AG', 'N5410AH', 'N5410AN', 'N5410B', 'N5410BH', 'N5410BP', 'N5410BR', 'N5410BT', 'N5410BU', 'N5410C', 'N5410D', 'N5410F', 'N5410G', 'N5410H', 'N5411', 'N5411A', 'N5419', 'N5420', 'N5420A', 'N5420C', 'N5430', 'N5430A', 'N5430B', 'N5430C', 'N5430D', 'N5430E', 'N5430F', 'N5430H', 'N5440', 'N5440A', 'N5440B', 'N5440BA', 'N5440BC', 'N5440BD', 'N5440C', 'N5440CA', 'N5440CB', 'N5440E', 'N5440F', 'N5440G', 'N5445', 'N5445A', 'N5445B', 'N5445C', 'N5450', 'N5450A', 'N5450B', 'N5450C', 'N5450D', 'N5510', 'N5510A', 'N5510B', 'N5510C', 'N5510D', 'N5510DA', 'N5510DAA', 'N5510DB', 'N5510DBC', 'N5510DC', 'N5510DCA', 'N5510DD', 'N5510DE', 'N5510DF', 'N5510DG', 'N5510DH', 'N5510DJ', 'N5510E', 'N5510F', 'N5510FA', 'N5510FAA', 'N5510FB', 'N5510H', 'N5510K', 'N5510L', 'N5510M', 'N5510N', 'N5510P', 'N5510R', 'N5520', 'N5520A', 'N5520B', 'N5520BB', 'N5520BC', 'N5520BD', 'N5520D', 'N5520E', 'N5530', 'N5530A', 'N5530B', 'N5530C', 'N5530D', 'N5530E', 'N5610', 'N5610A', 'N5610B', 'N5610BA', 'N5610BC', 'N5610C', 'N5610CB', 'N5610CD', 'N5610CE', 'N5610D', 'N5610E', 'N5610F', 'N5610G', 'N5610H', 'N5610J', 'N5610K', 'N5610L', 'N5610LA', 'N5610LC', 'N5610LE', 'N5610LF', 'N5610N', 'N5610R', 'N5610S', 'N5610T', 'N5610U', 'N5610V', 'N5610W', 'N5620', 'N5620A', 'N5620AA', 'N5620B', 'N5620BA', 'N5620BB', 'N5620BC', 'N5620BD', 'N5620BE', 'N5620C', 'N5620D', 'N5620F', 'N5630', 'N5630B', 'N5630BC', 'N5630C', 'N5640', 'N5640A', 'N5640E', 'N5640EB', 'N5640EC', 'N5640ED', 'N5640EF', 'N5640EG', 'N5640EK', 'N5640EM', 'N5640EMC', 'N5640EME', 'N5640EP', 'N5640EQ', 'N5640ER', 'N5640FD', 'N5640FF', 'N5640H', 'N5640J', 'N5640JA', 'N5640JB', 'N5640JC', 'N5640JE', 'N5640K', 'N5640M', 'N5640MB', 'N5640N', 'N5640P', 'N5650', 'N5650A', 'N5650AC', 'N5650AD', 'N5650AF', 'N5650B', 'N5650BC', 'N5650BE', 'N5650C', 'N5650D', 'N5660', 'N5660B', 'N5660BA', 'N5660BC', 'N5660BD', 'N5660BE', 'N5660C', 'N5660CA', 'N5660D', 'N5660E', 'N5660F', 'N5660G', 'N5660GA', 'N5660H', 'N5670', 'N5670A', 'N5670AA', 'N5670AB', 'N5670AC', 'N5670AD', 'N5670AE', 'N5670AF', 'N5670AG', 'N5670AH', 'N5670AJ', 'N5670AJA', 'N5670AK', 'N5670B', 'N5670C', 'N5670E', 'N5670EA', 'N5670EC', 'N5670EE', 'N5670EF', 'N5670F', 'N5670GA', 'N5670H', 'N5670K', 'N5670L', 'N5670N', 'N5670P', 'N5670S', 'N5670V', 'N5675', 'N5680', 'N5680A', 'N5680B', 'N5680C', 'N5680E', 'N5680EB', 'N5680F', 'N5680H', 'N5680J', 'N5680L', 'N5805', 'N5805010', 'N5805017', 'N5805024', 'N5805028', 'N5805029', 'N5805032', 'N5805034', 'N5805036', 'N5805039', 'N5805041', 'N5805042', 'N5805050', 'N5805051', 'N5805060', 'N5805070', 'N5805071', 'N5805074', 'N5805078', 'N5805081', 'N5805083', 'N5805091', 'N5805098', 'N5805100', 'N5805111', 'N5805118', 'N5805119', 'N5805120', 'N5805125', 'N5805126', 'N5805993', 'N5805998', 'N5810', 'N5810310', 'N5810400', 'N5810500', 'N5810520', 'N5811', 'N5811300', 'N5815', 'N5815010', 'N5815023', 'N5815026', 'N5815028', 'N5820', 'N5820010', 'N5820020', 'N5820041', 'N5820043', 'N5820047', 'N5820050', 'N5820052', 'N5820053', 'N5820062', 'N5820063', 'N5820068', 'N5820070', 'N5820072', 'N5820110', 'N5820150', 'N5820160', 'N5820200', 'N5820210', 'N5820230', 'N5820240', 'N5820260', 'N5820330', 'N5820340', 'N5820350', 'N5820380', 'N5820388', 'N5820390', 'N5820420', 'N5820430', 'N5820450', 'N5820460', 'N5820A', 'N5820C', 'N5820CC', 'N5820D', 'N5820DA', 'N5820DAF', 'N5820DAK', 'N5820DB', 'N5820DC', 'N5820DD', 'N5820DF', 'N5821', 'N5821201', 'N5821202', 'N5825', 'N5825010', 'N5825015', 'N5825100', 'N5825110', 'N5825999', 'N5826', 'N5826205', 'N5826207', 'N5826208', 'N5826212', 'N5826999', 'N5830', 'N5830A', 'N5830B', 'N5830C', 'N5830D', 'N5830Y', 'N5831', 'N5831999', 'N5835', 'N5835A', 'N5835AA', 'N5835AB', 'N5835AC', 'N5835H', 'N5835J', 'N5835L', 'N5835Y', 'N5836', 'N5836A', 'N5836AA', 'N5836AB', 'N5836B', 'N5836C', 'N5836D', 'N5836DA', 'N5836DB', 'N5836E', 'N5836HE', 'N5836Y', 'N5840', 'N5840202', 'N5840203', 'N5840205', 'N5840206', 'N5840207', 'N5840208', 'N5840209', 'N5840999', 'N5841201', 'N5841204', 'N5845', 'N5845010', 'N5845201', 'N5845202', 'N5845203', 'N5845204', 'N5845205', 'N5845206', 'N5845207', 'N5845209', 'N5845210', 'N5845211', 'N5845212', 'N5845213', 'N5845214', 'N5845999', 'N5850', 'N5850010', 'N5850020', 'N5855', 'N5855201', 'N5855202', 'N5855999', 'N5860', 'N5865', 'N5895', 'N5895010', 'N5895202', 'N5905', 'N5910', 'N5915', 'N5920', 'N5925', 'N5930', 'N5935', 'N5935100', 'N5935150', 'N5940', 'N5945', 'N5950', 'N5955', 'N5960', 'N5960CG', 'N5961', 'N5962', 'N5963', 'N5965', 'N5970', 'N5975', 'N5977', 'N5980', 'N5985', 'N5985020', 'N5985260', 'N5990', 'N5995', 'N5996', 'N5996A', 'N5998', 'N5999', 'N5999250', 'N5999A', 'N5999B', 'N6010', 'N6015', 'N6020', 'N6021', 'N6030', 'N6032', 'N6035', 'N6040', 'N6060', 'N6070', 'N6080', 'N6099', 'N6100', 'N6105', 'N6105200', 'N6110', 'N6110100', 'N6115', 'N6115312', 'N6115A', 'N6115B', 'N6115BA', 'N6115BB', 'N6115C', 'N6115F', 'N6116', 'N6117', 'N6120', 'N6120100', 'N6125', 'N6130', 'N6135', 'N6135250', 'N6135450', 'N6140', 'N6140650', 'N6145', 'N6150', 'N6160', 'N6210', 'N6210A', 'N6210C', 'N6210CA', 'N6220', 'N6230', 'N6230A', 'N6240', 'N6250', 'N6260', 'N6310', 'N6320', 'N6330', 'N6340', 'N6350', 'N6350010', 'N6350050', 'N6350304', 'N6350A', 'N6350B', 'N6505', 'N6505088', 'N6505552', 'N6505CP', 'N6508', 'N6508B', 'N6508E', 'N6508F', 'N6509', 'N6510', 'N6510E', 'N6510ES', 'N6510ET', 'N6510M', 'N6510MH', 'N6510QC', 'N6515', 'N6515001', 'N6515002', 'N6515004', 'N6515005', 'N6515007', 'N6515BD', 'N6515C', 'N6515CC', 'N6515CEA', 'N6515CF', 'N6515CG', 'N6515CH', 'N6515CLA', 'N6515CN', 'N6515CS', 'N6515CSA', 'N6515CVA', 'N6515CW', 'N6515CZ', 'N6515D', 'N6515HC', 'N6515J', 'N6515K', 'N6515L', 'N6515N', 'N6515NC', 'N6515T', 'N6515V', 'N6515Y', 'N6515ZA', 'N6515ZB', 'N6520', 'N6520A', 'N6520B', 'N6520Q', 'N6520U', 'N6525', 'N6525A', 'N6525AA', 'N6525B', 'N6525E', 'N6525F', 'N6525G', 'N6525H', 'N6525J', 'N6525K', 'N6530', 'N6530001', 'N6530A', 'N6530AB', 'N6530B', 'N6530BA', 'N6530BB', 'N6530C', 'N6530E', 'N6530EA', 'N6530F', 'N6530GAC', 'N6530GBB', 'N6530GC', 'N6530GEC', 'N6530GJ', 'N6530GL', 'N6530LAB', 'N6530LB', 'N6530LBA', 'N6530LBB', 'N6530LBC', 'N6530NB', 'N6530PB', 'N6530PC', 'N6530PCA', 'N6530PD', 'N6530PG', 'N6530PL', 'N6530Q', 'N6530RA', 'N6530SA', 'N6530SB', 'N6530SBA', 'N6530SBB', 'N6530SBG', 'N6530SBH', 'N6530SC', 'N6530SE', 'N6530SH', 'N6530TAB', 'N6530TD', 'N6530WB', 'N6530WC', 'N6530X', 'N6532', 'N6540', 'N6540A', 'N6540C', 'N6545', 'N6545B', 'N6545D', 'N6545EA', 'N6550', 'N6550FR', 'N6550FRJ', 'N6550FS', 'N6550G', 'N6605', 'N6605201', 'N6605993', 'N6605999', 'N6610', 'N6615', 'N6620', 'N6625', 'N6625A', 'N6625AA', 'N6625B', 'N6625BV', 'N6625C', 'N6625E', 'N6625F', 'N6625G', 'N6625H', 'N6625K', 'N6625L', 'N6625M', 'N6625MDA', 'N6625MES', 'N6625N', 'N6625P', 'N6625R', 'N6625RB', 'N6625RC', 'N6625S', 'N6625T', 'N6625U', 'N6625V', 'N6625W', 'N6625WU', 'N6625Y', 'N6625YU', 'N6625Z', 'N6625ZAS', 'N6625ZCA', 'N6630', 'N6630A', 'N6630AA', 'N6630AC', 'N6630AE', 'N6630AF', 'N6630AG', 'N6630AH', 'N6630AJ', 'N6630AL', 'N6630AM', 'N6630AN', 'N6630B', 'N6630BA', 'N6630BB', 'N6630BC', 'N6630BD', 'N6630BF', 'N6630BH', 'N6630C', 'N6630D', 'N6630DA', 'N6630DB', 'N6630DC', 'N6630DE', 'N6630E', 'N6630F', 'N6630G', 'N6630GA', 'N6630H', 'N6630L', 'N6630M', 'N6630N', 'N6630P', 'N6630PA', 'N6630PC', 'N6630PCA', 'N6630PD', 'N6630PF', 'N6630Q', 'N6630R', 'N6630RA', 'N6630RB', 'N6630S', 'N6630T', 'N6635', 'N6635A', 'N6635B', 'N6635C', 'N6635CA', 'N6635CC', 'N6635D', 'N6635DA', 'N6635DC', 'N6635DF', 'N6635E', 'N6635F', 'N6635FA', 'N6635FB', 'N6635FC', 'N6635FE', 'N6635FG', 'N6635FJ', 'N6635FK', 'N6635FL', 'N6635FM', 'N6635H', 'N6635HB', 'N6635HC', 'N6635HD', 'N6635HF', 'N6635HM', 'N6635HN', 'N6635J', 'N6635K', 'N6635KB', 'N6635KC', 'N6635M', 'N6635MA', 'N6635MD', 'N6635MF', 'N6635N', 'N6635P', 'N6635Q', 'N6636', 'N6636A', 'N6636AA', 'N6636AB', 'N6636AC', 'N6636AD', 'N6636B', 'N6636D', 'N6636G', 'N6636H', 'N6636J', 'N6636K', 'N6640', 'N6640200', 'N6640210', 'N6640220', 'N6640300', 'N6640A', 'N6640AA', 'N6640AB', 'N6640AC', 'N6640B', 'N6640BA', 'N6640BB', 'N6640BC', 'N6640BD', 'N6640D', 'N6640E', 'N6640EA', 'N6640EB', 'N6640F', 'N6640G', 'N6640GB', 'N6640GD', 'N6640H', 'N6640J', 'N6640JA', 'N6640JB', 'N6640K', 'N6640M', 'N6640MA', 'N6640MC', 'N6640N', 'N6640NA', 'N6640Q', 'N6640R', 'N6640RA', 'N6640S', 'N6640SA', 'N6640SC', 'N6640T', 'N6640U', 'N6640V', 'N6640W', 'N6640WA', 'N6640X', 'N6640XA', 'N6640XB', 'N6640XC', 'N6640Y', 'N6640Z', 'N6640ZA', 'N6640ZB', 'N6645', 'N6645A', 'N6645AB', 'N6645B', 'N6645BD', 'N6645BJ', 'N6645EB', 'N6645ED', 'N6645EF', 'N6645G', 'N6645GB', 'N6645GC', 'N6645GE', 'N6650', 'N6650A', 'N6650B', 'N6650C', 'N6650D', 'N6650F', 'N6650G', 'N6650H', 'N6650J', 'N6650K', 'N6650KA', 'N6650KB', 'N6650KBA', 'N6650KD', 'N6650KE', 'N6650KF', 'N6650KG</t>
         </is>
@@ -609,12 +617,15 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>686</v>
+      </c>
+      <c r="U3" t="n">
         <v>30202</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>79</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>['["AEC"]', '["AO"]', '["AR"]', '["BB"]', '["BF"]', '["BK"]', '["BL","BY","HN","ML"]', '["BL","HP","HS"]', '["BL","HS","ML"]', '["BL","HS"]', '["BL"]', '["BM"]', '["BQ"]', '["BY"]', '["CAG"]', '["CW"]', '["CX"]', '["CY"]', '["CZ"]', '["EDM"]', '["EEM"]', '["EF","EO","QD"]', '["EF"]', '["EJ"]', '["EO"]', '["EW"]', '["FE"]', '["FG"]', '["FK"]', '["GB"]', '["HAL"]', '["HL"]', '["HN"]', '["HP","HS"]', '["HP","ML"]', '["HP"]', '["HS","ML"]', '["HS"]', '["LM"]', '["LP"]', '["MC"]', '["MD"]', '["ML"]', '["NT"]', '["PD"]', '["PH"]', '["PI"]', '["PQ"]', '["PR"]', '["PSD"]', '["PV"]', '["QD","QF"]', '["QD"]', '["QE"]', '["QF"]', '["RH"]', '["SC"]', '["SE"]', '["SQ"]', '["SRI"]', '["SS"]', '["ST"]', '["STN"]', '["SV"]', '["TAP"]', '["VAN"]', '["XF"]', '["XG"]', '["XK"]', '["XN"]', '["XQ"]', '["XSB"]', '["ZF"]', '["ZG"]', '["ZH"]', '["ZL"]', '["ZM"]', '["ZN"]', '["ZQ"]']</t>
         </is>
@@ -683,16 +694,19 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Circuit Breakers</t>
+          <t>Building/Installation Special Trade Services, Not Elsewhere Specified</t>
         </is>
       </c>
       <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
         <v>190139</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>4947</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>['ABSORBENT MATERIAL, OIL AND WATER', 'ACCELEROMETER, ELECTRICAL, LINEAR (EXCEPT FIRE CONTROL AND      GUIDED MISSILE)', 'ACIDS (N.E.S.)', 'ADD ON MEMORIES (INTERNAL/EXTERNAL)', 'ADDITIVES AND CONDITIONERS, FUEL OIL', 'ADHESIVE, GLUE', 'ADP CENTRAL PROCESSING UNIT (CPU, COMPUTER) ANALOG - LEASE', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) ANALOG - RENT', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) DIGITAL - LEASE', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) DIGITAL - RENT', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) HYBRID - RENT', 'ADP COMPONENTS - LEASE', 'ADP Central Processing Unit (CPU, Computer) Analog', 'ADP Central Processing Unit (CPU, Computer) Analog - Maintenance', 'ADP Central Processing Unit (CPU, Computer) Digital', 'ADP Central Processing Unit (CPU, Computer) Digital - Installation', 'ADP Central Processing Unit (CPU, Computer) Hybrid', 'ADP Central Processing Unit (CPU, Computer) Hybrid - Maintenance', 'ADP Central Processing Unit (CPU,Computer) Digital - Maintenance', 'ADP Components', 'ADP INPUT-OUTPUT AND STORAGE DEVICES - LEASING OF EQUIPMENT', 'ADP INPUT-OUTPUT AND STORAGE DEVICES - RENTAL', 'ADP Input - Output and Storage Devices - Installation', 'ADP Input-Output and Storage Devices', 'ADP Input-Output and Storage Devices - Maintenance', 'ADP Software', 'ADP Software Maintenance - Other than Microcomputer', 'ADP Support Equipment', 'ADPE SYSTEM CONFIGURATION - LEASE', 'ADPE System Configuration - Installation', 'ADVERTISING AND PROMOTIONAL BALLOONS', 'ADVERTISING DISPLAYS', 'AIR CONDITIONING EQUIPMENT - LEASING', 'AIR CONDITIONING EQUIPMENT - RENTAL', 'AIR PURIFICATION EQUIPMENT - RENTAL', 'AIRCRAFT AIR CONDITIONING, HEATING AND PRESSURIZING EQUIPMENT - INSTALLATION', 'AIRCRAFT GROUND SERVICING EQUIPMENT - PRODUCTION DESIGN', 'AIRCRAFT GROUND SERVICING EQUIPMENT - RENTAL', 'AIRCRAFT PROPELLERS - INSTALLATION', 'AIRCRAFT, ROTARY WING - PRODUCTION DESIGN', 'ALARM SYSTEMS, GAS, RADIOACTIVE', 'ALARM SYSTEMS, HAZARD DETECTING', 'ALCOHOL', 'ALIDADES AND ACCESSORIES', 'ALTIMETERS, SURVEYING', 'ALUMINUM', 'ALUMINUM ANGLES, CHANNELS AND SECTIONS', 'ALUMINUM FOIL, COMMERCIAL PACKAGING', 'ALUMINUM OXIDE', 'ALUMINUM PIGMENT FOR PAINT, POWDER', 'ALUMINUM SHEET', 'ALUMINUM SULFIDE, POWDER AND LIQUID AWWA B403', 'ALUMINUM, BARS AND RODS', 'AMBULATORY AIDS', 'AMMONIUM NITRATE (TECHNICAL)', 'AMMONIUM SULFATE', 'AMMUNITION BOXES, PACKAGES AND SPECIAL CONTAINERS', 'AMMUNITION, OVER 125MM - PRODUCTION DESIGN', 'AMPLIFIERS AND PREAMPLIFIERS, TEST', 'AMPLIFIERS, TEST', 'ANALYSERS, COLOUR PRINTING PHOTOGRAPHIC', 'ANALYZERS', 'ANALYZERS LIQUID SAMPLE', 'ANALYZERS, AMINO ACID', 'ANALYZERS, BLOOD GAS, ELECTROLYTES (PCO,PH,PO,NA,K,CA)', 'ANALYZERS, CHEMICAL, AUTOMATIC (INCLUDES CLINICAL)', 'ANALYZERS, COAGULATION, AUTOMATIC', 'ANALYZERS, ELECTRON PROBE (MICROPROBE)', 'ANALYZERS, ELECTRONIC TEST EQUIPMENT (SEE ALSO TEST SETS,       ELECTRONIC TEST EQUIPMENT)', 'ANALYZERS, ELEMENTAL (C, H, N, TOC)', 'ANALYZERS, FISH FRESHNESS', 'ANALYZERS, FLOW CYTOMETERS', 'ANALYZERS, GAS (INCLUDES NOX, CO, CO2, SO2, O2) EXCLUDES HAZARD TYPE', 'ANALYZERS, MEAT, FAT CONTENT', 'ANALYZERS, PARTICLE SIZE', 'ANALYZERS, POLAROGRAPHY', 'ANALYZERS, SPECTRUM', 'ANALYZERS, SURFACE ORIENTATED (AUGER, PHOTOELECTRON SPECTROMETERS, MOLECULAR BEAM EPITAXY, CHEMICAL VAPOR DEPOSITION)', 'ANALYZING KIT, CHEMICAL AGENT (CW)', 'ANEMOMETER, METEOROLOGICAL TYPE', 'ANIMALS, LIVE, LABORATORY', 'ANTENNAS, WAVEGUIDES AND RELATED EQUIPMENT - LEASING', 'ANTENNAS, WAVEGUIDES AND RELATED EQUIPMENT - RENTAL', 'ANTIFREEZE, AUTOMOTIVE ENGINE', 'ANTIFREEZE, WINDSHIELD WASHER, DILUTE', 'ARMAMENT TRAINING DEVICES, ELECTRONIC, ACCESSORIES AND SPARES', 'ARMAMENT TRAINING DEVICES, ELECTRONIC, GUNNERY TARGETS', 'ATTENUATORS, TEST', 'AUTOMATIC DATA PROCESSING EQUIPMENT, SYSTEM CONFIGURATION-RENTAL', 'AUTOMATIC DATA PROCESSING SUPPLIES - LEASE', 'Abrasive Cloth Assortments', 'Abrasive Materials', 'Abrasive, Grain', 'Absorbents - Chemicals', 'Absorbers, Shock, for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'Access Hatches, Building, Custom', 'Accessories for Concrete Forms and Scaffolding', 'Accessories for Secondary Metal Working Machinery', 'Accessories, CCTV', 'Accommodation and Food Services, N.E.S.', 'Accommodation and/or Food Support Services', 'Accounting and Calculating Machines', 'Accounting and Financial Management Studies', 'Acoustic Data Processing System', 'Acoustical Analysis/Technology (R&amp;D)', 'Actuarial Services', 'Actuator, Electric, Pneumatic, Hydraulic, Manual', 'Additive Metal Materials', 'Addressing, Distribution and Mailing Lists Management', 'Adhesives', 'Adjudication Services', 'Administrative Management and Planning Services', 'Administrative Services', 'Advertising', 'Advertising Creative Services', 'Advertising Media Buying/Placement', 'Advertising Related Services', 'Advisory Support Services / Natural resources efficiency', 'Aerator Mechanical', 'Aerial Application and Distribution Services', 'Aerial Control Services', 'Aerial Inspection and Reconnaissance Services', 'Aerial Photographic Services', 'Aerial Photography Other Than Survey and Mapping', 'Aeromagnetic Survey F.W. for Mapping', 'Aeromagnetic Survey Services: R.W. for Mapping', 'Aeronautical Maps, Charts and Geodetic Products', 'Aerosols, Paint Lacquer, etc', 'Aggregate, Construction, Fire Clay, Crushed', 'Agricultural Cleaning Services', 'Agricultural Services, Not Elsewhere Specified', 'Agriculture (R&amp;D)', 'Air', 'Air Ambulance Services', 'Air Cleaner Elements, Intake', 'Air Cleaners', 'Air Cleaners, Electronic', 'Air Conditioning Contractor Services', 'Air Conditioning Equipment', 'Air Conditioning Equipment (Domestic Only)', 'Air Conditioning Equipment (Industrial) N.E.S.', 'Air Conditioning Equipment - Repair and Overhaul', 'Air Conditioning Equipment Components (Industrial)', 'Air Conditioning Equipment, Industrial', 'Air Conditioning Equipment, Industrial - Repair', 'Air Conditioning Equipment, Refrigeration (Industrial)', 'Air Conditioning Heater Units (Industrial)', 'Air Conditioning Room and Window Units (Domestic Only)', 'Air Conditioning System-Spray Cooled (Industrial)', 'Air Conditioning Units (Industrial)', 'Air Conditioning Units, Computer Room', 'Air Conditioning Units, Computer Room, Upward Flow', 'Air Conditioning and Heating Combination Components (Domestic)', 'Air Distribution Systems - Installation and Repair', 'Air Handling Units (Industrial)', 'Air Purification Equipment', 'Air Purification Equipment - Repair', 'Air Purification Equipment, N.E.S.', 'Air Quality (Research)', 'Air Quality Analyses', 'Air Quality Support Services', 'Air Taxi', 'Air Transportation', 'Air Transportation - Business Travel', 'Air Washing Units (Industrial)', 'Air-to-Air Gunnery Towing and Scoring Services', 'Airblower, Tractor/Loader Attachment', 'Airborne Auxillary and Ground Gas Turbine Units for Aircraft Engines Starting - Repair and Overhaul', 'Airborne Combat Support Training - Fighter and Trainer Aircraft only', 'Airborne Geophysical Surveys Specialty Commercial Air Services', 'Aircraft (Military) Miscellaneous Communications Equipment - Installation', 'Aircraft (Military) Miscellaneous Communications Equipment - Repair and Overhaul', 'Aircraft (Military) Navigational Instruments - Repair and Overhaul', 'Aircraft (Military) Radar Equipment - Repair and Overhaul', 'Aircraft (Military) Radio and Television Communications Equipment - Repair and Overhaul', 'Aircraft (Military) Telephone and Telegraph Equipment - Installation', 'Aircraft Air Conditioning, Heating and Pressurizing Equipment', 'Aircraft Air Conditioning, Heating and Pressurizing Equipment (Military) - Repair and Overhaul', 'Aircraft Alarm and Signal Systems', 'Aircraft Alarm and Signal Systems (Civilian) - Repair', 'Aircraft Bombing Fire Control Components', 'Aircraft Control Cable Products', 'Aircraft Ground Servicing Equipment', 'Aircraft Ground Servicing Equipment - Repair', 'Aircraft Gunnery Fire Control Components', 'Aircraft Gunnery Fire Control Components - Production Design', 'Aircraft Hydraulic, Vacuum and De-Icing System Components', 'Aircraft Hydraulic, Vacuum and De-icing System Components (Military) - Repair and Overhaul', 'Aircraft Landing Equipment - Repair', 'Aircraft Landing Gear Components', 'Aircraft Landing Gear Components (Military) - Repair and Overhaul', 'Aircraft Launching Equipment', 'Aircraft Launching Equipment - Repair', 'Aircraft Propellers and Components', 'Aircraft Propellers and Components (Military) - Repair and Overhaul', 'Aircraft Tools, Special', 'Aircraft Wheel and Brake Systems', 'Aircraft Wheel and Brake Systems (Civilian) - Repair', 'Aircraft and Glider Dry Leases', 'Aircraft, Fixed Wing', 'Aircraft, Fixed Wing - (Military) Repair and Overhaul', 'Aircraft, Fixed Wing - Repair and Overhaul (Civilian)', 'Aircraft, Fixed Wing - Repair and Overhaul (Military)', 'Aircraft, Rotary Wing', 'Aircraft, Rotary Wing (Military) - Repair and Overhaul', 'Aircraft, Rotary Wing - Repair', 'Airfield Specialized Trucks and Trailers', 'Airfield Specialized Trucks and Trailers - Repair', 'Airframe Structural Components', 'Airframe Structural Components (Miliatry) - Repair and Overhaul', 'Airplanes, Civil Certified', 'Alarm and Signal Systems, Miscellaneous - Installation and Services', 'Alarm and Signal Systems, Miscellaneous - Repair, Overhaul and Maintenance', 'Alarm and Signal Systems, Repair and Overhaul', 'Alarm, Automatic Sprinkler', 'Alarm, Signal, and Security Detection Systems , Miscellaneous', 'Alignment Tools, Electronic Equipment', 'Alignments, Wheel Balancing', 'All Terrain Vehicles (R&amp;D)', 'Alternate Format Printing (includes Braille, Large Print and Tactile Graphics)', 'Alternative Dispute Resolution Services', 'Alternative Work Environment Studies', 'Altimeter Radar Equipment (Airborne)', 'Ambulances, Repair and Overhaul', 'Ammunition Maintenance, Repair and Checkout Specialized Equipment', 'Ammunition and Nuclear Ordnance Boxes, Packages and Special Containers', 'Ammunition, 75mm through 125mm', 'Ammunition, Through 30MM - Repair', 'Ammunition, over 125mm', 'Ammunition, over 30mm up To 75mm', 'Ammunition, through 30mm', 'Amplifiers', 'Amplifiers, Radio Frequency', 'Analytical Chemistry', 'Anchors (Sea)', 'Animal Control Services - Trap and Remove Animals From Populated Areas', 'Animal Drawn Vehicles and Farm Trailers', 'Animal and Fisheries Studies', 'Antenna Technology (R&amp;D)', 'Antenna, Systems - LF', 'Antennas, Waveguides and Related Equipment', 'Antennas, Waveguides and Related Equipment - Installation', 'Antennas, Waveguides and Related Equipment - Repair and Overhaul', 'Anti-Pollution Chlorination Systems, Marine', 'Anti-Pollution Oil Booms', 'Aquaculture (R&amp;D)', 'Arbitration Services', 'Archaeological Site Investigations', 'Archaeological/Paleontological Services', 'Architect and Engineering Services - Buildings', 'Architect/Engineer Services - Administration &amp; Service Buildings', 'Architect/Engineer Services - Airfield, Communication and Missile Facilities', 'Architect/Engineer Services - Educational Buildings', 'Architect/Engineer Services - Hospital Buildings', 'Architect/Engineer Services - Industrial Buildings', 'Architect/Engineer Services - Residential Buildings', 'Architect/Engineer Services - Warehouse Buildings', 'Architect/Engineer Services Research and Development Facilities', 'Architectual &amp; Engineering CADD Services', 'Architectual Services - Buildings', 'Architectural &amp; Engineering  Services - Other Non-Building Structures', 'Architectural &amp; Engineering Inspection Services', 'Architectural &amp; Engineering Services - Highways, Roads, Railways,Bridges and Dams', 'Architectural &amp; Engineering Services - Power Generation and Utilities', 'Architectural &amp; Engineering Services - Restoration/Conservation Heritage Building Structures', 'Architectural &amp; Engineering Services - Restoration/Conservation Heritage Non-Building Structures', 'Architectural Services: Statement of Requirements or Building Programming', 'Architectural and Related Metal Products - Repair', 'Archival Services: Preparation Cataloguing and Preservation', 'Armament Training Devices - Repair', 'Armament Training Devices, Refer to Parent Weapon System', 'Armor, Personal', 'Armoured Car Service', 'Asbestos', 'Asbestos Removal Services', 'Asphalt and Joint Sealing Services', 'Asphalt, Liquid Petroleum, Primer and Cement for Road Purpose', 'Asphalt, Petroleum, Roofing', 'Assemblies Interchangeable Between Weapons in Two or More Classes', 'Asset Management  Plans (AMP)', 'Astronautics (R&amp;D)', 'Athletic and Sporting Equipment', 'Atmospheric Pollutants (Research)', 'Auctioneering Services', 'Audio Players and Recorders - analog and digital', 'Audio Recording Media', 'Audio Recordings/Talking Books', 'Audio Tape Transcripts/Summary Services - Not Media Related', 'Audio Visual Production Services', 'Audio Visual Services - Interactive/Multimedia including implementation for website use', 'Audio and Video Technical Services', 'Audio/Visual Freelance and Project Management Services', 'Audio/Visual Language Adaptation/Versioning Services', 'Audit Services, Not Elsewhere Specified', 'Auger Machines, Pipe and Sewer, Power Operated', 'Automated Fishing Gear', 'Automated News Services', 'Automatic Data Processing Equipment, System Configuration', 'Automatic Data Processing Equipment, System Configuration - Repair', 'Automatic Pilot Mechanisms and Airborne Gyro Components', 'Automotive Washing Services', 'Aviation Fuel', 'Awnings', 'Axial Fans (Industrial)', 'Axle Assembly, for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'BACS - Building Automation Control Systems', 'BADGE, IDENTIFICATION, LAMINATED PLASTIC, WITH ENGRAVED  LETTERING', 'BAG, AIRSICKNESS', 'BAG, FOOD PRODUCTS', 'BAG, PAPER, MULTIWALL', 'BAG, PLASTIC', 'BAG, SAND', 'BAG, TEXTILE', 'BAG, URINE', 'BAGS AND CASES, PHOTOGRAPHIC', 'BALANCE, ANALYTICAL', 'BALANCE, ANALYTICAL, ELECTRONIC, MICRO TO ULTRA-MICRO', 'BALANCE, ANALYTICAL, SPECIFIC GRAVITY', 'BALANCING MACHINE, DYNAMIC-STATIC, HORIZONTAL', 'BALLOON, METEOROLOGICAL', 'BANDAGES AND DRESSINGS', 'BAR, NICKEL, MONEL, INCONEL AND INCOLOY', 'BAROMETER, METEOROGICAL, ALL TYPES', 'BAROMETERS, ANEROID AND MERCURIAL (EXCEPT METEOROLOGICAL)', 'BARRIER MATERIAL', 'BASIN, EMESIS, STAINLESS STEEL', 'BATH WHIRLPOOL', 'BCG Vaccine (Freeze-Dried)', 'BED, HOSPITAL', 'BED, HOSPITAL, STEEL, ELECTRICALLY OPERATED', 'BEDPAN, STEELWARE', 'BELTING, DRIVE BELTS, FAN BELTS AND ACCESSORIES - RENTAL', 'BINOCULARS (OTHER THAN FIRE CONTROL OPTICAL SIGHTING AND        RANGING EQUIPMENT)', 'BLACKBOARD', 'BLIND, WINDOW', 'BOILERS, PORTABLE, RENTAL', 'BOILING POINT DETERMINATION APPARATUS', 'BOOKCASES, OFFICE TYPE', 'BOOKS (PRINTING PRODUCTS PUBLICATIONS)', 'BOOKS AND PAMPHLETS (EXCEPT PRINTING PRODUCTS PUBLICATIONS)', 'BOOKS, TEXT (ENGLISH) (EXCEPT PRINTING PRODUCTS PUBLICATIONS)', 'BOOTHS, AUDIOMETRIC EXAMINATION', 'BOREHOLE EQUIPMENT SYSTEMS', 'BORESCOPE', 'BOTTLE/VIAL, GLASS (PRESCRIPTION DISPENSING)', 'BOX, PLASTIC', 'BOX, SHIPPING', 'BOX, SHIPPING, WOOD', 'BOXES PAPERBOARD', 'BRASS INSTRUMENTS (HORNS, BUGLES, TRUMPETS, ETC)', 'BRICKS, INSULATING AND REFRACTORY', 'BROOMS, BRUSHES, MOPS AND SPONGES - LEASING', 'BROOMS, BRUSHES, MOPS AND SPONGES - RENTAL', 'BRUSH, CLEANING, TOOLS AND PARTS, NYLON BRISTLES', 'BRUSH, PAINT', 'BUILDING, PREFABRICATED, PORTABLE OR RELOCATABLE, SCHOOLS AND   CLASSROOMS - RENTAL', 'BULB, SPHYGMOMANOMETER', 'BURNER, GAS, LABORATORY', 'Badges and Insignia', 'Bag, Tool, Satchel', 'Bags and Liners, Plastic, Degradable', 'Bags and Sacks', 'Bakery Products', 'Bakery and Cereal Products (replaced by gsin N8920Z)', 'Bakery, Specialties, Not Elsewhere Specified', 'Balancers, Automotive', 'Ballasts, Lampholders, and Starters', 'Ballasts, Lampholders, and Starters - Repair', 'Banking and Trust Company Services', 'Barbed Wire', 'Barber and Beauty Shop Services', 'Barges - Special Purpose', 'Barges and Lighters, Cargo', 'Barges and Lighters, Cargo - Repair', 'Barges and Lighters, Special Purpose', 'Bars and Rods', 'Bars and Rods, Nonferrous Base Metal', 'Basin, Lavatory', 'Bathtubs', 'Batteries, Dry, Alkaline', 'Batteries, Dry, Lithium', 'Batteries, Forklift Truck', 'Batteries, Primary', 'Batteries, Primary - Repair', 'Batteries, Rechargeable', 'Batteries, Rechargeable - Repair', 'Beacon, Secondary Surveillance Radar (SSR) Radar Equipment, Except Airborne', 'Beacons, Radio Navigation Equipment (Except Airborne)', 'Bead Breakers, Tire', 'Bearing Assembly, Shaft and Thrust, Ships Propulsion', 'Bearings, Antifriction, Unmounted', 'Bearings, Antifriction, Unmounted - Repair', 'Bearings, Ball, Annular, Thrust Bearing, Roller Bearing and Multiapplication (Except Aircraft)', 'Bearings, Cups and Cones', 'Bearings, Mounted', 'Bearings, Mounted - Repair', 'Bearings, Mounted, All Types', 'Bearings, Plain, Unmounted', 'Bearings, Roller, Cylindrical , FED. SPEC. FF-B-185, DND QPL', 'Bearings, Roller, Tapered, FED. SPEC. FF-B-187A, DND QPL', 'Bells, Buoy, Navigation Marker, Marine', 'Bells, Ship (Non Electric)', 'Belting, Drive Belts and Accessories', 'Belting, Drive Belts, Fan Belts and Accessories - Repair', 'Bending and Forming Machines', 'Bending and Forming Machines - Repair', 'Beret', 'Berthing Docks - Floating', 'Beverage Base Assortments (nonalcoholic)', 'Beverage Concentrate with Rental Dispensers', 'Beverages, Alcoholic', 'Beverages, Alcoholic (replaced by gsin N8965ZA)', 'Beverages, Non Alcoholic, Juice Crystals (replaced by gsin N8920ZC)', 'Beverages, Non-Alcoholic (replaced by gsin N8960Z)', 'Binders, Printed', 'Binoculars and Cases, Fire Control, Except Marine and Non-Specific Components', 'Binoculars and Cases, Fire Control, Marine and Non-Specific Components', 'Biochemistry (R&amp;D)', 'Biodiesel Fuels', 'Biological Defence Technology (R&amp;D)', 'Biology (R&amp;D)', 'Bird Control Devices', 'Bits, Auger', 'Blades, Dozer, Earth Moving', 'Blades, Hand, Hacksaw, CGSB 46-GP-1', 'Blades, Snowplow', 'Blades, Snowplow - Repair', 'Blades, Vehicle Mounting', 'Blast Cleaning Cabinets', 'Blast Cleaning Machines', 'Bleachers, Seating', 'Block, Tackle, Rigging and Slings - Repair', 'Blocks, Tackle, Rigging and Slings', 'Blood Alcohol Level Measuring Instruments, Breath Sampling Type', 'Blood Alcohol Level Measuring Instruments, Breath Sampling Type; Accessories and Spare Parts Only', 'Blowers, Electrical, Portable', 'Blowers, Sewage Aeration', 'Blue Printing and Engineering Drawing Reproduction', 'Boats (Small) and Canoes - Repair and Overhaul', 'Boats - Inflatable - Rigid Hull', 'Boats, Small - Fibreglass - Repair and Overhaul', 'Boats, Small, Aluminum', 'Body Scanning Measuring and Sizing System', 'Boiler Components', 'Boiler Components, Industrial', 'Boiler Components, Marine', 'Boiler Technology (R&amp;D)', 'Boiler, Chemical Water Treatment &amp; Related Services', 'Boiler-Tubes, Studded, Marine', 'Boilers (Over 15 Pounds WSP/Over 100 Gallons Recovery Capacity)', 'Boilers - Installation and Repair', 'Boilers, Commercial', 'Boilers, Marine', 'Boilers, Marine - Repair and Overhaul', 'Boilers, Repair and Cleaning Services', 'Bolts', 'Bolts, Aircraft', 'Bolts, All Types and Materials (Except Aircraft)', 'Bombs', 'Book-Binding Services', 'Bookcases, Shipboard Type Including Racks', 'Books and Pamphlets', 'Boom Fittings, Sailboat', 'Booms', 'Booms, Cargo', 'Booms, Floating', 'Booms, Yards, Masts, Aluminum', 'Booms, Yards, Masts, Wooden', 'Booth, Sound Proof', 'Booths, Spraying', 'Boots, Combat', 'Boots, Safety', 'Boring Machines', 'Bottles and Jars', 'Bowls, Toilet', 'Boxes, Cartons and Crates', 'Boxes, Cartons and Crates - Repair', 'Brackets', 'Brake Service Equipment', 'Brake Shoes, Drums and Miscellaneous Brake Components (N.E.S.) for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'Bread and Rolls', 'Bread and Rolls (replaced by gsin N8920ZJ)', 'Bricks and Blocks, Concrete', 'Bricks, Clay (Nonrefractory)', 'Bridge Bearings and Bearing Pads', 'Bridges, Elevated Highways, Tunnels, Subways and Railroads', 'Bridges, Fixed and Floating', 'Broaching Machines', 'Broaching Machines - Repair', 'Brokerage Services - Disposal of Aircraft and/or Parts', 'Brooms, Brushes, Mops and Sponges', 'Brooms, Brushes, Mops and Sponges - Repair', 'Brush, Sweeper, Road and Runway', 'Brushcutter, Edger, Renovator, Sweeper and Tiller', 'Budget Control Systems', 'Building Components, Prefabricated', 'Building Computer Cabling Installation', 'Building Electrical Controls - Installation and Repair', 'Building Electronic Controls - Installation and Repair', 'Building Environmental Control Systems Servicing', 'Building Exterior Cleaning', 'Building Fire Protection Systems', 'Building Gas System (Medical/Industrial) Contractors', 'Building Insulation Contractor Services', 'Building Intercommunication System - Installation and Repair', 'Building Intrusion Detection System - Installation and Repair', 'Building Lighting - Installation and Repair', 'Building Public Address Systems - Installation and Repair', 'Building Services - Handyman Services', 'Building Sheet Metal Services', 'Building Waterproofing Services', 'Building, Prefabricated, Kiosk, Unarmoured', 'Building/Installation Special Trade Services, Not Elsewhere Specified', 'Buildings, Prefabricated (Bullet Proof)', 'Buildings, Prefabricated (Special Purpose)', 'Buildings, Prefabricated (Types)', 'Buildings, Prefabricated and Portable (Customengineered)', 'Buildings, Prefabricated, Fibreglass', 'Buildings, Prefabricated, Garage', 'Buildings, Prefabricated, Greenhouse', 'Buildings, Prefabricated, Inflatable or Air-Supported', 'Buildings, Prefabricated, Metal', 'Buildings, Prefabricated, Modular or Sectional', 'Buildings, Prefabricated, Molded Concrete', 'Buildings, Prefabricated, Panelized (Open or Closed Panels)', 'Buildings, Prefabricated, Portable or Relocatable', 'Buildings, Prefabricated, Portable or Relocatable, Industrial Self-Contained Camp', 'Buildings, Prefabricated, Portable or Relocatable, Laboratory', 'Buildings, Prefabricated, Storage', 'Buildings, Prefabricated, Wood', 'Bulk Explosives', 'Buoys', 'Buoys - Repair', 'Buoys, All Types Except Plastic', 'Buoys, Data Acquisition', 'Buoys, Plastic', 'Burners Oil - Repair and Overhaul', 'Burners, Gas, Commercial', 'Burners, Oil', 'Burners, Oil, Commercial', 'Bus Passenger Service', 'Bus Services', 'Bus, Shuttle Services', 'Buses', 'Buses School, Conventional Type, 25 Passenger and Up', 'Buses, Highway Type', 'Buses, Repairs and Service', 'Buses, School - Special Type, 5 to 24 Passengers', 'Bushings, Rings, Shims and Spacers', 'Business Services', 'Business Services / Modelling and Analysis', 'Business Training', 'CABINETS, DESICCATING (EXCLUDES DESICCATORS)', 'CABINETS, HOSPITAL', 'CABINETS, LABORATORY', 'CABINETS, LABORATORY STORAGE (INCLUDES WOOD, METAL, PLASTIC)', 'CABINETS, LABORATORY, DESICCATING, VACUUM (EXCLUDES DESICCATORS)', 'CABINETS, LOCKERS, BINS AND SHELVING - RENTAL', 'CABINETS, SECURITY, BULK STORAGE, SPEC SSC/SES 110,DSS QPL', 'CABINETS, SECURITY, FLAMMABLE AND COMBUSTIBLE LIQUIDS', 'CABINETS, STORAGE', 'CABINETS, STORAGE, PHOTOGRAPHIC', 'CABINETS, STORAGE, PHOTOGRAPHIC, MOTION PICTURE, REELS AND CANS', 'CABINETS, STORAGE, TAPES, CASSETTES AND FILMSTRIPS', 'CABLE, CORD, AND WIRE ASSEMBLIES, COMMUNICATION EQUIPMENT -     RENTAL', 'CADD Drafting and Technical Services - Building Systems', 'CALCIUM', 'CALCIUM CHLORIDE, CAN/CGSB-15.1-92', 'CALCIUM HYDROXIDE, HYDRATED LIME', 'CALCIUM HYPOCHLORITE, CAN/CGSB-15.32-92', 'CALIBRATION AND TEST SPECIMENS', 'CALIBRATORS, ELECTRONIC TEST EQUIPMENT', 'CALORIMETERS', 'CALORIMETERS AND THERMAL ANALYSERS', 'CAMERAS AND ACCESSORIES, STILL PICTURE, AIRCRAFT', 'CAMERAS, MOTION PICTURE - HIGH SPEED AND LOW SPEED (EVENT       ANALYSIS AND INSTRUMENTATION)', 'CAMERAS, MOTION PICTURE - LEASING', 'CAMERAS, MOTION PICTURE - RENTAL', 'CAMERAS, MOTION PICTURE - ULTRA MINIATURE, 8MM, SUPER 8MM,      CASSETTE - AMATEUR', 'CAMERAS, MOTION PICTURE, AIRCRAFT CAMERAS AND ACCESSORIES', 'CAMERAS, STILL PICTURE (AMATEUR - 110 - 126 DISC)', 'CAMERAS, STILL PICTURE - RENTAL', 'CAMERAS, STILL PICTURE, 35MM (PROFESSIONAL) EXCEPT UNDERWATER', 'CAMERAS, STILL PICTURE, HORIZONTAL AND VERTICAL (PHOTOGRAPHIC OR GRAPHIC ARTS)', 'CAMERAS, STILL PICTURE, IDENTIFICATION', 'CAMERAS, STILL PICTURE, MICROFILM', 'CAMERAS, STILL PICTURE, UNDERWATER', 'CAMPING EQUIPMENT', 'CAMPING EQUIPMENT - RENTAL', 'CARBON DIOXIDE, TECHNICAL (DRY ICE)', 'CARPET', 'CART, HOSPITAL', 'CASE, SHIPPING WITH MOULDED FOAM INSERTS', 'CD-Rom Services', 'CEILOMETER', 'CENTRIFUGE ACCESSORIES (INCLUDES ROTORS, SHIELDS, TUBES)', 'CENTRIFUGE, LABORATORY', 'CENTRIFUGE, LABORATORY, GENERAL PURPOSE', 'CENTRIFUGE, REFRIGERATED', 'CENTRIFUGE, ULTRA HIGH SPEED', 'CHAIR (HOUSEHOLD)', 'CHAIR (OFFICE)', 'CHAIR EVACUATION', 'CHAIR, CAFETERIA', 'CHAIR, FOLDING, METAL (HOUSEHOLD)', 'CHAIR, HOSPITAL', 'CHAIR, HOSPITAL, CONVALESCENT TYPE', 'CHAIR, HOSPITAL, GERIATRIC TYPE', 'CHAIR, ROTARY, DEDICATED TASK (EXCEPT SPEC.)', 'CHAIR, ROTARY, MULTI-TASK (EXCEPT SPEC.)', 'CHAIR, ROTARY, OFFICE TYPE (EXCEPT STANDARD)', 'CHAIR, ROTARY, OFFICE TYPE, EXECUTIVE HIGH BACK', 'CHAIR, STACKING, ARMLESS, MOULDED PLASTIC AND FIBREGLASS, DSS   QPL', 'CHAIR, STRAIGHT', 'CHAIR, STRAIGHT SIDE, WITH ARMS, METAL FRAME', 'CHAIR, STRAIGHT, STACKING TYPE', 'CHAIR, STUDENT, WITH TABLE ARM', 'CHAMBER, ACOUSTIC NOISE, ENVIRONMENTAL TYPE', 'CHAMBERS, VACUUM', 'CHEMICAL ANALYSIS INSTRUMENTS - RENTAL', 'CHEMICAL AND PHARMACEUTICAL PRODUCTS MANUFACTURING MACHINERY -  LEASING', 'CHEMICALS (N.E.S.)', 'CHEMICALS AND REAGENTS FOR WATER TREATMENT, BOILER FEED ONLY', 'CHEMICALS, AGRICULTURAL', 'CHEMICALS, INDUSTRIAL', 'CHEMICALS, LABORATORY', 'CHEMICALS, MISCELLANEOUS', 'CHEMICALS, PHOTOGRAPHIC, ALL TYPES                              (INCLUDES CHEMICAL REJUVENATION)', 'CHEMICALS, RESEARCH', 'CHEMICALS, SWIMMING POOL', 'CHEMICALS, X-RAY FILM', 'CHLORINE', 'CHLORINE, LIQUID', 'CHROMATOGRAPH', 'CHROMATOGRAPH, ACCESSORIES (COLUMNS, DETECTORS, PUMPS)', 'CHROMATOGRAPH, GAS', 'CHROMATOGRAPH, GAS - RENTAL', 'CHROMATOGRAPH, GAS, MASS SPECTROMETER', 'CHROMATOGRAPH, GAS, MASS SPECTROMETER, DATA SYSTEM (GC, MS/DS)', 'CHROMATOGRAPH, ION', 'CHROMATOGRAPH, LIQUID (HPLC)', 'CHRONOMETERS', 'CHRONOMETERS, STOP WATCH TYPE', 'CLAY AND CONCRETE PRODUCTS INDUSTRIES MACHINERY - RENTAL', 'CLEANER-DEGREASER, CONCENTRATED LIQUID , 5 IMP GAL.CONTAINER OR METRIC EQUIVALENT', 'CLEANING AND POLISHING COMPOUND', 'CLEANING COMPOUND, AIRCRAFT SURFACE', 'CLEANING COMPOUND, FUEL TANK AND BILGE', 'CLEANING COMPOUND, SOLVENT', 'CLEANING COMPOUND, SOLVENT GAMLEN 26', 'CLEANING SOLVENT, GREASE REMOVING, EMULSION CAN/CGSB-31.202', 'CLEANING SOLVENT, HYDROCARBON TYPE, CAN 3.8', 'CLIMBING EQUIPMENT SET', 'CLOCKS', 'CLOCKS, DIGITAL', 'CLOCKS, TIME CONTROL SYSTEM', 'CLOTH, BROADCLOTH', 'CLOTH, COATED, POLY VINYL CHLORIDE ONLY', 'CLOTH, COTTON', 'CLOTH, DUCK COTTON POLYESTER, SPUN CORE', 'CLOTH, UPHOLSTERY', 'COATING COMPOUND', 'COATING SYSTEM, BRIDGING, STRIPPABLE, SPRAYABLE', 'COATING SYSTEM, POLYURETHANE FOR AEROSPACE APPLICATION', 'COATINGS, FIRE RETARDANT', 'COATINGS, INORGANIC ZINC', 'COATINGS, INTERNAL, FOR FRESH WATER STORAGE TANK', 'COATINGS, POLYURETHANE', 'COATINGS, PROTECTIVE', 'COFFEE MAKERS, URN (COMMERCIAL)', 'COLORIMETER (ALL TYPES)', 'COMBAT, ASSAULT, AND TACTICAL VEHICLES, TRACKED - PRODUCTION    DESIGN', 'COMBAT, ASSAULT, AND TACTICAL VEHICLES, TRACKED - RENTAL', 'COMBINATION AND MISCELLANEOUS INSTRUMENTS - LEASING', 'COMBINATION AND MISCELLANEOUS INSTRUMENTS - RENTAL', 'COMBINATION LEVEL SENSOR, INVENTORY MANAGEMENT AND LEAK DETECTOR, FOR UNDERGROUND FUEL STORAGE TANKS', 'COMMERCIAL AND INDUSTRIAL GAS CYLINDERS - LEASING', 'COMMERCIAL AND INDUSTRIAL GAS CYLINDERS - RENTAL', 'COMMERCIAL FISHING EQUIPMENT - PRODUCTION DESIGN', 'COMMERCIAL FISHING EQUIPMENT - RENTAL', 'COMMUNICATIONS SECURITY EQUIPMENT AND COMPONENTS - LEASING', 'COMMUNICATIONS SECURITY EQUIPMENT AND COMPONENTS - RENTAL', 'COMPARATORS, OPTICAL PROJECTION', 'COMPARATORS, TEST', 'COMPASS, MAGNETIC, UNMOUNTED, WRIST TYPE', 'COMPOST', 'COMPOUND, ANTISEIZE', 'COMPOUND, CAULKING, OIL BASE', 'COMPOUND, CURING AND SEALING CONCRETE', 'COMPOUND, REPAIR, PLASTIC, CERAMIC FILLED AND/OR METALLIZED', 'COMPRESSORS AND VACUUM PUMPS - LEASING', 'COMPRESSORS AND VACUUM PUMPS - RENTAL', 'COMPUTER AND TURNKEY SYSTEM, USED - RENT', 'COMPUTER SOFTWARE FOR TECHNOLOGY  ASSISTED TRAINING', 'COMPUTER SOFTWARE, ACCOUNTING, FINANCIAL, INSURANCE, PAYROLL    - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ACQUISITION/PROCESSING OF ANALOG/DIGITAL,    SIGNALS (AUDIO,VIDEO,SEISMIC,ETC) INCL.MACH.VISION,VOICE RECOGNITION,INST.SIGNALS,ROBOTICS,NUM.MACH.CONT,ETC-MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, ACQUISITION/PROCESSING OF ANALOG/DIGITAL,    SIGNALS (AUDIO,VIDEO,SEISMIC,ETC)INCL.MACH.VISION,VOICE RECOGN. INST.SIGNALS,ROBOTICS,NUM.MACH.CONT.ETC-OTHER THAN MICROCOMPUTER', 'COMPUTER SOFTWARE, ARTIFICIAL INTELLIGENCE, EXPERT SYSTEMS      - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ARTIFICIAL INTELLIGENCE, EXPERT SYSTEMS -    MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, BUILDING CONSTRUCTION, FACILITY/PROPERTY     MANAGEMENT - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, BUILDING CONSTRUCTION, FACILITY/PROPERTY     MANAGEMENT - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, BUSINESS ADMINISTRATION/MANAGEMENT, PLANNING, MARKET TRADE AND SALES ANALYSIS, ECONOMICS - OTHER THAN        MICROCOMPUTERS', 'COMPUTER SOFTWARE, BUSINESS ADMINISTRATION/MANAGEMENT, PLANNING,MARKET TRADE AND SALES ANALYSIS, ECONOMICS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, CD-ROM  MICROCOMPUTER ONLY', 'COMPUTER SOFTWARE, COMPUTER AIDED DESIGN/COMPUTER AIDED MFG/    COMPUTER INTEGRATED MANUFACTURING (CAD/CAM/CIM) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, COMPUTER AIDED DESIGN/COMPUTER AIDED MFG/    COMPUTER INTEGRATED MANUFACTURING (CAD/CAM/CIM) - OTHER THAN  MICROCOMPUTERS', 'COMPUTER SOFTWARE, DATA BASE MANAGEMENT, INFORMATION RETRIEVAL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, DATA COMMUNICATIONS, INCLUDING MODEM/LINE    CONTROL, PROTOCOL, CONVERSION, TERMINAL EMULATION, VOICE AND OR DATA NETWORK MANAGEMENT, ETC.- MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, DATA COMMUNICATIONS, INCLUDING MODEM/LINE    CONTROL, PROTOCOL, CONVERSION, TERMINAL EMULATION, VOICE AND OR DATA NETWORK MANAGEMENT, ETC.- OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ENGINEERING, SCIENTIFIC, MATHEMATICAL,       STATISTICAL, MODELING, SIMULATION, EMULATION, ENERGY - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, ENGINEERING, SCIENTIFIC, MATHEMATICAL,       STATISTICAL, MODELING, SIMULATION, EMULATION, ENERGY - OTHER    THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, FOURTH GENERATION LANGUAGES, APPLICATION     GENERATORS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, HOTEL MANAGEMENT (INCLUDES INN, MOTEL,       RESTAURANT) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, HUMAN RESOURCES MANAGEMENT, PERSONNEL, ETC.  - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, HUMAN RESOURCES MANAGEMENT, PERSONNEL, ETC.- MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LEGAL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LEGAL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, LIBRARY SYSTEMS, RECORDS MANAGEMENT,         CATALOGUING, CORRESPONDENCE CONTROL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LIBRARY SYSTEMS, RECORDS MANAGEMENT,         CATALOGUING, CORRESPONDENCE CONTROL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, MATERIEL MANAGEMENT, INVENTORY CONTROL -     MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MATERIEL MANAGEMENT, INVENTORY CONTROL -     OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, MEDICAL AND HEALTH CARE - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MEDICAL AND HEALTH CARE - OTHER THAN         MICROCOMPUTERS', 'COMPUTER SOFTWARE, MILITARY APPLICATIONS, EMERGENCY PLANNING    CIVIL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MILITARY APPLICATIONS, EMERGENCY PLANNING    CIVIL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, OTHER (NOT ELSEWHERE LISTED) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, PROG.AIDS, COMPUTER LANGUAGES AND SOFTWARE/  SYSTEM DEV.TOOLS,COMPUTER AIDED SOFTWARE ENG.(CASE) EXCL. 4GL   - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, PROG.AIDS,COMPUTER LANGUAGES AND SOFTWARE/   SYSTEM DEV.TOOLS,COMPUTER AIDED SOFTWARE ENG.(CASE) EXCLUDING   4GL  - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, PROJECT MANAGEMENT, PLANNING AND SCHEDULING, REPAIR, MAINTENANCE AND OVERHAUL MANAGEMENT - MICROCOMPUTERS    ONLY', 'COMPUTER SOFTWARE, RESERVATION SYSTEMS - OTHER THAN             MICROCOMPUTERS', 'COMPUTER SOFTWARE, SECURITY, PRIVACY, ENCRYPTION, AUDIT CONTROLS/AIDS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, SECURITY, PRIVACY, ENCRYPTION, AUDIT CONTROLS/AIDS - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE,</t>
         </is>
@@ -761,16 +775,19 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>HygromI!tres</t>
+          <t>Appareils photographiques, microfilm</t>
         </is>
       </c>
       <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
         <v>244312</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>4933</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>['AI(c)rateur de mI(c)canique', 'AI(c)ronef IE voilure fixe', 'AI(c)ronef IE voilure fixe - rI(c)paration', 'AI(c)ronef divers, composants et rechanges I(c)lectriques et I(c)lectroniques', 'AI(c)ronef sans pilote', 'AI(c)ronef, aile fixe, civiles - rI(c)paration et rI(c)vision', 'AI(c)ronef, aile fixe, militaires - rI(c)paration et rI(c)vision', 'AI(c)ronefs - voilure tournante', 'AI(c)ronefs - voilure tournante - dessin de production', 'AI(c)ronefs - voilure tournante - rI(c)paration', "AI(c)ronefs louI(c)s par l'Iatat ou lui appartenant  - opI(c)ration, entretien et rI(c)paration", 'AI(c)rosols, peinture, vernis, etc.', 'Abonnements des bibliothI!ques', 'Abrasif, IE grain', 'Abrasif, assortiments de toiles', 'Abris IE murs rigides', 'Abris IE murs rigides - location', 'Abris IE murs rigides, transportables, usage militaire', 'Absorbant, huile et eau', 'Absorbants - produits chimiques', 'AccI(c)lI(c)romI!tre, I(c)lectrique, linI(c)aire, sauf pour commande de tire-missile', "Accessoire d'instruction mI(c)dical, anatomique, physiologique mannequins", 'Accessoires IE dessin, non classifiI(c)s ailleurs', "Accessoires d'enregistrement du son", "Accessoires d'instruction", "Accessoires d'instruction - fonctionnement et entretien", "Accessoires d'instruction - rI(c)paration", "Accessoires d'instruction, aI(c)ronefs sauf I(c)lectrique et I(c)lectronique - rI(c)paration et rI(c)vision", "Accessoires d'instruction, pour vI(c)hicules militaires sauf aI(c)ronefs et I(c)lectroniques", 'Accessoires de centrifugeuse, incluant rotors, gaines, tubes', 'Accessoires de grues et de pelles-grues', 'Accessoires de grues et de pelles-grues - rI(c)paration', 'Accessoires de machines complI(c)mentaires IE travailler les mI(c)taux', 'Accessoires de machines et outils', 'Accessoires de machines et outils - rI(c)paration', 'Accessoires de microscope, sauf I(c)lectroniques', "Accessoires de rI(c)frigI(c)ration et d'air climatisI(c), industriels", 'Accessoires de sauvetage', 'Accessoires de spectrophotomI!tre', 'Accessoires de vI(c)hicule, chapeau de boI"te pour camions lI(c)gers, fibre de verre ou aluminium', 'Accessoires divers de moteurs', "Accessoires divers de moteurs d'aI(c)ronefs", "Accessoires divers de moteurs d'aI(c)ronefs (militaires) - rI(c)paration et rI(c)vision", 'Accessoires divers de moteurs, sauf pour aI(c)ronefs', 'Accessoires divers de moteurs, sauf pour aI(c)ronefs - rI(c)paration', 'Accessoires divers de moteurs, sauf pour aI(c)ronefs, vI(c)hicule blindI(c)s de combat, modI!le militaire standard', 'Accessoires divers pour aI(c)ronefs et composants, N.E.A., sauf I(c)lectriques et I(c)lectroniques', "Accessoires et composants d'essai coaxial et guide d'ondes", 'Accessoires et composants divers pour aI(c)ronefs', 'Accessoires et composants divers pour aI(c)ronefs (militaires) - rI(c)paration et rI(c)vison', 'Accessoires et composants divers pour aI(c)ronefs - rI(c)paration et rI(c)vision', 'Accessoires et costumes de plongeurs', 'Accessoires et fournitures optiques en fibre - rI(c)paration', 'Accessoires et fournitures pour fibres optiques', 'Accessoires et garnitures de vI(c)hicules', 'Accessoires et garnitures de vI(c)hicules - rI(c)paration', 'Accessoires et garnitures de vI(c)hicules, standard commercial', 'Accessoires et garnitures de vI(c)hicules, vI(c)hicules IE effet de sol', 'Accessoires pour bI(c)ton, coffrage et I(c)chafaudage', 'Accessoires pour outils IE main IE moteur', 'Accessoires radiographiques - rI(c)paration', 'Accessoires radiographiques et approvisionnements, mI(c)dical, dentaire et vI(c)tI(c)rinaire - location', 'Accessoires, tI(c)lI(c)vision en circuit fermI(c)', "Accessories de vI(c)hicules de systI!me d'arme", 'Accouplements flexibles', 'Accouplements mI(c)caniques, N.E.A.', 'Achat de mI(c)dia/placement en publicitI(c)', 'Acide chlorhydrique, technique, muriatique, CAN/ONGC-15.33-92', 'Acide sulfurique, de qualitI(c) I(c)lectrolytique, catI(c)gorie 1 et 3,  CAN/ONGC-15.8-92', 'Acides', 'Acier, de construction', 'Acier, grenaille', 'Acquisition de donnI(c)es et matI(c)riel de collecte, en direct - entretien', 'Adaptation des langages', 'Additifs et conditionneurs, huile combustible', 'AdhI(c)sif, colle', 'AdhI(c)sifs', 'Administration de tests professionnels et psychomI(c)triques', "Administration et traitement des demandes de rI!glement - rI(c)gimes d'assurance", "Adoucisseurs d'eau", 'AffIEteuse, couteau, abrasive', 'AffrI!tement aI(c)ronef IE voilure fixe - AffrI!tement avion', 'AffrI!tement aI(c)ronef IE voilure tournante - AffrI!tement hI(c)licoptI!re', 'AffrI!tement de vaisseau', 'AffrI!tements', 'Agencements de plomberie', 'Agencements de plomberie, institution', 'Agencements et accessoires de plomberie', 'Agencements et accessoires de plomberie - location', 'Agencements et accessoires de plomberie - rI(c)paration', 'Agencements et dispositifs spI(c)ciaux pour conduites, tubes et tuyaux - rI(c)paration', 'Agencements pour cordes, cIC/bles et chaI"nes', 'Agent de dI(c)contamiation', 'Agents chimiques de combat', 'Agents de lutte contre les flI(c)aux, et dI(c)sinfectants', 'Agents extincteurs', 'AgrI(c)gat, construction, argile rI(c)fractaire, concassI(c)', 'Agriculture (R&amp;D)', 'Aide gI(c)nI(c)rale de bureau', 'Aide temporaire, N.E.A.', 'Aides ambulatoires', 'AlI(c)seuses', 'Alarmes anti-intrusion', 'Alcool', 'Alimentation I(c)lectrique solaire', 'Alimentation en eau', 'Alimentation ininterrompue, monophasI(c)e, 2 KilovoltampI!res et plus - rI(c)paration', "Alimentation, I(c)quipement d'essai I(c)lectrique", 'Aliments diI(c)tI(c)tiques spI(c)ciaux et prI(c)parations alimentaires spI(c)ciales', 'Aliments diI(c)tI(c)tiques spI(c)ciaux et prI(c)parations alimentaires spI(c)ciales (remplacI(c) par nibs N8940Z)', 'AltimI!tres, topographie', 'Aluminium', 'Aluminium de refoulage', 'Aluminium, barres et tiges', 'AmI(c)nagement et contrI&lt;&lt;le du milieu', 'AmI(c)nagement intI(c)rieur/rI(c)novations', 'AmI(c)nagement paysager intI(c)rieur', 'Ambulances, rI(c)paration et rI(c)vision', 'Ameublement domestique', 'Ameublement et articles de cultes', 'Ameublement, rembourrage - rI(c)paration', 'Amiante', 'Amortisseurs, pour vI(c)hicules IE chenilles et IE roues, sauf vI(c)hicules IE effet de sol et blindI(c) de combat', 'Amplificateurs', 'Amplificateurs et prI(c)amplificateurs, essai', 'Amplificateurs, essai', 'Amplificateurs, radiofrI(c)quence', 'AnI(c)momI!tre, type mI(c)tI(c)orologique', "Analyse des donnI(c)es - RI(c)alisation d'un sondage", 'Analyse des mI(c)dias', 'Analyse des substances dangereuses -Secteur construction', 'Analyse en temps rI(c)el - science et technologie (R&amp;D)', 'Analyse et I(c)valuation de site web', "Analyse et technologie de l'acoustique (R&amp;D)", 'Analyse fonctionnelle et statistique', "Analyses sur la qualitI(c) d'air", 'Analyseur multicanal optique', 'Analyseur radio-isotope', 'Analyseur, essai', 'Analyseur, viande, teneur en matiI!res grasses', 'Analyseurs', 'Analyseurs chimiques, automatiques, comprend mI(c)dicaux', "Analyseurs d'I(c)chantillon liquide", 'Analyseurs de gaz, comprend NOX, CO, CO2, SO2, O2, exclut type  danger', 'Analyseurs de surface, orientI(c)s, spectromI!tres de photoI(c)lectrons Auger, I(c)pitaxie de faisceau molI(c)culaire, dI(c)pI&lt;&lt;t de vapeur chimique', 'Analyseurs, I(c)lI(c)mentaires, C, H, N, TOC', "Analyseurs, I(c)quipement d'essai I(c)lectronique, voir aussi trousses d'essai, I(c)quipement d'essai I(c)lectronique", 'Analyseurs, aminoacide', 'Analyseurs, automatiques, coagulation', 'Analyseurs, cytomI!tres IE flux continu', 'Analyseurs, de spectres', 'Analyseurs, dimension de particules', 'Analyseurs, fraI"cheur du poisson', 'Analyseurs, gaz dans le sang, I(c)lectrolytes, PCO, PH, PO, NA, K, CA', 'Analyseurs, polarographe', 'Analyseurs, sonde I(c)lectronique, microsonde', 'Analyseurs, tirage photographique couleur', 'Ancres, flottantes', 'Angles en acier', 'Angles en aluminium, cannelures et sections', 'Animaux vivants, I(c)levI(c)s pour la consommation', 'Animaux vivants, laboratoire', 'Animaux vivants, non I(c)levI(c)s pour la consommation', 'Animaux vivants, non I(c)levI(c)s pour la consommation - location', "Anneaux d'I(c)tanchI(c)itI(c)", "Anneaux d'arrI&gt;&gt;t", 'Antennes et systI!mes de radio et de tI(c)lI(c)vision', "Antennes, guides d'ondes et I(c)quipement connexe", "Antennes, guides d'ondes et I(c)quipement connexe - installation", "Antennes, guides d'ondes et I(c)quipement connexe - location", "Antennes, guides d'ondes et I(c)quipement connexe - location IE bail", "Antennes, guides d'ondes et I(c)quipement connexe - rI(c)paration et rI(c)vision", 'Anticorrosif, huile', 'Antigel pour moteurs de vI(c)hicules automobiles', 'Antigel, lave-glace, diluI(c)', 'Appareil IE pression de vapeur', 'Appareil IE rayons X, sauf mI(c)dical, dentaire et vI(c)tI(c)rinaire', 'Appareil aI(c)rosol, mI(c)dical', "Appareil dI(c)terminant le point d'I(c)bullition", 'Appareil pour sI(c)chage IE froid', 'Appareil radiographique, industriel', 'Appareil tI(c)lI(c)phonique', 'Appareillage I(c)lectromagnI(c)tique', 'Appareillage de rI(c)sistivitI(c)', 'Appareils IE I(c)prouver la duretI(c) de matI(c)riaux', 'Appareils auditifs', 'Appareils cinI(c)matographiques', 'Appareils cinI(c)matographiques - location', 'Appareils cinI(c)matographiques - location IE bail', 'Appareils cinI(c)matographiques - rI(c)paration', "Appareils cinI(c)matographiques, d'aI(c)ronef et accessoires", 'Appareils cinI(c)matographiques, grande sensibilitI(c) et faible sensibilitI(c), analyse de cas et instrumentation', 'Appareils cinI(c)matographiques, ultra miniature, 8 mm, super 8 mm,  cassette, amateur', "Appareils d'I(c)clairage d'I(c)difice - installation et rI(c)paration", 'Appareils d\'instruction de d\'entraI"nement concernant l\'armement, I(c)lectroniques, accessoires et rechanges', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement - rI(c)paration', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement, I(c)lectroniques, cibles de tir', 'Appareils d\'instruction et d\'entraI"nement concernant les transmissions', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels I(c)lectroniques, simulateurs, vol et tactiques', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels,  I(c)lectroniques, simulateurs, marine', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels, aI(c)ronautique - rI(c)paration et rI(c)vision', "Appareils d'instruction opI(c)rationnels", "Appareils d'instruction opI(c)rationnels - location", "Appareils d'instruction opI(c)rationnels - rI(c)paration", "Appareils d'instruction, amerrissage forcI(c), aI(c)ronef", 'Appareils de gouverne', 'Appareils de lancement de grenades, roquettes et artifices', 'Appareils de lancement de torpilles et grenades sous-marines', 'Appareils de lancement pour engins pyrotechniques et roquettes - rI(c)paration', 'Appareils de prI(c)lI!vement, systI!me de traitement des eaux rI(c)siduaires', 'Appareils de visI(c)e et calculateurs de conduite de tir -  rI(c)paration', 'Appareils de visI(c)e, conduite de tir, N.E.A.', 'Appareils de visI(c)e, optiques, conduite de tir', 'Appareils de visI(c)e, optiques, conduite de tir, armes portatives', 'Appareils de visI(c)es et calculateurs de conduite de tir', 'Appareils directeurs de conduite de tir', 'Appareils domestiques et commerciaux divers, I(c)lectriques - rI(c)paration', 'Appareils domestiques et industriels de types divers', 'Appareils optiques en fibre - rI(c)paration', 'Appareils optoI(c)lectroniques et matI(c)riel connexe', 'Appareils photographiques', 'Appareils photographiques - location', 'Appareils photographiques - rI(c)paration', 'Appareils photographiques et accessoires, aI(c)ronef', 'Appareils photographiques, 35 mm, professionnels, sauf sous-marin', 'Appareils photographiques, amateurs, 110 - 126 disques', 'Appareils photographiques, identification', 'Appareils photographiques, microfilm', 'Appareils photographiques, sous-marin', 'Appareils transporteurs', 'Appareils transporteurs - location', 'ApprI&gt;&gt;t, pour bitume', 'Aquaculture (R&amp;D)', 'Arbres, hI(c)lice-marines', 'Arbrisseaux et arbres dI(c)coratifs', 'Architecture navale', 'Architecture navale - services de consultation', 'Architecture navale - services de dessin', 'Armature IE bI(c)ton', 'Armes chimiques et I(c)quipement', 'Armes diverses', 'Armes diverses - rI(c)paration', 'Armes et I(c)quipement militaires conventionnels (R&amp;D)', 'Armes portatives et accessoires,  mise en vigueur de la loi', 'Armes portatives et accessoires, militaires - rI(c)paration et  rI(c)vision', 'Armoire vitrine, hI&lt;&lt;pital', 'Armoire, IE dessiccation, exclut les dessiccateurs', 'Armoire, boI"te, individuelle', 'Armoire, laboratoire', 'Armoire, laboratoire, dessiccation, IE vide, exclut les dessiccateurs', 'Armoire, rangement, de laboratoire, inclut en bois, mI(c)tal, plastique', 'Armoires de rangement', 'Armoires de rangement, photographiques', 'Armoires de rangement, photographiques, cinI(c)matographiques, bobines et boI"tes', 'Armoires, de sIEretI(c), liquides inflammables et combustibles', 'Armoires, de sIEretI(c), rangement en gros, SPEC SSC/SES 110, MAS LPH', 'Armoires, rangement, rubans magnI(c)tiques, cassettes et pellicules', 'Articles de bureau et accessoires - entretien', 'Articles de bureau et accessoires - location IE bail', 'Articles de collectionneurs', 'Articles de fumeurs et allumettes', 'Articles de toilette personnelle', 'Articles divers', 'Articles divers - location IE bail', 'Articles divers - rI(c)paration', "Articles divers de l'armement et munitions nuclI(c)aires", 'Articles et accessoires de bureau', 'Articles funI(c)raires - installation', 'Articles funI(c)raires - rI(c)paration', 'Articles promotionnels (ImprimI(c)s seulement)', 'Ascenseurs et I(c)lI(c)vateurs - location', 'Aspirateurs domestiques, rI(c)paration et rI(c)vision', 'Assemblages et faisceaux de cIC/bles en fibres optiques', 'Assortiments de boisson soluble, non alcoolisI(c)e', 'Assortiments de joints, caoutchouc', 'Astronautique (R&amp;D)', 'AttI(c)nuateurs, essai', 'Attache, feuillard et emballage', 'Attirail de pI&gt;&gt;che automatisI(c)', 'Autobus', 'Autobus - rI(c)parations et service', 'Autobus scolaires, de type conventionnel, 25 passagers et plus', 'Autobus, scolaires, type spI(c)cial, 5 IE 24 passagers', 'Autobus, service de navette', 'Autobus, type de route', 'Autoclaves, I(c)changeurs de chaleur et condenseurs de vapeur', 'Autoneige (motoneige) - location', "Autoroutes, rues, routes, voies ferrI(c)es, pistes d'aI(c)roport", 'Autres I(c)quipements cryptographiques et composants - rI(c)paration', 'Autres I(c)quipements de sI(c)curitI(c) des tI(c)lI(c)communications et composants', 'Autres I(c)tudes environnementales', 'Autres I(c)tudes techniques', "Autres services d'architecture et d'ingI(c)nierie - Immobilier", "Autres services d'entretien et activitI(c)s connexes", 'Autres services de ressources naturelles et de conservation', 'Autres services de tI(c)lI(c)communications', "Autres services techniques et d'inspection, d'essai et de contrI&lt;&lt;le de la qualitI(c) en construction", "Autres travaux d'achI!vement et de finition des bIC/timents", "Autres travaux d'installation", 'Autres travaux de pose de revI&gt;&gt;tement de sol et de papier peint', 'Auvents', 'Avertisseur, extinction automatique par aspersion', 'Avion', 'Avion de navette', 'Avions, certifiI(c)s pour les vols civils', 'BI(c)ret', 'BI(c)ton', 'BI(c)ton prI(c)mI(c)langI(c)', 'BI(c)ton, mI(c)langI(c), en sacs', 'BI(c)ton, scellant pour joint', 'BIC/che, canevas et couvertures protectrices, tissus renforcI(c)s', 'BIC/ti de porte, bois', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - location', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - location IE bail', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - rI(c)paration', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables, construction spI(c)ciale', "BIC/timents prI(c)fabriquI(c)s, IE l'I(c)preuve des balles", 'BIC/timents, prI(c)fabriquI(c)s, bI(c)ton moulI(c)', "BIC/timents, prI(c)fabriquI(c)s, bois, I(c)conomie d'I(c)nergie", 'BIC/timents, prI(c)fabriquI(c)s, en bois', 'BIC/timents, prI(c)fabriquI(c)s, en fibre de verre', 'BIC/timents, prI(c)fabriquI(c)s, en mI(c)tal', 'BIC/timents, prI(c)fabriquI(c)s, garage', 'BIC/timents, prI(c)fabriquI(c)s, gonflables ou soutenus par air', 'BIC/timents, prI(c)fabriquI(c)s, lambrissI(c)s (panneaux ouverts ou fermI(c)s)', 'BIC/timents, prI(c)fabriquI(c)s, lambrissI(c)s, panneaux ouverts ou fermI(c)s', 'BIC/timents, prI(c)fabriquI(c)s, modulaires ou en sections', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, chantier  industriel autonome', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, laboratoire', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, salles de classe et I(c)coles - location', 'BIC/timents, prI(c)fabriquI(c)s, pour entreposage', 'BIC/timents, prI(c)fabriquI(c)s, serre', 'BIC/timents, prI(c)fabriquI(c)s, types', 'BIC/timents, prI(c)fabriquI(c)s, usage spI(c)cial', 'BIC/tis de fenI&gt;&gt;tre, bois', 'BIC/tonnets rI(c)actifs et tableau colorimI(c)trique', 'BIEche', 'Bacs de recyclage', 'Bagage - rI(c)parations', 'Bagages', "Bagues d'I(c)tanchI(c)itI(c) et segments d'I(c)tanchI(c)itI(c), sauf modI!le spI(c)cial", 'Baguette en cuivre et en laiton', 'Bain tourbillon', 'Bains', 'Balais I(c)lectriques et I(c)lectrodes', 'Balais, brosses, balais IE franges et I(c)ponges', 'Balais, brosses, balais IE franges et I(c)ponges - location', 'Balais, brosses, balais IE franges et I(c)ponges - location IE bail', 'Balais, brosses, balais a franges et I(c)ponges - rI(c)paration', 'Balance', 'Balance, IE ressort, balance directe et type IE cadran', 'Balance, pI!se-personne, examen de mI(c)decin et IE plateaux', 'Balance, plateau', "Balance, poids de l'essieu", 'Balances - rI(c)paration et rI(c)vision', 'Balances et machines IE peser - location', 'Balances et machines IE peser - location IE bail', 'Balances et machines IE peser - rI(c)paration', 'Balances et pesI(c)es', 'Balayeuses et I(c)quipement pour dI(c)blayage de la neige - rI(c)paration et rI(c)vision', 'Balayeuses, entrepI&lt;&lt;t, IE siI!ge, automotrices', "Balayeuses, piste d'aI(c)roport", 'Balise, radar de veille secondaire (RVS) I(c)quipement radar, sauf aI(c)ronefs', "Balises de piste d'envol", 'Ballasts de lampes, douilles et starters', 'Ballasts de lampes, douilles et starters - rI(c)paration', 'Ballon, mI(c)tI(c)orologiques', 'Ballons publicitaires et promotionnels', 'Banc de contrI&lt;&lt;le, non destructeur', "Bancs d'I(c)talonnage, tension", 'Bandage pour pneumatique', 'Bandages et pansements', 'Bandages pleins et pneumatiques', 'Bande en plastique, avertissement de barricade', 'Bande, calorifuge', 'BarbelI(c)', "Bardeaux d'amiante", 'Bardeaux, bois', 'Barges, spI(c)cialisI(c)es', 'BaromI!tre mI(c)tI(c)orologique, tous les types', 'BaromI!tres, anI(c)roIodes et mercuriels, sauf mI(c)tI(c)orologiques', 'Barre mI(c)tallique (acier)', 'Barre, nickel, monel, inconel et incoloy', 'Barres et ronds, en mI(c)taux non ferreux', 'Barres et tiges', 'BarriI!re de sI(c)curitI(c) hydraulique', 'BarriI!res mI(c)talliques', 'Base de donnI(c)es - imagerie variable', 'Base de donneI(c)s de nouvelles en ligne', 'Bassin de lit, en acier', 'Bassin, rI(c)niforme, acier inoxydable', 'Bateaux de dI(c)barquement, tous les types', 'Bateaux de pI&gt;&gt;che', 'Bateaux de pI&gt;&gt;che - location', 'Bateaux de pI&gt;&gt;che - rI(c)paration', 'Bateaux de servitude', 'Bateaux de servitude - rI(c)paration', 'Bateaux divers', 'Bateaux divers - location IE bail', 'Bateaux divers - rI(c)paration', 'Bateaux lI(c)gers, aluminium', 'Bateaux lI(c)gers, fibre de verre - rI(c)paration et rI(c)vision', 'Bateaux pneumatiques, coque rigide', 'Bateaux, marine, divers - chambre de recompression - radoub, rI(c)paration, rI(c)vision, modification et entretien', 'BibliothI!que, type bureau', 'BibliothI!ques, type IE bord navire incluant supports', 'Biochimie (R&amp;D)', 'Biologie (R&amp;D)', 'Bioxyde de carbone, technique, glace sI!che', "Bittes d'amarrage, bollards et taquets", 'Bitume asphaltique liquide, apprI&gt;&gt;t et ciment, pour route', 'Bitume asphaltique, toiture', 'Blanchissage et nettoyage IE sec', "Bloc d'alimentation I(c)lectrique sans coupure - Entretien", "Bloc d'alimentation I(c)lectrique sans coupure - installation et rI(c)paration", 'Blousons, pantalon, combinaison, culottes courtes', 'BoI"te IE outils, portative', 'BoI"te IE outils, portative, mI(c)tallique', 'BoI"te d\'expI(c)dition', 'BoI"te d\'expI(c)dition, bois', 'BoI"te, plastique', 'BoI"tes IE munitions, emballages et conteneurs spI(c)ciaux', 'BoI"tes IE outils et IE quincaillerie', 'BoI"tes IE outils et IE quincaillerie - location', 'BoI"tes aux lettres, autres que domestiques ou IE bord de navire', 'BoI"tes de vitesse intermI(c)diaires/boI"tes d\'engrenage, assemblage de l\'entraI"nement final, vI(c)hicule blindI(c) de combat, modI!le militaire standard', 'BoI"tes en carton', 'BoI"tes, caisses, cartons, caisses IE claire-voie et cadres - rI(c)paration', 'BoI"tes, cartons et caisses IE claire-voie', 'BoI"tes, emballages et conteneurs spI(c)ciaux pour munitions classiques et nuclI(c)aires', 'Bobines de self-induction et transformateurs', 'Bobines de self-induction et transformateurs - rI(c)paration et rI(c)vision', 'Bobines de ventilateurs, industriels', 'Bobines thermiques, industrielles', 'Bois dI(c)bite et autres matI(c)riaux de base dI(c)rivI(c)s du bois', 'Bois de construction', 'Bois de construction pressurisI(c)', 'Bois de construction, bois dur', 'Bois de construction, bois dur, planchI(c)iage de quai', 'Bois de construction, bois dur, teck', 'Bois de construction, bois tendre, baume, sapin et jaquier', 'Bois de construction, bois tendre, blanchi, classifiI(c)', "Bois de construction, bois tendre, de l'ouest", 'Bois de construction, bois tendre, sapin de Douglas dense', 'Bois de construction, brut, local', 'Bois de construction, cI!dre', 'Bois de construction, ignifuge', 'Bois de construction, traitI(c), construction marine', 'Bois de menuiserie', 'Bois de menuiserie - rI(c)paration', 'Bois feuillu pour parquetage', 'Bois modulaire de services collectifs', 'Bois, de chauffage', 'Boissons alcoolisI(c)es (remplacI(c) par nibs N8965ZA)', 'Boissons en concentrI(c) avec distributeur de location', 'Boissons gazeuses', 'Boissons, alcoolisI(c)es', 'Boissons, non alcoolisI(c)es (remplacI(c) par nibs N8960Z)', 'Bombes', 'Bombes nuclI(c)aires', 'Bonneterie, ganterie et accessoires vestimentaires pour femmes', 'Bonneterie, ganterie et accessoires vestimentaires pour hommes', 'Bonneterie, ganterie et accessoires vestimentaires pour hommes - rI(c)paration', "Borne d'incendie", "Borne d'incendie - rI(c)paration et rI(c)vision", 'Bossoirs', 'Bottes de combat', 'Bottes de sI(c)curitI(c)', 'BouI(c)es', 'BouI(c)es - rI(c)paration', 'BouI(c)es acoustiques', 'BouI(c)es, acquisition de donnI(c)es', 'BouI(c)es, en plastique', 'BouI(c)es, tous les types, sauf en plastique', 'Bouchon, boI"te fermant IE clI(c)', 'Bouilloires, prI(c)paration des aliments', 'Boulangerie, spI(c)cialitI(c)s , non I(c)numI(c)rI(c)s ailleurs', 'Boulons', 'Boulons, aI(c)ronef', 'Boulons, tous genres et matI(c)riaux, sauf aI(c)ronef', 'Boussole portative, genre bracelet', "Bouteille, fiole, verre, distribution d'ordonnances", 'Bouteilles IE gaz commerciales et industrielles - location', 'Bouteilles IE gaz commerciales et industrielles - location IE bail', 'Bouteilles et bocaux', 'Bouterolle, tI&lt;&lt;le', 'Boutons et aiguilles', 'BrIEleur IE gaz, commercial', 'BrIEleur IE gaz, laboratoire', "BrIEleur IE l'huile, composants", 'BrIEleur IE mazout', 'BrIEleur IE mazout, commercial', 'BrIEleurs IE mazout - rI(c)paration et rI(c)vision', 'Breuvages non alcoolisI(c)s, jus en cristaux (remplacI(c) par nibs N8920ZC)', 'Briques, argiles, non rI(c)fractaires', 'Briques, isolantes et rI(c)fractaires', 'Brocheuses', 'Brocheuses - rI(c)paration', 'Brosse, nettoyage de piI!ces et outils, en nylon', "Brosses, balayeuse, route et piste d'aI(c)roport", 'Broyeur IE ordures, commercial', 'Broyeurs IE ordures', 'Broyeurs IE ordures, N.E.A.', 'Broyeurs, feuilles, arbrisseau, etc.', 'Broyeurs, laboratoire', 'Bulldozers, dirigI(c)s', 'Bureau', 'Buse de drainage, sauf demi coquilles', "CIC/blage de matI(c)riel informatique d'immeuble - installation", 'CIC/ble I(c)quipI(c), I(c)lectrique, pour vI(c)hicules IE chenilles et IE roues', 'CIC/ble I(c)quipI(c), I(c)lectrique, pour vI(c)hicules IE chenilles et IE roues, sauf vI(c)hicules marins, IE effet de sol et blindI(c) de combat', 'CIC/ble mI(c)tallique, acier inoxydable, non magnI(c)tique', 'CIC/ble mI(c)tallique, acier, ininflammable', 'CIC/ble mI(c)tallique, cIC/ble I(c)quipI(c)', 'CIC/ble mI(c)tallique, galvanisI(c), pour filets de sI(c)curitI(c)', "CIC/bles de commande d'aI(c)ronef", 'CIC/bles de fibre, cordage et ficelles', 'CIC/bles optiques en fibre', 'CIC/bles, I(c)lectriques, mI(c)caniques, I(c)quipement de dI(c)tection sous-marine', 'CIC/bles, ancre et chaI"ne', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication - location', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication - rI(c)paration', 'CIC/bles, cordons et fils I(c)lectriques, I(c)quipement de tI(c)lI(c)communications - installation', "COURS DE FORMATION SUR L'ASSURANCE DE LA QUALITE", 'Cabestans', 'Cabine de vI(c)hicule, carrosserie et composants de structure du chIC/ssis - nouvelles peinture et finition', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - dessin de production', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - location', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - rI(c)paration', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis, sauf modI!le militaire', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis, vI(c)hicule blindI(c) de combat, modI!le militaire standard', 'Cabine, examen audiomI(c)trique', 'Cabine, insonore', 'Cabines, pulvI(c)risation', 'Cabinets de douche', 'Cabinets et meubles, en bois - marine', 'Cadenas', 'Cadenas, type clI(c)', 'Cadrans, numI(c)riques', 'Cadrans, sI(c)lecteur, graduI(c), tous genres', 'Cadre, dI(c)coration', 'Cadres de porte en mI(c)tal', 'CafI(c)', 'CafI(c) (remplacI(c) par nibs N8955ZA)', 'CafI(c), thI(c) et cacao', 'CafetiI!res, fontaine (commerciales)', 'Cages, animaux', 'Caillebotis, mI(c)tallique', 'Caisse, transport, avec garnitures intI(c)rieures en mousse moulI(c)e', 'Caisses IE claire-voie, bois', 'Calcium', 'Cales I(c)talons, carrI(c)s, cylindriques, annulaires', 'Cales sI!ches, flottantes', 'Cales sI!ches, flottantes - rI(c)paration', 'Cales, entretoises', 'Calfeutrage, porte, fenI&gt;&gt;tre', 'Calibres de formes, gabarits de guidage, appareils de contrI&lt;&lt;le', 'Calibres de formes, gabarits de guidage, appareils de contrI&lt;&lt;le  - rI(c)paration', "Calibreurs, I(c)quipement d'essai I(c)lectronique", 'CalorimI!tres', 'CalorimI!tres et analyseurs thermiques', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c)', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c), application, sous-marin', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c), infrarouge', 'CamI(c)ra, vidI(c)o', 'CamI(c)ra-enregistreuse', 'CamI(c)ra-enregistreuse, pour diffusion, ruban 1/2 po, couleur, vidI(c)o', 'CamI(c)ra-enregistreuse, pour diffusion, ruban 1/2 po, numI(c)rique, couleur, vidI(c)o', 'Camion IE essence, I(c)pandeur de sable, caisse IE trI(c)mie', 'Camion IE essence, basculant, IE ridelles, fourgon', 'Camion basculant, diesel, PNBV 27 500 lb et plus - location', "Camion basculant, diesel, PNBV jusqu'IE 27 499 lb - location", "Camion de lutte contre l'incendie", "Camion de lutte contre l'incendie - rI(c)paration", 'Camion et tracteur de semi-remorque, sur roues, IE essence, PNBV plus de 10,000 lbs, sauf modI!le militaire', 'Camion et tracteur de semi-remorque, sur roues, diesel, PNBV plus de 10,000 lbs, sauf modI!le militaire', 'Camion, I(c)pandeur de sable, caisse IE trI(c)mie, diesel, PNBV de 27,500 lb et plus', "Camion, I(c)pandeur de sable, caisse IE trI(c)mie, diesel, PNBV jusqu'IE 27,499 lb", "Camion, I(c)quipe d'une grue hydraulique", 'Camion, IE ordures, diesel, PNBV 27,500 lb et plus', "Camion, IE ordures, diesel, PNBV jusqu'IE 27,499 lb", 'Camion, atelier non I(c)quipI(c), IE essence', 'Camion, atelier non I(c)quipI(c), PNBV 27,500 lb et plus', "Camion, automoteur, pour chargement et dI(c)chargement de marchandise IE bord d'aI(c)ronefs", "Camion, basculant IE ridelles, fourgon, diesel, PNBV jusqu'IE 27,499 lb", 'Camion, carrosserie conI$?u sur commande, pour besoins spI(c)ciaux', 'Camion, dI(c)panneuse, IE essence', 'Camion, destruction des dI(c)chets liquides, diesel, PNBV 27,500 lb et plus', "Camion, entretien d'aI(c)ronef, approvisionnement", 'Camion, frigorifique IE essence - location', 'Camion, frigorifique, IE essence', 'Camion, incendie, antichoc', "Camion, lI(c)ger, IE cabine d'I(c)quipage, PNBV 8 100 lb - location, moins de 90 jours", "Camion, lI(c)ger, IE cabine d'I(c)quipage, PNBV 8100 lb - location IE   bail, plus de 90 jours", 'Camion, lI(c)ger, bIC/che, entretien des lignes', 'Camion, lI(c)ger, camionnette-plateau, PNBV 5 300 lb - location,  moins de 90 jours', 'Camion, lI(c)ger, camionnette-plateau, PNBV 8000 lb min., IE 4 roues motrices', 'Camion, lI(c)ger, camionnette-plateau, cabine allongI(c)e, PNBV 5500  lb - location IE bail, plus de 90 jours', 'Camion, lI(c)ger, camionnette-plateau, compact, IE 4 roues motrices', 'Camion, lI(c)ger, camionnette-plateau, compact, long, IE 4 roues motrices', 'Camion, lI(c)ger, fourgon de marchandises, remisable SPEC VAG T00, - location, moins de 90 jours', 'Camion, lI(c)ger, fourgon de marchandises, remisable, Spec VAG T00', 'Camion, lI(c)ger, fourgon pour passagers, remisable SPEC VAG M60 location, moins de 90 jours', 'Camion, lI(c)ger, fourgon pour passagers, remisable, Spec VAG M60', 'Camion, lI(c)ger, transport de personnel PNBV 6 000 lb - location, moins de 90 jours', 'Camion, lI(c)ger, transport de personnel, PNBV 7 500 lb - location, moins de 90 jours', 'Camion, lI(c)ger, utilitaire, 4 roues motrices', 'Camion, lI(c)ger, utilitaire, 4 roues motrices - location, moins   de 90 jours', 'Camion, lI(c)ger, utilitaire, 4 roues motrices, charge utile de 100 lb', 'Camion, lI(c)ger, utilitaire, IE 4 roues motrices, location IE bail - plus de 90 jours', 'Camion, lI(c)ger, utilitaire, IE 4 roues motrices, long - location IE  bail, plus de 90 jours', 'Camion, lourd, PNBV 30 000 IE 60 000 lb - location IE bail, moins de 90 jours', "Camion, muni d'escalier d'embarquement, pour aI(c)ronefs", "Camion, muni d'une benne I(c)lI(c)vatrice", 'Camion, utilitaire, IE 4 roues motrices, configuration militaire', 'Camion-citerne, Diesel, 27,500 lb et plus', "Camion-citerne, diesel, PNBV jusqu'IE 27,499 lb", 'Camion-tracteur IE essence', 'Camion-tracteur, IE essence - location', 'Camion-tracteur, cour de terminus, pour garer les remorques sur les chantiers IE diesel', 'Camion-tracteur, diesel, PNBV 27,500 lb et plus', "Camion-tracteur, diesel, PNBV jusqu'IE 27,499 lb", 'Camionnage', 'Camions et remorques pour le transport de terre et de pierres - location', "Camions et remorques spI(c)ciaux d'aI(c)rodrome", "Camions et remorques spI(c)ciaux d'aI(c)rodrome - rI(c)paration", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts - location", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts - rI(c)paration et rI(c)vision", 'Camions et tracteurs de semi-remorques, sur roues', 'Camions et tracteurs routiers pour semi-remorques, sur roues -  dessin de production', 'Camions et tracteurs routiers pour semi-remorques, sur roues -  location IE bail', 'Camions et tracteurs routiers pour semi-remorques, sur roues - rI(c)paration', 'Camions et tracteurs, pour semi-remorques, sur roues - location', 'Camions poids moyen cabine avancI(c)e', 'Camions, I(c)quipement pour dI(c)blayage de la neige', 'Camions, IE benne basculante, IE ridelles, fourgon, diesel, PNBV 27,500 lb et plus', 'Camions, commerciaux, service lI(c)ger, PNBV 10,000 lbs ou moins', 'Camions, divers - location IE bail, plus de 90 jours', 'Camions, divers - location, moins de 90 jours', 'Camouflage (R&amp;D)', "Canalisation et accessoires de chauffage et circulation d'air"</t>
         </is>
@@ -843,12 +860,15 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>686</v>
+      </c>
+      <c r="U6" t="n">
         <v>772291</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>71</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>['["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DASDSP-AFPPS%2COU%3DMPS-SGP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DBMCSD-DSGAC%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCAD-DGM%2COU%3DRPSMCD-DAGSMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCRSDMTD-DSCDDTM%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCSD-DMC%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCTD-DVT%2COU%3DCCPD-DPCC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DEEPD-DPEE%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIPSD-DSPI%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DITSDEEM-DLTIEEM%2COU%3DSSSPD-DALSP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPDSD-DSRP%2COU%3DSPID-DISA%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPORMMPS-SAROPSM%2COU%3DAPORMMPD-DAPROPSM%2COU%3DCPD-DAEC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPSD-DSA%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSMPD-DESPMP%2COU%3DCCPD-DPCC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSPIMD-DASGI%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSRD-DR%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTEL-DIV%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://www.ssc-spc.gc.ca/pages/proc-appr-eng.html","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTEL-DIV%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSD-DSV%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSSD-DFSS%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ-ACQ,OU=ACQ-APP,OU=AR-RA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ-APP,OU=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ123-APP123,OU=ACQ-APP,OU=ACQ-APP,OU=WR-RO,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAEC-DIR%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAESD-DSAG%2Cou%3DRPCD-DAMI%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAOPS-NPEA%2Cou%3DMPDS-DGPM%2Cou%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DEEPD-DPEE%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DBTSIS-DSSTIS%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DESDSD-DSESSD%2COU%3DEMTSPD-DASEMST%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDVBD-DPPBV%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DEAECPSP-AAEEIC%2Cou%3DCPD-DAEC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFCPD-DPPPC%2Cou%3DLEFTD-DTPLEP%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFOSD-DPAFB%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFTD-DACE%2Cou%3DAEPD-DPEA%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DHSP-PSS%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DIMITPD-GITIPD%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DINF-DIV%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DLSD-DSL%2Cou%3DPSPD-DASP%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DMWSD-DMSA%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DOTSP-FSEO%2Cou%3DMAJ-DIR%2Cou%3DDMPS-SPDGP%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DSCD-DCN%2Cou%3DMSD-DSM%2Cou%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DTAPV-VPBT%2Cou%3DMPDL-DGPT%2Cou%3DDMPS-SPDGP%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DTHD-DTH%2Cou%3DAEPD-DPEA%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=ACQ-APP,ou=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MAD-DAM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DAPS-SAP%2COU%3DAPORMMPD-DAPROPSM%2COU%3DCPD-DAEC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DESDSD-DSESSD%2COU%3DEMTSPD-DASEMST%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU=CAD-DAC,OU=AEPD-DPEA,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DDSD-DSD%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DHLESD-DSHVE%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DSCPD-SSGP%2Cou%3DITSPD-DASIT%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=DSPD-DPSD,ou=ITSPD-DASIT,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=HLESD-DSHVE,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=ISEWD-DSIGE,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DFMSD-DSEI%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://www.ssc-spc.gc.ca/pages/proc-appr-eng.html"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/office-of-small-and-medium-enterprises-osme-regional-offices"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/pwgsc-regional-offices/ontario-region"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/supplier-registration-information-sri-contacts"]', '["https://buyandsell.gc.ca/for-businesses/contacts/pwgsc-regional-offices"]']</t>
         </is>
@@ -921,12 +941,15 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>686</v>
+      </c>
+      <c r="U7" t="n">
         <v>676872</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>73</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>['["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSD-DSV%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DMWSD-DMSA%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DIPSD-DSPI%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DPDSD-DSRP%2COU%3DSPID-DISA%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DPSD-DSA%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DSRD-DR%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DTSSD-DFSS%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DACQ-ACQ%2COU%3DACQ-APP%2COU%3DAR-RA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DACQ123-APP123%2COU%3DACQ-APP%2COU%3DACQ-APP%2COU%3DWR-RO%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DCAD-DAC%2COU%3DAEPD-DPEA%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DFMSD-DSEI%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ACQ-APP,OU=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ACQ123-APP123,OU=ACQ-APP,OU=ACQ-APP,OU=WR-RO,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=APS-SAP,OU=APORMMPD-DAPROPSM,OU=CPD-DAEC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ASDSP-AFPPS,OU=MPS-SGP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=BMCSD-DSGAC,OU=PSPD-DASP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CAD-DGM,OU=RPSMCD-DAGSMI,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CSD-DMC,OU=RPCD-DAMI,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CTD-DVT,OU=CCPD-DPCC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EAECPSP-AAEEIC,OU=CPD-DAEC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EEPD-DPEE,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ESDSD-DSESSD,OU=EMTSPD-DASEMST,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ITSDEEM-DLTIEEM,OU=SSSPD-DALSP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=SMPD-DESPMP,OU=CCPD-DPCC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=SPIMD-DASGI,OU=PSPD-DASP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=TEL-DIV,OU=ITSPD-DASIT,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://www.ssc-spc.gc.ca/pages/proc-appr-fra.html","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=TEL-DIV,OU=ITSPD-DASIT,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DACQ-APP%2Cou%3DACQ-APP%2COU%3DPR-RP%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DDSPD-DPSD%2Cou%3DITSPD-DASIT%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DHLESD-DSHVE%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DISEWD-DSIGE%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DLSD-DSL%2Cou%3DPSPD-DASP%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DPORMMPS-SAROPSM%2Cou%3DAPORMMPD-DAPROPSM%2Cou%3DCPD-DAEC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AEC-DIR,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AESD-DSAG,ou=RPCD-DAMI,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AOPS-NPEA,ou=MPDS-DGPM,ou=MS-SM,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EEPD-DPEE,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=BTSIS-DSSTIS,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ESDSD-DSESSD,OU=EMTSPD-DASEMST,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DSD-DSD,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DVBD-DPPBV,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=EAECPSP-AAEEIC,ou=CPD-DAEC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FCPD-DPPPC,ou=LEFTD-DTPLEP,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FOSD-DPAFB,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FTD-DACE,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=HLESD-DSHVE,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=HSP-PSS,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=IMITPD-GITIPD,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=INF-DIV,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MAD-DAM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MWSD-DMSA,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=OTSP-FSEO,ou=MAJ-DIR,ou=DMPS-SPDGP,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=SCD-DCN,ou=MSD-DSM,ou=MS-SM,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=SCPD-SSGP,ou=ITSPD-DASIT,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=TAPV-VPBT,ou=MPDL-DGPT,ou=DMPS-SPDGP,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=THD-DTH,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://www.ssc-spc.gc.ca/pages/proc-appr-fra.html"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureau-des-petites-et-moyennes-entreprises-bureaux-regionaux"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureaux-regionaux-de-tpsgc"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureaux-regionaux-de-tpsgc/region-de-l-ontario"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/donnees-d-inscription-des-fournisseurs-dif-points-de-contact"]']</t>
         </is>
@@ -999,12 +1022,15 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>4956</v>
+      </c>
+      <c r="U8" t="n">
         <v>29736</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>1</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>['Active']</t>
         </is>
@@ -1077,12 +1103,15 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>4956</v>
+      </c>
+      <c r="U9" t="n">
         <v>24780</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>1</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>['Actif']</t>
         </is>

--- a/examples/Canada OGD/goods and services/profile.xlsx
+++ b/examples/Canada OGD/goods and services/profile.xlsx
@@ -455,15 +455,20 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -476,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -539,12 +544,15 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>30951</v>
       </c>
-      <c r="V2" t="n">
-        <v>4957</v>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="n">
+        <v>4957</v>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>['5112B', '5113B', '5114C', '5116A', '5121A', '5122A', '5123B', '5124B', '5127B', '5128B', '5129B', '5131BB', '5131BG', '5131BI', '5131C', '5132A', '5133B', '5133C', '5133D', '5134A', '5134B', '5136A', '5138A', '5138B', '5138C', '5139A', '5139B', '5139C', '5139D', '5141A', '5151A', '5151B', '5152A', '5152AA', '5152B', '5153A', '5153AB', '5153AE', '5153AF', '5153AG', '5153B', '5153BA', '5154A', '5154AB', '5154C', '5155B', '5155C', '5155D', '5155E', '5156A', '5156B', '5159A', '5159B', '5159C', '5159E', '5161A', '5161AC', '5161AE', '5161AF', '5161AJ', '5161AK', '5161AN', '5161AP', '5161B', '5161C', '5161D', '5162A', '5162B', '5162C', '5162D', '5163A', '5163B', '5164A', '5164AB', '5164AF', '5164C', '5164CA', '5164CB', '5164CC', '5164CE', '5164CF', '5164CG', '5164CH', '5164CJ', '5164CK', '5164CM', '5164CN', '5164CP', '5164CQ', '5164CU', '5164CV', '5164CW', '5164D', '5164E', '5165A', '5165AA', '5165AB', '5166A', '5166B', '5169C', '5169CB', '5169D', '5169DA', '5169E', '5169EA', '5169EB', '5169ED', '5169EE', '5169EF', '5169FC', '5169FD', '5169G', '5169J', '5169K', '5169L', '5169M', '5169P', '5171B', '5172A', '5173B', '5173BA', '5173BB', '5173C', '5174A', '5175A', '5175AA', '5175AB', '5175AC', '5175AD', '5175B', '5176AB', '5176B', '5176C', '5176D', '5177A', '5177AA', '5177AB', '5177AE', '5177AJ', '5177AK', '5177AL', '5177BA', '5179C', '5179CB', '5179D', '5179F', '5179FB', '5179H', '5179HC', '5179I', '5181A', 'AA415500', 'AA415504', 'AA910300', 'AC217760', 'AC517728', 'AC517748', 'AC617732', 'AC617736', 'AC617768', 'AD217740', 'AD917700', 'AD917712', 'AD917716', 'AD917720', 'AD917724', 'AE913500', 'AG214542', 'AG214562', 'AG214566', 'AG214600', 'AG414668', 'AG614500', 'AG914510', 'AG914538', 'AG914558', 'AH115032', 'AH115036', 'AH215000', 'AH215020', 'AH215024', 'AH910222', 'AJ110224', 'AJ110700', 'AJ110724', 'AJ111000', 'AJ111140', 'AJ112000', 'AJ119000', 'AJ119004', 'AJ119036', 'AJ119040', 'AJ119064', 'AJ119084', 'AJ212512', 'AJ212516', 'AJ212528', 'AJ212540', 'AJ212552', 'AJ212568', 'AJ311500', 'AJ412000', 'AJ412008', 'AJ412040', 'AJ412048', 'AJ412060', 'AJ412068', 'AJ412072', 'AJ412100', 'AJ716500', 'AJ716650', 'AJ914000', 'AK117000', 'AN117500', 'AN417668', 'AP216000', 'AP313000', 'AP313076', 'AP518500', 'AP518588', 'AR110432', 'AR210440', 'AR210444', 'AR210480', 'AR410476', 'AR910400', 'AS219528', 'AS219652', 'AS319620', 'AS419584', 'AS419632', 'AS918564', 'AT319560', 'AT419628', 'AT619624', 'AT919500', 'AV718000', 'AZ110111', 'AZ110112', 'AZ110114', 'AZ110134', 'AZ110136', 'AZ110140', 'AZ110172', 'AZ110174', 'AZ110176', 'AZ110178', 'AZ110210', 'AZ110252', 'AZ110254', 'B000A', 'B002A', 'B100A', 'B101A', 'B101B', 'B102A', 'B103A', 'B109A', 'B200A', 'B200B', 'B201A', 'B202A', 'B204A', 'B206A', 'B206B', 'B208B', 'B208BB', 'B219A', 'B301A', 'B303A', 'B304A', 'B308A', 'B311B', 'B314A', 'B329A', 'B329B', 'B400A', 'B500A', 'B500B', 'B503A', 'B503B', 'B506D', 'B509A', 'C111A', 'C112A', 'C113A', 'C114A', 'C115A', 'C116A', 'C117A', 'C118A', 'C119A', 'C119AH', 'C119B', 'C119C', 'C119F', 'C121A', 'C122A', 'C123A', 'C129A', 'C130A', 'C211A', 'C211D', 'C211DA', 'C211E', 'C211F', 'C212B', 'C213A', 'C213C', 'C216A', 'C216AA', 'C216AB', 'C216BA', 'C216BB', 'C216BC', 'C216C', 'C219A', 'C219AB', 'C219BE', 'C219BJ', 'C219BK', 'C219C', 'C219CBA', 'C219CBI', 'C219CJ', 'C219D', 'C219DA', 'D301A', 'D301B', 'D301BBM', 'D301BBN', 'D301C', 'D301CD', 'D301D', 'D302A', 'D302AAH', 'D302AAI', 'D302AAJ', 'D302AAP', 'D302AAR', 'D302AAS', 'D302D', 'D303AA', 'D304A', 'D307A', 'D307AB', 'D308A', 'D309A', 'D309BB', 'D311A', 'D312A', 'D315A', 'D316A', 'D316AB', 'D316B', 'D317B', 'D317C', 'D317D', 'D317E', 'D317EA', 'D317EB', 'D399A', 'D399AA', 'D399AB', 'D399B', 'D399BB', 'D399BC', 'D399BD', 'D399BE', 'D399C', 'D399D', 'E101A', 'E103A', 'E107A', 'E108A', 'E108C', 'E108CA', 'E108D', 'E108E', 'E108F', 'E109A', 'E110A', 'E111A', 'E111B', 'E199A', 'E199AB', 'E199AC', 'E199B', 'E199BB', 'E199C', 'E199D', 'E199H', 'END OF FEED 2016-05-09 22:03:02', 'F003A', 'F006D', 'F006E', 'F008A', 'F010A', 'F010B', 'F010BA', 'F010C', 'F010D', 'F011A', 'F020A', 'F021A', 'F021B', 'F030A', 'F059A', 'G001A', 'G001B', 'G001C', 'G009A', 'G009B', 'G009D', 'G009DA', 'G009E', 'G009F', 'G009G', 'G009H', 'G009K', 'G009KA', 'G009L', 'G009M', 'G009N', 'G009P', 'G100A', 'G101A', 'G102A', 'G103B', 'G103C', 'G103D', 'G199A', 'G199D', 'H100A', 'H100AA', 'H100AB', 'H100AC', 'H100B', 'H100BB', 'H100BF', 'H200A', 'H200AA', 'H200B', 'H200BB', 'H200C', 'H300A', 'H300AD', 'H300B', 'H300C', 'H300E', 'H300F', 'H900A', 'J019A', 'JD1005', 'JD1270', 'JD1320', 'JD1330', 'JD1340', 'JD1345', 'JD1370', 'JD1375', 'JD1386', 'JD1520', 'JD1730', 'JD1990', 'JD2060', 'JD2310', 'JD2320', 'JD2350', 'JD2510', 'JD5315', 'JD5826', 'JD5831', 'JD5840A', 'JD5865', 'JD5895', 'JD5905', 'JD5960', 'JD6605', 'JI1610', 'JI1660', 'JI2510', 'JI2530', 'JI2910', 'JI3740', 'JI4110', 'JI4130', 'JI4240', 'JI4430', 'JI4520', 'JI5660', 'JI5805', 'JI5826', 'JI5830', 'JI5835', 'JI5840', 'JI5845', 'JI5895', 'JI5985', 'JI5995', 'JI6350', 'JI6520', 'JI6530', 'JI6610', 'JI6625', 'JI6650', 'JI6660', 'JI6685', 'JI7010', 'JI7021', 'JI7025', 'JI7110', 'JI7125', 'JI7220', 'JI7220A', 'JI7230', 'JI7310', 'JI7510', 'JI9330', 'JI9905', 'JI9930', 'JX1005', 'JX1005A', 'JX1015', 'JX1025', 'JX1035', 'JX1055', 'JX1095', 'JX1220', 'JX1230', 'JX1240', 'JX1250', 'JX1265', 'JX1285', 'JX1305', 'JX1340', 'JX1355', 'JX1377', 'JX1410', 'JX1420', 'JX1425', 'JX1427', 'JX1430', 'JX1450', 'JX1510', 'JX1510A', 'JX1510C', 'JX1510D', 'JX1520', 'JX1520A', 'JX1520B', 'JX1540', 'JX1560', 'JX1610', 'JX1615', 'JX1620', 'JX1630', 'JX1650', 'JX1660', 'JX1680', 'JX1680A', 'JX1680B', 'JX1680C', 'JX1710', 'JX1720', 'JX1730', 'JX1740', 'JX1910', 'JX1920', 'JX1925', 'JX1930', 'JX1940', 'JX1940AA', 'JX1940C', 'JX1945', 'JX1950', 'JX1955', 'JX1990', 'JX1990A', 'JX1990B', 'JX1990C', 'JX1990D', 'JX1990DA', 'JX1990E', 'JX1990F', 'JX1990G', 'JX1990H', 'JX1990HA', 'JX1990HB', 'JX1990I', 'JX1990J', 'JX1990K', 'JX1990L', 'JX1990M', 'JX1990N', 'JX1990P', 'JX1990R', 'JX1990S', 'JX1990T', 'JX1990U', 'JX1990V', 'JX1990W', 'JX2010', 'JX2010A', 'JX2020', 'JX2030', 'JX2040', 'JX2050', 'JX2060', 'JX2090', 'JX2090AA', 'JX2210', 'JX2240', 'JX2240A', 'JX2250', 'JX2305', 'JX2305A', 'JX2305B', 'JX2310', 'JX2310C', 'JX2310D', 'JX2310E', 'JX2310F', 'JX2320', 'JX2320A', 'JX2330', 'JX2330A', 'JX2340', 'JX2350', 'JX2350A', 'JX2350B', 'JX2355', 'JX2410', 'JX2420', 'JX2430', 'JX2510', 'JX2510E', 'JX2510G', 'JX2510H', 'JX2520', 'JX2520A', 'JX2520B', 'JX2530', 'JX2530A', 'JX2530B', 'JX2530BB', 'JX2530BC', 'JX2540', 'JX2590', 'JX2590A', 'JX2610', 'JX2610A', 'JX2620', 'JX2620B', 'JX2640', 'JX2805', 'JX2805A', 'JX2805AB', 'JX2805B', 'JX2810', 'JX2815', 'JX2815AA', 'JX2815AB', 'JX2815B', 'JX2815C', 'JX2825', 'JX2825A', 'JX2835', 'JX2835A', 'JX2835B', 'JX2840', 'JX2840A', 'JX2850', 'JX2895', 'JX2910', 'JX2910B', 'JX2910C', 'JX2910D', 'JX2915', 'JX2915A', 'JX2920', 'JX2925', 'JX2930', 'JX2940', 'JX2990', 'JX2990AA', 'JX2995', 'JX3010', 'JX3010A', 'JX3020', 'JX3030', 'JX3040', 'JX3110', 'JX3130', 'JX3210', 'JX3220', 'JX3405', 'JX3412', 'JX3413', 'JX3414', 'JX3415', 'JX3416', 'JX3417', 'JX3419', 'JX3431', 'JX3433', 'JX3438', 'JX3439', 'JX3441', 'JX3442', 'JX3443', 'JX3445', 'JX3450', 'JX3455', 'JX3456', 'JX3460', 'JX3465', 'JX3510', 'JX3540', 'JX3590', 'JX3610', 'JX3610A', 'JX3610AA', 'JX3615', 'JX3625', 'JX3630', 'JX3650', 'JX3655', 'JX3660', 'JX3695', 'JX3710', 'JX3720', 'JX3730', 'JX3740', 'JX3750', 'JX3750B', 'JX3770', 'JX3805', 'JX3810', 'JX3815', 'JX3820', 'JX3825', 'JX3825A', 'JX3825B', 'JX3830', 'JX3830A', 'JX3895', 'JX3910', 'JX3920', 'JX3930', 'JX3930A', 'JX3940', 'JX3950', 'JX3950A', 'JX3960', 'JX3960A', 'JX3990', 'JX4010', 'JX4110', 'JX4110A', 'JX4110B', 'JX4110BB', 'JX4120', 'JX4120A', 'JX4120B', 'JX4130', 'JX4130A', 'JX4140', 'JX4210', 'JX4210A', 'JX4210B', 'JX4210C', 'JX4210D', 'JX4220', 'JX4240', 'JX4310', 'JX4310A', 'JX4310AA', 'JX4310AB', 'JX4320', 'JX4320A', 'JX4320B', 'JX4320C', 'JX4320D', 'JX4330', 'JX4410', 'JX4410A', 'JX4420', 'JX4430', 'JX4460', 'JX4510', 'JX4520', 'JX4520AA', 'JX4530', 'JX4530A', 'JX4530AA', 'JX4540', 'JX4610', 'JX4620', 'JX4630', 'JX4710', 'JX4720', 'JX4730', 'JX4810', 'JX4820', 'JX4820AB', 'JX4910', 'JX4930', 'JX4931', 'JX4940', 'JX5110', 'JX5120', 'JX5130', 'JX5133', 'JX5136', 'JX5210', 'JX5220', 'JX5280', 'JX5325', 'JX5330', 'JX5335', 'JX5340', 'JX5360', 'JX5410', 'JX5430', 'JX5430B', 'JX5430C', 'JX5440', 'JX5445', 'JX5450', 'JX5520', 'JX5610', 'JX5620', 'JX5640A', 'JX5660', 'JX5670', 'JX5680', 'JX5805', 'JX5805A', 'JX5805B', 'JX5805BA', 'JX5810', 'JX5811', 'JX5815', 'JX5821', 'JX5825', 'JX5826', 'JX5830', 'JX5831', 'JX5835', 'JX5836', 'JX5840', 'JX5841', 'JX5845', 'JX5845A', 'JX5855', 'JX5860', 'JX5865', 'JX5895', 'JX5905', 'JX5910', 'JX5915', 'JX5925', 'JX5930', 'JX5935', 'JX5945', 'JX5950', 'JX5960', 'JX5962', 'JX5963', 'JX5965', 'JX5975', 'JX5985', 'JX5990', 'JX5995', 'JX5998', 'JX5999', 'JX6020', 'JX6030', 'JX6070', 'JX6100', 'JX6100A', 'JX6105', 'JX6110', 'JX6115', 'JX6115A', 'JX6115G', 'JX6120', 'JX6125', 'JX6130', 'JX6130B', 'JX6135', 'JX6140', 'JX6145', 'JX6150', 'JX6210', 'JX6230', 'JX6250', 'JX6310', 'JX6320', 'JX6340', 'JX6350', 'JX6350A', 'JX6350AA', 'JX6350D', 'JX6515', 'JX6515A', 'JX6520', 'JX6525', 'JX6530', 'JX6530D', 'JX6530E', 'JX6532', 'JX6545', 'JX6605', 'JX6610', 'JX6625', 'JX6630', 'JX6635', 'JX6635C', 'JX6635D', 'JX6636', 'JX6640', 'JX6645', 'JX6650', 'JX6655', 'JX6655A', 'JX6660', 'JX6665', 'JX6670', 'JX6670A', 'JX6675', 'JX6675A', 'JX6675B', 'JX6680', 'JX6680A', 'JX6685', 'JX6685A', 'JX6685B', 'JX6695', 'JX6710', 'JX6720', 'JX6730', 'JX6740', 'JX6750', 'JX6760', 'JX6780', 'JX6910', 'JX6910A', 'JX6910B', 'JX6920', 'JX6930', 'JX6930A', 'JX7010', 'JX7010A', 'JX7010AA', 'JX7010AB', 'JX7010AC', 'JX7010AD', 'JX7010AE', 'JX7010AG', 'JX7010AH', 'JX7010B', 'JX7010BA', 'JX7010BB', 'JX7010C', 'JX7010CA', 'JX7020', 'JX7021', 'JX7021A', 'JX7021AD', 'JX7022', 'JX7025', 'JX7025A', 'JX7025AB', 'JX7025AD', 'JX7025AJ', 'JX7025B', 'JX7025BA', 'JX7025BI', 'JX7025BJ', 'JX7025BM', 'JX7025BO', 'JX7025BU', 'JX7025CA', 'JX7025CC', 'JX7025EA', 'JX7030', 'JX7035AB', 'JX7035AC', 'JX7035AF', 'JX7035AK', 'JX7035AM', 'JX7042', 'JX7105', 'JX7105B', 'JX7110', 'JX7125', 'JX7195', 'JX7195A', 'JX7195B', 'JX7210', 'JX7220', 'JX7230', 'JX7240', 'JX7290', 'JX7290B', 'JX7310AA', 'JX7310C', 'JX7320', 'JX7360', 'JX7435', 'JX7450', 'JX7460', 'JX7490', 'JX7520', 'JX7710', 'JX7720', 'JX7830', 'JX7830B', 'JX7910', 'JX7910A', 'JX7920', 'JX8115', 'JX8120', 'JX8120A', 'JX8135', 'JX8145', 'JX8340', 'JX8415', 'JX8430', 'JX8440', 'JX8460', 'JX8465', 'JX8470', 'JX8530A', 'JX9150', 'JX9330', 'JX9330A', 'JX9350', 'JX9505', 'JX9515', 'JX9905', 'JX9930', 'JX9930A', 'JX9999', 'K000B', 'K000E', 'K000ED', 'K100A', 'K100AE', 'K100AG', 'K100B', 'K101A', 'K102A', 'K102B', 'K104A', 'K105A', 'K105AB', 'K105AO', 'K106A', 'K106B', 'K106C', 'K106CA', 'K107A', 'K107AB', 'K107C', 'K107CA', 'K107CC', 'K107CD', 'K107CE', 'K107DA', 'K108A', 'K108B', 'K108C', 'K111A', 'K111B', 'K112A', 'K113A', 'K113AB', 'K113B', 'K114A', 'K114B', 'K115A', 'K199B', 'K199D', 'K199I', 'K199J', 'K199K', 'K199L', 'K199N', 'K199Q', 'K199R', 'L004A', 'L004B', 'L004C', 'L004CV', 'L005A', 'L006A', 'L006B', 'L007A', 'L099A', 'L099B', 'L099BG', 'L099BH', 'L099BI', 'L099C', 'L099D', 'L099F', 'L099G', 'L099H', 'L099J', 'M110A', 'M119A', 'M120A', 'M120B', 'M170A', 'M180A', 'M181A', 'M181D', 'M190A', 'M190B', 'M190D', 'M240A', 'M242A', 'M290B', 'N1005', 'N1005A', 'N1010', 'N1015', 'N1015A', 'N1020', 'N1025', 'N1030', 'N1035', 'N1040', 'N1045', 'N1055', 'N1070', 'N1075', 'N1075999', 'N1075A', 'N1080', 'N1090', 'N1095', 'N1105', 'N1110', 'N1115', 'N1120', 'N1125', 'N1127', 'N1130', 'N1135', 'N1140', 'N1145', 'N1190', 'N1195', 'N1210', 'N1220', 'N1230', 'N1230999', 'N1230AA', 'N1240', 'N1240AA', 'N1240AB', 'N1240BA', 'N1240C', 'N1240D', 'N1240DB', 'N1240DD', 'N1240E', 'N1250', 'N1260', 'N1265', 'N1270', 'N1280', 'N1285', 'N1287', 'N1287203', 'N1290', 'N1305', 'N1310', 'N1315', 'N1320', 'N1325', 'N1330', 'N1336', 'N1337', 'N1338', 'N1340', 'N1345', 'N1346', 'N1350', 'N1351', 'N1352', 'N1353', 'N1355', 'N1356', 'N1360', 'N1361', 'N1365', 'N1367A', 'N1370', 'N1375', 'N1376', 'N1377', 'N1385', 'N1386', 'N1390', 'N1395', 'N1398', 'N1398B', 'N1410', 'N1420', 'N1425', 'N1425AB', 'N1427', 'N1427999', 'N1430', 'N1440', 'N1450', 'N1510', 'N1510A', 'N1520', 'N1520B', 'N1540', 'N1550', 'N1560', 'N1560B', 'N1560C', 'N1560D', 'N1560E', 'N1560F', 'N1610', 'N1615', 'N1620', 'N1620B', 'N1630', 'N1630C', 'N1640', 'N1650', 'N1650E', 'N1660', 'N1660C', 'N1660CB', 'N1660D', 'N1660E', 'N1670', 'N1670B', 'N1670BB', 'N1670BC', 'N1670BD', 'N1670D', 'N1670E', 'N1670EA', 'N1670F', 'N1680', 'N1680999', 'N1680A', 'N1680C', 'N1680D', 'N1680E', 'N1680G', 'N1680H', 'N1680J', 'N1710B', 'N1710C', 'N1710D', 'N1720', 'N1730', 'N1740', 'N1740J', 'N1810201', 'N1810203', 'N1830999', 'N1905', 'N1905C', 'N1905D', 'N1905E', 'N1910', 'N1915', 'N1915C', 'N1920', 'N1925', 'N1930', 'N1935', 'N1935A', 'N1940', 'N1940A', 'N1940DA', 'N1940G', 'N1945', 'N1945A', 'N1950', 'N1955', 'N1990', 'N1990C', 'N2010', 'N2010A', 'N2010B', 'N2010C', 'N2010CA', 'N2010E', 'N2010F', 'N2010G', 'N2010H', 'N2010J', 'N2020', 'N2020B', 'N2020BA', 'N2020BC', 'N2020BD', 'N2020BE', 'N2030', 'N2030B', 'N2030BA', 'N2030BB', 'N2030C', 'N2030CA', 'N2030D', 'N2030E', 'N2030G', 'N2030H', 'N2030J', 'N2030M', 'N2030N', 'N2030P', 'N2030Q', 'N2030R', 'N2030S', 'N2030T', 'N2030U', 'N2040', 'N2040A', 'N2040B', 'N2040D', 'N2040E', 'N2040EA', 'N2040EB', 'N2040EC', 'N2040ED', 'N2040EE', 'N2040F', 'N2040FA', 'N2040FB', 'N2040H', 'N2040J', 'N2040K', 'N2040L', 'N2040M', 'N2040N', 'N2040P', 'N2040Q', 'N2040S', 'N2040W', 'N2050', 'N2050A', 'N2050B', 'N2050C', 'N2050D', 'N2060', 'N2060B', 'N2060C', 'N2060F', 'N2090', 'N2090A', 'N2090AB', 'N2090AC', 'N2090AE', 'N2090B', 'N2090C', 'N2090D', 'N2090E', 'N2090F', 'N2090G', 'N2090H', 'N2090HA', 'N2090J', 'N2090K', 'N2210', 'N2220', 'N2230', 'N2240', 'N2250', 'N2305', 'N2310', 'N2310005', 'N2310M', 'N2310MA', 'N2310MAA', 'N2310MAB', 'N2310MAC', 'N2320', 'N2320001', 'N2320002', 'N2320003', 'N2320B', 'N2320D', 'N2320DAA', 'N2320DAB', 'N2320DDB', 'N2320DFB', 'N2320DGB', 'N2320DJA', 'N2320DJB', 'N2320DLA', 'N2320DMA', 'N2320DMB', 'N2320DRA', 'N2320DRB', 'N2320DX', 'N2320G', 'N2320GA', 'N2320GG', 'N2320GH', 'N2320GM', 'N2320GP', 'N2320GPM', 'N2320GQ', 'N2320GR', 'N2320GS', 'N2320GT', 'N2320GU', 'N2320GV', 'N2320GY', 'N2320L51', 'N2320L61', 'N2320M60', 'N2320N01', 'N2320N21', 'N2320N81', 'N2320T00', 'N2320W00', 'N2330', 'N2330A', 'N2330B', 'N2330C', 'N2330D', 'N2330E', 'N2330F', 'N2330G', 'N2330H', 'N2330K', 'N2330L', 'N2330M', 'N2330N', 'N2330P', 'N2330Q', 'N2330R', 'N2330S', 'N2330T', 'N2330U', 'N2330V', 'N2330W', 'N2330X', 'N2330Y', 'N2330Z', 'N2340', 'N2350', 'N2350A', 'N2350E', 'N2350EA', 'N2350EB', 'N2350EC', 'N2355', 'N2410', 'N2410A', 'N2410B', 'N2420', 'N2420A', 'N2430', 'N2510', 'N2510C', 'N2510F', 'N2510FA', 'N2510FC', 'N2520', 'N2520A', 'N2520B', 'N2520BD', 'N2520C', 'N2530', 'N2530001', 'N2530AB', 'N2530AD', 'N2530AK', 'N2530AL', 'N2530AM', 'N2530B', 'N2530BLB', 'N2530BM', 'N2530BN', 'N2530C', 'N2540', 'N2540000', 'N2540005', 'N2540A', 'N2540C', 'N2540G', 'N2540H', 'N2541', 'N2590', 'N2590A', 'N2590AA', 'N2590C', 'N2590CA', 'N2590D', 'N2590DCA', 'N2610', 'N2620', 'N2630', 'N2640', 'N2640004', 'N2805', 'N2805001', 'N2805002', 'N2805A', 'N2805B', 'N2815', 'N2815A', 'N2815AB', 'N2815B', 'N2815BB', 'N2815BRB', 'N2815BRP', 'N2815D', 'N2815DB', 'N2815G', 'N2820', 'N2825', 'N2830', 'N2840', 'N2845', 'N2850', 'N2895', 'N2895C', 'N2910', 'N2910006', 'N2910007', 'N2910D', 'N2910DB', 'N2910DE', 'N2915', 'N2915C', 'N2920', 'N2920A', 'N2920AA', 'N2920AAA', 'N2920AAC', 'N2925', 'N2925C', 'N2925F', 'N2925J', 'N2930', 'N2930AB', 'N2935', 'N2940', 'N2940A', 'N2945', 'N2945AAA', 'N2945AAE', 'N2990', 'N2990A', 'N2990B', 'N2990C', 'N2990D', 'N2990FA', 'N2995', 'N2995C', 'N2995D', 'N3010', 'N3010AA', 'N3010AB', 'N3010CA', 'N3010CB', 'N3010D', 'N3010E', 'N3020', 'N3020A', 'N3020B', 'N3020CB', 'N3030', 'N3040', 'N3040E', 'N3110', 'N3110B', 'N3110F', 'N3110G', 'N3110H', 'N3120', 'N3130', 'N3130A', 'N3210', 'N3210D', 'N3220', 'N3220J', 'N3230', 'N3405', 'N3408', 'N3410', 'N3411', 'N3412', 'N3413', 'N3414', 'N3415', 'N3416', 'N3417', 'N3418', 'N3419', 'N3422', 'N3424', 'N3426', 'N3431', 'N3432', 'N3433', 'N3436', 'N3438', 'N3439', 'N3441', 'N3441AB', 'N3442', 'N3443', 'N3444', 'N3445', 'N3446', 'N3447', 'N3448', 'N3449', 'N3450', 'N3455', 'N3456', 'N3460', 'N3461', 'N3465', 'N3470', 'N3510', 'N3510A', 'N3510E', 'N3510M', 'N3520', 'N3530', 'N3540', 'N3550', 'N3550B', 'N3590', 'N3605', 'N3610', 'N3610BDD', 'N3610BE', 'N3610BEC', 'N3610BED', 'N3610BEL', 'N3610C', 'N3610CPA', 'N3610G', 'N3611', 'N3615', 'N3615C', 'N3615F', 'N3620', 'N3625', 'N3630', 'N3635', 'N3640', 'N3645', 'N3650', 'N3650A', 'N3655', 'N3660', 'N3660A', 'N3660C', 'N3670', 'N3680', 'N3685', 'N3690', 'N3693', 'N3694', 'N3695', 'N3695A', 'N3710', 'N3710V', 'N3720', 'N3720C', 'N3730', 'N3740', 'N3740B', 'N3740BE', 'N3740BF', 'N3740BL', 'N3740E', 'N3750', 'N3750A', 'N3750E', 'N3750S', 'N3750TD', 'N3760', 'N3770', 'N3770A', 'N3805', 'N3805F', 'N3810', 'N3815', 'N3820', 'N3825', 'N3825G', 'N3825L', 'N3825N', 'N3825P', 'N3825PC', 'N3825QB', 'N3825S', 'N3825T', 'N3830', 'N3830A', 'N3830D', 'N3830DA', 'N3830DB', 'N3830E', 'N3830G', 'N3830H', 'N3830J', 'N3830L', 'N3830M', 'N3830ND', 'N3830T', 'N3830U', 'N3835', 'N3895', 'N3910', 'N3910G', 'N3915', 'N3920', 'N3930', 'N3930D', 'N3930E', 'N3930EC', 'N3930EH', 'N3940', 'N3940E', 'N3940EC', 'N3950', 'N3950A', 'N3950B', 'N3950BJ', 'N3950BK', 'N3950BL', 'N3950BM', 'N3950C', 'N3950D', 'N3950F', 'N3950FBC', 'N3950FD', 'N3950FE', 'N3950FG', 'N3950FH', 'N3950G', 'N3960', 'N3960A', 'N3960B', 'N3990', 'N3990B', 'N3990E', 'N3990EB', 'N3990ED', 'N3990F', 'N3990G', 'N3990N', 'N3990Q', 'N3990R', 'N4010', 'N4010A', 'N4010AD', 'N4010C', 'N4010DA', 'N4010DB', 'N4010DC', 'N4010E', 'N4010F', 'N4020', 'N4020A', 'N4020D', 'N4020G', 'N4030', 'N4110', 'N4110AA', 'N4110B', 'N4110BA', 'N4110BD', 'N4110C', 'N4110CB', 'N4110D', 'N4110E', 'N4110F', 'N4110G', 'N4110H', 'N4110J', 'N4110JA', 'N4110K', 'N4110M', 'N4110N', 'N4110P', 'N4110Q', 'N4120', 'N4120A', 'N4120AA', 'N4120B', 'N4120BA', 'N4120BB', 'N4120BC', 'N4120BD', 'N4120BDB', 'N4120BF', 'N4120C', 'N4120D', 'N4130', 'N4130A', 'N4130B', 'N4130C', 'N4130D', 'N4130E', 'N4130F', 'N4130G', 'N4130H', 'N4130HC', 'N4130J', 'N4130JA', 'N4130K', 'N4130L', 'N4130LA', 'N4130LB', 'N4130M', 'N4130N', 'N4130P', 'N4130PA', 'N4140', 'N4140A', 'N4140C', 'N4140CA', 'N4140CE', 'N4140CF', 'N4140G', 'N4150', 'N4210', 'N4210A', 'N4210B', 'N4210E', 'N4210F', 'N4210H', 'N4210K', 'N4210N', 'N4210P', 'N4210PA', 'N4210PB', 'N4210PC', 'N4210PD', 'N4210W', 'N4210Y', 'N4220', 'N4220E', 'N4220F', 'N4220G', 'N4220L', 'N4230', 'N4230B', 'N4230C', 'N4235', 'N4235D', 'N4235F', 'N4235P', 'N4240', 'N4240LA', 'N4240NA', 'N4240NAG', 'N4240NAL', 'N4240NAM', 'N4240R', 'N4250', 'N4310', 'N4310A', 'N4310AA', 'N4310B', 'N4310BA', 'N4310BD', 'N4310BG', 'N4310C', 'N4310CG', 'N4310CH', 'N4310CHA', 'N4310CHB', 'N4310CHC', 'N4310D', 'N4310DAB', 'N4310E', 'N4310EA', 'N4310F', 'N4320', 'N4320A', 'N4320AB', 'N4320B', 'N4320BA', 'N4320BB', 'N4320BC', 'N4320BCA', 'N4320BF', 'N4320BG', 'N4320BJ', 'N4320BJB', 'N4320C', 'N4320D', 'N4320DA', 'N4320DB', 'N4320DBA', 'N4320E', 'N4320EB', 'N4320ED', 'N4320F', 'N4320FA', 'N4320FB', 'N4320FF', 'N4320G', 'N4320H', 'N4320HA', 'N4320J', 'N4320K', 'N4320KAB', 'N4320L', 'N4320LAA', 'N4320M', 'N4320N', 'N4320PA', 'N4320QA', 'N4320RA', 'N4330', 'N4330AA', 'N4330B', 'N4330C', 'N4330D', 'N4330E', 'N4330F', 'N4410', 'N4410A', 'N4410AA', 'N4410B', 'N4410D', 'N4410E', 'N4410F', 'N4410G', 'N4410J', 'N4410K', 'N4410KA', 'N4410KB', 'N4410L', 'N4410LA', 'N4410LB', 'N4420', 'N4420B', 'N4420C', 'N4420D', 'N4420E', 'N4420F', 'N4420G', 'N4420H', 'N4430', 'N4430A', 'N4430AA', 'N4430AC', 'N4430AD', 'N4430AE', 'N4430B', 'N4430C', 'N4430CA', 'N4430CB', 'N4440', 'N4440A', 'N4440B', 'N4440C', 'N4440D', 'N4440G', 'N4460', 'N4460A', 'N4460B', 'N4460C', 'N4460D', 'N4460E', 'N4460F', 'N4510', 'N4510A', 'N4510AA', 'N4510AB', 'N4510AC', 'N4510AD', 'N4510AE', 'N4510AF', 'N4510AG', 'N4510AGA', 'N4510AH', 'N4510AK', 'N4510E', 'N4510EB', 'N4510EC', 'N4510EE', 'N4510FB', 'N4510G', 'N4510GA', 'N4510GAA', 'N4510GAB', 'N4510GC', 'N4510GD', 'N4520', 'N4520A', 'N4520B', 'N4520BA', 'N4520BAD', 'N4520BB', 'N4520BE', 'N4520BEB', 'N4520BED', 'N4520BEE', 'N4520BEF', 'N4520D', 'N4520E', 'N4520F', 'N4520G', 'N4520GA', 'N4520GB', 'N4520J', 'N4520JA', 'N4520JB', 'N4520JC', 'N4520JD', 'N4520JE', 'N4520K', 'N4520L', 'N4520M', 'N4530', 'N4530A', 'N4530AA', 'N4530AC', 'N4530B', 'N4540', 'N4540A', 'N4540AA', 'N4540AD', 'N4540D', 'N4540DA', 'N4540E', 'N4540G', 'N4610', 'N4610A', 'N4610E', 'N4610L', 'N4610LA', 'N4610LB', 'N4610LC', 'N4610LD', 'N4610N', 'N4610P', 'N4610Q', 'N4610R', 'N4620', 'N4620A', 'N4620AA', 'N4620AB', 'N4620ABA', 'N4620ABB', 'N4620ABC', 'N4630', 'N4630AC', 'N4630AF', 'N4630AG', 'N4630AK', 'N4630AL', 'N4630AP', 'N4630AS', 'N4630BA', 'N4630BC', 'N4630BE', 'N4630BF', 'N4630BG', 'N4630BH', 'N4630BJ', 'N4630BL', 'N4630BM', 'N4710', 'N4710A', 'N4710AA', 'N4710AB', 'N4710AE', 'N4710AF', 'N4710AH', 'N4710AJ', 'N4710AK', 'N4710AL', 'N4710AM', 'N4710AN', 'N4710B', 'N4710C', 'N4710DE', 'N4710E', 'N4720', 'N4720A', 'N4720AA', 'N4720AB', 'N4720AC', 'N4720AD', 'N4720AF', 'N4720AHB', 'N4720AJ', 'N4720B', 'N4720BB', 'N4720BC', 'N4720BK', 'N4720C', 'N4720E', 'N4720EA', 'N4720F', 'N4720H', 'N4720J', 'N4720K', 'N4730', 'N4730A', 'N4730B', 'N4730BB', 'N4730BC', 'N4730C', 'N4730CA', 'N4730CB', 'N4730CD', 'N4730CF', 'N4730F', 'N4730J', 'N4730M', 'N4810', 'N4810A', 'N4810AE', 'N4810AL', 'N4810AN', 'N4810AU', 'N4810AY', 'N4810BE', 'N4810BG', 'N4810D', 'N4810G', 'N4810J', 'N4810L', 'N4820', 'N4820AB', 'N4820AD', 'N4820AE', 'N4820AF', 'N4820AJ', 'N4820AL', 'N4820AP', 'N4820AS', 'N4820AZ', 'N4820BE', 'N4820BN', 'N4820C', 'N4820CC', 'N4820CE', 'N4820CJ', 'N4820CK', 'N4820CN', 'N4820CQ', 'N4820DA', 'N4820DC', 'N4820DE', 'N4820DG', 'N4820DL', 'N4820DN', 'N4820DQ', 'N4910', 'N4910B', 'N4910D', 'N4910E', 'N4910H', 'N4910L', 'N4910M', 'N4910N', 'N4910P', 'N4910RB', 'N4910V', 'N4921', 'N4923', 'N4925', 'N4927', 'N4930', 'N4931', 'N4933', 'N4935', 'N4940', 'N4940B', 'N4940C', 'N4940D', 'N4940E', 'N4940F', 'N4940G', 'N4940J', 'N4940K', 'N4940L', 'N4940M', 'N4940N', 'N4940P', 'N4940R', 'N4940S', 'N4940T', 'N4940W', 'N4970', 'N5110', 'N5110B', 'N5110C', 'N5110D', 'N5110DC', 'N5110DE', 'N5110GC', 'N5110J', 'N5110L', 'N5110P', 'N5110Q', 'N5110R', 'N5120', 'N5120A', 'N5120E', 'N5120EA', 'N5120EB', 'N5120GB', 'N5120H', 'N5120J', 'N5120LH', 'N5120M', 'N5120MG', 'N5120MJ', 'N5120ML', 'N5120MN', 'N5120N', 'N5120NA', 'N5120ND', 'N5120NE', 'N5120NG', 'N5120NJ', 'N5120NL', 'N5120NN', 'N5130', 'N5130A', 'N5130AB', 'N5130BA', 'N5130BB', 'N5130C', 'N5130CA', 'N5130CB', 'N5130CE', 'N5130CG', 'N5130CK', 'N5130CM', 'N5130D', 'N5130DA', 'N5130DB', 'N5130DC', 'N5130DE', 'N5130DG', 'N5130DH', 'N5130DK', 'N5133', 'N5133A', 'N5133B', 'N5136', 'N5136A', 'N5136B', 'N5136C', 'N5140', 'N5140B', 'N5140C', 'N5140CA', 'N5140E', 'N5180', 'N5180A', 'N5180B', 'N5180C', 'N5180D', 'N5210', 'N5210A', 'N5210AB', 'N5210AE', 'N5210B', 'N5210C', 'N5210D', 'N5210E', 'N5210F', 'N5220', 'N5220A', 'N5220B', 'N5220C', 'N5220D', 'N5280', 'N5305', 'N5305B', 'N5306', 'N5306A', 'N5306B', 'N5307', 'N5307A', 'N5310', 'N5310A', 'N5310D', 'N5315', 'N5315A', 'N5315C', 'N5315D', 'N5320', 'N5320A', 'N5325', 'N5325C', 'N5325F', 'N5330', 'N5330A', 'N5330AD', 'N5330AE', 'N5330C', 'N5330CA', 'N5330E', 'N5330EB', 'N5330EE', 'N5331', 'N5335', 'N5335E', 'N5340', 'N5340A', 'N5340B', 'N5340C', 'N5340D', 'N5340E', 'N5340EA', 'N5340F', 'N5340G', 'N5340H', 'N5340K', 'N5340L', 'N5340M', 'N5340N', 'N5340NT', 'N5340PA', 'N5340S', 'N5340X', 'N5342', 'N5345', 'N5345A', 'N5345B', 'N5350', 'N5350A', 'N5350D', 'N5350E', 'N5350F', 'N5355', 'N5355A', 'N5360', 'N5360A', 'N5360B', 'N5365', 'N5365A', 'N5365B', 'N5410', 'N5410A', 'N5410AB', 'N5410AC', 'N5410AD', 'N5410AE', 'N5410AF', 'N5410AG', 'N5410AH', 'N5410AN', 'N5410B', 'N5410BH', 'N5410BP', 'N5410BR', 'N5410BT', 'N5410BU', 'N5410C', 'N5410D', 'N5410F', 'N5410G', 'N5410H', 'N5411', 'N5411A', 'N5419', 'N5420', 'N5420A', 'N5420C', 'N5430', 'N5430A', 'N5430B', 'N5430C', 'N5430D', 'N5430E', 'N5430F', 'N5430H', 'N5440', 'N5440A', 'N5440B', 'N5440BA', 'N5440BC', 'N5440BD', 'N5440C', 'N5440CA', 'N5440CB', 'N5440E', 'N5440F', 'N5440G', 'N5445', 'N5445A', 'N5445B', 'N5445C', 'N5450', 'N5450A', 'N5450B', 'N5450C', 'N5450D', 'N5510', 'N5510A', 'N5510B', 'N5510C', 'N5510D', 'N5510DA', 'N5510DAA', 'N5510DB', 'N5510DBC', 'N5510DC', 'N5510DCA', 'N5510DD', 'N5510DE', 'N5510DF', 'N5510DG', 'N5510DH', 'N5510DJ', 'N5510E', 'N5510F', 'N5510FA', 'N5510FAA', 'N5510FB', 'N5510H', 'N5510K', 'N5510L', 'N5510M', 'N5510N', 'N5510P', 'N5510R', 'N5520', 'N5520A', 'N5520B', 'N5520BB', 'N5520BC', 'N5520BD', 'N5520D', 'N5520E', 'N5530', 'N5530A', 'N5530B', 'N5530C', 'N5530D', 'N5530E', 'N5610', 'N5610A', 'N5610B', 'N5610BA', 'N5610BC', 'N5610C', 'N5610CB', 'N5610CD', 'N5610CE', 'N5610D', 'N5610E', 'N5610F', 'N5610G', 'N5610H', 'N5610J', 'N5610K', 'N5610L', 'N5610LA', 'N5610LC', 'N5610LE', 'N5610LF', 'N5610N', 'N5610R', 'N5610S', 'N5610T', 'N5610U', 'N5610V', 'N5610W', 'N5620', 'N5620A', 'N5620AA', 'N5620B', 'N5620BA', 'N5620BB', 'N5620BC', 'N5620BD', 'N5620BE', 'N5620C', 'N5620D', 'N5620F', 'N5630', 'N5630B', 'N5630BC', 'N5630C', 'N5640', 'N5640A', 'N5640E', 'N5640EB', 'N5640EC', 'N5640ED', 'N5640EF', 'N5640EG', 'N5640EK', 'N5640EM', 'N5640EMC', 'N5640EME', 'N5640EP', 'N5640EQ', 'N5640ER', 'N5640FD', 'N5640FF', 'N5640H', 'N5640J', 'N5640JA', 'N5640JB', 'N5640JC', 'N5640JE', 'N5640K', 'N5640M', 'N5640MB', 'N5640N', 'N5640P', 'N5650', 'N5650A', 'N5650AC', 'N5650AD', 'N5650AF', 'N5650B', 'N5650BC', 'N5650BE', 'N5650C', 'N5650D', 'N5660', 'N5660B', 'N5660BA', 'N5660BC', 'N5660BD', 'N5660BE', 'N5660C', 'N5660CA', 'N5660D', 'N5660E', 'N5660F', 'N5660G', 'N5660GA', 'N5660H', 'N5670', 'N5670A', 'N5670AA', 'N5670AB', 'N5670AC', 'N5670AD', 'N5670AE', 'N5670AF', 'N5670AG', 'N5670AH', 'N5670AJ', 'N5670AJA', 'N5670AK', 'N5670B', 'N5670C', 'N5670E', 'N5670EA', 'N5670EC', 'N5670EE', 'N5670EF', 'N5670F', 'N5670GA', 'N5670H', 'N5670K', 'N5670L', 'N5670N', 'N5670P', 'N5670S', 'N5670V', 'N5675', 'N5680', 'N5680A', 'N5680B', 'N5680C', 'N5680E', 'N5680EB', 'N5680F', 'N5680H', 'N5680J', 'N5680L', 'N5805', 'N5805010', 'N5805017', 'N5805024', 'N5805028', 'N5805029', 'N5805032', 'N5805034', 'N5805036', 'N5805039', 'N5805041', 'N5805042', 'N5805050', 'N5805051', 'N5805060', 'N5805070', 'N5805071', 'N5805074', 'N5805078', 'N5805081', 'N5805083', 'N5805091', 'N5805098', 'N5805100', 'N5805111', 'N5805118', 'N5805119', 'N5805120', 'N5805125', 'N5805126', 'N5805993', 'N5805998', 'N5810', 'N5810310', 'N5810400', 'N5810500', 'N5810520', 'N5811', 'N5811300', 'N5815', 'N5815010', 'N5815023', 'N5815026', 'N5815028', 'N5820', 'N5820010', 'N5820020', 'N5820041', 'N5820043', 'N5820047', 'N5820050', 'N5820052', 'N5820053', 'N5820062', 'N5820063', 'N5820068', 'N5820070', 'N5820072', 'N5820110', 'N5820150', 'N5820160', 'N5820200', 'N5820210', 'N5820230', 'N5820240', 'N5820260', 'N5820330', 'N5820340', 'N5820350', 'N5820380', 'N5820388', 'N5820390', 'N5820420', 'N5820430', 'N5820450', 'N5820460', 'N5820A', 'N5820C', 'N5820CC', 'N5820D', 'N5820DA', 'N5820DAF', 'N5820DAK', 'N5820DB', 'N5820DC', 'N5820DD', 'N5820DF', 'N5821', 'N5821201', 'N5821202', 'N5825', 'N5825010', 'N5825015', 'N5825100', 'N5825110', 'N5825999', 'N5826', 'N5826205', 'N5826207', 'N5826208', 'N5826212', 'N5826999', 'N5830', 'N5830A', 'N5830B', 'N5830C', 'N5830D', 'N5830Y', 'N5831', 'N5831999', 'N5835', 'N5835A', 'N5835AA', 'N5835AB', 'N5835AC', 'N5835H', 'N5835J', 'N5835L', 'N5835Y', 'N5836', 'N5836A', 'N5836AA', 'N5836AB', 'N5836B', 'N5836C', 'N5836D', 'N5836DA', 'N5836DB', 'N5836E', 'N5836HE', 'N5836Y', 'N5840', 'N5840202', 'N5840203', 'N5840205', 'N5840206', 'N5840207', 'N5840208', 'N5840209', 'N5840999', 'N5841201', 'N5841204', 'N5845', 'N5845010', 'N5845201', 'N5845202', 'N5845203', 'N5845204', 'N5845205', 'N5845206', 'N5845207', 'N5845209', 'N5845210', 'N5845211', 'N5845212', 'N5845213', 'N5845214', 'N5845999', 'N5850', 'N5850010', 'N5850020', 'N5855', 'N5855201', 'N5855202', 'N5855999', 'N5860', 'N5865', 'N5895', 'N5895010', 'N5895202', 'N5905', 'N5910', 'N5915', 'N5920', 'N5925', 'N5930', 'N5935', 'N5935100', 'N5935150', 'N5940', 'N5945', 'N5950', 'N5955', 'N5960', 'N5960CG', 'N5961', 'N5962', 'N5963', 'N5965', 'N5970', 'N5975', 'N5977', 'N5980', 'N5985', 'N5985020', 'N5985260', 'N5990', 'N5995', 'N5996', 'N5996A', 'N5998', 'N5999', 'N5999250', 'N5999A', 'N5999B', 'N6010', 'N6015', 'N6020', 'N6021', 'N6030', 'N6032', 'N6035', 'N6040', 'N6060', 'N6070', 'N6080', 'N6099', 'N6100', 'N6105', 'N6105200', 'N6110', 'N6110100', 'N6115', 'N6115312', 'N6115A', 'N6115B', 'N6115BA', 'N6115BB', 'N6115C', 'N6115F', 'N6116', 'N6117', 'N6120', 'N6120100', 'N6125', 'N6130', 'N6135', 'N6135250', 'N6135450', 'N6140', 'N6140650', 'N6145', 'N6150', 'N6160', 'N6210', 'N6210A', 'N6210C', 'N6210CA', 'N6220', 'N6230', 'N6230A', 'N6240', 'N6250', 'N6260', 'N6310', 'N6320', 'N6330', 'N6340', 'N6350', 'N6350010', 'N6350050', 'N6350304', 'N6350A', 'N6350B', 'N6505', 'N6505088', 'N6505552', 'N6505CP', 'N6508', 'N6508B', 'N6508E', 'N6508F', 'N6509', 'N6510', 'N6510E', 'N6510ES', 'N6510ET', 'N6510M', 'N6510MH', 'N6510QC', 'N6515', 'N6515001', 'N6515002', 'N6515004', 'N6515005', 'N6515007', 'N6515BD', 'N6515C', 'N6515CC', 'N6515CEA', 'N6515CF', 'N6515CG', 'N6515CH', 'N6515CLA', 'N6515CN', 'N6515CS', 'N6515CSA', 'N6515CVA', 'N6515CW', 'N6515CZ', 'N6515D', 'N6515HC', 'N6515J', 'N6515K', 'N6515L', 'N6515N', 'N6515NC', 'N6515T', 'N6515V', 'N6515Y', 'N6515ZA', 'N6515ZB', 'N6520', 'N6520A', 'N6520B', 'N6520Q', 'N6520U', 'N6525', 'N6525A', 'N6525AA', 'N6525B', 'N6525E', 'N6525F', 'N6525G', 'N6525H', 'N6525J', 'N6525K', 'N6530', 'N6530001', 'N6530A', 'N6530AB', 'N6530B', 'N6530BA', 'N6530BB', 'N6530C', 'N6530E', 'N6530EA', 'N6530F', 'N6530GAC', 'N6530GBB', 'N6530GC', 'N6530GEC', 'N6530GJ', 'N6530GL', 'N6530LAB', 'N6530LB', 'N6530LBA', 'N6530LBB', 'N6530LBC', 'N6530NB', 'N6530PB', 'N6530PC', 'N6530PCA', 'N6530PD', 'N6530PG', 'N6530PL', 'N6530Q', 'N6530RA', 'N6530SA', 'N6530SB', 'N6530SBA', 'N6530SBB', 'N6530SBG', 'N6530SBH', 'N6530SC', 'N6530SE', 'N6530SH', 'N6530TAB', 'N6530TD', 'N6530WB', 'N6530WC', 'N6530X', 'N6532', 'N6540', 'N6540A', 'N6540C', 'N6545', 'N6545B', 'N6545D', 'N6545EA', 'N6550', 'N6550FR', 'N6550FRJ', 'N6550FS', 'N6550G', 'N6605', 'N6605201', 'N6605993', 'N6605999', 'N6610', 'N6615', 'N6620', 'N6625', 'N6625A', 'N6625AA', 'N6625B', 'N6625BV', 'N6625C', 'N6625E', 'N6625F', 'N6625G', 'N6625H', 'N6625K', 'N6625L', 'N6625M', 'N6625MDA', 'N6625MES', 'N6625N', 'N6625P', 'N6625R', 'N6625RB', 'N6625RC', 'N6625S', 'N6625T', 'N6625U', 'N6625V', 'N6625W', 'N6625WU', 'N6625Y', 'N6625YU', 'N6625Z', 'N6625ZAS', 'N6625ZCA', 'N6630', 'N6630A', 'N6630AA', 'N6630AC', 'N6630AE', 'N6630AF', 'N6630AG', 'N6630AH', 'N6630AJ', 'N6630AL', 'N6630AM', 'N6630AN', 'N6630B', 'N6630BA', 'N6630BB', 'N6630BC', 'N6630BD', 'N6630BF', 'N6630BH', 'N6630C', 'N6630D', 'N6630DA', 'N6630DB', 'N6630DC', 'N6630DE', 'N6630E', 'N6630F', 'N6630G', 'N6630GA', 'N6630H', 'N6630L', 'N6630M', 'N6630N', 'N6630P', 'N6630PA', 'N6630PC', 'N6630PCA', 'N6630PD', 'N6630PF', 'N6630Q', 'N6630R', 'N6630RA', 'N6630RB', 'N6630S', 'N6630T', 'N6635', 'N6635A', 'N6635B', 'N6635C', 'N6635CA', 'N6635CC', 'N6635D', 'N6635DA', 'N6635DC', 'N6635DF', 'N6635E', 'N6635F', 'N6635FA', 'N6635FB', 'N6635FC', 'N6635FE', 'N6635FG', 'N6635FJ', 'N6635FK', 'N6635FL', 'N6635FM', 'N6635H', 'N6635HB', 'N6635HC', 'N6635HD', 'N6635HF', 'N6635HM', 'N6635HN', 'N6635J', 'N6635K', 'N6635KB', 'N6635KC', 'N6635M', 'N6635MA', 'N6635MD', 'N6635MF', 'N6635N', 'N6635P', 'N6635Q', 'N6636', 'N6636A', 'N6636AA', 'N6636AB', 'N6636AC', 'N6636AD', 'N6636B', 'N6636D', 'N6636G', 'N6636H', 'N6636J', 'N6636K', 'N6640', 'N6640200', 'N6640210', 'N6640220', 'N6640300', 'N6640A', 'N6640AA', 'N6640AB', 'N6640AC', 'N6640B', 'N6640BA', 'N6640BB', 'N6640BC', 'N6640BD', 'N6640D', 'N6640E', 'N6640EA', 'N6640EB', 'N6640F', 'N6640G', 'N6640GB', 'N6640GD', 'N6640H', 'N6640J', 'N6640JA', 'N6640JB', 'N6640K', 'N6640M', 'N6640MA', 'N6640MC', 'N6640N', 'N6640NA', 'N6640Q', 'N6640R', 'N6640RA', 'N6640S', 'N6640SA', 'N6640SC', 'N6640T', 'N6640U', 'N6640V', 'N6640W', 'N6640WA', 'N6640X', 'N6640XA', 'N6640XB', 'N6640XC', 'N6640Y', 'N6640Z', 'N6640ZA', 'N6640ZB', 'N6645', 'N6645A', 'N6645AB', 'N6645B', 'N6645BD', 'N6645BJ', 'N6645EB', 'N6645ED', 'N6645EF', 'N6645G', 'N6645GB', 'N6645GC', 'N6645GE', 'N6650', 'N6650A', 'N6650B', 'N6650C', 'N6650D', 'N6650F', 'N6650G', 'N6650H', 'N6650J', 'N6650K', 'N6650KA', 'N6650KB', 'N6650KBA', 'N6650KD', 'N6650KE', 'N6650KF', 'N6650KG</t>
         </is>
@@ -557,7 +565,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,12 +628,15 @@
         <v>686</v>
       </c>
       <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>30202</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>79</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['["AEC"]', '["AO"]', '["AR"]', '["BB"]', '["BF"]', '["BK"]', '["BL","BY","HN","ML"]', '["BL","HP","HS"]', '["BL","HS","ML"]', '["BL","HS"]', '["BL"]', '["BM"]', '["BQ"]', '["BY"]', '["CAG"]', '["CW"]', '["CX"]', '["CY"]', '["CZ"]', '["EDM"]', '["EEM"]', '["EF","EO","QD"]', '["EF"]', '["EJ"]', '["EO"]', '["EW"]', '["FE"]', '["FG"]', '["FK"]', '["GB"]', '["HAL"]', '["HL"]', '["HN"]', '["HP","HS"]', '["HP","ML"]', '["HP"]', '["HS","ML"]', '["HS"]', '["LM"]', '["LP"]', '["MC"]', '["MD"]', '["ML"]', '["NT"]', '["PD"]', '["PH"]', '["PI"]', '["PQ"]', '["PR"]', '["PSD"]', '["PV"]', '["QD","QF"]', '["QD"]', '["QE"]', '["QF"]', '["RH"]', '["SC"]', '["SE"]', '["SQ"]', '["SRI"]', '["SS"]', '["ST"]', '["STN"]', '["SV"]', '["TAP"]', '["VAN"]', '["XF"]', '["XG"]', '["XK"]', '["XN"]', '["XQ"]', '["XSB"]', '["ZF"]', '["ZG"]', '["ZH"]', '["ZL"]', '["ZM"]', '["ZN"]', '["ZQ"]']</t>
         </is>
@@ -638,7 +649,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -701,12 +712,15 @@
         <v>2</v>
       </c>
       <c r="U4" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="V4" t="n">
         <v>190139</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>4947</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['ABSORBENT MATERIAL, OIL AND WATER', 'ACCELEROMETER, ELECTRICAL, LINEAR (EXCEPT FIRE CONTROL AND      GUIDED MISSILE)', 'ACIDS (N.E.S.)', 'ADD ON MEMORIES (INTERNAL/EXTERNAL)', 'ADDITIVES AND CONDITIONERS, FUEL OIL', 'ADHESIVE, GLUE', 'ADP CENTRAL PROCESSING UNIT (CPU, COMPUTER) ANALOG - LEASE', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) ANALOG - RENT', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) DIGITAL - LEASE', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) DIGITAL - RENT', 'ADP CENTRAL PROCESSING UNIT (CPU,COMPUTER) HYBRID - RENT', 'ADP COMPONENTS - LEASE', 'ADP Central Processing Unit (CPU, Computer) Analog', 'ADP Central Processing Unit (CPU, Computer) Analog - Maintenance', 'ADP Central Processing Unit (CPU, Computer) Digital', 'ADP Central Processing Unit (CPU, Computer) Digital - Installation', 'ADP Central Processing Unit (CPU, Computer) Hybrid', 'ADP Central Processing Unit (CPU, Computer) Hybrid - Maintenance', 'ADP Central Processing Unit (CPU,Computer) Digital - Maintenance', 'ADP Components', 'ADP INPUT-OUTPUT AND STORAGE DEVICES - LEASING OF EQUIPMENT', 'ADP INPUT-OUTPUT AND STORAGE DEVICES - RENTAL', 'ADP Input - Output and Storage Devices - Installation', 'ADP Input-Output and Storage Devices', 'ADP Input-Output and Storage Devices - Maintenance', 'ADP Software', 'ADP Software Maintenance - Other than Microcomputer', 'ADP Support Equipment', 'ADPE SYSTEM CONFIGURATION - LEASE', 'ADPE System Configuration - Installation', 'ADVERTISING AND PROMOTIONAL BALLOONS', 'ADVERTISING DISPLAYS', 'AIR CONDITIONING EQUIPMENT - LEASING', 'AIR CONDITIONING EQUIPMENT - RENTAL', 'AIR PURIFICATION EQUIPMENT - RENTAL', 'AIRCRAFT AIR CONDITIONING, HEATING AND PRESSURIZING EQUIPMENT - INSTALLATION', 'AIRCRAFT GROUND SERVICING EQUIPMENT - PRODUCTION DESIGN', 'AIRCRAFT GROUND SERVICING EQUIPMENT - RENTAL', 'AIRCRAFT PROPELLERS - INSTALLATION', 'AIRCRAFT, ROTARY WING - PRODUCTION DESIGN', 'ALARM SYSTEMS, GAS, RADIOACTIVE', 'ALARM SYSTEMS, HAZARD DETECTING', 'ALCOHOL', 'ALIDADES AND ACCESSORIES', 'ALTIMETERS, SURVEYING', 'ALUMINUM', 'ALUMINUM ANGLES, CHANNELS AND SECTIONS', 'ALUMINUM FOIL, COMMERCIAL PACKAGING', 'ALUMINUM OXIDE', 'ALUMINUM PIGMENT FOR PAINT, POWDER', 'ALUMINUM SHEET', 'ALUMINUM SULFIDE, POWDER AND LIQUID AWWA B403', 'ALUMINUM, BARS AND RODS', 'AMBULATORY AIDS', 'AMMONIUM NITRATE (TECHNICAL)', 'AMMONIUM SULFATE', 'AMMUNITION BOXES, PACKAGES AND SPECIAL CONTAINERS', 'AMMUNITION, OVER 125MM - PRODUCTION DESIGN', 'AMPLIFIERS AND PREAMPLIFIERS, TEST', 'AMPLIFIERS, TEST', 'ANALYSERS, COLOUR PRINTING PHOTOGRAPHIC', 'ANALYZERS', 'ANALYZERS LIQUID SAMPLE', 'ANALYZERS, AMINO ACID', 'ANALYZERS, BLOOD GAS, ELECTROLYTES (PCO,PH,PO,NA,K,CA)', 'ANALYZERS, CHEMICAL, AUTOMATIC (INCLUDES CLINICAL)', 'ANALYZERS, COAGULATION, AUTOMATIC', 'ANALYZERS, ELECTRON PROBE (MICROPROBE)', 'ANALYZERS, ELECTRONIC TEST EQUIPMENT (SEE ALSO TEST SETS,       ELECTRONIC TEST EQUIPMENT)', 'ANALYZERS, ELEMENTAL (C, H, N, TOC)', 'ANALYZERS, FISH FRESHNESS', 'ANALYZERS, FLOW CYTOMETERS', 'ANALYZERS, GAS (INCLUDES NOX, CO, CO2, SO2, O2) EXCLUDES HAZARD TYPE', 'ANALYZERS, MEAT, FAT CONTENT', 'ANALYZERS, PARTICLE SIZE', 'ANALYZERS, POLAROGRAPHY', 'ANALYZERS, SPECTRUM', 'ANALYZERS, SURFACE ORIENTATED (AUGER, PHOTOELECTRON SPECTROMETERS, MOLECULAR BEAM EPITAXY, CHEMICAL VAPOR DEPOSITION)', 'ANALYZING KIT, CHEMICAL AGENT (CW)', 'ANEMOMETER, METEOROLOGICAL TYPE', 'ANIMALS, LIVE, LABORATORY', 'ANTENNAS, WAVEGUIDES AND RELATED EQUIPMENT - LEASING', 'ANTENNAS, WAVEGUIDES AND RELATED EQUIPMENT - RENTAL', 'ANTIFREEZE, AUTOMOTIVE ENGINE', 'ANTIFREEZE, WINDSHIELD WASHER, DILUTE', 'ARMAMENT TRAINING DEVICES, ELECTRONIC, ACCESSORIES AND SPARES', 'ARMAMENT TRAINING DEVICES, ELECTRONIC, GUNNERY TARGETS', 'ATTENUATORS, TEST', 'AUTOMATIC DATA PROCESSING EQUIPMENT, SYSTEM CONFIGURATION-RENTAL', 'AUTOMATIC DATA PROCESSING SUPPLIES - LEASE', 'Abrasive Cloth Assortments', 'Abrasive Materials', 'Abrasive, Grain', 'Absorbents - Chemicals', 'Absorbers, Shock, for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'Access Hatches, Building, Custom', 'Accessories for Concrete Forms and Scaffolding', 'Accessories for Secondary Metal Working Machinery', 'Accessories, CCTV', 'Accommodation and Food Services, N.E.S.', 'Accommodation and/or Food Support Services', 'Accounting and Calculating Machines', 'Accounting and Financial Management Studies', 'Acoustic Data Processing System', 'Acoustical Analysis/Technology (R&amp;D)', 'Actuarial Services', 'Actuator, Electric, Pneumatic, Hydraulic, Manual', 'Additive Metal Materials', 'Addressing, Distribution and Mailing Lists Management', 'Adhesives', 'Adjudication Services', 'Administrative Management and Planning Services', 'Administrative Services', 'Advertising', 'Advertising Creative Services', 'Advertising Media Buying/Placement', 'Advertising Related Services', 'Advisory Support Services / Natural resources efficiency', 'Aerator Mechanical', 'Aerial Application and Distribution Services', 'Aerial Control Services', 'Aerial Inspection and Reconnaissance Services', 'Aerial Photographic Services', 'Aerial Photography Other Than Survey and Mapping', 'Aeromagnetic Survey F.W. for Mapping', 'Aeromagnetic Survey Services: R.W. for Mapping', 'Aeronautical Maps, Charts and Geodetic Products', 'Aerosols, Paint Lacquer, etc', 'Aggregate, Construction, Fire Clay, Crushed', 'Agricultural Cleaning Services', 'Agricultural Services, Not Elsewhere Specified', 'Agriculture (R&amp;D)', 'Air', 'Air Ambulance Services', 'Air Cleaner Elements, Intake', 'Air Cleaners', 'Air Cleaners, Electronic', 'Air Conditioning Contractor Services', 'Air Conditioning Equipment', 'Air Conditioning Equipment (Domestic Only)', 'Air Conditioning Equipment (Industrial) N.E.S.', 'Air Conditioning Equipment - Repair and Overhaul', 'Air Conditioning Equipment Components (Industrial)', 'Air Conditioning Equipment, Industrial', 'Air Conditioning Equipment, Industrial - Repair', 'Air Conditioning Equipment, Refrigeration (Industrial)', 'Air Conditioning Heater Units (Industrial)', 'Air Conditioning Room and Window Units (Domestic Only)', 'Air Conditioning System-Spray Cooled (Industrial)', 'Air Conditioning Units (Industrial)', 'Air Conditioning Units, Computer Room', 'Air Conditioning Units, Computer Room, Upward Flow', 'Air Conditioning and Heating Combination Components (Domestic)', 'Air Distribution Systems - Installation and Repair', 'Air Handling Units (Industrial)', 'Air Purification Equipment', 'Air Purification Equipment - Repair', 'Air Purification Equipment, N.E.S.', 'Air Quality (Research)', 'Air Quality Analyses', 'Air Quality Support Services', 'Air Taxi', 'Air Transportation', 'Air Transportation - Business Travel', 'Air Washing Units (Industrial)', 'Air-to-Air Gunnery Towing and Scoring Services', 'Airblower, Tractor/Loader Attachment', 'Airborne Auxillary and Ground Gas Turbine Units for Aircraft Engines Starting - Repair and Overhaul', 'Airborne Combat Support Training - Fighter and Trainer Aircraft only', 'Airborne Geophysical Surveys Specialty Commercial Air Services', 'Aircraft (Military) Miscellaneous Communications Equipment - Installation', 'Aircraft (Military) Miscellaneous Communications Equipment - Repair and Overhaul', 'Aircraft (Military) Navigational Instruments - Repair and Overhaul', 'Aircraft (Military) Radar Equipment - Repair and Overhaul', 'Aircraft (Military) Radio and Television Communications Equipment - Repair and Overhaul', 'Aircraft (Military) Telephone and Telegraph Equipment - Installation', 'Aircraft Air Conditioning, Heating and Pressurizing Equipment', 'Aircraft Air Conditioning, Heating and Pressurizing Equipment (Military) - Repair and Overhaul', 'Aircraft Alarm and Signal Systems', 'Aircraft Alarm and Signal Systems (Civilian) - Repair', 'Aircraft Bombing Fire Control Components', 'Aircraft Control Cable Products', 'Aircraft Ground Servicing Equipment', 'Aircraft Ground Servicing Equipment - Repair', 'Aircraft Gunnery Fire Control Components', 'Aircraft Gunnery Fire Control Components - Production Design', 'Aircraft Hydraulic, Vacuum and De-Icing System Components', 'Aircraft Hydraulic, Vacuum and De-icing System Components (Military) - Repair and Overhaul', 'Aircraft Landing Equipment - Repair', 'Aircraft Landing Gear Components', 'Aircraft Landing Gear Components (Military) - Repair and Overhaul', 'Aircraft Launching Equipment', 'Aircraft Launching Equipment - Repair', 'Aircraft Propellers and Components', 'Aircraft Propellers and Components (Military) - Repair and Overhaul', 'Aircraft Tools, Special', 'Aircraft Wheel and Brake Systems', 'Aircraft Wheel and Brake Systems (Civilian) - Repair', 'Aircraft and Glider Dry Leases', 'Aircraft, Fixed Wing', 'Aircraft, Fixed Wing - (Military) Repair and Overhaul', 'Aircraft, Fixed Wing - Repair and Overhaul (Civilian)', 'Aircraft, Fixed Wing - Repair and Overhaul (Military)', 'Aircraft, Rotary Wing', 'Aircraft, Rotary Wing (Military) - Repair and Overhaul', 'Aircraft, Rotary Wing - Repair', 'Airfield Specialized Trucks and Trailers', 'Airfield Specialized Trucks and Trailers - Repair', 'Airframe Structural Components', 'Airframe Structural Components (Miliatry) - Repair and Overhaul', 'Airplanes, Civil Certified', 'Alarm and Signal Systems, Miscellaneous - Installation and Services', 'Alarm and Signal Systems, Miscellaneous - Repair, Overhaul and Maintenance', 'Alarm and Signal Systems, Repair and Overhaul', 'Alarm, Automatic Sprinkler', 'Alarm, Signal, and Security Detection Systems , Miscellaneous', 'Alignment Tools, Electronic Equipment', 'Alignments, Wheel Balancing', 'All Terrain Vehicles (R&amp;D)', 'Alternate Format Printing (includes Braille, Large Print and Tactile Graphics)', 'Alternative Dispute Resolution Services', 'Alternative Work Environment Studies', 'Altimeter Radar Equipment (Airborne)', 'Ambulances, Repair and Overhaul', 'Ammunition Maintenance, Repair and Checkout Specialized Equipment', 'Ammunition and Nuclear Ordnance Boxes, Packages and Special Containers', 'Ammunition, 75mm through 125mm', 'Ammunition, Through 30MM - Repair', 'Ammunition, over 125mm', 'Ammunition, over 30mm up To 75mm', 'Ammunition, through 30mm', 'Amplifiers', 'Amplifiers, Radio Frequency', 'Analytical Chemistry', 'Anchors (Sea)', 'Animal Control Services - Trap and Remove Animals From Populated Areas', 'Animal Drawn Vehicles and Farm Trailers', 'Animal and Fisheries Studies', 'Antenna Technology (R&amp;D)', 'Antenna, Systems - LF', 'Antennas, Waveguides and Related Equipment', 'Antennas, Waveguides and Related Equipment - Installation', 'Antennas, Waveguides and Related Equipment - Repair and Overhaul', 'Anti-Pollution Chlorination Systems, Marine', 'Anti-Pollution Oil Booms', 'Aquaculture (R&amp;D)', 'Arbitration Services', 'Archaeological Site Investigations', 'Archaeological/Paleontological Services', 'Architect and Engineering Services - Buildings', 'Architect/Engineer Services - Administration &amp; Service Buildings', 'Architect/Engineer Services - Airfield, Communication and Missile Facilities', 'Architect/Engineer Services - Educational Buildings', 'Architect/Engineer Services - Hospital Buildings', 'Architect/Engineer Services - Industrial Buildings', 'Architect/Engineer Services - Residential Buildings', 'Architect/Engineer Services - Warehouse Buildings', 'Architect/Engineer Services Research and Development Facilities', 'Architectual &amp; Engineering CADD Services', 'Architectual Services - Buildings', 'Architectural &amp; Engineering  Services - Other Non-Building Structures', 'Architectural &amp; Engineering Inspection Services', 'Architectural &amp; Engineering Services - Highways, Roads, Railways,Bridges and Dams', 'Architectural &amp; Engineering Services - Power Generation and Utilities', 'Architectural &amp; Engineering Services - Restoration/Conservation Heritage Building Structures', 'Architectural &amp; Engineering Services - Restoration/Conservation Heritage Non-Building Structures', 'Architectural Services: Statement of Requirements or Building Programming', 'Architectural and Related Metal Products - Repair', 'Archival Services: Preparation Cataloguing and Preservation', 'Armament Training Devices - Repair', 'Armament Training Devices, Refer to Parent Weapon System', 'Armor, Personal', 'Armoured Car Service', 'Asbestos', 'Asbestos Removal Services', 'Asphalt and Joint Sealing Services', 'Asphalt, Liquid Petroleum, Primer and Cement for Road Purpose', 'Asphalt, Petroleum, Roofing', 'Assemblies Interchangeable Between Weapons in Two or More Classes', 'Asset Management  Plans (AMP)', 'Astronautics (R&amp;D)', 'Athletic and Sporting Equipment', 'Atmospheric Pollutants (Research)', 'Auctioneering Services', 'Audio Players and Recorders - analog and digital', 'Audio Recording Media', 'Audio Recordings/Talking Books', 'Audio Tape Transcripts/Summary Services - Not Media Related', 'Audio Visual Production Services', 'Audio Visual Services - Interactive/Multimedia including implementation for website use', 'Audio and Video Technical Services', 'Audio/Visual Freelance and Project Management Services', 'Audio/Visual Language Adaptation/Versioning Services', 'Audit Services, Not Elsewhere Specified', 'Auger Machines, Pipe and Sewer, Power Operated', 'Automated Fishing Gear', 'Automated News Services', 'Automatic Data Processing Equipment, System Configuration', 'Automatic Data Processing Equipment, System Configuration - Repair', 'Automatic Pilot Mechanisms and Airborne Gyro Components', 'Automotive Washing Services', 'Aviation Fuel', 'Awnings', 'Axial Fans (Industrial)', 'Axle Assembly, for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'BACS - Building Automation Control Systems', 'BADGE, IDENTIFICATION, LAMINATED PLASTIC, WITH ENGRAVED  LETTERING', 'BAG, AIRSICKNESS', 'BAG, FOOD PRODUCTS', 'BAG, PAPER, MULTIWALL', 'BAG, PLASTIC', 'BAG, SAND', 'BAG, TEXTILE', 'BAG, URINE', 'BAGS AND CASES, PHOTOGRAPHIC', 'BALANCE, ANALYTICAL', 'BALANCE, ANALYTICAL, ELECTRONIC, MICRO TO ULTRA-MICRO', 'BALANCE, ANALYTICAL, SPECIFIC GRAVITY', 'BALANCING MACHINE, DYNAMIC-STATIC, HORIZONTAL', 'BALLOON, METEOROLOGICAL', 'BANDAGES AND DRESSINGS', 'BAR, NICKEL, MONEL, INCONEL AND INCOLOY', 'BAROMETER, METEOROGICAL, ALL TYPES', 'BAROMETERS, ANEROID AND MERCURIAL (EXCEPT METEOROLOGICAL)', 'BARRIER MATERIAL', 'BASIN, EMESIS, STAINLESS STEEL', 'BATH WHIRLPOOL', 'BCG Vaccine (Freeze-Dried)', 'BED, HOSPITAL', 'BED, HOSPITAL, STEEL, ELECTRICALLY OPERATED', 'BEDPAN, STEELWARE', 'BELTING, DRIVE BELTS, FAN BELTS AND ACCESSORIES - RENTAL', 'BINOCULARS (OTHER THAN FIRE CONTROL OPTICAL SIGHTING AND        RANGING EQUIPMENT)', 'BLACKBOARD', 'BLIND, WINDOW', 'BOILERS, PORTABLE, RENTAL', 'BOILING POINT DETERMINATION APPARATUS', 'BOOKCASES, OFFICE TYPE', 'BOOKS (PRINTING PRODUCTS PUBLICATIONS)', 'BOOKS AND PAMPHLETS (EXCEPT PRINTING PRODUCTS PUBLICATIONS)', 'BOOKS, TEXT (ENGLISH) (EXCEPT PRINTING PRODUCTS PUBLICATIONS)', 'BOOTHS, AUDIOMETRIC EXAMINATION', 'BOREHOLE EQUIPMENT SYSTEMS', 'BORESCOPE', 'BOTTLE/VIAL, GLASS (PRESCRIPTION DISPENSING)', 'BOX, PLASTIC', 'BOX, SHIPPING', 'BOX, SHIPPING, WOOD', 'BOXES PAPERBOARD', 'BRASS INSTRUMENTS (HORNS, BUGLES, TRUMPETS, ETC)', 'BRICKS, INSULATING AND REFRACTORY', 'BROOMS, BRUSHES, MOPS AND SPONGES - LEASING', 'BROOMS, BRUSHES, MOPS AND SPONGES - RENTAL', 'BRUSH, CLEANING, TOOLS AND PARTS, NYLON BRISTLES', 'BRUSH, PAINT', 'BUILDING, PREFABRICATED, PORTABLE OR RELOCATABLE, SCHOOLS AND   CLASSROOMS - RENTAL', 'BULB, SPHYGMOMANOMETER', 'BURNER, GAS, LABORATORY', 'Badges and Insignia', 'Bag, Tool, Satchel', 'Bags and Liners, Plastic, Degradable', 'Bags and Sacks', 'Bakery Products', 'Bakery and Cereal Products (replaced by gsin N8920Z)', 'Bakery, Specialties, Not Elsewhere Specified', 'Balancers, Automotive', 'Ballasts, Lampholders, and Starters', 'Ballasts, Lampholders, and Starters - Repair', 'Banking and Trust Company Services', 'Barbed Wire', 'Barber and Beauty Shop Services', 'Barges - Special Purpose', 'Barges and Lighters, Cargo', 'Barges and Lighters, Cargo - Repair', 'Barges and Lighters, Special Purpose', 'Bars and Rods', 'Bars and Rods, Nonferrous Base Metal', 'Basin, Lavatory', 'Bathtubs', 'Batteries, Dry, Alkaline', 'Batteries, Dry, Lithium', 'Batteries, Forklift Truck', 'Batteries, Primary', 'Batteries, Primary - Repair', 'Batteries, Rechargeable', 'Batteries, Rechargeable - Repair', 'Beacon, Secondary Surveillance Radar (SSR) Radar Equipment, Except Airborne', 'Beacons, Radio Navigation Equipment (Except Airborne)', 'Bead Breakers, Tire', 'Bearing Assembly, Shaft and Thrust, Ships Propulsion', 'Bearings, Antifriction, Unmounted', 'Bearings, Antifriction, Unmounted - Repair', 'Bearings, Ball, Annular, Thrust Bearing, Roller Bearing and Multiapplication (Except Aircraft)', 'Bearings, Cups and Cones', 'Bearings, Mounted', 'Bearings, Mounted - Repair', 'Bearings, Mounted, All Types', 'Bearings, Plain, Unmounted', 'Bearings, Roller, Cylindrical , FED. SPEC. FF-B-185, DND QPL', 'Bearings, Roller, Tapered, FED. SPEC. FF-B-187A, DND QPL', 'Bells, Buoy, Navigation Marker, Marine', 'Bells, Ship (Non Electric)', 'Belting, Drive Belts and Accessories', 'Belting, Drive Belts, Fan Belts and Accessories - Repair', 'Bending and Forming Machines', 'Bending and Forming Machines - Repair', 'Beret', 'Berthing Docks - Floating', 'Beverage Base Assortments (nonalcoholic)', 'Beverage Concentrate with Rental Dispensers', 'Beverages, Alcoholic', 'Beverages, Alcoholic (replaced by gsin N8965ZA)', 'Beverages, Non Alcoholic, Juice Crystals (replaced by gsin N8920ZC)', 'Beverages, Non-Alcoholic (replaced by gsin N8960Z)', 'Binders, Printed', 'Binoculars and Cases, Fire Control, Except Marine and Non-Specific Components', 'Binoculars and Cases, Fire Control, Marine and Non-Specific Components', 'Biochemistry (R&amp;D)', 'Biodiesel Fuels', 'Biological Defence Technology (R&amp;D)', 'Biology (R&amp;D)', 'Bird Control Devices', 'Bits, Auger', 'Blades, Dozer, Earth Moving', 'Blades, Hand, Hacksaw, CGSB 46-GP-1', 'Blades, Snowplow', 'Blades, Snowplow - Repair', 'Blades, Vehicle Mounting', 'Blast Cleaning Cabinets', 'Blast Cleaning Machines', 'Bleachers, Seating', 'Block, Tackle, Rigging and Slings - Repair', 'Blocks, Tackle, Rigging and Slings', 'Blood Alcohol Level Measuring Instruments, Breath Sampling Type', 'Blood Alcohol Level Measuring Instruments, Breath Sampling Type; Accessories and Spare Parts Only', 'Blowers, Electrical, Portable', 'Blowers, Sewage Aeration', 'Blue Printing and Engineering Drawing Reproduction', 'Boats (Small) and Canoes - Repair and Overhaul', 'Boats - Inflatable - Rigid Hull', 'Boats, Small - Fibreglass - Repair and Overhaul', 'Boats, Small, Aluminum', 'Body Scanning Measuring and Sizing System', 'Boiler Components', 'Boiler Components, Industrial', 'Boiler Components, Marine', 'Boiler Technology (R&amp;D)', 'Boiler, Chemical Water Treatment &amp; Related Services', 'Boiler-Tubes, Studded, Marine', 'Boilers (Over 15 Pounds WSP/Over 100 Gallons Recovery Capacity)', 'Boilers - Installation and Repair', 'Boilers, Commercial', 'Boilers, Marine', 'Boilers, Marine - Repair and Overhaul', 'Boilers, Repair and Cleaning Services', 'Bolts', 'Bolts, Aircraft', 'Bolts, All Types and Materials (Except Aircraft)', 'Bombs', 'Book-Binding Services', 'Bookcases, Shipboard Type Including Racks', 'Books and Pamphlets', 'Boom Fittings, Sailboat', 'Booms', 'Booms, Cargo', 'Booms, Floating', 'Booms, Yards, Masts, Aluminum', 'Booms, Yards, Masts, Wooden', 'Booth, Sound Proof', 'Booths, Spraying', 'Boots, Combat', 'Boots, Safety', 'Boring Machines', 'Bottles and Jars', 'Bowls, Toilet', 'Boxes, Cartons and Crates', 'Boxes, Cartons and Crates - Repair', 'Brackets', 'Brake Service Equipment', 'Brake Shoes, Drums and Miscellaneous Brake Components (N.E.S.) for Tracked and Wheeled Vehicles, Except Ground Effect and Armoured Fighting Vehicles', 'Bread and Rolls', 'Bread and Rolls (replaced by gsin N8920ZJ)', 'Bricks and Blocks, Concrete', 'Bricks, Clay (Nonrefractory)', 'Bridge Bearings and Bearing Pads', 'Bridges, Elevated Highways, Tunnels, Subways and Railroads', 'Bridges, Fixed and Floating', 'Broaching Machines', 'Broaching Machines - Repair', 'Brokerage Services - Disposal of Aircraft and/or Parts', 'Brooms, Brushes, Mops and Sponges', 'Brooms, Brushes, Mops and Sponges - Repair', 'Brush, Sweeper, Road and Runway', 'Brushcutter, Edger, Renovator, Sweeper and Tiller', 'Budget Control Systems', 'Building Components, Prefabricated', 'Building Computer Cabling Installation', 'Building Electrical Controls - Installation and Repair', 'Building Electronic Controls - Installation and Repair', 'Building Environmental Control Systems Servicing', 'Building Exterior Cleaning', 'Building Fire Protection Systems', 'Building Gas System (Medical/Industrial) Contractors', 'Building Insulation Contractor Services', 'Building Intercommunication System - Installation and Repair', 'Building Intrusion Detection System - Installation and Repair', 'Building Lighting - Installation and Repair', 'Building Public Address Systems - Installation and Repair', 'Building Services - Handyman Services', 'Building Sheet Metal Services', 'Building Waterproofing Services', 'Building, Prefabricated, Kiosk, Unarmoured', 'Building/Installation Special Trade Services, Not Elsewhere Specified', 'Buildings, Prefabricated (Bullet Proof)', 'Buildings, Prefabricated (Special Purpose)', 'Buildings, Prefabricated (Types)', 'Buildings, Prefabricated and Portable (Customengineered)', 'Buildings, Prefabricated, Fibreglass', 'Buildings, Prefabricated, Garage', 'Buildings, Prefabricated, Greenhouse', 'Buildings, Prefabricated, Inflatable or Air-Supported', 'Buildings, Prefabricated, Metal', 'Buildings, Prefabricated, Modular or Sectional', 'Buildings, Prefabricated, Molded Concrete', 'Buildings, Prefabricated, Panelized (Open or Closed Panels)', 'Buildings, Prefabricated, Portable or Relocatable', 'Buildings, Prefabricated, Portable or Relocatable, Industrial Self-Contained Camp', 'Buildings, Prefabricated, Portable or Relocatable, Laboratory', 'Buildings, Prefabricated, Storage', 'Buildings, Prefabricated, Wood', 'Bulk Explosives', 'Buoys', 'Buoys - Repair', 'Buoys, All Types Except Plastic', 'Buoys, Data Acquisition', 'Buoys, Plastic', 'Burners Oil - Repair and Overhaul', 'Burners, Gas, Commercial', 'Burners, Oil', 'Burners, Oil, Commercial', 'Bus Passenger Service', 'Bus Services', 'Bus, Shuttle Services', 'Buses', 'Buses School, Conventional Type, 25 Passenger and Up', 'Buses, Highway Type', 'Buses, Repairs and Service', 'Buses, School - Special Type, 5 to 24 Passengers', 'Bushings, Rings, Shims and Spacers', 'Business Services', 'Business Services / Modelling and Analysis', 'Business Training', 'CABINETS, DESICCATING (EXCLUDES DESICCATORS)', 'CABINETS, HOSPITAL', 'CABINETS, LABORATORY', 'CABINETS, LABORATORY STORAGE (INCLUDES WOOD, METAL, PLASTIC)', 'CABINETS, LABORATORY, DESICCATING, VACUUM (EXCLUDES DESICCATORS)', 'CABINETS, LOCKERS, BINS AND SHELVING - RENTAL', 'CABINETS, SECURITY, BULK STORAGE, SPEC SSC/SES 110,DSS QPL', 'CABINETS, SECURITY, FLAMMABLE AND COMBUSTIBLE LIQUIDS', 'CABINETS, STORAGE', 'CABINETS, STORAGE, PHOTOGRAPHIC', 'CABINETS, STORAGE, PHOTOGRAPHIC, MOTION PICTURE, REELS AND CANS', 'CABINETS, STORAGE, TAPES, CASSETTES AND FILMSTRIPS', 'CABLE, CORD, AND WIRE ASSEMBLIES, COMMUNICATION EQUIPMENT -     RENTAL', 'CADD Drafting and Technical Services - Building Systems', 'CALCIUM', 'CALCIUM CHLORIDE, CAN/CGSB-15.1-92', 'CALCIUM HYDROXIDE, HYDRATED LIME', 'CALCIUM HYPOCHLORITE, CAN/CGSB-15.32-92', 'CALIBRATION AND TEST SPECIMENS', 'CALIBRATORS, ELECTRONIC TEST EQUIPMENT', 'CALORIMETERS', 'CALORIMETERS AND THERMAL ANALYSERS', 'CAMERAS AND ACCESSORIES, STILL PICTURE, AIRCRAFT', 'CAMERAS, MOTION PICTURE - HIGH SPEED AND LOW SPEED (EVENT       ANALYSIS AND INSTRUMENTATION)', 'CAMERAS, MOTION PICTURE - LEASING', 'CAMERAS, MOTION PICTURE - RENTAL', 'CAMERAS, MOTION PICTURE - ULTRA MINIATURE, 8MM, SUPER 8MM,      CASSETTE - AMATEUR', 'CAMERAS, MOTION PICTURE, AIRCRAFT CAMERAS AND ACCESSORIES', 'CAMERAS, STILL PICTURE (AMATEUR - 110 - 126 DISC)', 'CAMERAS, STILL PICTURE - RENTAL', 'CAMERAS, STILL PICTURE, 35MM (PROFESSIONAL) EXCEPT UNDERWATER', 'CAMERAS, STILL PICTURE, HORIZONTAL AND VERTICAL (PHOTOGRAPHIC OR GRAPHIC ARTS)', 'CAMERAS, STILL PICTURE, IDENTIFICATION', 'CAMERAS, STILL PICTURE, MICROFILM', 'CAMERAS, STILL PICTURE, UNDERWATER', 'CAMPING EQUIPMENT', 'CAMPING EQUIPMENT - RENTAL', 'CARBON DIOXIDE, TECHNICAL (DRY ICE)', 'CARPET', 'CART, HOSPITAL', 'CASE, SHIPPING WITH MOULDED FOAM INSERTS', 'CD-Rom Services', 'CEILOMETER', 'CENTRIFUGE ACCESSORIES (INCLUDES ROTORS, SHIELDS, TUBES)', 'CENTRIFUGE, LABORATORY', 'CENTRIFUGE, LABORATORY, GENERAL PURPOSE', 'CENTRIFUGE, REFRIGERATED', 'CENTRIFUGE, ULTRA HIGH SPEED', 'CHAIR (HOUSEHOLD)', 'CHAIR (OFFICE)', 'CHAIR EVACUATION', 'CHAIR, CAFETERIA', 'CHAIR, FOLDING, METAL (HOUSEHOLD)', 'CHAIR, HOSPITAL', 'CHAIR, HOSPITAL, CONVALESCENT TYPE', 'CHAIR, HOSPITAL, GERIATRIC TYPE', 'CHAIR, ROTARY, DEDICATED TASK (EXCEPT SPEC.)', 'CHAIR, ROTARY, MULTI-TASK (EXCEPT SPEC.)', 'CHAIR, ROTARY, OFFICE TYPE (EXCEPT STANDARD)', 'CHAIR, ROTARY, OFFICE TYPE, EXECUTIVE HIGH BACK', 'CHAIR, STACKING, ARMLESS, MOULDED PLASTIC AND FIBREGLASS, DSS   QPL', 'CHAIR, STRAIGHT', 'CHAIR, STRAIGHT SIDE, WITH ARMS, METAL FRAME', 'CHAIR, STRAIGHT, STACKING TYPE', 'CHAIR, STUDENT, WITH TABLE ARM', 'CHAMBER, ACOUSTIC NOISE, ENVIRONMENTAL TYPE', 'CHAMBERS, VACUUM', 'CHEMICAL ANALYSIS INSTRUMENTS - RENTAL', 'CHEMICAL AND PHARMACEUTICAL PRODUCTS MANUFACTURING MACHINERY -  LEASING', 'CHEMICALS (N.E.S.)', 'CHEMICALS AND REAGENTS FOR WATER TREATMENT, BOILER FEED ONLY', 'CHEMICALS, AGRICULTURAL', 'CHEMICALS, INDUSTRIAL', 'CHEMICALS, LABORATORY', 'CHEMICALS, MISCELLANEOUS', 'CHEMICALS, PHOTOGRAPHIC, ALL TYPES                              (INCLUDES CHEMICAL REJUVENATION)', 'CHEMICALS, RESEARCH', 'CHEMICALS, SWIMMING POOL', 'CHEMICALS, X-RAY FILM', 'CHLORINE', 'CHLORINE, LIQUID', 'CHROMATOGRAPH', 'CHROMATOGRAPH, ACCESSORIES (COLUMNS, DETECTORS, PUMPS)', 'CHROMATOGRAPH, GAS', 'CHROMATOGRAPH, GAS - RENTAL', 'CHROMATOGRAPH, GAS, MASS SPECTROMETER', 'CHROMATOGRAPH, GAS, MASS SPECTROMETER, DATA SYSTEM (GC, MS/DS)', 'CHROMATOGRAPH, ION', 'CHROMATOGRAPH, LIQUID (HPLC)', 'CHRONOMETERS', 'CHRONOMETERS, STOP WATCH TYPE', 'CLAY AND CONCRETE PRODUCTS INDUSTRIES MACHINERY - RENTAL', 'CLEANER-DEGREASER, CONCENTRATED LIQUID , 5 IMP GAL.CONTAINER OR METRIC EQUIVALENT', 'CLEANING AND POLISHING COMPOUND', 'CLEANING COMPOUND, AIRCRAFT SURFACE', 'CLEANING COMPOUND, FUEL TANK AND BILGE', 'CLEANING COMPOUND, SOLVENT', 'CLEANING COMPOUND, SOLVENT GAMLEN 26', 'CLEANING SOLVENT, GREASE REMOVING, EMULSION CAN/CGSB-31.202', 'CLEANING SOLVENT, HYDROCARBON TYPE, CAN 3.8', 'CLIMBING EQUIPMENT SET', 'CLOCKS', 'CLOCKS, DIGITAL', 'CLOCKS, TIME CONTROL SYSTEM', 'CLOTH, BROADCLOTH', 'CLOTH, COATED, POLY VINYL CHLORIDE ONLY', 'CLOTH, COTTON', 'CLOTH, DUCK COTTON POLYESTER, SPUN CORE', 'CLOTH, UPHOLSTERY', 'COATING COMPOUND', 'COATING SYSTEM, BRIDGING, STRIPPABLE, SPRAYABLE', 'COATING SYSTEM, POLYURETHANE FOR AEROSPACE APPLICATION', 'COATINGS, FIRE RETARDANT', 'COATINGS, INORGANIC ZINC', 'COATINGS, INTERNAL, FOR FRESH WATER STORAGE TANK', 'COATINGS, POLYURETHANE', 'COATINGS, PROTECTIVE', 'COFFEE MAKERS, URN (COMMERCIAL)', 'COLORIMETER (ALL TYPES)', 'COMBAT, ASSAULT, AND TACTICAL VEHICLES, TRACKED - PRODUCTION    DESIGN', 'COMBAT, ASSAULT, AND TACTICAL VEHICLES, TRACKED - RENTAL', 'COMBINATION AND MISCELLANEOUS INSTRUMENTS - LEASING', 'COMBINATION AND MISCELLANEOUS INSTRUMENTS - RENTAL', 'COMBINATION LEVEL SENSOR, INVENTORY MANAGEMENT AND LEAK DETECTOR, FOR UNDERGROUND FUEL STORAGE TANKS', 'COMMERCIAL AND INDUSTRIAL GAS CYLINDERS - LEASING', 'COMMERCIAL AND INDUSTRIAL GAS CYLINDERS - RENTAL', 'COMMERCIAL FISHING EQUIPMENT - PRODUCTION DESIGN', 'COMMERCIAL FISHING EQUIPMENT - RENTAL', 'COMMUNICATIONS SECURITY EQUIPMENT AND COMPONENTS - LEASING', 'COMMUNICATIONS SECURITY EQUIPMENT AND COMPONENTS - RENTAL', 'COMPARATORS, OPTICAL PROJECTION', 'COMPARATORS, TEST', 'COMPASS, MAGNETIC, UNMOUNTED, WRIST TYPE', 'COMPOST', 'COMPOUND, ANTISEIZE', 'COMPOUND, CAULKING, OIL BASE', 'COMPOUND, CURING AND SEALING CONCRETE', 'COMPOUND, REPAIR, PLASTIC, CERAMIC FILLED AND/OR METALLIZED', 'COMPRESSORS AND VACUUM PUMPS - LEASING', 'COMPRESSORS AND VACUUM PUMPS - RENTAL', 'COMPUTER AND TURNKEY SYSTEM, USED - RENT', 'COMPUTER SOFTWARE FOR TECHNOLOGY  ASSISTED TRAINING', 'COMPUTER SOFTWARE, ACCOUNTING, FINANCIAL, INSURANCE, PAYROLL    - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ACQUISITION/PROCESSING OF ANALOG/DIGITAL,    SIGNALS (AUDIO,VIDEO,SEISMIC,ETC) INCL.MACH.VISION,VOICE RECOGNITION,INST.SIGNALS,ROBOTICS,NUM.MACH.CONT,ETC-MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, ACQUISITION/PROCESSING OF ANALOG/DIGITAL,    SIGNALS (AUDIO,VIDEO,SEISMIC,ETC)INCL.MACH.VISION,VOICE RECOGN. INST.SIGNALS,ROBOTICS,NUM.MACH.CONT.ETC-OTHER THAN MICROCOMPUTER', 'COMPUTER SOFTWARE, ARTIFICIAL INTELLIGENCE, EXPERT SYSTEMS      - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ARTIFICIAL INTELLIGENCE, EXPERT SYSTEMS -    MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, BUILDING CONSTRUCTION, FACILITY/PROPERTY     MANAGEMENT - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, BUILDING CONSTRUCTION, FACILITY/PROPERTY     MANAGEMENT - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, BUSINESS ADMINISTRATION/MANAGEMENT, PLANNING, MARKET TRADE AND SALES ANALYSIS, ECONOMICS - OTHER THAN        MICROCOMPUTERS', 'COMPUTER SOFTWARE, BUSINESS ADMINISTRATION/MANAGEMENT, PLANNING,MARKET TRADE AND SALES ANALYSIS, ECONOMICS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, CD-ROM  MICROCOMPUTER ONLY', 'COMPUTER SOFTWARE, COMPUTER AIDED DESIGN/COMPUTER AIDED MFG/    COMPUTER INTEGRATED MANUFACTURING (CAD/CAM/CIM) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, COMPUTER AIDED DESIGN/COMPUTER AIDED MFG/    COMPUTER INTEGRATED MANUFACTURING (CAD/CAM/CIM) - OTHER THAN  MICROCOMPUTERS', 'COMPUTER SOFTWARE, DATA BASE MANAGEMENT, INFORMATION RETRIEVAL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, DATA COMMUNICATIONS, INCLUDING MODEM/LINE    CONTROL, PROTOCOL, CONVERSION, TERMINAL EMULATION, VOICE AND OR DATA NETWORK MANAGEMENT, ETC.- MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, DATA COMMUNICATIONS, INCLUDING MODEM/LINE    CONTROL, PROTOCOL, CONVERSION, TERMINAL EMULATION, VOICE AND OR DATA NETWORK MANAGEMENT, ETC.- OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, ENGINEERING, SCIENTIFIC, MATHEMATICAL,       STATISTICAL, MODELING, SIMULATION, EMULATION, ENERGY - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, ENGINEERING, SCIENTIFIC, MATHEMATICAL,       STATISTICAL, MODELING, SIMULATION, EMULATION, ENERGY - OTHER    THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, FOURTH GENERATION LANGUAGES, APPLICATION     GENERATORS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, HOTEL MANAGEMENT (INCLUDES INN, MOTEL,       RESTAURANT) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, HUMAN RESOURCES MANAGEMENT, PERSONNEL, ETC.  - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, HUMAN RESOURCES MANAGEMENT, PERSONNEL, ETC.- MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LEGAL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LEGAL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, LIBRARY SYSTEMS, RECORDS MANAGEMENT,         CATALOGUING, CORRESPONDENCE CONTROL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, LIBRARY SYSTEMS, RECORDS MANAGEMENT,         CATALOGUING, CORRESPONDENCE CONTROL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, MATERIEL MANAGEMENT, INVENTORY CONTROL -     MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MATERIEL MANAGEMENT, INVENTORY CONTROL -     OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, MEDICAL AND HEALTH CARE - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MEDICAL AND HEALTH CARE - OTHER THAN         MICROCOMPUTERS', 'COMPUTER SOFTWARE, MILITARY APPLICATIONS, EMERGENCY PLANNING    CIVIL - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, MILITARY APPLICATIONS, EMERGENCY PLANNING    CIVIL - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, OTHER (NOT ELSEWHERE LISTED) - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, PROG.AIDS, COMPUTER LANGUAGES AND SOFTWARE/  SYSTEM DEV.TOOLS,COMPUTER AIDED SOFTWARE ENG.(CASE) EXCL. 4GL   - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE, PROG.AIDS,COMPUTER LANGUAGES AND SOFTWARE/   SYSTEM DEV.TOOLS,COMPUTER AIDED SOFTWARE ENG.(CASE) EXCLUDING   4GL  - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, PROJECT MANAGEMENT, PLANNING AND SCHEDULING, REPAIR, MAINTENANCE AND OVERHAUL MANAGEMENT - MICROCOMPUTERS    ONLY', 'COMPUTER SOFTWARE, RESERVATION SYSTEMS - OTHER THAN             MICROCOMPUTERS', 'COMPUTER SOFTWARE, SECURITY, PRIVACY, ENCRYPTION, AUDIT CONTROLS/AIDS - MICROCOMPUTERS ONLY', 'COMPUTER SOFTWARE, SECURITY, PRIVACY, ENCRYPTION, AUDIT CONTROLS/AIDS - OTHER THAN MICROCOMPUTERS', 'COMPUTER SOFTWARE,</t>
         </is>
@@ -719,7 +733,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -782,12 +796,15 @@
         <v>2</v>
       </c>
       <c r="U5" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="V5" t="n">
         <v>244312</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>4933</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['AI(c)rateur de mI(c)canique', 'AI(c)ronef IE voilure fixe', 'AI(c)ronef IE voilure fixe - rI(c)paration', 'AI(c)ronef divers, composants et rechanges I(c)lectriques et I(c)lectroniques', 'AI(c)ronef sans pilote', 'AI(c)ronef, aile fixe, civiles - rI(c)paration et rI(c)vision', 'AI(c)ronef, aile fixe, militaires - rI(c)paration et rI(c)vision', 'AI(c)ronefs - voilure tournante', 'AI(c)ronefs - voilure tournante - dessin de production', 'AI(c)ronefs - voilure tournante - rI(c)paration', "AI(c)ronefs louI(c)s par l'Iatat ou lui appartenant  - opI(c)ration, entretien et rI(c)paration", 'AI(c)rosols, peinture, vernis, etc.', 'Abonnements des bibliothI!ques', 'Abrasif, IE grain', 'Abrasif, assortiments de toiles', 'Abris IE murs rigides', 'Abris IE murs rigides - location', 'Abris IE murs rigides, transportables, usage militaire', 'Absorbant, huile et eau', 'Absorbants - produits chimiques', 'AccI(c)lI(c)romI!tre, I(c)lectrique, linI(c)aire, sauf pour commande de tire-missile', "Accessoire d'instruction mI(c)dical, anatomique, physiologique mannequins", 'Accessoires IE dessin, non classifiI(c)s ailleurs', "Accessoires d'enregistrement du son", "Accessoires d'instruction", "Accessoires d'instruction - fonctionnement et entretien", "Accessoires d'instruction - rI(c)paration", "Accessoires d'instruction, aI(c)ronefs sauf I(c)lectrique et I(c)lectronique - rI(c)paration et rI(c)vision", "Accessoires d'instruction, pour vI(c)hicules militaires sauf aI(c)ronefs et I(c)lectroniques", 'Accessoires de centrifugeuse, incluant rotors, gaines, tubes', 'Accessoires de grues et de pelles-grues', 'Accessoires de grues et de pelles-grues - rI(c)paration', 'Accessoires de machines complI(c)mentaires IE travailler les mI(c)taux', 'Accessoires de machines et outils', 'Accessoires de machines et outils - rI(c)paration', 'Accessoires de microscope, sauf I(c)lectroniques', "Accessoires de rI(c)frigI(c)ration et d'air climatisI(c), industriels", 'Accessoires de sauvetage', 'Accessoires de spectrophotomI!tre', 'Accessoires de vI(c)hicule, chapeau de boI"te pour camions lI(c)gers, fibre de verre ou aluminium', 'Accessoires divers de moteurs', "Accessoires divers de moteurs d'aI(c)ronefs", "Accessoires divers de moteurs d'aI(c)ronefs (militaires) - rI(c)paration et rI(c)vision", 'Accessoires divers de moteurs, sauf pour aI(c)ronefs', 'Accessoires divers de moteurs, sauf pour aI(c)ronefs - rI(c)paration', 'Accessoires divers de moteurs, sauf pour aI(c)ronefs, vI(c)hicule blindI(c)s de combat, modI!le militaire standard', 'Accessoires divers pour aI(c)ronefs et composants, N.E.A., sauf I(c)lectriques et I(c)lectroniques', "Accessoires et composants d'essai coaxial et guide d'ondes", 'Accessoires et composants divers pour aI(c)ronefs', 'Accessoires et composants divers pour aI(c)ronefs (militaires) - rI(c)paration et rI(c)vison', 'Accessoires et composants divers pour aI(c)ronefs - rI(c)paration et rI(c)vision', 'Accessoires et costumes de plongeurs', 'Accessoires et fournitures optiques en fibre - rI(c)paration', 'Accessoires et fournitures pour fibres optiques', 'Accessoires et garnitures de vI(c)hicules', 'Accessoires et garnitures de vI(c)hicules - rI(c)paration', 'Accessoires et garnitures de vI(c)hicules, standard commercial', 'Accessoires et garnitures de vI(c)hicules, vI(c)hicules IE effet de sol', 'Accessoires pour bI(c)ton, coffrage et I(c)chafaudage', 'Accessoires pour outils IE main IE moteur', 'Accessoires radiographiques - rI(c)paration', 'Accessoires radiographiques et approvisionnements, mI(c)dical, dentaire et vI(c)tI(c)rinaire - location', 'Accessoires, tI(c)lI(c)vision en circuit fermI(c)', "Accessories de vI(c)hicules de systI!me d'arme", 'Accouplements flexibles', 'Accouplements mI(c)caniques, N.E.A.', 'Achat de mI(c)dia/placement en publicitI(c)', 'Acide chlorhydrique, technique, muriatique, CAN/ONGC-15.33-92', 'Acide sulfurique, de qualitI(c) I(c)lectrolytique, catI(c)gorie 1 et 3,  CAN/ONGC-15.8-92', 'Acides', 'Acier, de construction', 'Acier, grenaille', 'Acquisition de donnI(c)es et matI(c)riel de collecte, en direct - entretien', 'Adaptation des langages', 'Additifs et conditionneurs, huile combustible', 'AdhI(c)sif, colle', 'AdhI(c)sifs', 'Administration de tests professionnels et psychomI(c)triques', "Administration et traitement des demandes de rI!glement - rI(c)gimes d'assurance", "Adoucisseurs d'eau", 'AffIEteuse, couteau, abrasive', 'AffrI!tement aI(c)ronef IE voilure fixe - AffrI!tement avion', 'AffrI!tement aI(c)ronef IE voilure tournante - AffrI!tement hI(c)licoptI!re', 'AffrI!tement de vaisseau', 'AffrI!tements', 'Agencements de plomberie', 'Agencements de plomberie, institution', 'Agencements et accessoires de plomberie', 'Agencements et accessoires de plomberie - location', 'Agencements et accessoires de plomberie - rI(c)paration', 'Agencements et dispositifs spI(c)ciaux pour conduites, tubes et tuyaux - rI(c)paration', 'Agencements pour cordes, cIC/bles et chaI"nes', 'Agent de dI(c)contamiation', 'Agents chimiques de combat', 'Agents de lutte contre les flI(c)aux, et dI(c)sinfectants', 'Agents extincteurs', 'AgrI(c)gat, construction, argile rI(c)fractaire, concassI(c)', 'Agriculture (R&amp;D)', 'Aide gI(c)nI(c)rale de bureau', 'Aide temporaire, N.E.A.', 'Aides ambulatoires', 'AlI(c)seuses', 'Alarmes anti-intrusion', 'Alcool', 'Alimentation I(c)lectrique solaire', 'Alimentation en eau', 'Alimentation ininterrompue, monophasI(c)e, 2 KilovoltampI!res et plus - rI(c)paration', "Alimentation, I(c)quipement d'essai I(c)lectrique", 'Aliments diI(c)tI(c)tiques spI(c)ciaux et prI(c)parations alimentaires spI(c)ciales', 'Aliments diI(c)tI(c)tiques spI(c)ciaux et prI(c)parations alimentaires spI(c)ciales (remplacI(c) par nibs N8940Z)', 'AltimI!tres, topographie', 'Aluminium', 'Aluminium de refoulage', 'Aluminium, barres et tiges', 'AmI(c)nagement et contrI&lt;&lt;le du milieu', 'AmI(c)nagement intI(c)rieur/rI(c)novations', 'AmI(c)nagement paysager intI(c)rieur', 'Ambulances, rI(c)paration et rI(c)vision', 'Ameublement domestique', 'Ameublement et articles de cultes', 'Ameublement, rembourrage - rI(c)paration', 'Amiante', 'Amortisseurs, pour vI(c)hicules IE chenilles et IE roues, sauf vI(c)hicules IE effet de sol et blindI(c) de combat', 'Amplificateurs', 'Amplificateurs et prI(c)amplificateurs, essai', 'Amplificateurs, essai', 'Amplificateurs, radiofrI(c)quence', 'AnI(c)momI!tre, type mI(c)tI(c)orologique', "Analyse des donnI(c)es - RI(c)alisation d'un sondage", 'Analyse des mI(c)dias', 'Analyse des substances dangereuses -Secteur construction', 'Analyse en temps rI(c)el - science et technologie (R&amp;D)', 'Analyse et I(c)valuation de site web', "Analyse et technologie de l'acoustique (R&amp;D)", 'Analyse fonctionnelle et statistique', "Analyses sur la qualitI(c) d'air", 'Analyseur multicanal optique', 'Analyseur radio-isotope', 'Analyseur, essai', 'Analyseur, viande, teneur en matiI!res grasses', 'Analyseurs', 'Analyseurs chimiques, automatiques, comprend mI(c)dicaux', "Analyseurs d'I(c)chantillon liquide", 'Analyseurs de gaz, comprend NOX, CO, CO2, SO2, O2, exclut type  danger', 'Analyseurs de surface, orientI(c)s, spectromI!tres de photoI(c)lectrons Auger, I(c)pitaxie de faisceau molI(c)culaire, dI(c)pI&lt;&lt;t de vapeur chimique', 'Analyseurs, I(c)lI(c)mentaires, C, H, N, TOC', "Analyseurs, I(c)quipement d'essai I(c)lectronique, voir aussi trousses d'essai, I(c)quipement d'essai I(c)lectronique", 'Analyseurs, aminoacide', 'Analyseurs, automatiques, coagulation', 'Analyseurs, cytomI!tres IE flux continu', 'Analyseurs, de spectres', 'Analyseurs, dimension de particules', 'Analyseurs, fraI"cheur du poisson', 'Analyseurs, gaz dans le sang, I(c)lectrolytes, PCO, PH, PO, NA, K, CA', 'Analyseurs, polarographe', 'Analyseurs, sonde I(c)lectronique, microsonde', 'Analyseurs, tirage photographique couleur', 'Ancres, flottantes', 'Angles en acier', 'Angles en aluminium, cannelures et sections', 'Animaux vivants, I(c)levI(c)s pour la consommation', 'Animaux vivants, laboratoire', 'Animaux vivants, non I(c)levI(c)s pour la consommation', 'Animaux vivants, non I(c)levI(c)s pour la consommation - location', "Anneaux d'I(c)tanchI(c)itI(c)", "Anneaux d'arrI&gt;&gt;t", 'Antennes et systI!mes de radio et de tI(c)lI(c)vision', "Antennes, guides d'ondes et I(c)quipement connexe", "Antennes, guides d'ondes et I(c)quipement connexe - installation", "Antennes, guides d'ondes et I(c)quipement connexe - location", "Antennes, guides d'ondes et I(c)quipement connexe - location IE bail", "Antennes, guides d'ondes et I(c)quipement connexe - rI(c)paration et rI(c)vision", 'Anticorrosif, huile', 'Antigel pour moteurs de vI(c)hicules automobiles', 'Antigel, lave-glace, diluI(c)', 'Appareil IE pression de vapeur', 'Appareil IE rayons X, sauf mI(c)dical, dentaire et vI(c)tI(c)rinaire', 'Appareil aI(c)rosol, mI(c)dical', "Appareil dI(c)terminant le point d'I(c)bullition", 'Appareil pour sI(c)chage IE froid', 'Appareil radiographique, industriel', 'Appareil tI(c)lI(c)phonique', 'Appareillage I(c)lectromagnI(c)tique', 'Appareillage de rI(c)sistivitI(c)', 'Appareils IE I(c)prouver la duretI(c) de matI(c)riaux', 'Appareils auditifs', 'Appareils cinI(c)matographiques', 'Appareils cinI(c)matographiques - location', 'Appareils cinI(c)matographiques - location IE bail', 'Appareils cinI(c)matographiques - rI(c)paration', "Appareils cinI(c)matographiques, d'aI(c)ronef et accessoires", 'Appareils cinI(c)matographiques, grande sensibilitI(c) et faible sensibilitI(c), analyse de cas et instrumentation', 'Appareils cinI(c)matographiques, ultra miniature, 8 mm, super 8 mm,  cassette, amateur', "Appareils d'I(c)clairage d'I(c)difice - installation et rI(c)paration", 'Appareils d\'instruction de d\'entraI"nement concernant l\'armement, I(c)lectroniques, accessoires et rechanges', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement - rI(c)paration', 'Appareils d\'instruction et d\'entraI"nement concernant l\'armement, I(c)lectroniques, cibles de tir', 'Appareils d\'instruction et d\'entraI"nement concernant les transmissions', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels I(c)lectroniques, simulateurs, vol et tactiques', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels,  I(c)lectroniques, simulateurs, marine', 'Appareils d\'instruction et d\'entraI"nement opI(c)rationnels, aI(c)ronautique - rI(c)paration et rI(c)vision', "Appareils d'instruction opI(c)rationnels", "Appareils d'instruction opI(c)rationnels - location", "Appareils d'instruction opI(c)rationnels - rI(c)paration", "Appareils d'instruction, amerrissage forcI(c), aI(c)ronef", 'Appareils de gouverne', 'Appareils de lancement de grenades, roquettes et artifices', 'Appareils de lancement de torpilles et grenades sous-marines', 'Appareils de lancement pour engins pyrotechniques et roquettes - rI(c)paration', 'Appareils de prI(c)lI!vement, systI!me de traitement des eaux rI(c)siduaires', 'Appareils de visI(c)e et calculateurs de conduite de tir -  rI(c)paration', 'Appareils de visI(c)e, conduite de tir, N.E.A.', 'Appareils de visI(c)e, optiques, conduite de tir', 'Appareils de visI(c)e, optiques, conduite de tir, armes portatives', 'Appareils de visI(c)es et calculateurs de conduite de tir', 'Appareils directeurs de conduite de tir', 'Appareils domestiques et commerciaux divers, I(c)lectriques - rI(c)paration', 'Appareils domestiques et industriels de types divers', 'Appareils optiques en fibre - rI(c)paration', 'Appareils optoI(c)lectroniques et matI(c)riel connexe', 'Appareils photographiques', 'Appareils photographiques - location', 'Appareils photographiques - rI(c)paration', 'Appareils photographiques et accessoires, aI(c)ronef', 'Appareils photographiques, 35 mm, professionnels, sauf sous-marin', 'Appareils photographiques, amateurs, 110 - 126 disques', 'Appareils photographiques, identification', 'Appareils photographiques, microfilm', 'Appareils photographiques, sous-marin', 'Appareils transporteurs', 'Appareils transporteurs - location', 'ApprI&gt;&gt;t, pour bitume', 'Aquaculture (R&amp;D)', 'Arbres, hI(c)lice-marines', 'Arbrisseaux et arbres dI(c)coratifs', 'Architecture navale', 'Architecture navale - services de consultation', 'Architecture navale - services de dessin', 'Armature IE bI(c)ton', 'Armes chimiques et I(c)quipement', 'Armes diverses', 'Armes diverses - rI(c)paration', 'Armes et I(c)quipement militaires conventionnels (R&amp;D)', 'Armes portatives et accessoires,  mise en vigueur de la loi', 'Armes portatives et accessoires, militaires - rI(c)paration et  rI(c)vision', 'Armoire vitrine, hI&lt;&lt;pital', 'Armoire, IE dessiccation, exclut les dessiccateurs', 'Armoire, boI"te, individuelle', 'Armoire, laboratoire', 'Armoire, laboratoire, dessiccation, IE vide, exclut les dessiccateurs', 'Armoire, rangement, de laboratoire, inclut en bois, mI(c)tal, plastique', 'Armoires de rangement', 'Armoires de rangement, photographiques', 'Armoires de rangement, photographiques, cinI(c)matographiques, bobines et boI"tes', 'Armoires, de sIEretI(c), liquides inflammables et combustibles', 'Armoires, de sIEretI(c), rangement en gros, SPEC SSC/SES 110, MAS LPH', 'Armoires, rangement, rubans magnI(c)tiques, cassettes et pellicules', 'Articles de bureau et accessoires - entretien', 'Articles de bureau et accessoires - location IE bail', 'Articles de collectionneurs', 'Articles de fumeurs et allumettes', 'Articles de toilette personnelle', 'Articles divers', 'Articles divers - location IE bail', 'Articles divers - rI(c)paration', "Articles divers de l'armement et munitions nuclI(c)aires", 'Articles et accessoires de bureau', 'Articles funI(c)raires - installation', 'Articles funI(c)raires - rI(c)paration', 'Articles promotionnels (ImprimI(c)s seulement)', 'Ascenseurs et I(c)lI(c)vateurs - location', 'Aspirateurs domestiques, rI(c)paration et rI(c)vision', 'Assemblages et faisceaux de cIC/bles en fibres optiques', 'Assortiments de boisson soluble, non alcoolisI(c)e', 'Assortiments de joints, caoutchouc', 'Astronautique (R&amp;D)', 'AttI(c)nuateurs, essai', 'Attache, feuillard et emballage', 'Attirail de pI&gt;&gt;che automatisI(c)', 'Autobus', 'Autobus - rI(c)parations et service', 'Autobus scolaires, de type conventionnel, 25 passagers et plus', 'Autobus, scolaires, type spI(c)cial, 5 IE 24 passagers', 'Autobus, service de navette', 'Autobus, type de route', 'Autoclaves, I(c)changeurs de chaleur et condenseurs de vapeur', 'Autoneige (motoneige) - location', "Autoroutes, rues, routes, voies ferrI(c)es, pistes d'aI(c)roport", 'Autres I(c)quipements cryptographiques et composants - rI(c)paration', 'Autres I(c)quipements de sI(c)curitI(c) des tI(c)lI(c)communications et composants', 'Autres I(c)tudes environnementales', 'Autres I(c)tudes techniques', "Autres services d'architecture et d'ingI(c)nierie - Immobilier", "Autres services d'entretien et activitI(c)s connexes", 'Autres services de ressources naturelles et de conservation', 'Autres services de tI(c)lI(c)communications', "Autres services techniques et d'inspection, d'essai et de contrI&lt;&lt;le de la qualitI(c) en construction", "Autres travaux d'achI!vement et de finition des bIC/timents", "Autres travaux d'installation", 'Autres travaux de pose de revI&gt;&gt;tement de sol et de papier peint', 'Auvents', 'Avertisseur, extinction automatique par aspersion', 'Avion', 'Avion de navette', 'Avions, certifiI(c)s pour les vols civils', 'BI(c)ret', 'BI(c)ton', 'BI(c)ton prI(c)mI(c)langI(c)', 'BI(c)ton, mI(c)langI(c), en sacs', 'BI(c)ton, scellant pour joint', 'BIC/che, canevas et couvertures protectrices, tissus renforcI(c)s', 'BIC/ti de porte, bois', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - location', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - location IE bail', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables - rI(c)paration', 'BIC/timents prI(c)fabriquI(c)s et dI(c)montables, construction spI(c)ciale', "BIC/timents prI(c)fabriquI(c)s, IE l'I(c)preuve des balles", 'BIC/timents, prI(c)fabriquI(c)s, bI(c)ton moulI(c)', "BIC/timents, prI(c)fabriquI(c)s, bois, I(c)conomie d'I(c)nergie", 'BIC/timents, prI(c)fabriquI(c)s, en bois', 'BIC/timents, prI(c)fabriquI(c)s, en fibre de verre', 'BIC/timents, prI(c)fabriquI(c)s, en mI(c)tal', 'BIC/timents, prI(c)fabriquI(c)s, garage', 'BIC/timents, prI(c)fabriquI(c)s, gonflables ou soutenus par air', 'BIC/timents, prI(c)fabriquI(c)s, lambrissI(c)s (panneaux ouverts ou fermI(c)s)', 'BIC/timents, prI(c)fabriquI(c)s, lambrissI(c)s, panneaux ouverts ou fermI(c)s', 'BIC/timents, prI(c)fabriquI(c)s, modulaires ou en sections', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, chantier  industriel autonome', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, laboratoire', 'BIC/timents, prI(c)fabriquI(c)s, portatifs ou dI(c)plaI$?ables, salles de classe et I(c)coles - location', 'BIC/timents, prI(c)fabriquI(c)s, pour entreposage', 'BIC/timents, prI(c)fabriquI(c)s, serre', 'BIC/timents, prI(c)fabriquI(c)s, types', 'BIC/timents, prI(c)fabriquI(c)s, usage spI(c)cial', 'BIC/tis de fenI&gt;&gt;tre, bois', 'BIC/tonnets rI(c)actifs et tableau colorimI(c)trique', 'BIEche', 'Bacs de recyclage', 'Bagage - rI(c)parations', 'Bagages', "Bagues d'I(c)tanchI(c)itI(c) et segments d'I(c)tanchI(c)itI(c), sauf modI!le spI(c)cial", 'Baguette en cuivre et en laiton', 'Bain tourbillon', 'Bains', 'Balais I(c)lectriques et I(c)lectrodes', 'Balais, brosses, balais IE franges et I(c)ponges', 'Balais, brosses, balais IE franges et I(c)ponges - location', 'Balais, brosses, balais IE franges et I(c)ponges - location IE bail', 'Balais, brosses, balais a franges et I(c)ponges - rI(c)paration', 'Balance', 'Balance, IE ressort, balance directe et type IE cadran', 'Balance, pI!se-personne, examen de mI(c)decin et IE plateaux', 'Balance, plateau', "Balance, poids de l'essieu", 'Balances - rI(c)paration et rI(c)vision', 'Balances et machines IE peser - location', 'Balances et machines IE peser - location IE bail', 'Balances et machines IE peser - rI(c)paration', 'Balances et pesI(c)es', 'Balayeuses et I(c)quipement pour dI(c)blayage de la neige - rI(c)paration et rI(c)vision', 'Balayeuses, entrepI&lt;&lt;t, IE siI!ge, automotrices', "Balayeuses, piste d'aI(c)roport", 'Balise, radar de veille secondaire (RVS) I(c)quipement radar, sauf aI(c)ronefs', "Balises de piste d'envol", 'Ballasts de lampes, douilles et starters', 'Ballasts de lampes, douilles et starters - rI(c)paration', 'Ballon, mI(c)tI(c)orologiques', 'Ballons publicitaires et promotionnels', 'Banc de contrI&lt;&lt;le, non destructeur', "Bancs d'I(c)talonnage, tension", 'Bandage pour pneumatique', 'Bandages et pansements', 'Bandages pleins et pneumatiques', 'Bande en plastique, avertissement de barricade', 'Bande, calorifuge', 'BarbelI(c)', "Bardeaux d'amiante", 'Bardeaux, bois', 'Barges, spI(c)cialisI(c)es', 'BaromI!tre mI(c)tI(c)orologique, tous les types', 'BaromI!tres, anI(c)roIodes et mercuriels, sauf mI(c)tI(c)orologiques', 'Barre mI(c)tallique (acier)', 'Barre, nickel, monel, inconel et incoloy', 'Barres et ronds, en mI(c)taux non ferreux', 'Barres et tiges', 'BarriI!re de sI(c)curitI(c) hydraulique', 'BarriI!res mI(c)talliques', 'Base de donnI(c)es - imagerie variable', 'Base de donneI(c)s de nouvelles en ligne', 'Bassin de lit, en acier', 'Bassin, rI(c)niforme, acier inoxydable', 'Bateaux de dI(c)barquement, tous les types', 'Bateaux de pI&gt;&gt;che', 'Bateaux de pI&gt;&gt;che - location', 'Bateaux de pI&gt;&gt;che - rI(c)paration', 'Bateaux de servitude', 'Bateaux de servitude - rI(c)paration', 'Bateaux divers', 'Bateaux divers - location IE bail', 'Bateaux divers - rI(c)paration', 'Bateaux lI(c)gers, aluminium', 'Bateaux lI(c)gers, fibre de verre - rI(c)paration et rI(c)vision', 'Bateaux pneumatiques, coque rigide', 'Bateaux, marine, divers - chambre de recompression - radoub, rI(c)paration, rI(c)vision, modification et entretien', 'BibliothI!que, type bureau', 'BibliothI!ques, type IE bord navire incluant supports', 'Biochimie (R&amp;D)', 'Biologie (R&amp;D)', 'Bioxyde de carbone, technique, glace sI!che', "Bittes d'amarrage, bollards et taquets", 'Bitume asphaltique liquide, apprI&gt;&gt;t et ciment, pour route', 'Bitume asphaltique, toiture', 'Blanchissage et nettoyage IE sec', "Bloc d'alimentation I(c)lectrique sans coupure - Entretien", "Bloc d'alimentation I(c)lectrique sans coupure - installation et rI(c)paration", 'Blousons, pantalon, combinaison, culottes courtes', 'BoI"te IE outils, portative', 'BoI"te IE outils, portative, mI(c)tallique', 'BoI"te d\'expI(c)dition', 'BoI"te d\'expI(c)dition, bois', 'BoI"te, plastique', 'BoI"tes IE munitions, emballages et conteneurs spI(c)ciaux', 'BoI"tes IE outils et IE quincaillerie', 'BoI"tes IE outils et IE quincaillerie - location', 'BoI"tes aux lettres, autres que domestiques ou IE bord de navire', 'BoI"tes de vitesse intermI(c)diaires/boI"tes d\'engrenage, assemblage de l\'entraI"nement final, vI(c)hicule blindI(c) de combat, modI!le militaire standard', 'BoI"tes en carton', 'BoI"tes, caisses, cartons, caisses IE claire-voie et cadres - rI(c)paration', 'BoI"tes, cartons et caisses IE claire-voie', 'BoI"tes, emballages et conteneurs spI(c)ciaux pour munitions classiques et nuclI(c)aires', 'Bobines de self-induction et transformateurs', 'Bobines de self-induction et transformateurs - rI(c)paration et rI(c)vision', 'Bobines de ventilateurs, industriels', 'Bobines thermiques, industrielles', 'Bois dI(c)bite et autres matI(c)riaux de base dI(c)rivI(c)s du bois', 'Bois de construction', 'Bois de construction pressurisI(c)', 'Bois de construction, bois dur', 'Bois de construction, bois dur, planchI(c)iage de quai', 'Bois de construction, bois dur, teck', 'Bois de construction, bois tendre, baume, sapin et jaquier', 'Bois de construction, bois tendre, blanchi, classifiI(c)', "Bois de construction, bois tendre, de l'ouest", 'Bois de construction, bois tendre, sapin de Douglas dense', 'Bois de construction, brut, local', 'Bois de construction, cI!dre', 'Bois de construction, ignifuge', 'Bois de construction, traitI(c), construction marine', 'Bois de menuiserie', 'Bois de menuiserie - rI(c)paration', 'Bois feuillu pour parquetage', 'Bois modulaire de services collectifs', 'Bois, de chauffage', 'Boissons alcoolisI(c)es (remplacI(c) par nibs N8965ZA)', 'Boissons en concentrI(c) avec distributeur de location', 'Boissons gazeuses', 'Boissons, alcoolisI(c)es', 'Boissons, non alcoolisI(c)es (remplacI(c) par nibs N8960Z)', 'Bombes', 'Bombes nuclI(c)aires', 'Bonneterie, ganterie et accessoires vestimentaires pour femmes', 'Bonneterie, ganterie et accessoires vestimentaires pour hommes', 'Bonneterie, ganterie et accessoires vestimentaires pour hommes - rI(c)paration', "Borne d'incendie", "Borne d'incendie - rI(c)paration et rI(c)vision", 'Bossoirs', 'Bottes de combat', 'Bottes de sI(c)curitI(c)', 'BouI(c)es', 'BouI(c)es - rI(c)paration', 'BouI(c)es acoustiques', 'BouI(c)es, acquisition de donnI(c)es', 'BouI(c)es, en plastique', 'BouI(c)es, tous les types, sauf en plastique', 'Bouchon, boI"te fermant IE clI(c)', 'Bouilloires, prI(c)paration des aliments', 'Boulangerie, spI(c)cialitI(c)s , non I(c)numI(c)rI(c)s ailleurs', 'Boulons', 'Boulons, aI(c)ronef', 'Boulons, tous genres et matI(c)riaux, sauf aI(c)ronef', 'Boussole portative, genre bracelet', "Bouteille, fiole, verre, distribution d'ordonnances", 'Bouteilles IE gaz commerciales et industrielles - location', 'Bouteilles IE gaz commerciales et industrielles - location IE bail', 'Bouteilles et bocaux', 'Bouterolle, tI&lt;&lt;le', 'Boutons et aiguilles', 'BrIEleur IE gaz, commercial', 'BrIEleur IE gaz, laboratoire', "BrIEleur IE l'huile, composants", 'BrIEleur IE mazout', 'BrIEleur IE mazout, commercial', 'BrIEleurs IE mazout - rI(c)paration et rI(c)vision', 'Breuvages non alcoolisI(c)s, jus en cristaux (remplacI(c) par nibs N8920ZC)', 'Briques, argiles, non rI(c)fractaires', 'Briques, isolantes et rI(c)fractaires', 'Brocheuses', 'Brocheuses - rI(c)paration', 'Brosse, nettoyage de piI!ces et outils, en nylon', "Brosses, balayeuse, route et piste d'aI(c)roport", 'Broyeur IE ordures, commercial', 'Broyeurs IE ordures', 'Broyeurs IE ordures, N.E.A.', 'Broyeurs, feuilles, arbrisseau, etc.', 'Broyeurs, laboratoire', 'Bulldozers, dirigI(c)s', 'Bureau', 'Buse de drainage, sauf demi coquilles', "CIC/blage de matI(c)riel informatique d'immeuble - installation", 'CIC/ble I(c)quipI(c), I(c)lectrique, pour vI(c)hicules IE chenilles et IE roues', 'CIC/ble I(c)quipI(c), I(c)lectrique, pour vI(c)hicules IE chenilles et IE roues, sauf vI(c)hicules marins, IE effet de sol et blindI(c) de combat', 'CIC/ble mI(c)tallique, acier inoxydable, non magnI(c)tique', 'CIC/ble mI(c)tallique, acier, ininflammable', 'CIC/ble mI(c)tallique, cIC/ble I(c)quipI(c)', 'CIC/ble mI(c)tallique, galvanisI(c), pour filets de sI(c)curitI(c)', "CIC/bles de commande d'aI(c)ronef", 'CIC/bles de fibre, cordage et ficelles', 'CIC/bles optiques en fibre', 'CIC/bles, I(c)lectriques, mI(c)caniques, I(c)quipement de dI(c)tection sous-marine', 'CIC/bles, ancre et chaI"ne', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication - location', 'CIC/bles, cordons et fils I(c)lectriques I(c)quipI(c)s, I(c)quipement de tI(c)lI(c)communication - rI(c)paration', 'CIC/bles, cordons et fils I(c)lectriques, I(c)quipement de tI(c)lI(c)communications - installation', "COURS DE FORMATION SUR L'ASSURANCE DE LA QUALITE", 'Cabestans', 'Cabine de vI(c)hicule, carrosserie et composants de structure du chIC/ssis - nouvelles peinture et finition', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - dessin de production', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - location', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis - rI(c)paration', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis, sauf modI!le militaire', 'Cabine de vI(c)hicule, carrosserie et composants structuraux de chIC/ssis, vI(c)hicule blindI(c) de combat, modI!le militaire standard', 'Cabine, examen audiomI(c)trique', 'Cabine, insonore', 'Cabines, pulvI(c)risation', 'Cabinets de douche', 'Cabinets et meubles, en bois - marine', 'Cadenas', 'Cadenas, type clI(c)', 'Cadrans, numI(c)riques', 'Cadrans, sI(c)lecteur, graduI(c), tous genres', 'Cadre, dI(c)coration', 'Cadres de porte en mI(c)tal', 'CafI(c)', 'CafI(c) (remplacI(c) par nibs N8955ZA)', 'CafI(c), thI(c) et cacao', 'CafetiI!res, fontaine (commerciales)', 'Cages, animaux', 'Caillebotis, mI(c)tallique', 'Caisse, transport, avec garnitures intI(c)rieures en mousse moulI(c)e', 'Caisses IE claire-voie, bois', 'Calcium', 'Cales I(c)talons, carrI(c)s, cylindriques, annulaires', 'Cales sI!ches, flottantes', 'Cales sI!ches, flottantes - rI(c)paration', 'Cales, entretoises', 'Calfeutrage, porte, fenI&gt;&gt;tre', 'Calibres de formes, gabarits de guidage, appareils de contrI&lt;&lt;le', 'Calibres de formes, gabarits de guidage, appareils de contrI&lt;&lt;le  - rI(c)paration', "Calibreurs, I(c)quipement d'essai I(c)lectronique", 'CalorimI!tres', 'CalorimI!tres et analyseurs thermiques', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c)', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c), application, sous-marin', 'CamI(c)ra, systI!me de tI(c)lI(c)vision IE circuit fermI(c), infrarouge', 'CamI(c)ra, vidI(c)o', 'CamI(c)ra-enregistreuse', 'CamI(c)ra-enregistreuse, pour diffusion, ruban 1/2 po, couleur, vidI(c)o', 'CamI(c)ra-enregistreuse, pour diffusion, ruban 1/2 po, numI(c)rique, couleur, vidI(c)o', 'Camion IE essence, I(c)pandeur de sable, caisse IE trI(c)mie', 'Camion IE essence, basculant, IE ridelles, fourgon', 'Camion basculant, diesel, PNBV 27 500 lb et plus - location', "Camion basculant, diesel, PNBV jusqu'IE 27 499 lb - location", "Camion de lutte contre l'incendie", "Camion de lutte contre l'incendie - rI(c)paration", 'Camion et tracteur de semi-remorque, sur roues, IE essence, PNBV plus de 10,000 lbs, sauf modI!le militaire', 'Camion et tracteur de semi-remorque, sur roues, diesel, PNBV plus de 10,000 lbs, sauf modI!le militaire', 'Camion, I(c)pandeur de sable, caisse IE trI(c)mie, diesel, PNBV de 27,500 lb et plus', "Camion, I(c)pandeur de sable, caisse IE trI(c)mie, diesel, PNBV jusqu'IE 27,499 lb", "Camion, I(c)quipe d'une grue hydraulique", 'Camion, IE ordures, diesel, PNBV 27,500 lb et plus', "Camion, IE ordures, diesel, PNBV jusqu'IE 27,499 lb", 'Camion, atelier non I(c)quipI(c), IE essence', 'Camion, atelier non I(c)quipI(c), PNBV 27,500 lb et plus', "Camion, automoteur, pour chargement et dI(c)chargement de marchandise IE bord d'aI(c)ronefs", "Camion, basculant IE ridelles, fourgon, diesel, PNBV jusqu'IE 27,499 lb", 'Camion, carrosserie conI$?u sur commande, pour besoins spI(c)ciaux', 'Camion, dI(c)panneuse, IE essence', 'Camion, destruction des dI(c)chets liquides, diesel, PNBV 27,500 lb et plus', "Camion, entretien d'aI(c)ronef, approvisionnement", 'Camion, frigorifique IE essence - location', 'Camion, frigorifique, IE essence', 'Camion, incendie, antichoc', "Camion, lI(c)ger, IE cabine d'I(c)quipage, PNBV 8 100 lb - location, moins de 90 jours", "Camion, lI(c)ger, IE cabine d'I(c)quipage, PNBV 8100 lb - location IE   bail, plus de 90 jours", 'Camion, lI(c)ger, bIC/che, entretien des lignes', 'Camion, lI(c)ger, camionnette-plateau, PNBV 5 300 lb - location,  moins de 90 jours', 'Camion, lI(c)ger, camionnette-plateau, PNBV 8000 lb min., IE 4 roues motrices', 'Camion, lI(c)ger, camionnette-plateau, cabine allongI(c)e, PNBV 5500  lb - location IE bail, plus de 90 jours', 'Camion, lI(c)ger, camionnette-plateau, compact, IE 4 roues motrices', 'Camion, lI(c)ger, camionnette-plateau, compact, long, IE 4 roues motrices', 'Camion, lI(c)ger, fourgon de marchandises, remisable SPEC VAG T00, - location, moins de 90 jours', 'Camion, lI(c)ger, fourgon de marchandises, remisable, Spec VAG T00', 'Camion, lI(c)ger, fourgon pour passagers, remisable SPEC VAG M60 location, moins de 90 jours', 'Camion, lI(c)ger, fourgon pour passagers, remisable, Spec VAG M60', 'Camion, lI(c)ger, transport de personnel PNBV 6 000 lb - location, moins de 90 jours', 'Camion, lI(c)ger, transport de personnel, PNBV 7 500 lb - location, moins de 90 jours', 'Camion, lI(c)ger, utilitaire, 4 roues motrices', 'Camion, lI(c)ger, utilitaire, 4 roues motrices - location, moins   de 90 jours', 'Camion, lI(c)ger, utilitaire, 4 roues motrices, charge utile de 100 lb', 'Camion, lI(c)ger, utilitaire, IE 4 roues motrices, location IE bail - plus de 90 jours', 'Camion, lI(c)ger, utilitaire, IE 4 roues motrices, long - location IE  bail, plus de 90 jours', 'Camion, lourd, PNBV 30 000 IE 60 000 lb - location IE bail, moins de 90 jours', "Camion, muni d'escalier d'embarquement, pour aI(c)ronefs", "Camion, muni d'une benne I(c)lI(c)vatrice", 'Camion, utilitaire, IE 4 roues motrices, configuration militaire', 'Camion-citerne, Diesel, 27,500 lb et plus', "Camion-citerne, diesel, PNBV jusqu'IE 27,499 lb", 'Camion-tracteur IE essence', 'Camion-tracteur, IE essence - location', 'Camion-tracteur, cour de terminus, pour garer les remorques sur les chantiers IE diesel', 'Camion-tracteur, diesel, PNBV 27,500 lb et plus', "Camion-tracteur, diesel, PNBV jusqu'IE 27,499 lb", 'Camionnage', 'Camions et remorques pour le transport de terre et de pierres - location', "Camions et remorques spI(c)ciaux d'aI(c)rodrome", "Camions et remorques spI(c)ciaux d'aI(c)rodrome - rI(c)paration", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts - location", "Camions et tracteurs automoteurs, d'entrepI&lt;&lt;ts - rI(c)paration et rI(c)vision", 'Camions et tracteurs de semi-remorques, sur roues', 'Camions et tracteurs routiers pour semi-remorques, sur roues -  dessin de production', 'Camions et tracteurs routiers pour semi-remorques, sur roues -  location IE bail', 'Camions et tracteurs routiers pour semi-remorques, sur roues - rI(c)paration', 'Camions et tracteurs, pour semi-remorques, sur roues - location', 'Camions poids moyen cabine avancI(c)e', 'Camions, I(c)quipement pour dI(c)blayage de la neige', 'Camions, IE benne basculante, IE ridelles, fourgon, diesel, PNBV 27,500 lb et plus', 'Camions, commerciaux, service lI(c)ger, PNBV 10,000 lbs ou moins', 'Camions, divers - location IE bail, plus de 90 jours', 'Camions, divers - location, moins de 90 jours', 'Camouflage (R&amp;D)', "Canalisation et accessoires de chauffage et circulation d'air"</t>
         </is>
@@ -800,7 +817,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -863,12 +880,15 @@
         <v>686</v>
       </c>
       <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
         <v>772291</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>71</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DASDSP-AFPPS%2COU%3DMPS-SGP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DBMCSD-DSGAC%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCAD-DGM%2COU%3DRPSMCD-DAGSMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCRSDMTD-DSCDDTM%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCSD-DMC%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DCTD-DVT%2COU%3DCCPD-DPCC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DEEPD-DPEE%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIPSD-DSPI%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DITSDEEM-DLTIEEM%2COU%3DSSSPD-DALSP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPDSD-DSRP%2COU%3DSPID-DISA%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPORMMPS-SAROPSM%2COU%3DAPORMMPD-DAPROPSM%2COU%3DCPD-DAEC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DPSD-DSA%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSMPD-DESPMP%2COU%3DCCPD-DPCC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSPIMD-DASGI%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DSRD-DR%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTEL-DIV%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://www.ssc-spc.gc.ca/pages/proc-appr-eng.html","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTEL-DIV%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSD-DSV%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSSD-DFSS%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ-ACQ,OU=ACQ-APP,OU=AR-RA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ-APP,OU=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU=ACQ123-APP123,OU=ACQ-APP,OU=ACQ-APP,OU=WR-RO,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAEC-DIR%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAESD-DSAG%2Cou%3DRPCD-DAMI%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAOPS-NPEA%2Cou%3DMPDS-DGPM%2Cou%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DVIPD-DVPI%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DIVMPLD-DVIMPL%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DEEPD-DPEE%2COU%3DLEFTD-DTPLEP%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DAVSD-DSVB%2Cou%3DAVPD-DPVB%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DBTSIS-DSSTIS%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca","http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DESDSD-DSESSD%2COU%3DEMTSPD-DASEMST%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDCD-DCD%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DDVBD-DPPBV%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DEAECPSP-AAEEIC%2Cou%3DCPD-DAEC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFCPD-DPPPC%2Cou%3DLEFTD-DTPLEP%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFOSD-DPAFB%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DFTD-DACE%2Cou%3DAEPD-DPEA%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DHSP-PSS%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DIMITPD-GITIPD%2Cou%3DSPID-DISA%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DINF-DIV%2Cou%3DCCPD-DPCC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DLSD-DSL%2Cou%3DPSPD-DASP%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DMWSD-DMSA%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DOTSP-FSEO%2Cou%3DMAJ-DIR%2Cou%3DDMPS-SPDGP%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DSCD-DCN%2Cou%3DMSD-DSM%2Cou%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DTAPV-VPBT%2Cou%3DMPDL-DGPT%2Cou%3DDMPS-SPDGP%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou%3DTHD-DTH%2Cou%3DAEPD-DPEA%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=ACQ-APP,ou=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MAD-DAM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DAPS-SAP%2COU%3DAPORMMPD-DAPROPSM%2COU%3DCPD-DAEC%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU%3DESDSD-DSESSD%2COU%3DEMTSPD-DASEMST%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=OU=CAD-DAC,OU=AEPD-DPEA,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DDSD-DSD%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DHLESD-DSHVE%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DSCPD-SSGP%2Cou%3DITSPD-DASIT%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=DSPD-DPSD,ou=ITSPD-DASIT,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=HLESD-DSHVE,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou=ISEWD-DSIGE,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DFMSD-DSEI%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://www.ssc-spc.gc.ca/pages/proc-appr-eng.html"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/office-of-small-and-medium-enterprises-osme-regional-offices"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/pwgsc-regional-offices/ontario-region"]', '["https://buyandsell.gc.ca/for-businesses/contacts-for-businesses/supplier-registration-information-sri-contacts"]', '["https://buyandsell.gc.ca/for-businesses/contacts/pwgsc-regional-offices"]']</t>
         </is>
@@ -881,7 +901,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -944,12 +964,15 @@
         <v>686</v>
       </c>
       <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
         <v>676872</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>73</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS/?pgid=014&amp;dn=OU%3DTSD-DSV%2COU%3DTMD-DGT%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/en/GEDS?pgid=014&amp;dn=ou%3DMWSD-DMSA%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DIPSD-DSPI%2COU%3DITSPD-DASIT%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DPDSD-DSRP%2COU%3DSPID-DISA%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DPSD-DSA%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DSRD-DR%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DTSSD-DFSS%2COU%3DPSPD-DASP%2COU%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DACQ-ACQ%2COU%3DACQ-APP%2COU%3DAR-RA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DACQ123-APP123%2COU%3DACQ-APP%2COU%3DACQ-APP%2COU%3DWR-RO%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DCAD-DAC%2COU%3DAEPD-DPEA%2COU%3DLAEPSS-SASETA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU%3DFMSD-DSEI%2COU%3DRPCD-DAMI%2COU%3DCAAMS-SGACA%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3Dgc%2CC%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ACQ-APP,OU=ACQ-APP,OU=PR-RP,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ACQ123-APP123,OU=ACQ-APP,OU=ACQ-APP,OU=WR-RO,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=APS-SAP,OU=APORMMPD-DAPROPSM,OU=CPD-DAEC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ASDSP-AFPPS,OU=MPS-SGP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=BMCSD-DSGAC,OU=PSPD-DASP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CAD-DGM,OU=RPSMCD-DAGSMI,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CSD-DMC,OU=RPCD-DAMI,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CTD-DVT,OU=CCPD-DPCC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EAECPSP-AAEEIC,OU=CPD-DAEC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EEPD-DPEE,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ESDSD-DSESSD,OU=EMTSPD-DASEMST,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ITSDEEM-DLTIEEM,OU=SSSPD-DALSP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=SMPD-DESPMP,OU=CCPD-DPCC,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=SPIMD-DASGI,OU=PSPD-DASP,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=TEL-DIV,OU=ITSPD-DASIT,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://www.ssc-spc.gc.ca/pages/proc-appr-fra.html","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=TEL-DIV,OU=ITSPD-DASIT,OU=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DACQ-APP%2Cou%3DACQ-APP%2COU%3DPR-RP%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DDSPD-DPSD%2Cou%3DITSPD-DASIT%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DHLESD-DSHVE%2Cou%3DSSSPD-DALSP%2Cou%3DSTAMS-SGAST%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DISEWD-DSIGE%2Cou%3DEMTSPD-DASEMST%2Cou%3DLAEPSS-SASETA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2Co%3Dgc%2Cc%3Dca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DLSD-DSL%2Cou%3DPSPD-DASP%2Cou%3DSTAMS-SGAST%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou%3DPORMMPS-SAROPSM%2Cou%3DAPORMMPD-DAPROPSM%2Cou%3DCPD-DAEC%2Cou%3DCAAMS-SGACA%2Cou%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AEC-DIR,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AESD-DSAG,ou=RPCD-DAMI,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AOPS-NPEA,ou=MPDS-DGPM,ou=MS-SM,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=VIPD-DVPI,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=CRSDMTD-DSCDDTM,OU=TMD-DGT,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=EEPD-DPEE,OU=LEFTD-DTPLEP,OU=CAAMS-SGACA,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/GEDS/?pgid=014&amp;dn=OU%3DMLSD-DMSM%2COU%3DMSD-DSM%2COU%3DMS-SM%2COU%3DACQB-DGA%2COU%3DPSPC-SPAC%2CO%3DGC%2CC%3DCA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=AVSD-DSVB,ou=AVPD-DPVB,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=BTSIS-DSSTIS,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca","http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=OU=ESDSD-DSESSD,OU=EMTSPD-DASEMST,OU=LAEPSS-SASETA,OU=ACQB-DGA,OU=PSPC-SPAC,O=gc,C=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DCD-DCD,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DSD-DSD,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=DVBD-DPPBV,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=EAECPSP-AAEEIC,ou=CPD-DAEC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FCPD-DPPPC,ou=LEFTD-DTPLEP,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FOSD-DPAFB,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=FTD-DACE,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=HLESD-DSHVE,ou=SSSPD-DALSP,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=HSP-PSS,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=IMITPD-GITIPD,ou=SPID-DISA,ou=STAMS-SGAST,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=INF-DIV,ou=CCPD-DPCC,ou=CAAMS-SGACA,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MAD-DAM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MLAD-DALM,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=MWSD-DMSA,ou=EMTSPD-DASEMST,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=OTSP-FSEO,ou=MAJ-DIR,ou=DMPS-SPDGP,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=SCD-DCN,ou=MSD-DSM,ou=MS-SM,OU=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=SCPD-SSGP,ou=ITSPD-DASIT,ou=STAMS-SGAST,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=TAPV-VPBT,ou=MPDL-DGPT,ou=DMPS-SPDGP,ou=ACQB-DGA,OU=PSPC-SPAC,O=GC,C=CA"]', '["http://sage-geds.tpsgc-pwgsc.gc.ca/fr/SAGE?pgid=014&amp;dn=ou=THD-DTH,ou=AEPD-DPEA,ou=LAEPSS-SASETA,ou=ACQB-DGA,OU=PSPC-SPAC,o=gc,c=ca"]', '["http://www.ssc-spc.gc.ca/pages/proc-appr-fra.html"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureau-des-petites-et-moyennes-entreprises-bureaux-regionaux"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureaux-regionaux-de-tpsgc"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/bureaux-regionaux-de-tpsgc/region-de-l-ontario"]', '["https://achatsetventes.gc.ca/pour-les-entreprises/contacts-pour-les-entreprises/donnees-d-inscription-des-fournisseurs-dif-points-de-contact"]']</t>
         </is>
@@ -962,7 +985,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1025,12 +1048,15 @@
         <v>4956</v>
       </c>
       <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
         <v>29736</v>
       </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>['Active']</t>
         </is>
@@ -1043,7 +1069,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1106,12 +1132,15 @@
         <v>4956</v>
       </c>
       <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
         <v>24780</v>
       </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>['Actif']</t>
         </is>
